--- a/APF/RA006/RA006_APF0201_功能清單設定作業.xlsx
+++ b/APF/RA006/RA006_APF0201_功能清單設定作業.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="253">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -724,10 +724,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>下拉式選單，無</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>下拉式選單</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -790,11 +786,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>輸入型態:string
-最大長度限制:中文100(控制項控制)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>功能名稱</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -838,10 +829,6 @@
   </si>
   <si>
     <t>將點選的功能項目在同層往下移</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>開啟APF0201MM1</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1202,14 +1189,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>輸入之角色名稱必須存在於APF apf_menu_root 或 apf_menu_node 資料表中，若不存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 9</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入之角色名稱必須存在於APF apf_menu_node 資料表中，若不存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 9</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>欄位_APF0201MM1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1275,6 +1254,60 @@
 1.在APF0201MU1右下角提示儲存成功訊息，訊息內容請參考APF訊息表 APF_NO 12。
 2.左下方功能清單TreeView重新載入，並顯示新增的功能清單，右下方頁面則保持在原新增畫面
 儲存失敗:以MsgBox顯示錯誤訊息，訊息內容請參考APF訊息表 APF_NO 11或13。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下拉式選單，無</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+最大長度限制:中文100(控制項控制)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>顯示用。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開啟APF0201MM1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>功能名稱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能代號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入之功能代號必須存在於APF apf_menu_node 資料表中，若不存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>輸入之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>功能名稱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>必須存在於APF apf_menu_root 或 apf_menu_node 資料表中，若不存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 9</t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2125,6 +2158,51 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2137,24 +2215,6 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2164,12 +2224,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2180,35 +2234,179 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2217,171 +2415,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2404,29 +2437,29 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8492,7 +8525,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="107" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B1" s="107"/>
       <c r="C1" s="107"/>
@@ -8531,16 +8564,16 @@
         <v>108</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D4" s="106" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="108"/>
       <c r="B5" s="31" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="106" t="s">
@@ -8552,7 +8585,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D6" s="106" t="s">
         <v>105</v>
@@ -8561,7 +8594,7 @@
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="108"/>
       <c r="B7" s="31" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="106" t="s">
@@ -8570,10 +8603,10 @@
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="108" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D8" s="106" t="s">
         <v>104</v>
@@ -8582,7 +8615,7 @@
     <row r="9" spans="1:4" ht="21" customHeight="1">
       <c r="A9" s="108"/>
       <c r="B9" s="31" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="106" t="s">
@@ -8887,7 +8920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
@@ -8903,15 +8936,15 @@
       <c r="A1" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="109" t="s">
+      <c r="M1" s="124" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="110"/>
+      <c r="M2" s="125"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="110"/>
+      <c r="M3" s="125"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -8928,224 +8961,224 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="132"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="113"/>
     </row>
     <row r="6" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="121" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="135"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="123"/>
     </row>
     <row r="7" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="113" t="s">
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="115"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="120"/>
     </row>
     <row r="8" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="117" t="s">
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="118"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="110"/>
     </row>
     <row r="9" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113" t="s">
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="115"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="120"/>
     </row>
     <row r="10" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="117" t="s">
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="118"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="110"/>
     </row>
     <row r="11" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="129" t="s">
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="115"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="120"/>
     </row>
     <row r="12" spans="1:13" s="55" customFormat="1" ht="16.5">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="116" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="118"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="110"/>
     </row>
     <row r="13" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="129" t="s">
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="115"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="120"/>
     </row>
     <row r="14" spans="1:13" s="55" customFormat="1" ht="16.5">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="116" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="118"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="110"/>
     </row>
     <row r="15" spans="1:13" s="80" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="125"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="132"/>
     </row>
     <row r="16" spans="1:13" s="80" customFormat="1" ht="130.5" customHeight="1">
-      <c r="A16" s="126" t="s">
+      <c r="A16" s="133" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="128"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="134"/>
     </row>
     <row r="17" spans="1:12" s="82" customFormat="1" ht="16.5">
-      <c r="A17" s="116" t="s">
+      <c r="A17" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="118"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="110"/>
     </row>
     <row r="18" spans="1:12" s="82" customFormat="1" ht="14.25"/>
     <row r="19" spans="1:12" s="82" customFormat="1" ht="14.25"/>
@@ -9192,30 +9225,23 @@
     <row r="60" s="82" customFormat="1" ht="14.25"/>
     <row r="61" s="82" customFormat="1" ht="14.25"/>
     <row r="68" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A68" s="119" t="s">
+      <c r="A68" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="B68" s="120"/>
-      <c r="C68" s="120"/>
-      <c r="D68" s="120"/>
-      <c r="E68" s="120"/>
-      <c r="F68" s="120"/>
-      <c r="G68" s="120"/>
-      <c r="H68" s="120"/>
-      <c r="I68" s="120"/>
-      <c r="J68" s="120"/>
-      <c r="K68" s="120"/>
-      <c r="L68" s="121"/>
+      <c r="B68" s="129"/>
+      <c r="C68" s="129"/>
+      <c r="D68" s="129"/>
+      <c r="E68" s="129"/>
+      <c r="F68" s="129"/>
+      <c r="G68" s="129"/>
+      <c r="H68" s="129"/>
+      <c r="I68" s="129"/>
+      <c r="J68" s="129"/>
+      <c r="K68" s="129"/>
+      <c r="L68" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -9232,6 +9258,13 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -9303,8 +9336,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9383,152 +9416,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="52" customFormat="1">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="115"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="120"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="133"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="170"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="173"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="170"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="173"/>
+      <c r="A8" s="167"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="170"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="174"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="176"/>
+      <c r="A9" s="171"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="173"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="115"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="177" t="s">
+      <c r="A11" s="174" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="118"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="110"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="115"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="120"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="177" t="s">
+      <c r="A13" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="118"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="110"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="115"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="120"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="178" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="152"/>
+      <c r="B15" s="179"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="180"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
@@ -9537,16 +9570,16 @@
       <c r="B16" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="142" t="s">
+      <c r="C16" s="181" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="148"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="183"/>
     </row>
     <row r="17" spans="1:12" s="53" customFormat="1">
       <c r="A17" s="56">
@@ -9555,34 +9588,34 @@
       <c r="B17" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="153" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="155"/>
+      <c r="C17" s="184" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" s="185"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="185"/>
+      <c r="J17" s="186"/>
     </row>
     <row r="18" spans="1:12" s="53" customFormat="1" ht="30.75" customHeight="1">
       <c r="A18" s="56">
         <v>2</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="150" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="149"/>
+        <v>154</v>
+      </c>
+      <c r="C18" s="187" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="188"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="189"/>
     </row>
     <row r="19" spans="1:12" s="53" customFormat="1" ht="33.75" customHeight="1">
       <c r="A19" s="56">
@@ -9591,42 +9624,42 @@
       <c r="B19" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="150" t="s">
+      <c r="C19" s="187" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="149"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="188"/>
+      <c r="J19" s="189"/>
     </row>
     <row r="20" spans="1:12" s="53" customFormat="1">
-      <c r="A20" s="140"/>
-      <c r="B20" s="141"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="156"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="140"/>
     </row>
     <row r="21" spans="1:12" s="53" customFormat="1">
-      <c r="A21" s="146" t="s">
+      <c r="A21" s="178" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="B21" s="179"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="180"/>
     </row>
     <row r="22" spans="1:12" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="56" t="s">
@@ -9635,34 +9668,34 @@
       <c r="B22" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="142" t="s">
+      <c r="C22" s="181" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="148"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="182"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="182"/>
+      <c r="H22" s="182"/>
+      <c r="I22" s="182"/>
+      <c r="J22" s="183"/>
     </row>
     <row r="23" spans="1:12" s="53" customFormat="1">
       <c r="A23" s="56">
         <v>1</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="144" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="149"/>
+        <v>155</v>
+      </c>
+      <c r="C23" s="191" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="189"/>
     </row>
     <row r="24" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A24" s="56">
@@ -9671,16 +9704,16 @@
       <c r="B24" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="144" t="s">
+      <c r="C24" s="191" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="149"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="188"/>
+      <c r="J24" s="189"/>
     </row>
     <row r="25" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A25" s="56">
@@ -9689,16 +9722,16 @@
       <c r="B25" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="144" t="s">
+      <c r="C25" s="191" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="149"/>
+      <c r="D25" s="188"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="188"/>
+      <c r="G25" s="188"/>
+      <c r="H25" s="188"/>
+      <c r="I25" s="188"/>
+      <c r="J25" s="189"/>
     </row>
     <row r="26" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A26" s="56">
@@ -9707,56 +9740,56 @@
       <c r="B26" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="144" t="s">
+      <c r="C26" s="191" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="145"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="149"/>
+      <c r="D26" s="188"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="188"/>
+      <c r="I26" s="188"/>
+      <c r="J26" s="189"/>
     </row>
     <row r="27" spans="1:12" s="53" customFormat="1">
-      <c r="A27" s="166"/>
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="168"/>
+      <c r="A27" s="163"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="164"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="165"/>
     </row>
     <row r="28" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="136" t="s">
+      <c r="A28" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="178"/>
-      <c r="C28" s="178"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="179"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="176"/>
+      <c r="D28" s="176"/>
+      <c r="E28" s="176"/>
+      <c r="F28" s="176"/>
+      <c r="G28" s="176"/>
+      <c r="H28" s="176"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="177"/>
     </row>
     <row r="29" spans="1:12" s="53" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="146" t="s">
+      <c r="A29" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="151"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="152"/>
+      <c r="B29" s="179"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="179"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="179"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="179"/>
+      <c r="J29" s="180"/>
     </row>
     <row r="30" spans="1:12" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="56" t="s">
@@ -9765,16 +9798,16 @@
       <c r="B30" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="142" t="s">
+      <c r="C30" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="148"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="182"/>
+      <c r="G30" s="182"/>
+      <c r="H30" s="182"/>
+      <c r="I30" s="182"/>
+      <c r="J30" s="183"/>
     </row>
     <row r="31" spans="1:12" s="53" customFormat="1">
       <c r="A31" s="56">
@@ -9783,16 +9816,16 @@
       <c r="B31" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="144" t="s">
+      <c r="C31" s="191" t="s">
         <v>133</v>
       </c>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="145"/>
+      <c r="D31" s="188"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="188"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="188"/>
       <c r="K31" s="95"/>
       <c r="L31" s="93"/>
     </row>
@@ -9801,18 +9834,18 @@
         <v>2</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="150" t="s">
-        <v>235</v>
-      </c>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="145"/>
+        <v>249</v>
+      </c>
+      <c r="C32" s="187" t="s">
+        <v>252</v>
+      </c>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="188"/>
+      <c r="J32" s="188"/>
       <c r="K32" s="95"/>
       <c r="L32" s="92"/>
     </row>
@@ -9821,48 +9854,48 @@
         <v>3</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="150" t="s">
-        <v>236</v>
-      </c>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="145"/>
+        <v>250</v>
+      </c>
+      <c r="C33" s="187" t="s">
+        <v>251</v>
+      </c>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="188"/>
       <c r="K33" s="95"/>
       <c r="L33" s="94"/>
     </row>
     <row r="34" spans="1:12" s="53" customFormat="1">
-      <c r="A34" s="140"/>
-      <c r="B34" s="141"/>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="141"/>
+      <c r="A34" s="139"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="156"/>
+      <c r="J34" s="156"/>
       <c r="K34" s="95"/>
       <c r="L34" s="94"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1">
-      <c r="A35" s="146" t="s">
+      <c r="A35" s="178" t="s">
         <v>139</v>
       </c>
-      <c r="B35" s="147"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
+      <c r="B35" s="190"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="190"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="190"/>
+      <c r="J35" s="190"/>
       <c r="K35" s="95"/>
       <c r="L35" s="92"/>
     </row>
@@ -9873,16 +9906,16 @@
       <c r="B36" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="142" t="s">
+      <c r="C36" s="181" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="143"/>
-      <c r="E36" s="143"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="143"/>
+      <c r="D36" s="182"/>
+      <c r="E36" s="182"/>
+      <c r="F36" s="182"/>
+      <c r="G36" s="182"/>
+      <c r="H36" s="182"/>
+      <c r="I36" s="182"/>
+      <c r="J36" s="182"/>
       <c r="K36" s="95"/>
       <c r="L36" s="94"/>
     </row>
@@ -9893,16 +9926,16 @@
       <c r="B37" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="144" t="s">
+      <c r="C37" s="191" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="145"/>
-      <c r="E37" s="145"/>
-      <c r="F37" s="145"/>
-      <c r="G37" s="145"/>
-      <c r="H37" s="145"/>
-      <c r="I37" s="145"/>
-      <c r="J37" s="145"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="188"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="188"/>
+      <c r="J37" s="188"/>
       <c r="K37" s="95"/>
       <c r="L37" s="94"/>
     </row>
@@ -9913,16 +9946,16 @@
       <c r="B38" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="144" t="s">
+      <c r="C38" s="191" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="145"/>
-      <c r="E38" s="145"/>
-      <c r="F38" s="145"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="145"/>
-      <c r="I38" s="145"/>
-      <c r="J38" s="145"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="188"/>
+      <c r="F38" s="188"/>
+      <c r="G38" s="188"/>
+      <c r="H38" s="188"/>
+      <c r="I38" s="188"/>
+      <c r="J38" s="188"/>
       <c r="K38" s="95"/>
       <c r="L38" s="94"/>
     </row>
@@ -9933,16 +9966,16 @@
       <c r="B39" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="144" t="s">
+      <c r="C39" s="191" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="145"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="145"/>
-      <c r="G39" s="145"/>
-      <c r="H39" s="145"/>
-      <c r="I39" s="145"/>
-      <c r="J39" s="145"/>
+      <c r="D39" s="188"/>
+      <c r="E39" s="188"/>
+      <c r="F39" s="188"/>
+      <c r="G39" s="188"/>
+      <c r="H39" s="188"/>
+      <c r="I39" s="188"/>
+      <c r="J39" s="188"/>
       <c r="K39" s="95"/>
       <c r="L39" s="94"/>
     </row>
@@ -9953,46 +9986,46 @@
       <c r="B40" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="144" t="s">
+      <c r="C40" s="191" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="145"/>
-      <c r="E40" s="145"/>
-      <c r="F40" s="145"/>
-      <c r="G40" s="145"/>
-      <c r="H40" s="145"/>
-      <c r="I40" s="145"/>
-      <c r="J40" s="145"/>
+      <c r="D40" s="188"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="188"/>
+      <c r="G40" s="188"/>
+      <c r="H40" s="188"/>
+      <c r="I40" s="188"/>
+      <c r="J40" s="188"/>
       <c r="K40" s="95"/>
       <c r="L40" s="92"/>
     </row>
     <row r="41" spans="1:12" s="53" customFormat="1">
-      <c r="A41" s="140"/>
-      <c r="B41" s="141"/>
-      <c r="C41" s="141"/>
-      <c r="D41" s="141"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="141"/>
-      <c r="H41" s="141"/>
-      <c r="I41" s="141"/>
-      <c r="J41" s="141"/>
+      <c r="A41" s="139"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="156"/>
+      <c r="E41" s="156"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="156"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="156"/>
+      <c r="J41" s="156"/>
       <c r="K41" s="95"/>
       <c r="L41" s="92"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="136" t="s">
+      <c r="A42" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="137"/>
-      <c r="C42" s="137"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="137"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="137"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="137"/>
-      <c r="J42" s="137"/>
+      <c r="B42" s="192"/>
+      <c r="C42" s="192"/>
+      <c r="D42" s="192"/>
+      <c r="E42" s="192"/>
+      <c r="F42" s="192"/>
+      <c r="G42" s="192"/>
+      <c r="H42" s="192"/>
+      <c r="I42" s="192"/>
+      <c r="J42" s="192"/>
       <c r="K42" s="95"/>
       <c r="L42" s="92"/>
     </row>
@@ -10009,14 +10042,14 @@
       <c r="D43" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="138" t="s">
+      <c r="E43" s="193" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="139"/>
-      <c r="G43" s="139"/>
-      <c r="H43" s="139"/>
-      <c r="I43" s="139"/>
-      <c r="J43" s="139"/>
+      <c r="F43" s="194"/>
+      <c r="G43" s="194"/>
+      <c r="H43" s="194"/>
+      <c r="I43" s="194"/>
+      <c r="J43" s="194"/>
       <c r="K43" s="53"/>
       <c r="L43" s="53"/>
     </row>
@@ -10029,40 +10062,40 @@
       </c>
       <c r="C44" s="61"/>
       <c r="D44" s="62"/>
-      <c r="E44" s="191" t="s">
-        <v>165</v>
-      </c>
-      <c r="F44" s="127"/>
-      <c r="G44" s="127"/>
-      <c r="H44" s="127"/>
-      <c r="I44" s="127"/>
-      <c r="J44" s="127"/>
+      <c r="E44" s="149" t="s">
+        <v>248</v>
+      </c>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="117"/>
     </row>
     <row r="45" spans="1:12" s="53" customFormat="1">
       <c r="A45" s="63"/>
-      <c r="B45" s="141"/>
-      <c r="C45" s="141"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="156"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="156"/>
+      <c r="D45" s="156"/>
+      <c r="E45" s="156"/>
+      <c r="F45" s="156"/>
+      <c r="G45" s="156"/>
+      <c r="H45" s="156"/>
+      <c r="I45" s="156"/>
+      <c r="J45" s="140"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1">
-      <c r="A46" s="163" t="s">
+      <c r="A46" s="160" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="164"/>
-      <c r="C46" s="164"/>
-      <c r="D46" s="164"/>
-      <c r="E46" s="164"/>
-      <c r="F46" s="164"/>
-      <c r="G46" s="164"/>
-      <c r="H46" s="164"/>
-      <c r="I46" s="164"/>
-      <c r="J46" s="165"/>
+      <c r="B46" s="161"/>
+      <c r="C46" s="161"/>
+      <c r="D46" s="161"/>
+      <c r="E46" s="161"/>
+      <c r="F46" s="161"/>
+      <c r="G46" s="161"/>
+      <c r="H46" s="161"/>
+      <c r="I46" s="161"/>
+      <c r="J46" s="162"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="56">
@@ -10075,14 +10108,14 @@
         <v>19</v>
       </c>
       <c r="D47" s="66"/>
-      <c r="E47" s="191" t="s">
+      <c r="E47" s="149" t="s">
         <v>70</v>
       </c>
-      <c r="F47" s="127"/>
-      <c r="G47" s="127"/>
-      <c r="H47" s="127"/>
-      <c r="I47" s="127"/>
-      <c r="J47" s="127"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="117"/>
+      <c r="J47" s="117"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1">
       <c r="A48" s="67">
@@ -10095,14 +10128,14 @@
         <v>19</v>
       </c>
       <c r="D48" s="69"/>
-      <c r="E48" s="160" t="s">
+      <c r="E48" s="153" t="s">
         <v>136</v>
       </c>
-      <c r="F48" s="161"/>
-      <c r="G48" s="161"/>
-      <c r="H48" s="161"/>
-      <c r="I48" s="161"/>
-      <c r="J48" s="162"/>
+      <c r="F48" s="154"/>
+      <c r="G48" s="154"/>
+      <c r="H48" s="154"/>
+      <c r="I48" s="154"/>
+      <c r="J48" s="155"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1">
       <c r="A49" s="70">
@@ -10115,244 +10148,244 @@
         <v>19</v>
       </c>
       <c r="D49" s="71"/>
-      <c r="E49" s="180" t="s">
+      <c r="E49" s="136" t="s">
         <v>137</v>
       </c>
-      <c r="F49" s="117"/>
-      <c r="G49" s="117"/>
-      <c r="H49" s="117"/>
-      <c r="I49" s="117"/>
-      <c r="J49" s="118"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="110"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1">
       <c r="A50" s="72"/>
-      <c r="B50" s="141"/>
-      <c r="C50" s="141"/>
-      <c r="D50" s="141"/>
-      <c r="E50" s="141"/>
-      <c r="F50" s="141"/>
-      <c r="G50" s="141"/>
-      <c r="H50" s="141"/>
-      <c r="I50" s="141"/>
-      <c r="J50" s="156"/>
+      <c r="B50" s="156"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="156"/>
+      <c r="E50" s="156"/>
+      <c r="F50" s="156"/>
+      <c r="G50" s="156"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="140"/>
     </row>
     <row r="51" spans="1:10" s="53" customFormat="1">
-      <c r="A51" s="192" t="s">
+      <c r="A51" s="150" t="s">
         <v>138</v>
       </c>
-      <c r="B51" s="193"/>
-      <c r="C51" s="193"/>
-      <c r="D51" s="193"/>
-      <c r="E51" s="193"/>
-      <c r="F51" s="193"/>
-      <c r="G51" s="193"/>
-      <c r="H51" s="193"/>
-      <c r="I51" s="193"/>
-      <c r="J51" s="194"/>
+      <c r="B51" s="151"/>
+      <c r="C51" s="151"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="151"/>
+      <c r="F51" s="151"/>
+      <c r="G51" s="151"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="151"/>
+      <c r="J51" s="152"/>
     </row>
     <row r="52" spans="1:10" s="53" customFormat="1">
       <c r="A52" s="56">
         <v>1</v>
       </c>
       <c r="B52" s="83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C52" s="65" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="66"/>
-      <c r="E52" s="191" t="s">
-        <v>166</v>
-      </c>
-      <c r="F52" s="127"/>
-      <c r="G52" s="127"/>
-      <c r="H52" s="127"/>
-      <c r="I52" s="127"/>
-      <c r="J52" s="127"/>
+      <c r="E52" s="149" t="s">
+        <v>163</v>
+      </c>
+      <c r="F52" s="117"/>
+      <c r="G52" s="117"/>
+      <c r="H52" s="117"/>
+      <c r="I52" s="117"/>
+      <c r="J52" s="117"/>
     </row>
     <row r="53" spans="1:10" s="53" customFormat="1" ht="66" customHeight="1">
       <c r="A53" s="56">
         <v>2</v>
       </c>
       <c r="B53" s="83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C53" s="65" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="69"/>
-      <c r="E53" s="191" t="s">
-        <v>248</v>
-      </c>
-      <c r="F53" s="127"/>
-      <c r="G53" s="127"/>
-      <c r="H53" s="127"/>
-      <c r="I53" s="127"/>
-      <c r="J53" s="127"/>
+      <c r="E53" s="149" t="s">
+        <v>243</v>
+      </c>
+      <c r="F53" s="117"/>
+      <c r="G53" s="117"/>
+      <c r="H53" s="117"/>
+      <c r="I53" s="117"/>
+      <c r="J53" s="117"/>
     </row>
     <row r="54" spans="1:10" s="53" customFormat="1">
       <c r="A54" s="56">
         <v>3</v>
       </c>
       <c r="B54" s="83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C54" s="65" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="69"/>
-      <c r="E54" s="160" t="s">
-        <v>163</v>
-      </c>
-      <c r="F54" s="161"/>
-      <c r="G54" s="161"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="161"/>
-      <c r="J54" s="162"/>
+      <c r="E54" s="153" t="s">
+        <v>161</v>
+      </c>
+      <c r="F54" s="154"/>
+      <c r="G54" s="154"/>
+      <c r="H54" s="154"/>
+      <c r="I54" s="154"/>
+      <c r="J54" s="155"/>
     </row>
     <row r="55" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
       <c r="A55" s="56">
         <v>4</v>
       </c>
       <c r="B55" s="83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C55" s="65" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="69"/>
-      <c r="E55" s="160" t="s">
-        <v>164</v>
-      </c>
-      <c r="F55" s="161"/>
-      <c r="G55" s="161"/>
-      <c r="H55" s="161"/>
-      <c r="I55" s="161"/>
-      <c r="J55" s="162"/>
+      <c r="E55" s="153" t="s">
+        <v>162</v>
+      </c>
+      <c r="F55" s="154"/>
+      <c r="G55" s="154"/>
+      <c r="H55" s="154"/>
+      <c r="I55" s="154"/>
+      <c r="J55" s="155"/>
     </row>
     <row r="56" spans="1:10" s="53" customFormat="1" hidden="1">
       <c r="A56" s="56">
         <v>5</v>
       </c>
       <c r="B56" s="97" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C56" s="65" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="69"/>
-      <c r="E56" s="160" t="s">
+      <c r="E56" s="153" t="s">
         <v>103</v>
       </c>
-      <c r="F56" s="161"/>
-      <c r="G56" s="161"/>
-      <c r="H56" s="161"/>
-      <c r="I56" s="161"/>
-      <c r="J56" s="162"/>
+      <c r="F56" s="154"/>
+      <c r="G56" s="154"/>
+      <c r="H56" s="154"/>
+      <c r="I56" s="154"/>
+      <c r="J56" s="155"/>
     </row>
     <row r="57" spans="1:10" s="53" customFormat="1">
       <c r="A57" s="73"/>
-      <c r="B57" s="141"/>
-      <c r="C57" s="141"/>
-      <c r="D57" s="141"/>
-      <c r="E57" s="141"/>
-      <c r="F57" s="141"/>
-      <c r="G57" s="141"/>
-      <c r="H57" s="141"/>
-      <c r="I57" s="141"/>
-      <c r="J57" s="156"/>
+      <c r="B57" s="156"/>
+      <c r="C57" s="156"/>
+      <c r="D57" s="156"/>
+      <c r="E57" s="156"/>
+      <c r="F57" s="156"/>
+      <c r="G57" s="156"/>
+      <c r="H57" s="156"/>
+      <c r="I57" s="156"/>
+      <c r="J57" s="140"/>
     </row>
     <row r="58" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="188" t="s">
+      <c r="A58" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="189"/>
-      <c r="C58" s="189"/>
-      <c r="D58" s="189"/>
-      <c r="E58" s="189"/>
-      <c r="F58" s="189"/>
-      <c r="G58" s="189"/>
-      <c r="H58" s="189"/>
-      <c r="I58" s="189"/>
-      <c r="J58" s="190"/>
+      <c r="B58" s="147"/>
+      <c r="C58" s="147"/>
+      <c r="D58" s="147"/>
+      <c r="E58" s="147"/>
+      <c r="F58" s="147"/>
+      <c r="G58" s="147"/>
+      <c r="H58" s="147"/>
+      <c r="I58" s="147"/>
+      <c r="J58" s="148"/>
     </row>
     <row r="59" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="186" t="s">
+      <c r="B59" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="187"/>
-      <c r="D59" s="180" t="s">
+      <c r="C59" s="145"/>
+      <c r="D59" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="117"/>
-      <c r="F59" s="117"/>
-      <c r="G59" s="117"/>
-      <c r="H59" s="117"/>
-      <c r="I59" s="117"/>
-      <c r="J59" s="118"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="109"/>
+      <c r="H59" s="109"/>
+      <c r="I59" s="109"/>
+      <c r="J59" s="110"/>
     </row>
     <row r="60" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="183"/>
-      <c r="B60" s="184"/>
-      <c r="C60" s="184"/>
-      <c r="D60" s="184"/>
-      <c r="E60" s="184"/>
-      <c r="F60" s="184"/>
-      <c r="G60" s="184"/>
-      <c r="H60" s="184"/>
-      <c r="I60" s="184"/>
-      <c r="J60" s="185"/>
+      <c r="A60" s="141"/>
+      <c r="B60" s="142"/>
+      <c r="C60" s="142"/>
+      <c r="D60" s="142"/>
+      <c r="E60" s="142"/>
+      <c r="F60" s="142"/>
+      <c r="G60" s="142"/>
+      <c r="H60" s="142"/>
+      <c r="I60" s="142"/>
+      <c r="J60" s="143"/>
     </row>
     <row r="61" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="70"/>
-      <c r="B61" s="140"/>
-      <c r="C61" s="156"/>
-      <c r="D61" s="180"/>
-      <c r="E61" s="181"/>
-      <c r="F61" s="181"/>
-      <c r="G61" s="181"/>
-      <c r="H61" s="181"/>
-      <c r="I61" s="181"/>
-      <c r="J61" s="182"/>
+      <c r="B61" s="139"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="136"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="G61" s="137"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="137"/>
+      <c r="J61" s="138"/>
     </row>
     <row r="62" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="70"/>
-      <c r="B62" s="140"/>
-      <c r="C62" s="156"/>
-      <c r="D62" s="180"/>
-      <c r="E62" s="181"/>
-      <c r="F62" s="181"/>
-      <c r="G62" s="181"/>
-      <c r="H62" s="181"/>
-      <c r="I62" s="181"/>
-      <c r="J62" s="182"/>
+      <c r="B62" s="139"/>
+      <c r="C62" s="140"/>
+      <c r="D62" s="136"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="137"/>
+      <c r="G62" s="137"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="137"/>
+      <c r="J62" s="138"/>
     </row>
     <row r="63" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="183"/>
-      <c r="B63" s="184"/>
-      <c r="C63" s="184"/>
-      <c r="D63" s="184"/>
-      <c r="E63" s="184"/>
-      <c r="F63" s="184"/>
-      <c r="G63" s="184"/>
-      <c r="H63" s="184"/>
-      <c r="I63" s="184"/>
-      <c r="J63" s="185"/>
+      <c r="A63" s="141"/>
+      <c r="B63" s="142"/>
+      <c r="C63" s="142"/>
+      <c r="D63" s="142"/>
+      <c r="E63" s="142"/>
+      <c r="F63" s="142"/>
+      <c r="G63" s="142"/>
+      <c r="H63" s="142"/>
+      <c r="I63" s="142"/>
+      <c r="J63" s="143"/>
     </row>
     <row r="64" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="70"/>
-      <c r="B64" s="140"/>
-      <c r="C64" s="156"/>
-      <c r="D64" s="180"/>
-      <c r="E64" s="181"/>
-      <c r="F64" s="181"/>
-      <c r="G64" s="181"/>
-      <c r="H64" s="181"/>
-      <c r="I64" s="181"/>
-      <c r="J64" s="182"/>
+      <c r="B64" s="139"/>
+      <c r="C64" s="140"/>
+      <c r="D64" s="136"/>
+      <c r="E64" s="137"/>
+      <c r="F64" s="137"/>
+      <c r="G64" s="137"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="137"/>
+      <c r="J64" s="138"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="74" t="s">
@@ -10375,14 +10408,14 @@
       <c r="B66" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="140"/>
-      <c r="D66" s="117"/>
-      <c r="E66" s="117"/>
-      <c r="F66" s="117"/>
-      <c r="G66" s="117"/>
-      <c r="H66" s="117"/>
-      <c r="I66" s="117"/>
-      <c r="J66" s="118"/>
+      <c r="C66" s="139"/>
+      <c r="D66" s="109"/>
+      <c r="E66" s="109"/>
+      <c r="F66" s="109"/>
+      <c r="G66" s="109"/>
+      <c r="H66" s="109"/>
+      <c r="I66" s="109"/>
+      <c r="J66" s="110"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="70">
@@ -10402,11 +10435,49 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="D64:J64"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="D61:J61"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="A60:J60"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="A58:J58"/>
@@ -10423,49 +10494,11 @@
     <mergeCell ref="B45:J45"/>
     <mergeCell ref="B50:J50"/>
     <mergeCell ref="B57:J57"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="D61:J61"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="B62:C62"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -10738,16 +10771,16 @@
         <v>118</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>130</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F12" s="200" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G12" s="201"/>
       <c r="H12" s="42"/>
@@ -10755,7 +10788,7 @@
         <v>71</v>
       </c>
       <c r="J12" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="25.5" customHeight="1">
@@ -10769,23 +10802,23 @@
         <v>121</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E13" s="99" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F13" s="91" t="s">
         <v>123</v>
       </c>
       <c r="G13" s="91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
         <v>71</v>
       </c>
       <c r="J13" s="198" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="22.5" customHeight="1">
@@ -10794,13 +10827,13 @@
       <c r="C14" s="46"/>
       <c r="D14" s="42"/>
       <c r="E14" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="91" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="91" t="s">
-        <v>145</v>
-      </c>
       <c r="G14" s="91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="40" t="s">
@@ -10816,7 +10849,7 @@
         <v>120</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D15" s="42" t="s">
         <v>126</v>
@@ -10890,23 +10923,23 @@
         <v>119</v>
       </c>
       <c r="C19" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="42" t="s">
-        <v>151</v>
-      </c>
       <c r="E19" s="96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19" s="91" t="s">
         <v>123</v>
       </c>
       <c r="G19" s="91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -10916,17 +10949,17 @@
       <c r="C20" s="41"/>
       <c r="D20" s="42"/>
       <c r="E20" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="91" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="91" t="s">
-        <v>145</v>
-      </c>
       <c r="G20" s="91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J20" s="45"/>
     </row>
@@ -11027,7 +11060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
@@ -11105,152 +11138,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="52" customFormat="1">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="115"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="120"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="133"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="170"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="173"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="170"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="173"/>
+      <c r="A8" s="167"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="170"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="174"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="176"/>
+      <c r="A9" s="171"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="173"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="115"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="177" t="s">
+      <c r="A11" s="174" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="118"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="110"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="115"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="120"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="177" t="s">
+      <c r="A13" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="118"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="110"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="115"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="120"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="146" t="s">
-        <v>208</v>
-      </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="152"/>
+      <c r="A15" s="178" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="179"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="180"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
@@ -11259,26 +11292,26 @@
       <c r="B16" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="142" t="s">
+      <c r="C16" s="181" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="148"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="183"/>
     </row>
     <row r="17" spans="1:10" s="53" customFormat="1" ht="64.5" customHeight="1">
       <c r="A17" s="56">
         <v>1</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="150" t="s">
-        <v>205</v>
+        <v>155</v>
+      </c>
+      <c r="C17" s="187" t="s">
+        <v>202</v>
       </c>
       <c r="D17" s="202"/>
       <c r="E17" s="202"/>
@@ -11293,10 +11326,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="C18" s="150" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="C18" s="187" t="s">
+        <v>206</v>
       </c>
       <c r="D18" s="202"/>
       <c r="E18" s="202"/>
@@ -11311,10 +11344,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" s="150" t="s">
-        <v>210</v>
+        <v>209</v>
+      </c>
+      <c r="C19" s="187" t="s">
+        <v>207</v>
       </c>
       <c r="D19" s="202"/>
       <c r="E19" s="202"/>
@@ -11329,112 +11362,112 @@
         <v>3</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="C20" s="144" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="191" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="149"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="188"/>
+      <c r="J20" s="189"/>
     </row>
     <row r="21" spans="1:10" s="53" customFormat="1">
       <c r="A21" s="56">
         <v>4</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="C21" s="144" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="191" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="149"/>
+      <c r="D21" s="188"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="188"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="188"/>
+      <c r="J21" s="189"/>
     </row>
     <row r="22" spans="1:10" s="53" customFormat="1" ht="33.75" customHeight="1">
       <c r="A22" s="56">
         <v>5</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="C22" s="150" t="s">
-        <v>218</v>
-      </c>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="149"/>
+        <v>199</v>
+      </c>
+      <c r="C22" s="187" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" s="188"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="188"/>
+      <c r="J22" s="189"/>
     </row>
     <row r="23" spans="1:10" s="53" customFormat="1" ht="34.5" customHeight="1">
       <c r="A23" s="63">
         <v>6</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="C23" s="150" t="s">
-        <v>219</v>
-      </c>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="149"/>
+        <v>201</v>
+      </c>
+      <c r="C23" s="187" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="189"/>
     </row>
     <row r="24" spans="1:10" s="53" customFormat="1">
-      <c r="A24" s="206"/>
-      <c r="B24" s="207"/>
-      <c r="C24" s="207"/>
-      <c r="D24" s="207"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="207"/>
-      <c r="H24" s="207"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="208"/>
+      <c r="A24" s="204"/>
+      <c r="B24" s="205"/>
+      <c r="C24" s="205"/>
+      <c r="D24" s="205"/>
+      <c r="E24" s="205"/>
+      <c r="F24" s="205"/>
+      <c r="G24" s="205"/>
+      <c r="H24" s="205"/>
+      <c r="I24" s="205"/>
+      <c r="J24" s="206"/>
     </row>
     <row r="25" spans="1:10" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="136" t="s">
+      <c r="A25" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="209"/>
+      <c r="B25" s="192"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="192"/>
+      <c r="H25" s="192"/>
+      <c r="I25" s="192"/>
+      <c r="J25" s="207"/>
     </row>
     <row r="26" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1">
-      <c r="A26" s="146" t="s">
-        <v>221</v>
-      </c>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="152"/>
+      <c r="A26" s="178" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26" s="179"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="179"/>
+      <c r="H26" s="179"/>
+      <c r="I26" s="179"/>
+      <c r="J26" s="180"/>
     </row>
     <row r="27" spans="1:10" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="56" t="s">
@@ -11443,26 +11476,26 @@
       <c r="B27" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="142" t="s">
+      <c r="C27" s="181" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="148"/>
+      <c r="D27" s="182"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="182"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="182"/>
+      <c r="I27" s="182"/>
+      <c r="J27" s="183"/>
     </row>
     <row r="28" spans="1:10" s="53" customFormat="1" ht="40.5" customHeight="1">
       <c r="A28" s="56">
         <v>1</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="C28" s="150" t="s">
-        <v>224</v>
+        <v>208</v>
+      </c>
+      <c r="C28" s="187" t="s">
+        <v>221</v>
       </c>
       <c r="D28" s="202"/>
       <c r="E28" s="202"/>
@@ -11477,10 +11510,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="187" t="s">
         <v>213</v>
-      </c>
-      <c r="C29" s="150" t="s">
-        <v>216</v>
       </c>
       <c r="D29" s="202"/>
       <c r="E29" s="202"/>
@@ -11495,10 +11528,10 @@
         <v>2</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="C30" s="150" t="s">
-        <v>217</v>
+        <v>209</v>
+      </c>
+      <c r="C30" s="187" t="s">
+        <v>214</v>
       </c>
       <c r="D30" s="202"/>
       <c r="E30" s="202"/>
@@ -11513,98 +11546,98 @@
         <v>3</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="C31" s="144" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="149"/>
+      <c r="D31" s="188"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="188"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="189"/>
     </row>
     <row r="32" spans="1:10" s="53" customFormat="1">
       <c r="A32" s="56">
         <v>4</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="C32" s="144" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="191" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="149"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="188"/>
+      <c r="J32" s="189"/>
     </row>
     <row r="33" spans="1:12" s="53" customFormat="1">
       <c r="A33" s="56">
         <v>5</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" s="144" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="149"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="189"/>
     </row>
     <row r="34" spans="1:12" s="53" customFormat="1" ht="34.5" customHeight="1">
       <c r="A34" s="63">
         <v>6</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>220</v>
-      </c>
-      <c r="C34" s="150" t="s">
-        <v>225</v>
-      </c>
-      <c r="D34" s="145"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="149"/>
+        <v>217</v>
+      </c>
+      <c r="C34" s="187" t="s">
+        <v>222</v>
+      </c>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="189"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1">
-      <c r="A35" s="166"/>
-      <c r="B35" s="210"/>
-      <c r="C35" s="210"/>
-      <c r="D35" s="210"/>
-      <c r="E35" s="210"/>
-      <c r="F35" s="210"/>
-      <c r="G35" s="210"/>
-      <c r="H35" s="210"/>
-      <c r="I35" s="210"/>
-      <c r="J35" s="211"/>
+      <c r="A35" s="163"/>
+      <c r="B35" s="208"/>
+      <c r="C35" s="208"/>
+      <c r="D35" s="208"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="208"/>
+      <c r="G35" s="208"/>
+      <c r="H35" s="208"/>
+      <c r="I35" s="208"/>
+      <c r="J35" s="209"/>
     </row>
     <row r="36" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A36" s="136" t="s">
+      <c r="A36" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="178"/>
-      <c r="C36" s="178"/>
-      <c r="D36" s="178"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="178"/>
-      <c r="G36" s="178"/>
-      <c r="H36" s="178"/>
-      <c r="I36" s="178"/>
-      <c r="J36" s="179"/>
+      <c r="B36" s="176"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="176"/>
+      <c r="F36" s="176"/>
+      <c r="G36" s="176"/>
+      <c r="H36" s="176"/>
+      <c r="I36" s="176"/>
+      <c r="J36" s="177"/>
     </row>
     <row r="37" spans="1:12" s="79" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="57" t="s">
@@ -11619,14 +11652,14 @@
       <c r="D37" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="138" t="s">
+      <c r="E37" s="193" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="139"/>
+      <c r="F37" s="194"/>
+      <c r="G37" s="194"/>
+      <c r="H37" s="194"/>
+      <c r="I37" s="194"/>
+      <c r="J37" s="194"/>
       <c r="K37" s="53"/>
       <c r="L37" s="53"/>
     </row>
@@ -11639,26 +11672,26 @@
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="62"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="127"/>
-      <c r="G38" s="127"/>
-      <c r="H38" s="127"/>
-      <c r="I38" s="127"/>
-      <c r="J38" s="127"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
     </row>
     <row r="39" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="163" t="s">
-        <v>222</v>
-      </c>
-      <c r="B39" s="164"/>
-      <c r="C39" s="164"/>
-      <c r="D39" s="164"/>
-      <c r="E39" s="164"/>
-      <c r="F39" s="164"/>
-      <c r="G39" s="164"/>
-      <c r="H39" s="164"/>
-      <c r="I39" s="164"/>
-      <c r="J39" s="165"/>
+      <c r="A39" s="160" t="s">
+        <v>219</v>
+      </c>
+      <c r="B39" s="161"/>
+      <c r="C39" s="161"/>
+      <c r="D39" s="161"/>
+      <c r="E39" s="161"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="161"/>
+      <c r="H39" s="161"/>
+      <c r="I39" s="161"/>
+      <c r="J39" s="162"/>
       <c r="K39" s="53"/>
       <c r="L39" s="53"/>
     </row>
@@ -11673,14 +11706,14 @@
         <v>16</v>
       </c>
       <c r="D40" s="66"/>
-      <c r="E40" s="191" t="s">
+      <c r="E40" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="F40" s="127"/>
-      <c r="G40" s="127"/>
-      <c r="H40" s="127"/>
-      <c r="I40" s="127"/>
-      <c r="J40" s="127"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="117"/>
+      <c r="I40" s="117"/>
+      <c r="J40" s="117"/>
     </row>
     <row r="41" spans="1:12" s="53" customFormat="1" ht="116.25" customHeight="1">
       <c r="A41" s="67">
@@ -11693,14 +11726,14 @@
         <v>78</v>
       </c>
       <c r="D41" s="69"/>
-      <c r="E41" s="160" t="s">
-        <v>226</v>
-      </c>
-      <c r="F41" s="161"/>
-      <c r="G41" s="161"/>
-      <c r="H41" s="161"/>
-      <c r="I41" s="161"/>
-      <c r="J41" s="162"/>
+      <c r="E41" s="153" t="s">
+        <v>223</v>
+      </c>
+      <c r="F41" s="154"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="155"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="52.5" customHeight="1">
       <c r="A42" s="70">
@@ -11713,106 +11746,106 @@
         <v>79</v>
       </c>
       <c r="D42" s="71"/>
-      <c r="E42" s="180" t="s">
-        <v>247</v>
-      </c>
-      <c r="F42" s="117"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="117"/>
-      <c r="J42" s="118"/>
+      <c r="E42" s="136" t="s">
+        <v>242</v>
+      </c>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="110"/>
     </row>
     <row r="43" spans="1:12" s="53" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="188" t="s">
+      <c r="A43" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="189"/>
-      <c r="C43" s="189"/>
-      <c r="D43" s="189"/>
-      <c r="E43" s="189"/>
-      <c r="F43" s="189"/>
-      <c r="G43" s="189"/>
-      <c r="H43" s="189"/>
-      <c r="I43" s="189"/>
-      <c r="J43" s="190"/>
+      <c r="B43" s="147"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="147"/>
+      <c r="J43" s="148"/>
     </row>
     <row r="44" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="186" t="s">
+      <c r="B44" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="187"/>
-      <c r="D44" s="180" t="s">
+      <c r="C44" s="145"/>
+      <c r="D44" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="117"/>
-      <c r="J44" s="118"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="109"/>
+      <c r="J44" s="110"/>
     </row>
     <row r="45" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="183"/>
-      <c r="B45" s="204"/>
-      <c r="C45" s="204"/>
-      <c r="D45" s="204"/>
-      <c r="E45" s="204"/>
-      <c r="F45" s="204"/>
-      <c r="G45" s="204"/>
-      <c r="H45" s="204"/>
-      <c r="I45" s="204"/>
-      <c r="J45" s="205"/>
+      <c r="A45" s="141"/>
+      <c r="B45" s="210"/>
+      <c r="C45" s="210"/>
+      <c r="D45" s="210"/>
+      <c r="E45" s="210"/>
+      <c r="F45" s="210"/>
+      <c r="G45" s="210"/>
+      <c r="H45" s="210"/>
+      <c r="I45" s="210"/>
+      <c r="J45" s="211"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="70"/>
-      <c r="B46" s="140"/>
-      <c r="C46" s="156"/>
-      <c r="D46" s="180"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="117"/>
-      <c r="J46" s="118"/>
+      <c r="B46" s="139"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="109"/>
+      <c r="G46" s="109"/>
+      <c r="H46" s="109"/>
+      <c r="I46" s="109"/>
+      <c r="J46" s="110"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="70"/>
-      <c r="B47" s="140"/>
-      <c r="C47" s="156"/>
-      <c r="D47" s="180"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="117"/>
-      <c r="J47" s="118"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="140"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="109"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="109"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="109"/>
+      <c r="J47" s="110"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="183"/>
-      <c r="B48" s="204"/>
-      <c r="C48" s="204"/>
-      <c r="D48" s="204"/>
-      <c r="E48" s="204"/>
-      <c r="F48" s="204"/>
-      <c r="G48" s="204"/>
-      <c r="H48" s="204"/>
-      <c r="I48" s="204"/>
-      <c r="J48" s="205"/>
+      <c r="A48" s="141"/>
+      <c r="B48" s="210"/>
+      <c r="C48" s="210"/>
+      <c r="D48" s="210"/>
+      <c r="E48" s="210"/>
+      <c r="F48" s="210"/>
+      <c r="G48" s="210"/>
+      <c r="H48" s="210"/>
+      <c r="I48" s="210"/>
+      <c r="J48" s="211"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="70"/>
-      <c r="B49" s="140"/>
-      <c r="C49" s="156"/>
-      <c r="D49" s="180"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="117"/>
-      <c r="G49" s="117"/>
-      <c r="H49" s="117"/>
-      <c r="I49" s="117"/>
-      <c r="J49" s="118"/>
+      <c r="B49" s="139"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="110"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
       <c r="A50" s="74" t="s">
@@ -11835,14 +11868,14 @@
       <c r="B51" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="140"/>
-      <c r="D51" s="117"/>
-      <c r="E51" s="117"/>
-      <c r="F51" s="117"/>
-      <c r="G51" s="117"/>
-      <c r="H51" s="117"/>
-      <c r="I51" s="117"/>
-      <c r="J51" s="118"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="109"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="109"/>
+      <c r="I51" s="109"/>
+      <c r="J51" s="110"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="70">
@@ -11865,18 +11898,27 @@
     <row r="67" s="51" customFormat="1"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="A39:J39"/>
     <mergeCell ref="E40:J40"/>
     <mergeCell ref="E41:J41"/>
     <mergeCell ref="E42:J42"/>
@@ -11893,27 +11935,18 @@
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A26:J26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -12189,23 +12222,23 @@
         <v>121</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F12" s="103" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J12" s="213" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -12213,20 +12246,20 @@
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
       <c r="D13" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F13" s="103" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J13" s="199"/>
     </row>
@@ -12235,61 +12268,61 @@
         <v>2</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E14" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="F14" s="104" t="s">
-        <v>178</v>
-      </c>
       <c r="G14" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="I14" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="H14" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>180</v>
-      </c>
       <c r="J14" s="38" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="40"/>
       <c r="B15" s="46" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F15" s="104" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G15" s="105" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J15" s="85" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -12297,19 +12330,19 @@
         <v>3</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>69</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G16" s="42" t="s">
         <v>66</v>
@@ -12321,7 +12354,7 @@
         <v>99</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12329,22 +12362,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="40" t="s">
@@ -12357,19 +12390,19 @@
         <v>5</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E18" s="102" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F18" s="212" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G18" s="201"/>
       <c r="H18" s="83"/>
@@ -12377,7 +12410,7 @@
         <v>99</v>
       </c>
       <c r="J18" s="101" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12385,26 +12418,26 @@
         <v>6</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C19" s="83" t="s">
         <v>122</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G19" s="42" t="s">
         <v>125</v>
       </c>
       <c r="H19" s="40"/>
       <c r="I19" s="40" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -12436,7 +12469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="106" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="106" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E40" sqref="E40:J40"/>
     </sheetView>
   </sheetViews>
@@ -12514,152 +12547,152 @@
       <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:17" s="89" customFormat="1">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="115"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="120"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="133"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="170"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="173"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="170"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="173"/>
+      <c r="A8" s="167"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="170"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="174"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="176"/>
+      <c r="A9" s="171"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="173"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="115"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="177" t="s">
+      <c r="A11" s="174" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="118"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="110"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="115"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="120"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="177" t="s">
+      <c r="A13" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="118"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="110"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="115"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="120"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="146" t="s">
-        <v>229</v>
-      </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="152"/>
+      <c r="A15" s="178" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" s="179"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="180"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
@@ -12668,26 +12701,26 @@
       <c r="B16" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="142" t="s">
+      <c r="C16" s="181" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="148"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="183"/>
     </row>
     <row r="17" spans="1:10" s="53" customFormat="1" ht="48.75" customHeight="1">
       <c r="A17" s="56">
         <v>1</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="150" t="s">
-        <v>205</v>
+        <v>155</v>
+      </c>
+      <c r="C17" s="187" t="s">
+        <v>202</v>
       </c>
       <c r="D17" s="202"/>
       <c r="E17" s="202"/>
@@ -12702,10 +12735,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="C18" s="150" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="C18" s="187" t="s">
+        <v>206</v>
       </c>
       <c r="D18" s="202"/>
       <c r="E18" s="202"/>
@@ -12720,10 +12753,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" s="150" t="s">
-        <v>210</v>
+        <v>209</v>
+      </c>
+      <c r="C19" s="187" t="s">
+        <v>207</v>
       </c>
       <c r="D19" s="202"/>
       <c r="E19" s="202"/>
@@ -12738,112 +12771,112 @@
         <v>3</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="C20" s="144" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="149"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="188"/>
+      <c r="J20" s="189"/>
     </row>
     <row r="21" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="56">
         <v>4</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="C21" s="144" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="191" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="149"/>
+      <c r="D21" s="188"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="188"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="188"/>
+      <c r="J21" s="189"/>
     </row>
     <row r="22" spans="1:10" s="53" customFormat="1" ht="32.25" customHeight="1">
       <c r="A22" s="56">
         <v>5</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="C22" s="150" t="s">
-        <v>218</v>
-      </c>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="149"/>
+        <v>199</v>
+      </c>
+      <c r="C22" s="187" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" s="188"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="188"/>
+      <c r="J22" s="189"/>
     </row>
     <row r="23" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="63">
         <v>6</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="C23" s="150" t="s">
-        <v>219</v>
-      </c>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="149"/>
+        <v>201</v>
+      </c>
+      <c r="C23" s="187" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="189"/>
     </row>
     <row r="24" spans="1:10" s="53" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A24" s="206"/>
-      <c r="B24" s="207"/>
-      <c r="C24" s="207"/>
-      <c r="D24" s="207"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="207"/>
-      <c r="H24" s="207"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="208"/>
+      <c r="A24" s="204"/>
+      <c r="B24" s="205"/>
+      <c r="C24" s="205"/>
+      <c r="D24" s="205"/>
+      <c r="E24" s="205"/>
+      <c r="F24" s="205"/>
+      <c r="G24" s="205"/>
+      <c r="H24" s="205"/>
+      <c r="I24" s="205"/>
+      <c r="J24" s="206"/>
     </row>
     <row r="25" spans="1:10" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="136" t="s">
+      <c r="A25" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="209"/>
+      <c r="B25" s="192"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="192"/>
+      <c r="H25" s="192"/>
+      <c r="I25" s="192"/>
+      <c r="J25" s="207"/>
     </row>
     <row r="26" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1">
-      <c r="A26" s="146" t="s">
-        <v>232</v>
-      </c>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="152"/>
+      <c r="A26" s="178" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="179"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="179"/>
+      <c r="H26" s="179"/>
+      <c r="I26" s="179"/>
+      <c r="J26" s="180"/>
     </row>
     <row r="27" spans="1:10" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="56" t="s">
@@ -12852,26 +12885,26 @@
       <c r="B27" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="142" t="s">
+      <c r="C27" s="181" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="148"/>
+      <c r="D27" s="182"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="182"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="182"/>
+      <c r="I27" s="182"/>
+      <c r="J27" s="183"/>
     </row>
     <row r="28" spans="1:10" s="53" customFormat="1" ht="51" customHeight="1">
       <c r="A28" s="56">
         <v>1</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="C28" s="150" t="s">
-        <v>244</v>
+        <v>208</v>
+      </c>
+      <c r="C28" s="187" t="s">
+        <v>239</v>
       </c>
       <c r="D28" s="202"/>
       <c r="E28" s="202"/>
@@ -12886,10 +12919,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="187" t="s">
         <v>213</v>
-      </c>
-      <c r="C29" s="150" t="s">
-        <v>216</v>
       </c>
       <c r="D29" s="202"/>
       <c r="E29" s="202"/>
@@ -12904,10 +12937,10 @@
         <v>2</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="C30" s="150" t="s">
-        <v>217</v>
+        <v>209</v>
+      </c>
+      <c r="C30" s="187" t="s">
+        <v>214</v>
       </c>
       <c r="D30" s="202"/>
       <c r="E30" s="202"/>
@@ -12922,98 +12955,98 @@
         <v>3</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="C31" s="144" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="149"/>
+      <c r="D31" s="188"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="188"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="189"/>
     </row>
     <row r="32" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="56">
         <v>4</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="C32" s="144" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="191" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="149"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="188"/>
+      <c r="J32" s="189"/>
     </row>
     <row r="33" spans="1:12" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="56">
         <v>5</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" s="144" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="149"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="189"/>
     </row>
     <row r="34" spans="1:12" s="53" customFormat="1" ht="39.75" customHeight="1">
       <c r="A34" s="63">
         <v>6</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>220</v>
-      </c>
-      <c r="C34" s="150" t="s">
-        <v>245</v>
-      </c>
-      <c r="D34" s="145"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="149"/>
+        <v>217</v>
+      </c>
+      <c r="C34" s="187" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="189"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1" ht="27" customHeight="1">
-      <c r="A35" s="166"/>
-      <c r="B35" s="210"/>
-      <c r="C35" s="210"/>
-      <c r="D35" s="210"/>
-      <c r="E35" s="210"/>
-      <c r="F35" s="210"/>
-      <c r="G35" s="210"/>
-      <c r="H35" s="210"/>
-      <c r="I35" s="210"/>
-      <c r="J35" s="211"/>
+      <c r="A35" s="163"/>
+      <c r="B35" s="208"/>
+      <c r="C35" s="208"/>
+      <c r="D35" s="208"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="208"/>
+      <c r="G35" s="208"/>
+      <c r="H35" s="208"/>
+      <c r="I35" s="208"/>
+      <c r="J35" s="209"/>
     </row>
     <row r="36" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="136" t="s">
+      <c r="A36" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="178"/>
-      <c r="C36" s="178"/>
-      <c r="D36" s="178"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="178"/>
-      <c r="G36" s="178"/>
-      <c r="H36" s="178"/>
-      <c r="I36" s="178"/>
-      <c r="J36" s="179"/>
+      <c r="B36" s="176"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="176"/>
+      <c r="F36" s="176"/>
+      <c r="G36" s="176"/>
+      <c r="H36" s="176"/>
+      <c r="I36" s="176"/>
+      <c r="J36" s="177"/>
     </row>
     <row r="37" spans="1:12" s="79" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="57" t="s">
@@ -13028,14 +13061,14 @@
       <c r="D37" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="138" t="s">
+      <c r="E37" s="193" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="139"/>
+      <c r="F37" s="194"/>
+      <c r="G37" s="194"/>
+      <c r="H37" s="194"/>
+      <c r="I37" s="194"/>
+      <c r="J37" s="194"/>
       <c r="K37" s="53"/>
       <c r="L37" s="53"/>
     </row>
@@ -13044,30 +13077,30 @@
         <v>1</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="62"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="127"/>
-      <c r="G38" s="127"/>
-      <c r="H38" s="127"/>
-      <c r="I38" s="127"/>
-      <c r="J38" s="127"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
     </row>
     <row r="39" spans="1:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A39" s="163" t="s">
-        <v>230</v>
-      </c>
-      <c r="B39" s="164"/>
-      <c r="C39" s="164"/>
-      <c r="D39" s="164"/>
-      <c r="E39" s="164"/>
-      <c r="F39" s="164"/>
-      <c r="G39" s="164"/>
-      <c r="H39" s="164"/>
-      <c r="I39" s="164"/>
-      <c r="J39" s="165"/>
+      <c r="A39" s="160" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" s="161"/>
+      <c r="C39" s="161"/>
+      <c r="D39" s="161"/>
+      <c r="E39" s="161"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="161"/>
+      <c r="H39" s="161"/>
+      <c r="I39" s="161"/>
+      <c r="J39" s="162"/>
       <c r="K39" s="53"/>
       <c r="L39" s="53"/>
     </row>
@@ -13076,20 +13109,20 @@
         <v>1</v>
       </c>
       <c r="B40" s="68" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C40" s="88" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="87"/>
-      <c r="E40" s="160" t="s">
-        <v>249</v>
-      </c>
-      <c r="F40" s="161"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="161"/>
-      <c r="J40" s="162"/>
+      <c r="E40" s="153" t="s">
+        <v>244</v>
+      </c>
+      <c r="F40" s="154"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="155"/>
     </row>
     <row r="41" spans="1:12" s="53" customFormat="1" ht="51" customHeight="1">
       <c r="A41" s="70">
@@ -13102,126 +13135,126 @@
         <v>79</v>
       </c>
       <c r="D41" s="86"/>
-      <c r="E41" s="180" t="s">
-        <v>247</v>
-      </c>
-      <c r="F41" s="117"/>
-      <c r="G41" s="117"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="117"/>
-      <c r="J41" s="118"/>
+      <c r="E41" s="136" t="s">
+        <v>242</v>
+      </c>
+      <c r="F41" s="109"/>
+      <c r="G41" s="109"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="110"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="100.5" customHeight="1">
       <c r="A42" s="70">
         <v>2</v>
       </c>
       <c r="B42" s="84" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C42" s="88" t="s">
         <v>79</v>
       </c>
       <c r="D42" s="86"/>
-      <c r="E42" s="180" t="s">
-        <v>246</v>
-      </c>
-      <c r="F42" s="117"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="117"/>
-      <c r="J42" s="118"/>
+      <c r="E42" s="136" t="s">
+        <v>241</v>
+      </c>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="110"/>
     </row>
     <row r="43" spans="1:12" s="53" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A43" s="188" t="s">
+      <c r="A43" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="189"/>
-      <c r="C43" s="189"/>
-      <c r="D43" s="189"/>
-      <c r="E43" s="189"/>
-      <c r="F43" s="189"/>
-      <c r="G43" s="189"/>
-      <c r="H43" s="189"/>
-      <c r="I43" s="189"/>
-      <c r="J43" s="190"/>
+      <c r="B43" s="147"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="147"/>
+      <c r="J43" s="148"/>
     </row>
     <row r="44" spans="1:12" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A44" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="186" t="s">
+      <c r="B44" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="187"/>
-      <c r="D44" s="180" t="s">
+      <c r="C44" s="145"/>
+      <c r="D44" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="117"/>
-      <c r="J44" s="118"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="109"/>
+      <c r="J44" s="110"/>
     </row>
     <row r="45" spans="1:12" s="55" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A45" s="183"/>
-      <c r="B45" s="204"/>
-      <c r="C45" s="204"/>
-      <c r="D45" s="204"/>
-      <c r="E45" s="204"/>
-      <c r="F45" s="204"/>
-      <c r="G45" s="204"/>
-      <c r="H45" s="204"/>
-      <c r="I45" s="204"/>
-      <c r="J45" s="205"/>
+      <c r="A45" s="141"/>
+      <c r="B45" s="210"/>
+      <c r="C45" s="210"/>
+      <c r="D45" s="210"/>
+      <c r="E45" s="210"/>
+      <c r="F45" s="210"/>
+      <c r="G45" s="210"/>
+      <c r="H45" s="210"/>
+      <c r="I45" s="210"/>
+      <c r="J45" s="211"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1" ht="28.5" customHeight="1">
       <c r="A46" s="70"/>
-      <c r="B46" s="140"/>
-      <c r="C46" s="156"/>
-      <c r="D46" s="180"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="117"/>
-      <c r="J46" s="118"/>
+      <c r="B46" s="139"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="109"/>
+      <c r="G46" s="109"/>
+      <c r="H46" s="109"/>
+      <c r="I46" s="109"/>
+      <c r="J46" s="110"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A47" s="70"/>
-      <c r="B47" s="140"/>
-      <c r="C47" s="156"/>
-      <c r="D47" s="180"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="117"/>
-      <c r="J47" s="118"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="140"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="109"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="109"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="109"/>
+      <c r="J47" s="110"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A48" s="183"/>
-      <c r="B48" s="204"/>
-      <c r="C48" s="204"/>
-      <c r="D48" s="204"/>
-      <c r="E48" s="204"/>
-      <c r="F48" s="204"/>
-      <c r="G48" s="204"/>
-      <c r="H48" s="204"/>
-      <c r="I48" s="204"/>
-      <c r="J48" s="205"/>
+      <c r="A48" s="141"/>
+      <c r="B48" s="210"/>
+      <c r="C48" s="210"/>
+      <c r="D48" s="210"/>
+      <c r="E48" s="210"/>
+      <c r="F48" s="210"/>
+      <c r="G48" s="210"/>
+      <c r="H48" s="210"/>
+      <c r="I48" s="210"/>
+      <c r="J48" s="211"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="70"/>
-      <c r="B49" s="140"/>
-      <c r="C49" s="156"/>
-      <c r="D49" s="180"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="117"/>
-      <c r="G49" s="117"/>
-      <c r="H49" s="117"/>
-      <c r="I49" s="117"/>
-      <c r="J49" s="118"/>
+      <c r="B49" s="139"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="110"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="74" t="s">
@@ -13244,14 +13277,14 @@
       <c r="B51" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="140"/>
-      <c r="D51" s="117"/>
-      <c r="E51" s="117"/>
-      <c r="F51" s="117"/>
-      <c r="G51" s="117"/>
-      <c r="H51" s="117"/>
-      <c r="I51" s="117"/>
-      <c r="J51" s="118"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="109"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="109"/>
+      <c r="I51" s="109"/>
+      <c r="J51" s="110"/>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1">
       <c r="A52" s="70">
@@ -13285,23 +13318,20 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="C52:J52"/>
@@ -13318,22 +13348,25 @@
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:J49"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="C28:J28"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="A43:J43"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -13609,23 +13642,23 @@
         <v>121</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F12" s="103" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J12" s="213" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -13633,20 +13666,20 @@
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
       <c r="D13" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F13" s="103" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J13" s="199"/>
     </row>
@@ -13655,61 +13688,61 @@
         <v>2</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E14" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="F14" s="104" t="s">
-        <v>178</v>
-      </c>
       <c r="G14" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="I14" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="H14" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>180</v>
-      </c>
       <c r="J14" s="38" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="40"/>
       <c r="B15" s="46" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F15" s="104" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G15" s="105" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J15" s="85" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -13717,19 +13750,19 @@
         <v>3</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>69</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G16" s="42" t="s">
         <v>66</v>
@@ -13741,7 +13774,7 @@
         <v>99</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -13749,22 +13782,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="40" t="s">
@@ -13777,19 +13810,19 @@
         <v>5</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E18" s="102" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F18" s="212" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G18" s="201"/>
       <c r="H18" s="83"/>
@@ -13797,7 +13830,7 @@
         <v>99</v>
       </c>
       <c r="J18" s="101" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -13805,26 +13838,26 @@
         <v>6</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C19" s="83" t="s">
         <v>122</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G19" s="42" t="s">
         <v>125</v>
       </c>
       <c r="H19" s="40"/>
       <c r="I19" s="40" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J19" s="45"/>
     </row>

--- a/APF/RA006/RA006_APF0201_功能清單設定作業.xlsx
+++ b/APF/RA006/RA006_APF0201_功能清單設定作業.xlsx
@@ -10,48 +10,49 @@
     <sheet name="總表" sheetId="37" r:id="rId1"/>
     <sheet name="版本控管" sheetId="16" r:id="rId2"/>
     <sheet name="功能簡述" sheetId="32" r:id="rId3"/>
-    <sheet name="畫面_APF0201MM1" sheetId="7" r:id="rId4"/>
-    <sheet name="欄位_APF0201MM1" sheetId="14" r:id="rId5"/>
-    <sheet name="畫面_APF0201MA1" sheetId="33" r:id="rId6"/>
-    <sheet name="欄位_APF0201MA1" sheetId="34" r:id="rId7"/>
-    <sheet name="畫面_APF0201MU1" sheetId="35" r:id="rId8"/>
-    <sheet name="欄位_APF0201MU1" sheetId="40" r:id="rId9"/>
+    <sheet name="IPO" sheetId="41" r:id="rId4"/>
+    <sheet name="畫面_APF0201MM1" sheetId="7" r:id="rId5"/>
+    <sheet name="欄位_APF0201MM1" sheetId="14" r:id="rId6"/>
+    <sheet name="畫面_APF0201MA1" sheetId="33" r:id="rId7"/>
+    <sheet name="欄位_APF0201MA1" sheetId="34" r:id="rId8"/>
+    <sheet name="畫面_APF0201MU1" sheetId="35" r:id="rId9"/>
+    <sheet name="欄位_APF0201MU1" sheetId="40" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">畫面_APF0201MA1!$A$1:$J$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">畫面_APF0201MM1!$A$1:$J$66</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">畫面_APF0201MU1!$A$1:$J$57</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">欄位_APF0201MA1!$A$1:$J$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">欄位_APF0201MM1!$A$1:$J$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">畫面_APF0201MA1!$A$1:$J$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0201MM1!$A$1:$J$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">畫面_APF0201MU1!$A$1:$J$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">欄位_APF0201MA1!$A$1:$J$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0201MM1!$A$1:$J$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">畫面_APF0201MA1!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">畫面_APF0201MM1!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">畫面_APF0201MU1!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">欄位_APF0201MA1!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">欄位_APF0201MM1!$1:$5</definedName>
-    <definedName name="solver_lin" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_lin" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_lin" localSheetId="7" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="7" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="5" hidden="1">畫面_APF0201MA1!#REF!</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">畫面_APF0201MM1!#REF!</definedName>
-    <definedName name="solver_opt" localSheetId="7" hidden="1">畫面_APF0201MU1!#REF!</definedName>
-    <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="7" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">畫面_APF0201MA1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0201MM1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">畫面_APF0201MU1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">欄位_APF0201MA1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">欄位_APF0201MM1!$1:$5</definedName>
+    <definedName name="solver_lin" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_lin" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_lin" localSheetId="8" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="8" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">畫面_APF0201MA1!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">畫面_APF0201MM1!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="8" hidden="1">畫面_APF0201MU1!#REF!</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="257">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -1309,6 +1310,22 @@
       <t>必須存在於APF apf_menu_root 或 apf_menu_node 資料表中，若不存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 9</t>
     </r>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IPO Model</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2158,13 +2175,70 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2173,27 +2247,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2203,41 +2256,137 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2248,12 +2397,6 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2289,132 +2432,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2437,6 +2454,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2454,12 +2477,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3579,6 +3596,1646 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="群組 2"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1428750"/>
+          <a:ext cx="9906000" cy="512989"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF0101 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>角色維護</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>功能簡述</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳慕霖</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131003</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="36865" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s36865"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="群組 10"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19050" y="47625"/>
+          <a:ext cx="9906000" cy="522514"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF0201 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>功能清單設定作業</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>IPO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>圖</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳懿信</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131018</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="36866" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s36866"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="群組 19"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19050" y="47625"/>
+          <a:ext cx="9906000" cy="522514"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF0201 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>功能清單設定</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>IPO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>圖</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳懿信</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131018</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
@@ -4152,7 +5809,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4682,7 +6339,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5283,7 +6940,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5850,7 +7507,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7554,7 +9211,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8508,10 +10165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -8560,78 +10217,87 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21" customHeight="1">
+      <c r="A5" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B5" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D5" s="106" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="108"/>
-      <c r="B5" s="31" t="s">
+    <row r="6" spans="1:4" ht="21" customHeight="1">
+      <c r="A6" s="108"/>
+      <c r="B6" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="106" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="106" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="108" t="s">
+    <row r="7" spans="1:4" ht="21" customHeight="1">
+      <c r="A7" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B7" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="D6" s="106" t="s">
+      <c r="D7" s="106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="108"/>
-      <c r="B7" s="31" t="s">
+    <row r="8" spans="1:4" ht="21" customHeight="1">
+      <c r="A8" s="108"/>
+      <c r="B8" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="106" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="106" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="108" t="s">
+    <row r="9" spans="1:4" ht="21" customHeight="1">
+      <c r="A9" s="108" t="s">
         <v>225</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B9" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="D8" s="106" t="s">
+      <c r="D9" s="106" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="108"/>
-      <c r="B9" s="31" t="s">
+    <row r="10" spans="1:4" ht="21" customHeight="1">
+      <c r="A10" s="108"/>
+      <c r="B10" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="106" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="106" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21" customHeight="1" thickBot="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" thickTop="1">
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="1:4">
+    <row r="11" spans="1:4" ht="21" customHeight="1" thickBot="1">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" thickTop="1">
       <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4">
@@ -8644,36 +10310,535 @@
       <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="D16" s="26"/>
+      <c r="D16" s="25"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="25"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="25"/>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" location="功能簡述!A1" display="View"/>
-    <hyperlink ref="D7" location="欄位_APF0201MA1!A1" display="View"/>
-    <hyperlink ref="D6" location="畫面_APF0201MA1!A1" display="View"/>
-    <hyperlink ref="D9" location="欄位_APF0201MU1!A1" display="View"/>
-    <hyperlink ref="D8" location="畫面_APF0201MU1!A1" display="View"/>
+    <hyperlink ref="D8" location="欄位_APF0201MA1!A1" display="View"/>
+    <hyperlink ref="D7" location="畫面_APF0201MA1!A1" display="View"/>
+    <hyperlink ref="D10" location="欄位_APF0201MU1!A1" display="View"/>
+    <hyperlink ref="D9" location="畫面_APF0201MU1!A1" display="View"/>
+    <hyperlink ref="D6" location="畫面_APF0201MM1!A1" display="View"/>
     <hyperlink ref="D5" location="畫面_APF0201MM1!A1" display="View"/>
-    <hyperlink ref="D4" location="畫面_APF0201MM1!A1" display="View"/>
+    <hyperlink ref="D4" location="IPO!A1" display="View"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.25" style="38" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="38" customWidth="1"/>
+    <col min="3" max="3" width="21" style="38" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="38" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="38" customWidth="1"/>
+    <col min="7" max="7" width="15" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="38" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.875" style="38" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="38" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="17.25" thickTop="1">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="158" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+    </row>
+    <row r="4" spans="1:23" ht="6.75" customHeight="1">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+    </row>
+    <row r="5" spans="1:23" ht="6.75" customHeight="1">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="195" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="197"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="40">
+        <f>ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="83"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="195" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="197"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="45">
+        <v>1</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="42"/>
+      <c r="I12" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="J12" s="213" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="42"/>
+      <c r="I13" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="J13" s="199"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="40">
+        <v>2</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="40"/>
+      <c r="B15" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="104" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="J15" s="85" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="45">
+        <v>3</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="45">
+        <v>4</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" s="42"/>
+      <c r="I17" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="100"/>
+    </row>
+    <row r="18" spans="1:10" ht="71.25" customHeight="1">
+      <c r="A18" s="40">
+        <v>5</v>
+      </c>
+      <c r="B18" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" s="83" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="102" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="212" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" s="201"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="101" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="45">
+        <v>6</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="F18:G18"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K1" location="總表!A1" display="回總表"/>
+    <hyperlink ref="K1:K3" location="總表!A1" display="回總表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8936,15 +11101,15 @@
       <c r="A1" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="124" t="s">
+      <c r="M1" s="109" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="125"/>
+      <c r="M2" s="110"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="125"/>
+      <c r="M3" s="110"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -8961,224 +11126,224 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="113"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="132"/>
     </row>
     <row r="6" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="123"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="135"/>
     </row>
     <row r="7" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="118" t="s">
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="120"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="115"/>
     </row>
     <row r="8" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="130" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="109" t="s">
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="117" t="s">
         <v>111</v>
       </c>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="110"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="118"/>
     </row>
     <row r="9" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="118" t="s">
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="120"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="115"/>
     </row>
     <row r="10" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="116" t="s">
+      <c r="A10" s="130" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="109" t="s">
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="117" t="s">
         <v>113</v>
       </c>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="110"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="118"/>
     </row>
     <row r="11" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="135" t="s">
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="120"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="115"/>
     </row>
     <row r="12" spans="1:13" s="55" customFormat="1" ht="16.5">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="130" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="110"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="118"/>
     </row>
     <row r="13" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="135" t="s">
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="120"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="115"/>
     </row>
     <row r="14" spans="1:13" s="55" customFormat="1" ht="16.5">
-      <c r="A14" s="116" t="s">
+      <c r="A14" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="110"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="118"/>
     </row>
     <row r="15" spans="1:13" s="80" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="111" t="s">
+      <c r="A15" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="131"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="131"/>
-      <c r="L15" s="132"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="125"/>
     </row>
     <row r="16" spans="1:13" s="80" customFormat="1" ht="130.5" customHeight="1">
-      <c r="A16" s="133" t="s">
+      <c r="A16" s="126" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="134"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="128"/>
     </row>
     <row r="17" spans="1:12" s="82" customFormat="1" ht="16.5">
-      <c r="A17" s="111" t="s">
+      <c r="A17" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="110"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="118"/>
     </row>
     <row r="18" spans="1:12" s="82" customFormat="1" ht="14.25"/>
     <row r="19" spans="1:12" s="82" customFormat="1" ht="14.25"/>
@@ -9225,23 +11390,30 @@
     <row r="60" s="82" customFormat="1" ht="14.25"/>
     <row r="61" s="82" customFormat="1" ht="14.25"/>
     <row r="68" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A68" s="128" t="s">
+      <c r="A68" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="B68" s="129"/>
-      <c r="C68" s="129"/>
-      <c r="D68" s="129"/>
-      <c r="E68" s="129"/>
-      <c r="F68" s="129"/>
-      <c r="G68" s="129"/>
-      <c r="H68" s="129"/>
-      <c r="I68" s="129"/>
-      <c r="J68" s="129"/>
-      <c r="K68" s="129"/>
-      <c r="L68" s="130"/>
+      <c r="B68" s="120"/>
+      <c r="C68" s="120"/>
+      <c r="D68" s="120"/>
+      <c r="E68" s="120"/>
+      <c r="F68" s="120"/>
+      <c r="G68" s="120"/>
+      <c r="H68" s="120"/>
+      <c r="I68" s="120"/>
+      <c r="J68" s="120"/>
+      <c r="K68" s="120"/>
+      <c r="L68" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -9258,13 +11430,6 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -9332,11 +11497,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="P1:P3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="16:16" ht="14.25" thickTop="1">
+      <c r="P1" s="109" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="16:16">
+      <c r="P2" s="110"/>
+    </row>
+    <row r="3" spans="16:16">
+      <c r="P3" s="110"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P1:P3"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P1" location="總表!A1" display="回總表"/>
+    <hyperlink ref="P1:P3" location="總表!A1" display="回總表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="36865" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="36865" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="36866" r:id="rId6">
+          <objectPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="36866" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C32" sqref="C32:J32"/>
     </sheetView>
   </sheetViews>
@@ -9416,152 +11670,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="52" customFormat="1">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="120"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="115"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="121"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="123"/>
+      <c r="A6" s="133"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="135"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="167"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
+      <c r="A7" s="170"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="173"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="167"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="170"/>
+      <c r="A8" s="170"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="173"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="171"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="173"/>
+      <c r="A9" s="174"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="176"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="120"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="115"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="174" t="s">
+      <c r="A11" s="177" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="110"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="118"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="166" t="s">
+      <c r="A12" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="120"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="115"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="174" t="s">
+      <c r="A13" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="110"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="118"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="120"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="115"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="178" t="s">
+      <c r="A15" s="146" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="179"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="180"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="152"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
@@ -9570,16 +11824,16 @@
       <c r="B16" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="181" t="s">
+      <c r="C16" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="183"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="148"/>
     </row>
     <row r="17" spans="1:12" s="53" customFormat="1">
       <c r="A17" s="56">
@@ -9588,16 +11842,16 @@
       <c r="B17" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="184" t="s">
+      <c r="C17" s="153" t="s">
         <v>245</v>
       </c>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="186"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="155"/>
     </row>
     <row r="18" spans="1:12" s="53" customFormat="1" ht="30.75" customHeight="1">
       <c r="A18" s="56">
@@ -9606,16 +11860,16 @@
       <c r="B18" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="187" t="s">
+      <c r="C18" s="150" t="s">
         <v>246</v>
       </c>
-      <c r="D18" s="188"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="188"/>
-      <c r="J18" s="189"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="149"/>
     </row>
     <row r="19" spans="1:12" s="53" customFormat="1" ht="33.75" customHeight="1">
       <c r="A19" s="56">
@@ -9624,42 +11878,42 @@
       <c r="B19" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="150" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="188"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="188"/>
-      <c r="J19" s="189"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="149"/>
     </row>
     <row r="20" spans="1:12" s="53" customFormat="1">
-      <c r="A20" s="139"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="140"/>
+      <c r="A20" s="140"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="156"/>
     </row>
     <row r="21" spans="1:12" s="53" customFormat="1">
-      <c r="A21" s="178" t="s">
+      <c r="A21" s="146" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="179"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="180"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="1:12" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="56" t="s">
@@ -9668,16 +11922,16 @@
       <c r="B22" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="181" t="s">
+      <c r="C22" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="182"/>
-      <c r="E22" s="182"/>
-      <c r="F22" s="182"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="182"/>
-      <c r="I22" s="182"/>
-      <c r="J22" s="183"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="148"/>
     </row>
     <row r="23" spans="1:12" s="53" customFormat="1">
       <c r="A23" s="56">
@@ -9686,16 +11940,16 @@
       <c r="B23" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="191" t="s">
+      <c r="C23" s="144" t="s">
         <v>247</v>
       </c>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="189"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="149"/>
     </row>
     <row r="24" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A24" s="56">
@@ -9704,16 +11958,16 @@
       <c r="B24" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="191" t="s">
+      <c r="C24" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
-      <c r="J24" s="189"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="149"/>
     </row>
     <row r="25" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A25" s="56">
@@ -9722,16 +11976,16 @@
       <c r="B25" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="191" t="s">
+      <c r="C25" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="188"/>
-      <c r="J25" s="189"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="149"/>
     </row>
     <row r="26" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A26" s="56">
@@ -9740,56 +11994,56 @@
       <c r="B26" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="191" t="s">
+      <c r="C26" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="188"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="188"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="188"/>
-      <c r="I26" s="188"/>
-      <c r="J26" s="189"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="149"/>
     </row>
     <row r="27" spans="1:12" s="53" customFormat="1">
-      <c r="A27" s="163"/>
-      <c r="B27" s="164"/>
-      <c r="C27" s="164"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="164"/>
-      <c r="F27" s="164"/>
-      <c r="G27" s="164"/>
-      <c r="H27" s="164"/>
-      <c r="I27" s="164"/>
-      <c r="J27" s="165"/>
+      <c r="A27" s="166"/>
+      <c r="B27" s="167"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="168"/>
     </row>
     <row r="28" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="175" t="s">
+      <c r="A28" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="176"/>
-      <c r="C28" s="176"/>
-      <c r="D28" s="176"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="176"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="177"/>
+      <c r="B28" s="178"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="179"/>
     </row>
     <row r="29" spans="1:12" s="53" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="178" t="s">
+      <c r="A29" s="146" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="179"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="179"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="179"/>
-      <c r="J29" s="180"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="152"/>
     </row>
     <row r="30" spans="1:12" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="56" t="s">
@@ -9798,16 +12052,16 @@
       <c r="B30" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="181" t="s">
+      <c r="C30" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="182"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="182"/>
-      <c r="J30" s="183"/>
+      <c r="D30" s="143"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="148"/>
     </row>
     <row r="31" spans="1:12" s="53" customFormat="1">
       <c r="A31" s="56">
@@ -9816,16 +12070,16 @@
       <c r="B31" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="191" t="s">
+      <c r="C31" s="144" t="s">
         <v>133</v>
       </c>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="188"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
       <c r="K31" s="95"/>
       <c r="L31" s="93"/>
     </row>
@@ -9836,16 +12090,16 @@
       <c r="B32" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="C32" s="187" t="s">
+      <c r="C32" s="150" t="s">
         <v>252</v>
       </c>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="188"/>
-      <c r="J32" s="188"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
       <c r="K32" s="95"/>
       <c r="L32" s="92"/>
     </row>
@@ -9856,46 +12110,46 @@
       <c r="B33" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="C33" s="187" t="s">
+      <c r="C33" s="150" t="s">
         <v>251</v>
       </c>
-      <c r="D33" s="188"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="188"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
       <c r="K33" s="95"/>
       <c r="L33" s="94"/>
     </row>
     <row r="34" spans="1:12" s="53" customFormat="1">
-      <c r="A34" s="139"/>
-      <c r="B34" s="156"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="156"/>
-      <c r="H34" s="156"/>
-      <c r="I34" s="156"/>
-      <c r="J34" s="156"/>
+      <c r="A34" s="140"/>
+      <c r="B34" s="141"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="141"/>
+      <c r="I34" s="141"/>
+      <c r="J34" s="141"/>
       <c r="K34" s="95"/>
       <c r="L34" s="94"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1">
-      <c r="A35" s="178" t="s">
+      <c r="A35" s="146" t="s">
         <v>139</v>
       </c>
-      <c r="B35" s="190"/>
-      <c r="C35" s="190"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="190"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="190"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="190"/>
-      <c r="J35" s="190"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="147"/>
       <c r="K35" s="95"/>
       <c r="L35" s="92"/>
     </row>
@@ -9906,16 +12160,16 @@
       <c r="B36" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="181" t="s">
+      <c r="C36" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="182"/>
-      <c r="E36" s="182"/>
-      <c r="F36" s="182"/>
-      <c r="G36" s="182"/>
-      <c r="H36" s="182"/>
-      <c r="I36" s="182"/>
-      <c r="J36" s="182"/>
+      <c r="D36" s="143"/>
+      <c r="E36" s="143"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="143"/>
       <c r="K36" s="95"/>
       <c r="L36" s="94"/>
     </row>
@@ -9926,16 +12180,16 @@
       <c r="B37" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="191" t="s">
+      <c r="C37" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="188"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="188"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="188"/>
-      <c r="J37" s="188"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="145"/>
+      <c r="H37" s="145"/>
+      <c r="I37" s="145"/>
+      <c r="J37" s="145"/>
       <c r="K37" s="95"/>
       <c r="L37" s="94"/>
     </row>
@@ -9946,16 +12200,16 @@
       <c r="B38" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="191" t="s">
+      <c r="C38" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="188"/>
-      <c r="E38" s="188"/>
-      <c r="F38" s="188"/>
-      <c r="G38" s="188"/>
-      <c r="H38" s="188"/>
-      <c r="I38" s="188"/>
-      <c r="J38" s="188"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
+      <c r="J38" s="145"/>
       <c r="K38" s="95"/>
       <c r="L38" s="94"/>
     </row>
@@ -9966,16 +12220,16 @@
       <c r="B39" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="191" t="s">
+      <c r="C39" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="188"/>
-      <c r="E39" s="188"/>
-      <c r="F39" s="188"/>
-      <c r="G39" s="188"/>
-      <c r="H39" s="188"/>
-      <c r="I39" s="188"/>
-      <c r="J39" s="188"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+      <c r="G39" s="145"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="145"/>
+      <c r="J39" s="145"/>
       <c r="K39" s="95"/>
       <c r="L39" s="94"/>
     </row>
@@ -9986,46 +12240,46 @@
       <c r="B40" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="191" t="s">
+      <c r="C40" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="188"/>
-      <c r="E40" s="188"/>
-      <c r="F40" s="188"/>
-      <c r="G40" s="188"/>
-      <c r="H40" s="188"/>
-      <c r="I40" s="188"/>
-      <c r="J40" s="188"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
+      <c r="G40" s="145"/>
+      <c r="H40" s="145"/>
+      <c r="I40" s="145"/>
+      <c r="J40" s="145"/>
       <c r="K40" s="95"/>
       <c r="L40" s="92"/>
     </row>
     <row r="41" spans="1:12" s="53" customFormat="1">
-      <c r="A41" s="139"/>
-      <c r="B41" s="156"/>
-      <c r="C41" s="156"/>
-      <c r="D41" s="156"/>
-      <c r="E41" s="156"/>
-      <c r="F41" s="156"/>
-      <c r="G41" s="156"/>
-      <c r="H41" s="156"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="156"/>
+      <c r="A41" s="140"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="141"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="141"/>
+      <c r="I41" s="141"/>
+      <c r="J41" s="141"/>
       <c r="K41" s="95"/>
       <c r="L41" s="92"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="175" t="s">
+      <c r="A42" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="192"/>
-      <c r="C42" s="192"/>
-      <c r="D42" s="192"/>
-      <c r="E42" s="192"/>
-      <c r="F42" s="192"/>
-      <c r="G42" s="192"/>
-      <c r="H42" s="192"/>
-      <c r="I42" s="192"/>
-      <c r="J42" s="192"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137"/>
+      <c r="J42" s="137"/>
       <c r="K42" s="95"/>
       <c r="L42" s="92"/>
     </row>
@@ -10042,14 +12296,14 @@
       <c r="D43" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="193" t="s">
+      <c r="E43" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="194"/>
-      <c r="G43" s="194"/>
-      <c r="H43" s="194"/>
-      <c r="I43" s="194"/>
-      <c r="J43" s="194"/>
+      <c r="F43" s="139"/>
+      <c r="G43" s="139"/>
+      <c r="H43" s="139"/>
+      <c r="I43" s="139"/>
+      <c r="J43" s="139"/>
       <c r="K43" s="53"/>
       <c r="L43" s="53"/>
     </row>
@@ -10062,40 +12316,40 @@
       </c>
       <c r="C44" s="61"/>
       <c r="D44" s="62"/>
-      <c r="E44" s="149" t="s">
+      <c r="E44" s="191" t="s">
         <v>248</v>
       </c>
-      <c r="F44" s="117"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="117"/>
-      <c r="J44" s="117"/>
+      <c r="F44" s="127"/>
+      <c r="G44" s="127"/>
+      <c r="H44" s="127"/>
+      <c r="I44" s="127"/>
+      <c r="J44" s="127"/>
     </row>
     <row r="45" spans="1:12" s="53" customFormat="1">
       <c r="A45" s="63"/>
-      <c r="B45" s="156"/>
-      <c r="C45" s="156"/>
-      <c r="D45" s="156"/>
-      <c r="E45" s="156"/>
-      <c r="F45" s="156"/>
-      <c r="G45" s="156"/>
-      <c r="H45" s="156"/>
-      <c r="I45" s="156"/>
-      <c r="J45" s="140"/>
+      <c r="B45" s="141"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="141"/>
+      <c r="E45" s="141"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="141"/>
+      <c r="H45" s="141"/>
+      <c r="I45" s="141"/>
+      <c r="J45" s="156"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1">
-      <c r="A46" s="160" t="s">
+      <c r="A46" s="163" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="161"/>
-      <c r="C46" s="161"/>
-      <c r="D46" s="161"/>
-      <c r="E46" s="161"/>
-      <c r="F46" s="161"/>
-      <c r="G46" s="161"/>
-      <c r="H46" s="161"/>
-      <c r="I46" s="161"/>
-      <c r="J46" s="162"/>
+      <c r="B46" s="164"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
+      <c r="E46" s="164"/>
+      <c r="F46" s="164"/>
+      <c r="G46" s="164"/>
+      <c r="H46" s="164"/>
+      <c r="I46" s="164"/>
+      <c r="J46" s="165"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="56">
@@ -10108,14 +12362,14 @@
         <v>19</v>
       </c>
       <c r="D47" s="66"/>
-      <c r="E47" s="149" t="s">
+      <c r="E47" s="191" t="s">
         <v>70</v>
       </c>
-      <c r="F47" s="117"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="117"/>
-      <c r="J47" s="117"/>
+      <c r="F47" s="127"/>
+      <c r="G47" s="127"/>
+      <c r="H47" s="127"/>
+      <c r="I47" s="127"/>
+      <c r="J47" s="127"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1">
       <c r="A48" s="67">
@@ -10128,14 +12382,14 @@
         <v>19</v>
       </c>
       <c r="D48" s="69"/>
-      <c r="E48" s="153" t="s">
+      <c r="E48" s="160" t="s">
         <v>136</v>
       </c>
-      <c r="F48" s="154"/>
-      <c r="G48" s="154"/>
-      <c r="H48" s="154"/>
-      <c r="I48" s="154"/>
-      <c r="J48" s="155"/>
+      <c r="F48" s="161"/>
+      <c r="G48" s="161"/>
+      <c r="H48" s="161"/>
+      <c r="I48" s="161"/>
+      <c r="J48" s="162"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1">
       <c r="A49" s="70">
@@ -10148,40 +12402,40 @@
         <v>19</v>
       </c>
       <c r="D49" s="71"/>
-      <c r="E49" s="136" t="s">
+      <c r="E49" s="180" t="s">
         <v>137</v>
       </c>
-      <c r="F49" s="109"/>
-      <c r="G49" s="109"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="109"/>
-      <c r="J49" s="110"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="117"/>
+      <c r="I49" s="117"/>
+      <c r="J49" s="118"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1">
       <c r="A50" s="72"/>
-      <c r="B50" s="156"/>
-      <c r="C50" s="156"/>
-      <c r="D50" s="156"/>
-      <c r="E50" s="156"/>
-      <c r="F50" s="156"/>
-      <c r="G50" s="156"/>
-      <c r="H50" s="156"/>
-      <c r="I50" s="156"/>
-      <c r="J50" s="140"/>
+      <c r="B50" s="141"/>
+      <c r="C50" s="141"/>
+      <c r="D50" s="141"/>
+      <c r="E50" s="141"/>
+      <c r="F50" s="141"/>
+      <c r="G50" s="141"/>
+      <c r="H50" s="141"/>
+      <c r="I50" s="141"/>
+      <c r="J50" s="156"/>
     </row>
     <row r="51" spans="1:10" s="53" customFormat="1">
-      <c r="A51" s="150" t="s">
+      <c r="A51" s="192" t="s">
         <v>138</v>
       </c>
-      <c r="B51" s="151"/>
-      <c r="C51" s="151"/>
-      <c r="D51" s="151"/>
-      <c r="E51" s="151"/>
-      <c r="F51" s="151"/>
-      <c r="G51" s="151"/>
-      <c r="H51" s="151"/>
-      <c r="I51" s="151"/>
-      <c r="J51" s="152"/>
+      <c r="B51" s="193"/>
+      <c r="C51" s="193"/>
+      <c r="D51" s="193"/>
+      <c r="E51" s="193"/>
+      <c r="F51" s="193"/>
+      <c r="G51" s="193"/>
+      <c r="H51" s="193"/>
+      <c r="I51" s="193"/>
+      <c r="J51" s="194"/>
     </row>
     <row r="52" spans="1:10" s="53" customFormat="1">
       <c r="A52" s="56">
@@ -10194,14 +12448,14 @@
         <v>19</v>
       </c>
       <c r="D52" s="66"/>
-      <c r="E52" s="149" t="s">
+      <c r="E52" s="191" t="s">
         <v>163</v>
       </c>
-      <c r="F52" s="117"/>
-      <c r="G52" s="117"/>
-      <c r="H52" s="117"/>
-      <c r="I52" s="117"/>
-      <c r="J52" s="117"/>
+      <c r="F52" s="127"/>
+      <c r="G52" s="127"/>
+      <c r="H52" s="127"/>
+      <c r="I52" s="127"/>
+      <c r="J52" s="127"/>
     </row>
     <row r="53" spans="1:10" s="53" customFormat="1" ht="66" customHeight="1">
       <c r="A53" s="56">
@@ -10214,14 +12468,14 @@
         <v>19</v>
       </c>
       <c r="D53" s="69"/>
-      <c r="E53" s="149" t="s">
+      <c r="E53" s="191" t="s">
         <v>243</v>
       </c>
-      <c r="F53" s="117"/>
-      <c r="G53" s="117"/>
-      <c r="H53" s="117"/>
-      <c r="I53" s="117"/>
-      <c r="J53" s="117"/>
+      <c r="F53" s="127"/>
+      <c r="G53" s="127"/>
+      <c r="H53" s="127"/>
+      <c r="I53" s="127"/>
+      <c r="J53" s="127"/>
     </row>
     <row r="54" spans="1:10" s="53" customFormat="1">
       <c r="A54" s="56">
@@ -10234,14 +12488,14 @@
         <v>19</v>
       </c>
       <c r="D54" s="69"/>
-      <c r="E54" s="153" t="s">
+      <c r="E54" s="160" t="s">
         <v>161</v>
       </c>
-      <c r="F54" s="154"/>
-      <c r="G54" s="154"/>
-      <c r="H54" s="154"/>
-      <c r="I54" s="154"/>
-      <c r="J54" s="155"/>
+      <c r="F54" s="161"/>
+      <c r="G54" s="161"/>
+      <c r="H54" s="161"/>
+      <c r="I54" s="161"/>
+      <c r="J54" s="162"/>
     </row>
     <row r="55" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
       <c r="A55" s="56">
@@ -10254,14 +12508,14 @@
         <v>19</v>
       </c>
       <c r="D55" s="69"/>
-      <c r="E55" s="153" t="s">
+      <c r="E55" s="160" t="s">
         <v>162</v>
       </c>
-      <c r="F55" s="154"/>
-      <c r="G55" s="154"/>
-      <c r="H55" s="154"/>
-      <c r="I55" s="154"/>
-      <c r="J55" s="155"/>
+      <c r="F55" s="161"/>
+      <c r="G55" s="161"/>
+      <c r="H55" s="161"/>
+      <c r="I55" s="161"/>
+      <c r="J55" s="162"/>
     </row>
     <row r="56" spans="1:10" s="53" customFormat="1" hidden="1">
       <c r="A56" s="56">
@@ -10274,118 +12528,118 @@
         <v>19</v>
       </c>
       <c r="D56" s="69"/>
-      <c r="E56" s="153" t="s">
+      <c r="E56" s="160" t="s">
         <v>103</v>
       </c>
-      <c r="F56" s="154"/>
-      <c r="G56" s="154"/>
-      <c r="H56" s="154"/>
-      <c r="I56" s="154"/>
-      <c r="J56" s="155"/>
+      <c r="F56" s="161"/>
+      <c r="G56" s="161"/>
+      <c r="H56" s="161"/>
+      <c r="I56" s="161"/>
+      <c r="J56" s="162"/>
     </row>
     <row r="57" spans="1:10" s="53" customFormat="1">
       <c r="A57" s="73"/>
-      <c r="B57" s="156"/>
-      <c r="C57" s="156"/>
-      <c r="D57" s="156"/>
-      <c r="E57" s="156"/>
-      <c r="F57" s="156"/>
-      <c r="G57" s="156"/>
-      <c r="H57" s="156"/>
-      <c r="I57" s="156"/>
-      <c r="J57" s="140"/>
+      <c r="B57" s="141"/>
+      <c r="C57" s="141"/>
+      <c r="D57" s="141"/>
+      <c r="E57" s="141"/>
+      <c r="F57" s="141"/>
+      <c r="G57" s="141"/>
+      <c r="H57" s="141"/>
+      <c r="I57" s="141"/>
+      <c r="J57" s="156"/>
     </row>
     <row r="58" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="146" t="s">
+      <c r="A58" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="147"/>
-      <c r="C58" s="147"/>
-      <c r="D58" s="147"/>
-      <c r="E58" s="147"/>
-      <c r="F58" s="147"/>
-      <c r="G58" s="147"/>
-      <c r="H58" s="147"/>
-      <c r="I58" s="147"/>
-      <c r="J58" s="148"/>
+      <c r="B58" s="189"/>
+      <c r="C58" s="189"/>
+      <c r="D58" s="189"/>
+      <c r="E58" s="189"/>
+      <c r="F58" s="189"/>
+      <c r="G58" s="189"/>
+      <c r="H58" s="189"/>
+      <c r="I58" s="189"/>
+      <c r="J58" s="190"/>
     </row>
     <row r="59" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="144" t="s">
+      <c r="B59" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="145"/>
-      <c r="D59" s="136" t="s">
+      <c r="C59" s="187"/>
+      <c r="D59" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="109"/>
-      <c r="F59" s="109"/>
-      <c r="G59" s="109"/>
-      <c r="H59" s="109"/>
-      <c r="I59" s="109"/>
-      <c r="J59" s="110"/>
+      <c r="E59" s="117"/>
+      <c r="F59" s="117"/>
+      <c r="G59" s="117"/>
+      <c r="H59" s="117"/>
+      <c r="I59" s="117"/>
+      <c r="J59" s="118"/>
     </row>
     <row r="60" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="141"/>
-      <c r="B60" s="142"/>
-      <c r="C60" s="142"/>
-      <c r="D60" s="142"/>
-      <c r="E60" s="142"/>
-      <c r="F60" s="142"/>
-      <c r="G60" s="142"/>
-      <c r="H60" s="142"/>
-      <c r="I60" s="142"/>
-      <c r="J60" s="143"/>
+      <c r="A60" s="183"/>
+      <c r="B60" s="184"/>
+      <c r="C60" s="184"/>
+      <c r="D60" s="184"/>
+      <c r="E60" s="184"/>
+      <c r="F60" s="184"/>
+      <c r="G60" s="184"/>
+      <c r="H60" s="184"/>
+      <c r="I60" s="184"/>
+      <c r="J60" s="185"/>
     </row>
     <row r="61" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="70"/>
-      <c r="B61" s="139"/>
-      <c r="C61" s="140"/>
-      <c r="D61" s="136"/>
-      <c r="E61" s="137"/>
-      <c r="F61" s="137"/>
-      <c r="G61" s="137"/>
-      <c r="H61" s="137"/>
-      <c r="I61" s="137"/>
-      <c r="J61" s="138"/>
+      <c r="B61" s="140"/>
+      <c r="C61" s="156"/>
+      <c r="D61" s="180"/>
+      <c r="E61" s="181"/>
+      <c r="F61" s="181"/>
+      <c r="G61" s="181"/>
+      <c r="H61" s="181"/>
+      <c r="I61" s="181"/>
+      <c r="J61" s="182"/>
     </row>
     <row r="62" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="70"/>
-      <c r="B62" s="139"/>
-      <c r="C62" s="140"/>
-      <c r="D62" s="136"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="137"/>
-      <c r="G62" s="137"/>
-      <c r="H62" s="137"/>
-      <c r="I62" s="137"/>
-      <c r="J62" s="138"/>
+      <c r="B62" s="140"/>
+      <c r="C62" s="156"/>
+      <c r="D62" s="180"/>
+      <c r="E62" s="181"/>
+      <c r="F62" s="181"/>
+      <c r="G62" s="181"/>
+      <c r="H62" s="181"/>
+      <c r="I62" s="181"/>
+      <c r="J62" s="182"/>
     </row>
     <row r="63" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="141"/>
-      <c r="B63" s="142"/>
-      <c r="C63" s="142"/>
-      <c r="D63" s="142"/>
-      <c r="E63" s="142"/>
-      <c r="F63" s="142"/>
-      <c r="G63" s="142"/>
-      <c r="H63" s="142"/>
-      <c r="I63" s="142"/>
-      <c r="J63" s="143"/>
+      <c r="A63" s="183"/>
+      <c r="B63" s="184"/>
+      <c r="C63" s="184"/>
+      <c r="D63" s="184"/>
+      <c r="E63" s="184"/>
+      <c r="F63" s="184"/>
+      <c r="G63" s="184"/>
+      <c r="H63" s="184"/>
+      <c r="I63" s="184"/>
+      <c r="J63" s="185"/>
     </row>
     <row r="64" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="70"/>
-      <c r="B64" s="139"/>
-      <c r="C64" s="140"/>
-      <c r="D64" s="136"/>
-      <c r="E64" s="137"/>
-      <c r="F64" s="137"/>
-      <c r="G64" s="137"/>
-      <c r="H64" s="137"/>
-      <c r="I64" s="137"/>
-      <c r="J64" s="138"/>
+      <c r="B64" s="140"/>
+      <c r="C64" s="156"/>
+      <c r="D64" s="180"/>
+      <c r="E64" s="181"/>
+      <c r="F64" s="181"/>
+      <c r="G64" s="181"/>
+      <c r="H64" s="181"/>
+      <c r="I64" s="181"/>
+      <c r="J64" s="182"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="74" t="s">
@@ -10408,14 +12662,14 @@
       <c r="B66" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="139"/>
-      <c r="D66" s="109"/>
-      <c r="E66" s="109"/>
-      <c r="F66" s="109"/>
-      <c r="G66" s="109"/>
-      <c r="H66" s="109"/>
-      <c r="I66" s="109"/>
-      <c r="J66" s="110"/>
+      <c r="C66" s="140"/>
+      <c r="D66" s="117"/>
+      <c r="E66" s="117"/>
+      <c r="F66" s="117"/>
+      <c r="G66" s="117"/>
+      <c r="H66" s="117"/>
+      <c r="I66" s="117"/>
+      <c r="J66" s="118"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="70">
@@ -10435,33 +12689,27 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="B57:J57"/>
     <mergeCell ref="C67:J67"/>
     <mergeCell ref="C66:J66"/>
     <mergeCell ref="K1:K3"/>
@@ -10478,27 +12726,33 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="D61:J61"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="D64:J64"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -10516,7 +12770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
@@ -11056,11 +13310,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
@@ -11138,152 +13392,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="52" customFormat="1">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="120"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="115"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="121"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="123"/>
+      <c r="A6" s="133"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="135"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="167"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
+      <c r="A7" s="170"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="173"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="167"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="170"/>
+      <c r="A8" s="170"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="173"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="171"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="173"/>
+      <c r="A9" s="174"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="176"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="120"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="115"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="174" t="s">
+      <c r="A11" s="177" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="110"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="118"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="166" t="s">
+      <c r="A12" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="120"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="115"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="174" t="s">
+      <c r="A13" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="110"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="118"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="120"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="115"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="178" t="s">
+      <c r="A15" s="146" t="s">
         <v>205</v>
       </c>
-      <c r="B15" s="179"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="180"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="152"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
@@ -11292,16 +13546,16 @@
       <c r="B16" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="181" t="s">
+      <c r="C16" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="183"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="148"/>
     </row>
     <row r="17" spans="1:10" s="53" customFormat="1" ht="64.5" customHeight="1">
       <c r="A17" s="56">
@@ -11310,7 +13564,7 @@
       <c r="B17" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="187" t="s">
+      <c r="C17" s="150" t="s">
         <v>202</v>
       </c>
       <c r="D17" s="202"/>
@@ -11328,7 +13582,7 @@
       <c r="B18" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="187" t="s">
+      <c r="C18" s="150" t="s">
         <v>206</v>
       </c>
       <c r="D18" s="202"/>
@@ -11346,7 +13600,7 @@
       <c r="B19" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="150" t="s">
         <v>207</v>
       </c>
       <c r="D19" s="202"/>
@@ -11364,16 +13618,16 @@
       <c r="B20" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="C20" s="191" t="s">
+      <c r="C20" s="144" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="188"/>
-      <c r="E20" s="188"/>
-      <c r="F20" s="188"/>
-      <c r="G20" s="188"/>
-      <c r="H20" s="188"/>
-      <c r="I20" s="188"/>
-      <c r="J20" s="189"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="1:10" s="53" customFormat="1">
       <c r="A21" s="56">
@@ -11382,16 +13636,16 @@
       <c r="B21" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="C21" s="191" t="s">
+      <c r="C21" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="188"/>
-      <c r="E21" s="188"/>
-      <c r="F21" s="188"/>
-      <c r="G21" s="188"/>
-      <c r="H21" s="188"/>
-      <c r="I21" s="188"/>
-      <c r="J21" s="189"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="1:10" s="53" customFormat="1" ht="33.75" customHeight="1">
       <c r="A22" s="56">
@@ -11400,16 +13654,16 @@
       <c r="B22" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="C22" s="187" t="s">
+      <c r="C22" s="150" t="s">
         <v>215</v>
       </c>
-      <c r="D22" s="188"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="188"/>
-      <c r="J22" s="189"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="149"/>
     </row>
     <row r="23" spans="1:10" s="53" customFormat="1" ht="34.5" customHeight="1">
       <c r="A23" s="63">
@@ -11418,56 +13672,56 @@
       <c r="B23" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="C23" s="187" t="s">
+      <c r="C23" s="150" t="s">
         <v>216</v>
       </c>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="189"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="149"/>
     </row>
     <row r="24" spans="1:10" s="53" customFormat="1">
-      <c r="A24" s="204"/>
-      <c r="B24" s="205"/>
-      <c r="C24" s="205"/>
-      <c r="D24" s="205"/>
-      <c r="E24" s="205"/>
-      <c r="F24" s="205"/>
-      <c r="G24" s="205"/>
-      <c r="H24" s="205"/>
-      <c r="I24" s="205"/>
-      <c r="J24" s="206"/>
+      <c r="A24" s="206"/>
+      <c r="B24" s="207"/>
+      <c r="C24" s="207"/>
+      <c r="D24" s="207"/>
+      <c r="E24" s="207"/>
+      <c r="F24" s="207"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="208"/>
     </row>
     <row r="25" spans="1:10" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="175" t="s">
+      <c r="A25" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="192"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="207"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="209"/>
     </row>
     <row r="26" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1">
-      <c r="A26" s="178" t="s">
+      <c r="A26" s="146" t="s">
         <v>218</v>
       </c>
-      <c r="B26" s="179"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="179"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="180"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="152"/>
     </row>
     <row r="27" spans="1:10" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="56" t="s">
@@ -11476,16 +13730,16 @@
       <c r="B27" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="181" t="s">
+      <c r="C27" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="182"/>
-      <c r="E27" s="182"/>
-      <c r="F27" s="182"/>
-      <c r="G27" s="182"/>
-      <c r="H27" s="182"/>
-      <c r="I27" s="182"/>
-      <c r="J27" s="183"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="148"/>
     </row>
     <row r="28" spans="1:10" s="53" customFormat="1" ht="40.5" customHeight="1">
       <c r="A28" s="56">
@@ -11494,7 +13748,7 @@
       <c r="B28" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="C28" s="187" t="s">
+      <c r="C28" s="150" t="s">
         <v>221</v>
       </c>
       <c r="D28" s="202"/>
@@ -11512,7 +13766,7 @@
       <c r="B29" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="C29" s="187" t="s">
+      <c r="C29" s="150" t="s">
         <v>213</v>
       </c>
       <c r="D29" s="202"/>
@@ -11530,7 +13784,7 @@
       <c r="B30" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="C30" s="187" t="s">
+      <c r="C30" s="150" t="s">
         <v>214</v>
       </c>
       <c r="D30" s="202"/>
@@ -11548,16 +13802,16 @@
       <c r="B31" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="C31" s="191" t="s">
+      <c r="C31" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="189"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="149"/>
     </row>
     <row r="32" spans="1:10" s="53" customFormat="1">
       <c r="A32" s="56">
@@ -11566,16 +13820,16 @@
       <c r="B32" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="C32" s="191" t="s">
+      <c r="C32" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="188"/>
-      <c r="J32" s="189"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="149"/>
     </row>
     <row r="33" spans="1:12" s="53" customFormat="1">
       <c r="A33" s="56">
@@ -11584,16 +13838,16 @@
       <c r="B33" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="C33" s="191" t="s">
+      <c r="C33" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="188"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="189"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="149"/>
     </row>
     <row r="34" spans="1:12" s="53" customFormat="1" ht="34.5" customHeight="1">
       <c r="A34" s="63">
@@ -11602,42 +13856,42 @@
       <c r="B34" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="C34" s="187" t="s">
+      <c r="C34" s="150" t="s">
         <v>222</v>
       </c>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="189"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="149"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1">
-      <c r="A35" s="163"/>
-      <c r="B35" s="208"/>
-      <c r="C35" s="208"/>
-      <c r="D35" s="208"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="208"/>
-      <c r="G35" s="208"/>
-      <c r="H35" s="208"/>
-      <c r="I35" s="208"/>
-      <c r="J35" s="209"/>
+      <c r="A35" s="166"/>
+      <c r="B35" s="210"/>
+      <c r="C35" s="210"/>
+      <c r="D35" s="210"/>
+      <c r="E35" s="210"/>
+      <c r="F35" s="210"/>
+      <c r="G35" s="210"/>
+      <c r="H35" s="210"/>
+      <c r="I35" s="210"/>
+      <c r="J35" s="211"/>
     </row>
     <row r="36" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A36" s="175" t="s">
+      <c r="A36" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="176"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="176"/>
-      <c r="F36" s="176"/>
-      <c r="G36" s="176"/>
-      <c r="H36" s="176"/>
-      <c r="I36" s="176"/>
-      <c r="J36" s="177"/>
+      <c r="B36" s="178"/>
+      <c r="C36" s="178"/>
+      <c r="D36" s="178"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="178"/>
+      <c r="G36" s="178"/>
+      <c r="H36" s="178"/>
+      <c r="I36" s="178"/>
+      <c r="J36" s="179"/>
     </row>
     <row r="37" spans="1:12" s="79" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="57" t="s">
@@ -11652,14 +13906,14 @@
       <c r="D37" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="193" t="s">
+      <c r="E37" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="194"/>
-      <c r="G37" s="194"/>
-      <c r="H37" s="194"/>
-      <c r="I37" s="194"/>
-      <c r="J37" s="194"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="139"/>
+      <c r="I37" s="139"/>
+      <c r="J37" s="139"/>
       <c r="K37" s="53"/>
       <c r="L37" s="53"/>
     </row>
@@ -11672,26 +13926,26 @@
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="62"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="117"/>
-      <c r="H38" s="117"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="117"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="127"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="127"/>
+      <c r="I38" s="127"/>
+      <c r="J38" s="127"/>
     </row>
     <row r="39" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="160" t="s">
+      <c r="A39" s="163" t="s">
         <v>219</v>
       </c>
-      <c r="B39" s="161"/>
-      <c r="C39" s="161"/>
-      <c r="D39" s="161"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="161"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="161"/>
-      <c r="J39" s="162"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
+      <c r="E39" s="164"/>
+      <c r="F39" s="164"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="164"/>
+      <c r="I39" s="164"/>
+      <c r="J39" s="165"/>
       <c r="K39" s="53"/>
       <c r="L39" s="53"/>
     </row>
@@ -11706,14 +13960,14 @@
         <v>16</v>
       </c>
       <c r="D40" s="66"/>
-      <c r="E40" s="149" t="s">
+      <c r="E40" s="191" t="s">
         <v>102</v>
       </c>
-      <c r="F40" s="117"/>
-      <c r="G40" s="117"/>
-      <c r="H40" s="117"/>
-      <c r="I40" s="117"/>
-      <c r="J40" s="117"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="127"/>
+      <c r="I40" s="127"/>
+      <c r="J40" s="127"/>
     </row>
     <row r="41" spans="1:12" s="53" customFormat="1" ht="116.25" customHeight="1">
       <c r="A41" s="67">
@@ -11726,14 +13980,14 @@
         <v>78</v>
       </c>
       <c r="D41" s="69"/>
-      <c r="E41" s="153" t="s">
+      <c r="E41" s="160" t="s">
         <v>223</v>
       </c>
-      <c r="F41" s="154"/>
-      <c r="G41" s="154"/>
-      <c r="H41" s="154"/>
-      <c r="I41" s="154"/>
-      <c r="J41" s="155"/>
+      <c r="F41" s="161"/>
+      <c r="G41" s="161"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="161"/>
+      <c r="J41" s="162"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="52.5" customHeight="1">
       <c r="A42" s="70">
@@ -11746,106 +14000,106 @@
         <v>79</v>
       </c>
       <c r="D42" s="71"/>
-      <c r="E42" s="136" t="s">
+      <c r="E42" s="180" t="s">
         <v>242</v>
       </c>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="110"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="117"/>
+      <c r="J42" s="118"/>
     </row>
     <row r="43" spans="1:12" s="53" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="146" t="s">
+      <c r="A43" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="147"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="148"/>
+      <c r="B43" s="189"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="189"/>
+      <c r="E43" s="189"/>
+      <c r="F43" s="189"/>
+      <c r="G43" s="189"/>
+      <c r="H43" s="189"/>
+      <c r="I43" s="189"/>
+      <c r="J43" s="190"/>
     </row>
     <row r="44" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="144" t="s">
+      <c r="B44" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="145"/>
-      <c r="D44" s="136" t="s">
+      <c r="C44" s="187"/>
+      <c r="D44" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
-      <c r="G44" s="109"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="109"/>
-      <c r="J44" s="110"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="118"/>
     </row>
     <row r="45" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="141"/>
-      <c r="B45" s="210"/>
-      <c r="C45" s="210"/>
-      <c r="D45" s="210"/>
-      <c r="E45" s="210"/>
-      <c r="F45" s="210"/>
-      <c r="G45" s="210"/>
-      <c r="H45" s="210"/>
-      <c r="I45" s="210"/>
-      <c r="J45" s="211"/>
+      <c r="A45" s="183"/>
+      <c r="B45" s="204"/>
+      <c r="C45" s="204"/>
+      <c r="D45" s="204"/>
+      <c r="E45" s="204"/>
+      <c r="F45" s="204"/>
+      <c r="G45" s="204"/>
+      <c r="H45" s="204"/>
+      <c r="I45" s="204"/>
+      <c r="J45" s="205"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="70"/>
-      <c r="B46" s="139"/>
-      <c r="C46" s="140"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="109"/>
-      <c r="G46" s="109"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="110"/>
+      <c r="B46" s="140"/>
+      <c r="C46" s="156"/>
+      <c r="D46" s="180"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="118"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="70"/>
-      <c r="B47" s="139"/>
-      <c r="C47" s="140"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="109"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="109"/>
-      <c r="J47" s="110"/>
+      <c r="B47" s="140"/>
+      <c r="C47" s="156"/>
+      <c r="D47" s="180"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="117"/>
+      <c r="J47" s="118"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="141"/>
-      <c r="B48" s="210"/>
-      <c r="C48" s="210"/>
-      <c r="D48" s="210"/>
-      <c r="E48" s="210"/>
-      <c r="F48" s="210"/>
-      <c r="G48" s="210"/>
-      <c r="H48" s="210"/>
-      <c r="I48" s="210"/>
-      <c r="J48" s="211"/>
+      <c r="A48" s="183"/>
+      <c r="B48" s="204"/>
+      <c r="C48" s="204"/>
+      <c r="D48" s="204"/>
+      <c r="E48" s="204"/>
+      <c r="F48" s="204"/>
+      <c r="G48" s="204"/>
+      <c r="H48" s="204"/>
+      <c r="I48" s="204"/>
+      <c r="J48" s="205"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="70"/>
-      <c r="B49" s="139"/>
-      <c r="C49" s="140"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="109"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="109"/>
-      <c r="J49" s="110"/>
+      <c r="B49" s="140"/>
+      <c r="C49" s="156"/>
+      <c r="D49" s="180"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="117"/>
+      <c r="I49" s="117"/>
+      <c r="J49" s="118"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
       <c r="A50" s="74" t="s">
@@ -11868,14 +14122,14 @@
       <c r="B51" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="139"/>
-      <c r="D51" s="109"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="109"/>
-      <c r="G51" s="109"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="109"/>
-      <c r="J51" s="110"/>
+      <c r="C51" s="140"/>
+      <c r="D51" s="117"/>
+      <c r="E51" s="117"/>
+      <c r="F51" s="117"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="117"/>
+      <c r="I51" s="117"/>
+      <c r="J51" s="118"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="70">
@@ -11898,11 +14152,34 @@
     <row r="67" s="51" customFormat="1"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C20:J20"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:J49"/>
@@ -11919,34 +14196,11 @@
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="E38:J38"/>
     <mergeCell ref="A39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -11964,11 +14218,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
@@ -12465,7 +14719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
@@ -12547,152 +14801,152 @@
       <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:17" s="89" customFormat="1">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="120"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="115"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="121"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="123"/>
+      <c r="A6" s="133"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="135"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="167"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
+      <c r="A7" s="170"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="173"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="167"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="170"/>
+      <c r="A8" s="170"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="173"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="171"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="173"/>
+      <c r="A9" s="174"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="176"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="120"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="115"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="174" t="s">
+      <c r="A11" s="177" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="110"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="118"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="166" t="s">
+      <c r="A12" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="120"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="115"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="174" t="s">
+      <c r="A13" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="110"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="118"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="120"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="115"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="178" t="s">
+      <c r="A15" s="146" t="s">
         <v>226</v>
       </c>
-      <c r="B15" s="179"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="180"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="152"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
@@ -12701,16 +14955,16 @@
       <c r="B16" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="181" t="s">
+      <c r="C16" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="183"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="148"/>
     </row>
     <row r="17" spans="1:10" s="53" customFormat="1" ht="48.75" customHeight="1">
       <c r="A17" s="56">
@@ -12719,7 +14973,7 @@
       <c r="B17" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="187" t="s">
+      <c r="C17" s="150" t="s">
         <v>202</v>
       </c>
       <c r="D17" s="202"/>
@@ -12737,7 +14991,7 @@
       <c r="B18" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="187" t="s">
+      <c r="C18" s="150" t="s">
         <v>206</v>
       </c>
       <c r="D18" s="202"/>
@@ -12755,7 +15009,7 @@
       <c r="B19" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="150" t="s">
         <v>207</v>
       </c>
       <c r="D19" s="202"/>
@@ -12773,16 +15027,16 @@
       <c r="B20" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="C20" s="191" t="s">
+      <c r="C20" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="188"/>
-      <c r="E20" s="188"/>
-      <c r="F20" s="188"/>
-      <c r="G20" s="188"/>
-      <c r="H20" s="188"/>
-      <c r="I20" s="188"/>
-      <c r="J20" s="189"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="56">
@@ -12791,16 +15045,16 @@
       <c r="B21" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="C21" s="191" t="s">
+      <c r="C21" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="188"/>
-      <c r="E21" s="188"/>
-      <c r="F21" s="188"/>
-      <c r="G21" s="188"/>
-      <c r="H21" s="188"/>
-      <c r="I21" s="188"/>
-      <c r="J21" s="189"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="1:10" s="53" customFormat="1" ht="32.25" customHeight="1">
       <c r="A22" s="56">
@@ -12809,16 +15063,16 @@
       <c r="B22" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="C22" s="187" t="s">
+      <c r="C22" s="150" t="s">
         <v>215</v>
       </c>
-      <c r="D22" s="188"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="188"/>
-      <c r="J22" s="189"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="149"/>
     </row>
     <row r="23" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="63">
@@ -12827,56 +15081,56 @@
       <c r="B23" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="C23" s="187" t="s">
+      <c r="C23" s="150" t="s">
         <v>216</v>
       </c>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="189"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="149"/>
     </row>
     <row r="24" spans="1:10" s="53" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A24" s="204"/>
-      <c r="B24" s="205"/>
-      <c r="C24" s="205"/>
-      <c r="D24" s="205"/>
-      <c r="E24" s="205"/>
-      <c r="F24" s="205"/>
-      <c r="G24" s="205"/>
-      <c r="H24" s="205"/>
-      <c r="I24" s="205"/>
-      <c r="J24" s="206"/>
+      <c r="A24" s="206"/>
+      <c r="B24" s="207"/>
+      <c r="C24" s="207"/>
+      <c r="D24" s="207"/>
+      <c r="E24" s="207"/>
+      <c r="F24" s="207"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="208"/>
     </row>
     <row r="25" spans="1:10" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="175" t="s">
+      <c r="A25" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="192"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="207"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="209"/>
     </row>
     <row r="26" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1">
-      <c r="A26" s="178" t="s">
+      <c r="A26" s="146" t="s">
         <v>229</v>
       </c>
-      <c r="B26" s="179"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="179"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="180"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="152"/>
     </row>
     <row r="27" spans="1:10" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="56" t="s">
@@ -12885,16 +15139,16 @@
       <c r="B27" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="181" t="s">
+      <c r="C27" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="182"/>
-      <c r="E27" s="182"/>
-      <c r="F27" s="182"/>
-      <c r="G27" s="182"/>
-      <c r="H27" s="182"/>
-      <c r="I27" s="182"/>
-      <c r="J27" s="183"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="148"/>
     </row>
     <row r="28" spans="1:10" s="53" customFormat="1" ht="51" customHeight="1">
       <c r="A28" s="56">
@@ -12903,7 +15157,7 @@
       <c r="B28" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="C28" s="187" t="s">
+      <c r="C28" s="150" t="s">
         <v>239</v>
       </c>
       <c r="D28" s="202"/>
@@ -12921,7 +15175,7 @@
       <c r="B29" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="C29" s="187" t="s">
+      <c r="C29" s="150" t="s">
         <v>213</v>
       </c>
       <c r="D29" s="202"/>
@@ -12939,7 +15193,7 @@
       <c r="B30" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="C30" s="187" t="s">
+      <c r="C30" s="150" t="s">
         <v>214</v>
       </c>
       <c r="D30" s="202"/>
@@ -12957,16 +15211,16 @@
       <c r="B31" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="C31" s="191" t="s">
+      <c r="C31" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="189"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="149"/>
     </row>
     <row r="32" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="56">
@@ -12975,16 +15229,16 @@
       <c r="B32" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="C32" s="191" t="s">
+      <c r="C32" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="188"/>
-      <c r="J32" s="189"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="149"/>
     </row>
     <row r="33" spans="1:12" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="56">
@@ -12993,16 +15247,16 @@
       <c r="B33" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="C33" s="191" t="s">
+      <c r="C33" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="188"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="189"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="149"/>
     </row>
     <row r="34" spans="1:12" s="53" customFormat="1" ht="39.75" customHeight="1">
       <c r="A34" s="63">
@@ -13011,42 +15265,42 @@
       <c r="B34" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="C34" s="187" t="s">
+      <c r="C34" s="150" t="s">
         <v>240</v>
       </c>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="189"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="149"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1" ht="27" customHeight="1">
-      <c r="A35" s="163"/>
-      <c r="B35" s="208"/>
-      <c r="C35" s="208"/>
-      <c r="D35" s="208"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="208"/>
-      <c r="G35" s="208"/>
-      <c r="H35" s="208"/>
-      <c r="I35" s="208"/>
-      <c r="J35" s="209"/>
+      <c r="A35" s="166"/>
+      <c r="B35" s="210"/>
+      <c r="C35" s="210"/>
+      <c r="D35" s="210"/>
+      <c r="E35" s="210"/>
+      <c r="F35" s="210"/>
+      <c r="G35" s="210"/>
+      <c r="H35" s="210"/>
+      <c r="I35" s="210"/>
+      <c r="J35" s="211"/>
     </row>
     <row r="36" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="175" t="s">
+      <c r="A36" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="176"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="176"/>
-      <c r="F36" s="176"/>
-      <c r="G36" s="176"/>
-      <c r="H36" s="176"/>
-      <c r="I36" s="176"/>
-      <c r="J36" s="177"/>
+      <c r="B36" s="178"/>
+      <c r="C36" s="178"/>
+      <c r="D36" s="178"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="178"/>
+      <c r="G36" s="178"/>
+      <c r="H36" s="178"/>
+      <c r="I36" s="178"/>
+      <c r="J36" s="179"/>
     </row>
     <row r="37" spans="1:12" s="79" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="57" t="s">
@@ -13061,14 +15315,14 @@
       <c r="D37" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="193" t="s">
+      <c r="E37" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="194"/>
-      <c r="G37" s="194"/>
-      <c r="H37" s="194"/>
-      <c r="I37" s="194"/>
-      <c r="J37" s="194"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="139"/>
+      <c r="I37" s="139"/>
+      <c r="J37" s="139"/>
       <c r="K37" s="53"/>
       <c r="L37" s="53"/>
     </row>
@@ -13081,26 +15335,26 @@
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="62"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="117"/>
-      <c r="H38" s="117"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="117"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="127"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="127"/>
+      <c r="I38" s="127"/>
+      <c r="J38" s="127"/>
     </row>
     <row r="39" spans="1:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A39" s="160" t="s">
+      <c r="A39" s="163" t="s">
         <v>227</v>
       </c>
-      <c r="B39" s="161"/>
-      <c r="C39" s="161"/>
-      <c r="D39" s="161"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="161"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="161"/>
-      <c r="J39" s="162"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
+      <c r="E39" s="164"/>
+      <c r="F39" s="164"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="164"/>
+      <c r="I39" s="164"/>
+      <c r="J39" s="165"/>
       <c r="K39" s="53"/>
       <c r="L39" s="53"/>
     </row>
@@ -13115,14 +15369,14 @@
         <v>16</v>
       </c>
       <c r="D40" s="87"/>
-      <c r="E40" s="153" t="s">
+      <c r="E40" s="160" t="s">
         <v>244</v>
       </c>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="154"/>
-      <c r="I40" s="154"/>
-      <c r="J40" s="155"/>
+      <c r="F40" s="161"/>
+      <c r="G40" s="161"/>
+      <c r="H40" s="161"/>
+      <c r="I40" s="161"/>
+      <c r="J40" s="162"/>
     </row>
     <row r="41" spans="1:12" s="53" customFormat="1" ht="51" customHeight="1">
       <c r="A41" s="70">
@@ -13135,14 +15389,14 @@
         <v>79</v>
       </c>
       <c r="D41" s="86"/>
-      <c r="E41" s="136" t="s">
+      <c r="E41" s="180" t="s">
         <v>242</v>
       </c>
-      <c r="F41" s="109"/>
-      <c r="G41" s="109"/>
-      <c r="H41" s="109"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="110"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="117"/>
+      <c r="J41" s="118"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="100.5" customHeight="1">
       <c r="A42" s="70">
@@ -13155,106 +15409,106 @@
         <v>79</v>
       </c>
       <c r="D42" s="86"/>
-      <c r="E42" s="136" t="s">
+      <c r="E42" s="180" t="s">
         <v>241</v>
       </c>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="110"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="117"/>
+      <c r="J42" s="118"/>
     </row>
     <row r="43" spans="1:12" s="53" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A43" s="146" t="s">
+      <c r="A43" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="147"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="148"/>
+      <c r="B43" s="189"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="189"/>
+      <c r="E43" s="189"/>
+      <c r="F43" s="189"/>
+      <c r="G43" s="189"/>
+      <c r="H43" s="189"/>
+      <c r="I43" s="189"/>
+      <c r="J43" s="190"/>
     </row>
     <row r="44" spans="1:12" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A44" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="144" t="s">
+      <c r="B44" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="145"/>
-      <c r="D44" s="136" t="s">
+      <c r="C44" s="187"/>
+      <c r="D44" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
-      <c r="G44" s="109"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="109"/>
-      <c r="J44" s="110"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="118"/>
     </row>
     <row r="45" spans="1:12" s="55" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A45" s="141"/>
-      <c r="B45" s="210"/>
-      <c r="C45" s="210"/>
-      <c r="D45" s="210"/>
-      <c r="E45" s="210"/>
-      <c r="F45" s="210"/>
-      <c r="G45" s="210"/>
-      <c r="H45" s="210"/>
-      <c r="I45" s="210"/>
-      <c r="J45" s="211"/>
+      <c r="A45" s="183"/>
+      <c r="B45" s="204"/>
+      <c r="C45" s="204"/>
+      <c r="D45" s="204"/>
+      <c r="E45" s="204"/>
+      <c r="F45" s="204"/>
+      <c r="G45" s="204"/>
+      <c r="H45" s="204"/>
+      <c r="I45" s="204"/>
+      <c r="J45" s="205"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1" ht="28.5" customHeight="1">
       <c r="A46" s="70"/>
-      <c r="B46" s="139"/>
-      <c r="C46" s="140"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="109"/>
-      <c r="G46" s="109"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="110"/>
+      <c r="B46" s="140"/>
+      <c r="C46" s="156"/>
+      <c r="D46" s="180"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="118"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A47" s="70"/>
-      <c r="B47" s="139"/>
-      <c r="C47" s="140"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="109"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="109"/>
-      <c r="J47" s="110"/>
+      <c r="B47" s="140"/>
+      <c r="C47" s="156"/>
+      <c r="D47" s="180"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="117"/>
+      <c r="J47" s="118"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A48" s="141"/>
-      <c r="B48" s="210"/>
-      <c r="C48" s="210"/>
-      <c r="D48" s="210"/>
-      <c r="E48" s="210"/>
-      <c r="F48" s="210"/>
-      <c r="G48" s="210"/>
-      <c r="H48" s="210"/>
-      <c r="I48" s="210"/>
-      <c r="J48" s="211"/>
+      <c r="A48" s="183"/>
+      <c r="B48" s="204"/>
+      <c r="C48" s="204"/>
+      <c r="D48" s="204"/>
+      <c r="E48" s="204"/>
+      <c r="F48" s="204"/>
+      <c r="G48" s="204"/>
+      <c r="H48" s="204"/>
+      <c r="I48" s="204"/>
+      <c r="J48" s="205"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="70"/>
-      <c r="B49" s="139"/>
-      <c r="C49" s="140"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="109"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="109"/>
-      <c r="J49" s="110"/>
+      <c r="B49" s="140"/>
+      <c r="C49" s="156"/>
+      <c r="D49" s="180"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="117"/>
+      <c r="I49" s="117"/>
+      <c r="J49" s="118"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="74" t="s">
@@ -13277,14 +15531,14 @@
       <c r="B51" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="139"/>
-      <c r="D51" s="109"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="109"/>
-      <c r="G51" s="109"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="109"/>
-      <c r="J51" s="110"/>
+      <c r="C51" s="140"/>
+      <c r="D51" s="117"/>
+      <c r="E51" s="117"/>
+      <c r="F51" s="117"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="117"/>
+      <c r="I51" s="117"/>
+      <c r="J51" s="118"/>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1">
       <c r="A52" s="70">
@@ -13318,6 +15572,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A26:J26"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="E38:J38"/>
     <mergeCell ref="A39:J39"/>
@@ -13334,39 +15621,6 @@
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A12:J12"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="A43:J43"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -13382,499 +15636,4 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.25" style="38" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="38" customWidth="1"/>
-    <col min="3" max="3" width="21" style="38" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="38" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="38" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="38" customWidth="1"/>
-    <col min="7" max="7" width="15" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="38" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="38" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="38" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="38"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="17.25" thickTop="1">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="158" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-    </row>
-    <row r="4" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-    </row>
-    <row r="5" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="195" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="197"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="40">
-        <f>ROW()-7</f>
-        <v>1</v>
-      </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="83"/>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="195" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="197"/>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="39" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="45">
-        <v>1</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="F12" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="J12" s="213" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="F13" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="J13" s="199"/>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="40">
-        <v>2</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="F14" s="104" t="s">
-        <v>175</v>
-      </c>
-      <c r="G14" s="105" t="s">
-        <v>174</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="40"/>
-      <c r="B15" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="F15" s="104" t="s">
-        <v>176</v>
-      </c>
-      <c r="G15" s="105" t="s">
-        <v>174</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="J15" s="85" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="45">
-        <v>3</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" s="83" t="s">
-        <v>188</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I16" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="J16" s="45" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="45">
-        <v>4</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="J17" s="100"/>
-    </row>
-    <row r="18" spans="1:10" ht="71.25" customHeight="1">
-      <c r="A18" s="40">
-        <v>5</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" s="83" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18" s="83" t="s">
-        <v>183</v>
-      </c>
-      <c r="E18" s="102" t="s">
-        <v>164</v>
-      </c>
-      <c r="F18" s="212" t="s">
-        <v>185</v>
-      </c>
-      <c r="G18" s="201"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="J18" s="101" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="45">
-        <v>6</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="C19" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="J19" s="45"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="F18:G18"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="K1" location="總表!A1" display="回總表"/>
-    <hyperlink ref="K1:K3" location="總表!A1" display="回總表"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/APF/RA006/RA006_APF0201_功能清單設定作業.xlsx
+++ b/APF/RA006/RA006_APF0201_功能清單設定作業.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="263">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -117,10 +117,6 @@
   </si>
   <si>
     <t>項目代號</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -421,19 +417,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>可輸入長度</t>
-    <rPh sb="2" eb="3">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オヨブチョウド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>APF0101MA1_Edit</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -447,10 +430,6 @@
   </si>
   <si>
     <t>項目名稱</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名稱</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -523,10 +502,6 @@
   </si>
   <si>
     <t>I</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>預設值</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -772,21 +747,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>apf_menu_root是無URL的功能，是建結構用的，apf_menu_node是有URL的功能，所以需至此兩table去找，再整合出</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>TreeView</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>功能名稱</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1112,13 +1072,6 @@
   </si>
   <si>
     <t>輸入之功能代號不得存在於APF apf_menu_node 資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 11</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>儲存成功:
-1.在APF0201MM1右下角提示儲存成功訊息，訊息內容請參考APF訊息表 APF_NO 10。
-2.左下方功能清單TreeView重新載入，並顯示新增的功能清單，右下方頁面則保持在原新增畫面
-儲存失敗:以MsgBox顯示錯誤訊息，訊息內容請參考APF訊息表 APF_NO 11。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1312,20 +1265,97 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <r>
+      <t>apf_menu_root是無URL的功能，是建結構用的，apf_menu_node是有URL的功能，所以需至此兩table去找，再整合出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>TreeView</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>儲存成功:
+1.在APF0201MM1右下角提示儲存成功訊息，訊息內容請參考APF訊息表 APF_NO 10。
+2.左下方功能清單TreeView重新載入，並顯示新增的功能清單，右下方頁面則保持在原新增畫面
+儲存失敗:以MsgBox顯示錯誤訊息，訊息內容請參考APF訊息表 APF_NO 11。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名稱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項代號</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項代號</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オヨブ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>對應Table Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>對應Table Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>預設值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入/輸出</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>項目名稱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輸入/輸出</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>IPO Model</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>IPO</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>回總表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2175,6 +2205,51 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2187,24 +2262,6 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2214,12 +2271,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2230,35 +2281,179 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2267,171 +2462,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2454,29 +2484,29 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3607,7 +3637,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="群組 2"/>
+        <xdr:cNvPr id="28" name="群組 2"/>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -3622,7 +3652,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Rectangle 25"/>
+          <xdr:cNvPr id="29" name="Rectangle 25"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3695,7 +3725,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Rectangle 26"/>
+          <xdr:cNvPr id="30" name="Rectangle 26"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3776,7 +3806,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Rectangle 27"/>
+          <xdr:cNvPr id="31" name="Rectangle 27"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3857,7 +3887,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Rectangle 28"/>
+          <xdr:cNvPr id="32" name="Rectangle 28"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3919,7 +3949,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Rectangle 29"/>
+          <xdr:cNvPr id="33" name="Rectangle 29"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3993,7 +4023,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Rectangle 30"/>
+          <xdr:cNvPr id="34" name="Rectangle 30"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4069,7 +4099,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Line 31"/>
+          <xdr:cNvPr id="35" name="Line 31"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4120,10 +4150,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="36865" name="Object 1" hidden="1">
+            <xdr:cNvPr id="36867" name="Object 3" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s36865"/>
+                  <a14:compatExt spid="_x0000_s36867"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4159,7 +4189,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="群組 10"/>
+        <xdr:cNvPr id="37" name="群組 36"/>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -4174,7 +4204,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Rectangle 25"/>
+          <xdr:cNvPr id="38" name="Rectangle 25"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4247,7 +4277,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Rectangle 26"/>
+          <xdr:cNvPr id="39" name="Rectangle 26"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4328,7 +4358,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Rectangle 27"/>
+          <xdr:cNvPr id="40" name="Rectangle 27"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4409,7 +4439,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Rectangle 28"/>
+          <xdr:cNvPr id="41" name="Rectangle 28"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4481,7 +4511,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Rectangle 29"/>
+          <xdr:cNvPr id="42" name="Rectangle 29"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4555,7 +4585,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="Rectangle 30"/>
+          <xdr:cNvPr id="43" name="Rectangle 30"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4631,7 +4661,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="Line 31"/>
+          <xdr:cNvPr id="44" name="Line 31"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4682,10 +4712,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="36866" name="Object 2" hidden="1">
+            <xdr:cNvPr id="36868" name="Object 4" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s36866"/>
+                  <a14:compatExt spid="_x0000_s36868"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4721,7 +4751,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="20" name="群組 19"/>
+        <xdr:cNvPr id="46" name="群組 45"/>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -4736,7 +4766,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="Rectangle 25"/>
+          <xdr:cNvPr id="47" name="Rectangle 25"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4809,7 +4839,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="Rectangle 26"/>
+          <xdr:cNvPr id="48" name="Rectangle 26"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4890,7 +4920,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="Rectangle 27"/>
+          <xdr:cNvPr id="49" name="Rectangle 27"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4971,7 +5001,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="Rectangle 28"/>
+          <xdr:cNvPr id="50" name="Rectangle 28"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5043,7 +5073,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="Rectangle 29"/>
+          <xdr:cNvPr id="51" name="Rectangle 29"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5117,7 +5147,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="Rectangle 30"/>
+          <xdr:cNvPr id="52" name="Rectangle 30"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5193,7 +5223,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="27" name="Line 31"/>
+          <xdr:cNvPr id="53" name="Line 31"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -10167,8 +10197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -10182,7 +10212,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="107" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B1" s="107"/>
       <c r="C1" s="107"/>
@@ -10190,105 +10220,105 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="29" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>53</v>
+      <c r="D3" s="106" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C4" s="31"/>
-      <c r="D4" s="32" t="s">
-        <v>255</v>
+      <c r="D4" s="106" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="108" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D5" s="106" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="108"/>
       <c r="B6" s="31" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="106" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="108" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D7" s="106" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="108"/>
       <c r="B8" s="31" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="106" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
       <c r="A9" s="108" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D9" s="106" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
       <c r="A10" s="108"/>
       <c r="B10" s="31" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="106" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1" thickBot="1">
@@ -10340,7 +10370,8 @@
     <hyperlink ref="D9" location="畫面_APF0201MU1!A1" display="View"/>
     <hyperlink ref="D6" location="畫面_APF0201MM1!A1" display="View"/>
     <hyperlink ref="D5" location="畫面_APF0201MM1!A1" display="View"/>
-    <hyperlink ref="D4" location="IPO!A1" display="View"/>
+    <hyperlink ref="D4" location="功能簡述!A1" display="View"/>
+    <hyperlink ref="D3:D4" location="IPO!A1" display="View"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -10383,7 +10414,7 @@
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
       <c r="K1" s="158" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -10472,7 +10503,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="195" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="196"/>
       <c r="C6" s="196"/>
@@ -10501,22 +10532,22 @@
         <v>14</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -10550,7 +10581,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="195" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B10" s="196"/>
       <c r="C10" s="196"/>
@@ -10570,25 +10601,25 @@
         <v>13</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -10599,29 +10630,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F12" s="103" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J12" s="213" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -10629,20 +10660,20 @@
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
       <c r="D13" s="42" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F13" s="103" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J13" s="199"/>
     </row>
@@ -10651,61 +10682,61 @@
         <v>2</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E14" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="104" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="I14" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="104" t="s">
-        <v>175</v>
-      </c>
-      <c r="G14" s="105" t="s">
-        <v>174</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>177</v>
-      </c>
       <c r="J14" s="38" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="40"/>
       <c r="B15" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F15" s="104" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G15" s="105" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J15" s="85" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -10713,31 +10744,31 @@
         <v>3</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10745,26 +10776,26 @@
         <v>4</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C17" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="D17" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>172</v>
-      </c>
       <c r="F17" s="43" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J17" s="100"/>
     </row>
@@ -10773,27 +10804,27 @@
         <v>5</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E18" s="102" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F18" s="212" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G18" s="201"/>
       <c r="H18" s="83"/>
       <c r="I18" s="40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J18" s="101" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10801,26 +10832,26 @@
         <v>6</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H19" s="40"/>
       <c r="I19" s="40" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -10927,13 +10958,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="6"/>
@@ -10949,10 +10980,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>47</v>
       </c>
       <c r="D6" s="20">
         <v>41563</v>
@@ -11099,17 +11130,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="109" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="M1" s="124" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="110"/>
+      <c r="M2" s="125"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="110"/>
+      <c r="M3" s="125"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -11126,224 +11157,224 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="111" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="113"/>
+    </row>
+    <row r="6" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="121" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="123"/>
+    </row>
+    <row r="7" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="132"/>
-    </row>
-    <row r="6" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="133" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="135"/>
-    </row>
-    <row r="7" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="122" t="s">
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="113" t="s">
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="120"/>
+    </row>
+    <row r="8" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="116" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="110"/>
+    </row>
+    <row r="9" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="115"/>
-    </row>
-    <row r="8" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="130" t="s">
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="120"/>
+    </row>
+    <row r="10" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A10" s="116" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="109" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="110"/>
+    </row>
+    <row r="11" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="114" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="135" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="120"/>
+    </row>
+    <row r="12" spans="1:13" s="55" customFormat="1" ht="16.5">
+      <c r="A12" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="117" t="s">
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="110"/>
+    </row>
+    <row r="13" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="114" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="135" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="120"/>
+    </row>
+    <row r="14" spans="1:13" s="55" customFormat="1" ht="16.5">
+      <c r="A14" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="118"/>
-    </row>
-    <row r="9" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="111" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="115"/>
-    </row>
-    <row r="10" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="130" t="s">
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="110"/>
+    </row>
+    <row r="15" spans="1:13" s="80" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="131"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="132"/>
+    </row>
+    <row r="16" spans="1:13" s="80" customFormat="1" ht="130.5" customHeight="1">
+      <c r="A16" s="133" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="117" t="s">
-        <v>113</v>
-      </c>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="118"/>
-    </row>
-    <row r="11" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="122" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="129" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="115"/>
-    </row>
-    <row r="12" spans="1:13" s="55" customFormat="1" ht="16.5">
-      <c r="A12" s="130" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="118"/>
-    </row>
-    <row r="13" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="122" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="129" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="115"/>
-    </row>
-    <row r="14" spans="1:13" s="55" customFormat="1" ht="16.5">
-      <c r="A14" s="130" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="118"/>
-    </row>
-    <row r="15" spans="1:13" s="80" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="116" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="125"/>
-    </row>
-    <row r="16" spans="1:13" s="80" customFormat="1" ht="130.5" customHeight="1">
-      <c r="A16" s="126" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="128"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="134"/>
     </row>
     <row r="17" spans="1:12" s="82" customFormat="1" ht="16.5">
-      <c r="A17" s="116" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="118"/>
+      <c r="A17" s="111" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="110"/>
     </row>
     <row r="18" spans="1:12" s="82" customFormat="1" ht="14.25"/>
     <row r="19" spans="1:12" s="82" customFormat="1" ht="14.25"/>
@@ -11390,30 +11421,23 @@
     <row r="60" s="82" customFormat="1" ht="14.25"/>
     <row r="61" s="82" customFormat="1" ht="14.25"/>
     <row r="68" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A68" s="119" t="s">
-        <v>49</v>
-      </c>
-      <c r="B68" s="120"/>
-      <c r="C68" s="120"/>
-      <c r="D68" s="120"/>
-      <c r="E68" s="120"/>
-      <c r="F68" s="120"/>
-      <c r="G68" s="120"/>
-      <c r="H68" s="120"/>
-      <c r="I68" s="120"/>
-      <c r="J68" s="120"/>
-      <c r="K68" s="120"/>
-      <c r="L68" s="121"/>
+      <c r="A68" s="128" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="129"/>
+      <c r="C68" s="129"/>
+      <c r="D68" s="129"/>
+      <c r="E68" s="129"/>
+      <c r="F68" s="129"/>
+      <c r="G68" s="129"/>
+      <c r="H68" s="129"/>
+      <c r="I68" s="129"/>
+      <c r="J68" s="129"/>
+      <c r="K68" s="129"/>
+      <c r="L68" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -11430,6 +11454,13 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -11500,22 +11531,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="109" t="s">
-        <v>256</v>
+      <c r="P1" s="124" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="110"/>
+      <c r="P2" s="125"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="110"/>
+      <c r="P3" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11527,14 +11558,13 @@
     <hyperlink ref="P1:P3" location="總表!A1" display="回總表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="36865" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
+        <oleObject progId="Visio.Drawing.11" shapeId="36867" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -11553,13 +11583,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="36865" r:id="rId4"/>
+        <oleObject progId="Visio.Drawing.11" shapeId="36867" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="36866" r:id="rId6">
-          <objectPr defaultSize="0" r:id="rId7">
+        <oleObject progId="Visio.Drawing.11" shapeId="36868" r:id="rId5">
+          <objectPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -11578,7 +11608,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="36866" r:id="rId6"/>
+        <oleObject progId="Visio.Drawing.11" shapeId="36868" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -11622,7 +11652,7 @@
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
       <c r="K1" s="158" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L1" s="51"/>
       <c r="M1" s="51"/>
@@ -11670,416 +11700,416 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="52" customFormat="1">
-      <c r="A5" s="169" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="115"/>
+      <c r="A5" s="166" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="120"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="133"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="170"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="173"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="170"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="173"/>
+      <c r="A8" s="167"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="170"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="174"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="176"/>
+      <c r="A9" s="171"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="173"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="115"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="177" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="118"/>
+      <c r="A11" s="174" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="110"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="115"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="120"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="118"/>
+      <c r="A13" s="174" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="110"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="115"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="120"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="146" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="152"/>
+      <c r="A15" s="178" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="179"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="180"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="142" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="148"/>
+        <v>78</v>
+      </c>
+      <c r="C16" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="183"/>
     </row>
     <row r="17" spans="1:12" s="53" customFormat="1">
       <c r="A17" s="56">
         <v>1</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="153" t="s">
-        <v>245</v>
-      </c>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="155"/>
+        <v>114</v>
+      </c>
+      <c r="C17" s="184" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" s="185"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="185"/>
+      <c r="J17" s="186"/>
     </row>
     <row r="18" spans="1:12" s="53" customFormat="1" ht="30.75" customHeight="1">
       <c r="A18" s="56">
         <v>2</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="150" t="s">
-        <v>246</v>
-      </c>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="149"/>
+        <v>149</v>
+      </c>
+      <c r="C18" s="187" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18" s="188"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="189"/>
     </row>
     <row r="19" spans="1:12" s="53" customFormat="1" ht="33.75" customHeight="1">
       <c r="A19" s="56">
         <v>3</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="150" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="149"/>
+        <v>116</v>
+      </c>
+      <c r="C19" s="187" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="188"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="188"/>
+      <c r="J19" s="189"/>
     </row>
     <row r="20" spans="1:12" s="53" customFormat="1">
-      <c r="A20" s="140"/>
-      <c r="B20" s="141"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="156"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="140"/>
     </row>
     <row r="21" spans="1:12" s="53" customFormat="1">
-      <c r="A21" s="146" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="A21" s="178" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="179"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="180"/>
     </row>
     <row r="22" spans="1:12" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="142" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="148"/>
+        <v>78</v>
+      </c>
+      <c r="C22" s="181" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="182"/>
+      <c r="E22" s="182"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="182"/>
+      <c r="H22" s="182"/>
+      <c r="I22" s="182"/>
+      <c r="J22" s="183"/>
     </row>
     <row r="23" spans="1:12" s="53" customFormat="1">
       <c r="A23" s="56">
         <v>1</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="144" t="s">
-        <v>247</v>
-      </c>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="149"/>
+        <v>150</v>
+      </c>
+      <c r="C23" s="191" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="189"/>
     </row>
     <row r="24" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A24" s="56">
         <v>2</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="144" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="149"/>
+        <v>79</v>
+      </c>
+      <c r="C24" s="191" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="188"/>
+      <c r="J24" s="189"/>
     </row>
     <row r="25" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A25" s="56">
         <v>3</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="144" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="149"/>
+        <v>82</v>
+      </c>
+      <c r="C25" s="191" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="188"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="188"/>
+      <c r="G25" s="188"/>
+      <c r="H25" s="188"/>
+      <c r="I25" s="188"/>
+      <c r="J25" s="189"/>
     </row>
     <row r="26" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A26" s="56">
         <v>4</v>
       </c>
       <c r="B26" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="191" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="144" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="145"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="149"/>
+      <c r="D26" s="188"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="188"/>
+      <c r="I26" s="188"/>
+      <c r="J26" s="189"/>
     </row>
     <row r="27" spans="1:12" s="53" customFormat="1">
-      <c r="A27" s="166"/>
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="168"/>
+      <c r="A27" s="163"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="164"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="165"/>
     </row>
     <row r="28" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="136" t="s">
+      <c r="A28" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="178"/>
-      <c r="C28" s="178"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="179"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="176"/>
+      <c r="D28" s="176"/>
+      <c r="E28" s="176"/>
+      <c r="F28" s="176"/>
+      <c r="G28" s="176"/>
+      <c r="H28" s="176"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="177"/>
     </row>
     <row r="29" spans="1:12" s="53" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="146" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="151"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="152"/>
+      <c r="A29" s="178" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="179"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="179"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="179"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="179"/>
+      <c r="J29" s="180"/>
     </row>
     <row r="30" spans="1:12" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="142" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="148"/>
+        <v>78</v>
+      </c>
+      <c r="C30" s="181" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="182"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="182"/>
+      <c r="G30" s="182"/>
+      <c r="H30" s="182"/>
+      <c r="I30" s="182"/>
+      <c r="J30" s="183"/>
     </row>
     <row r="31" spans="1:12" s="53" customFormat="1">
       <c r="A31" s="56">
         <v>1</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="144" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="145"/>
+        <v>114</v>
+      </c>
+      <c r="C31" s="191" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="188"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="188"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="188"/>
       <c r="K31" s="95"/>
       <c r="L31" s="93"/>
     </row>
@@ -12088,18 +12118,18 @@
         <v>2</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="C32" s="150" t="s">
-        <v>252</v>
-      </c>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="145"/>
+        <v>243</v>
+      </c>
+      <c r="C32" s="187" t="s">
+        <v>246</v>
+      </c>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="188"/>
+      <c r="J32" s="188"/>
       <c r="K32" s="95"/>
       <c r="L32" s="92"/>
     </row>
@@ -12108,48 +12138,48 @@
         <v>3</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>250</v>
-      </c>
-      <c r="C33" s="150" t="s">
-        <v>251</v>
-      </c>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="145"/>
+        <v>244</v>
+      </c>
+      <c r="C33" s="187" t="s">
+        <v>245</v>
+      </c>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="188"/>
       <c r="K33" s="95"/>
       <c r="L33" s="94"/>
     </row>
     <row r="34" spans="1:12" s="53" customFormat="1">
-      <c r="A34" s="140"/>
-      <c r="B34" s="141"/>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="141"/>
+      <c r="A34" s="139"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="156"/>
+      <c r="J34" s="156"/>
       <c r="K34" s="95"/>
       <c r="L34" s="94"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1">
-      <c r="A35" s="146" t="s">
-        <v>139</v>
-      </c>
-      <c r="B35" s="147"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
+      <c r="A35" s="178" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="190"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="190"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="190"/>
+      <c r="J35" s="190"/>
       <c r="K35" s="95"/>
       <c r="L35" s="92"/>
     </row>
@@ -12158,18 +12188,18 @@
         <v>6</v>
       </c>
       <c r="B36" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="142" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="143"/>
-      <c r="E36" s="143"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="143"/>
+        <v>78</v>
+      </c>
+      <c r="C36" s="181" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="182"/>
+      <c r="E36" s="182"/>
+      <c r="F36" s="182"/>
+      <c r="G36" s="182"/>
+      <c r="H36" s="182"/>
+      <c r="I36" s="182"/>
+      <c r="J36" s="182"/>
       <c r="K36" s="95"/>
       <c r="L36" s="94"/>
     </row>
@@ -12178,18 +12208,18 @@
         <v>1</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="144" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="145"/>
-      <c r="E37" s="145"/>
-      <c r="F37" s="145"/>
-      <c r="G37" s="145"/>
-      <c r="H37" s="145"/>
-      <c r="I37" s="145"/>
-      <c r="J37" s="145"/>
+        <v>115</v>
+      </c>
+      <c r="C37" s="191" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="188"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="188"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="188"/>
+      <c r="J37" s="188"/>
       <c r="K37" s="95"/>
       <c r="L37" s="94"/>
     </row>
@@ -12198,18 +12228,18 @@
         <v>2</v>
       </c>
       <c r="B38" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="144" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="145"/>
-      <c r="E38" s="145"/>
-      <c r="F38" s="145"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="145"/>
-      <c r="I38" s="145"/>
-      <c r="J38" s="145"/>
+        <v>79</v>
+      </c>
+      <c r="C38" s="191" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="188"/>
+      <c r="E38" s="188"/>
+      <c r="F38" s="188"/>
+      <c r="G38" s="188"/>
+      <c r="H38" s="188"/>
+      <c r="I38" s="188"/>
+      <c r="J38" s="188"/>
       <c r="K38" s="95"/>
       <c r="L38" s="94"/>
     </row>
@@ -12218,18 +12248,18 @@
         <v>3</v>
       </c>
       <c r="B39" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="144" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="145"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="145"/>
-      <c r="G39" s="145"/>
-      <c r="H39" s="145"/>
-      <c r="I39" s="145"/>
-      <c r="J39" s="145"/>
+        <v>82</v>
+      </c>
+      <c r="C39" s="191" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="188"/>
+      <c r="E39" s="188"/>
+      <c r="F39" s="188"/>
+      <c r="G39" s="188"/>
+      <c r="H39" s="188"/>
+      <c r="I39" s="188"/>
+      <c r="J39" s="188"/>
       <c r="K39" s="95"/>
       <c r="L39" s="94"/>
     </row>
@@ -12238,72 +12268,72 @@
         <v>4</v>
       </c>
       <c r="B40" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="191" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="144" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="145"/>
-      <c r="E40" s="145"/>
-      <c r="F40" s="145"/>
-      <c r="G40" s="145"/>
-      <c r="H40" s="145"/>
-      <c r="I40" s="145"/>
-      <c r="J40" s="145"/>
+      <c r="D40" s="188"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="188"/>
+      <c r="G40" s="188"/>
+      <c r="H40" s="188"/>
+      <c r="I40" s="188"/>
+      <c r="J40" s="188"/>
       <c r="K40" s="95"/>
       <c r="L40" s="92"/>
     </row>
     <row r="41" spans="1:12" s="53" customFormat="1">
-      <c r="A41" s="140"/>
-      <c r="B41" s="141"/>
-      <c r="C41" s="141"/>
-      <c r="D41" s="141"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="141"/>
-      <c r="H41" s="141"/>
-      <c r="I41" s="141"/>
-      <c r="J41" s="141"/>
+      <c r="A41" s="139"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="156"/>
+      <c r="E41" s="156"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="156"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="156"/>
+      <c r="J41" s="156"/>
       <c r="K41" s="95"/>
       <c r="L41" s="92"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="136" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="137"/>
-      <c r="C42" s="137"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="137"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="137"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="137"/>
-      <c r="J42" s="137"/>
+      <c r="A42" s="175" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="192"/>
+      <c r="C42" s="192"/>
+      <c r="D42" s="192"/>
+      <c r="E42" s="192"/>
+      <c r="F42" s="192"/>
+      <c r="G42" s="192"/>
+      <c r="H42" s="192"/>
+      <c r="I42" s="192"/>
+      <c r="J42" s="192"/>
       <c r="K42" s="95"/>
       <c r="L42" s="92"/>
     </row>
     <row r="43" spans="1:12" s="55" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="57" t="s">
+      <c r="C43" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="58" t="s">
+      <c r="D43" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="59" t="s">
+      <c r="E43" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="138" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="139"/>
-      <c r="G43" s="139"/>
-      <c r="H43" s="139"/>
-      <c r="I43" s="139"/>
-      <c r="J43" s="139"/>
+      <c r="F43" s="194"/>
+      <c r="G43" s="194"/>
+      <c r="H43" s="194"/>
+      <c r="I43" s="194"/>
+      <c r="J43" s="194"/>
       <c r="K43" s="53"/>
       <c r="L43" s="53"/>
     </row>
@@ -12312,334 +12342,334 @@
         <v>1</v>
       </c>
       <c r="B44" s="60" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C44" s="61"/>
       <c r="D44" s="62"/>
-      <c r="E44" s="191" t="s">
-        <v>248</v>
-      </c>
-      <c r="F44" s="127"/>
-      <c r="G44" s="127"/>
-      <c r="H44" s="127"/>
-      <c r="I44" s="127"/>
-      <c r="J44" s="127"/>
+      <c r="E44" s="149" t="s">
+        <v>242</v>
+      </c>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="117"/>
     </row>
     <row r="45" spans="1:12" s="53" customFormat="1">
       <c r="A45" s="63"/>
-      <c r="B45" s="141"/>
-      <c r="C45" s="141"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="156"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="156"/>
+      <c r="D45" s="156"/>
+      <c r="E45" s="156"/>
+      <c r="F45" s="156"/>
+      <c r="G45" s="156"/>
+      <c r="H45" s="156"/>
+      <c r="I45" s="156"/>
+      <c r="J45" s="140"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1">
-      <c r="A46" s="163" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="164"/>
-      <c r="C46" s="164"/>
-      <c r="D46" s="164"/>
-      <c r="E46" s="164"/>
-      <c r="F46" s="164"/>
-      <c r="G46" s="164"/>
-      <c r="H46" s="164"/>
-      <c r="I46" s="164"/>
-      <c r="J46" s="165"/>
+      <c r="A46" s="160" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="161"/>
+      <c r="C46" s="161"/>
+      <c r="D46" s="161"/>
+      <c r="E46" s="161"/>
+      <c r="F46" s="161"/>
+      <c r="G46" s="161"/>
+      <c r="H46" s="161"/>
+      <c r="I46" s="161"/>
+      <c r="J46" s="162"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="56">
         <v>1</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C47" s="65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" s="66"/>
-      <c r="E47" s="191" t="s">
-        <v>70</v>
-      </c>
-      <c r="F47" s="127"/>
-      <c r="G47" s="127"/>
-      <c r="H47" s="127"/>
-      <c r="I47" s="127"/>
-      <c r="J47" s="127"/>
+      <c r="E47" s="149" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="117"/>
+      <c r="J47" s="117"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1">
       <c r="A48" s="67">
         <v>2</v>
       </c>
       <c r="B48" s="68" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C48" s="65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" s="69"/>
-      <c r="E48" s="160" t="s">
-        <v>136</v>
-      </c>
-      <c r="F48" s="161"/>
-      <c r="G48" s="161"/>
-      <c r="H48" s="161"/>
-      <c r="I48" s="161"/>
-      <c r="J48" s="162"/>
+      <c r="E48" s="153" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" s="154"/>
+      <c r="G48" s="154"/>
+      <c r="H48" s="154"/>
+      <c r="I48" s="154"/>
+      <c r="J48" s="155"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1">
       <c r="A49" s="70">
         <v>3</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C49" s="65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49" s="71"/>
-      <c r="E49" s="180" t="s">
-        <v>137</v>
-      </c>
-      <c r="F49" s="117"/>
-      <c r="G49" s="117"/>
-      <c r="H49" s="117"/>
-      <c r="I49" s="117"/>
-      <c r="J49" s="118"/>
+      <c r="E49" s="136" t="s">
+        <v>133</v>
+      </c>
+      <c r="F49" s="109"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="110"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1">
       <c r="A50" s="72"/>
-      <c r="B50" s="141"/>
-      <c r="C50" s="141"/>
-      <c r="D50" s="141"/>
-      <c r="E50" s="141"/>
-      <c r="F50" s="141"/>
-      <c r="G50" s="141"/>
-      <c r="H50" s="141"/>
-      <c r="I50" s="141"/>
-      <c r="J50" s="156"/>
+      <c r="B50" s="156"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="156"/>
+      <c r="E50" s="156"/>
+      <c r="F50" s="156"/>
+      <c r="G50" s="156"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="140"/>
     </row>
     <row r="51" spans="1:10" s="53" customFormat="1">
-      <c r="A51" s="192" t="s">
-        <v>138</v>
-      </c>
-      <c r="B51" s="193"/>
-      <c r="C51" s="193"/>
-      <c r="D51" s="193"/>
-      <c r="E51" s="193"/>
-      <c r="F51" s="193"/>
-      <c r="G51" s="193"/>
-      <c r="H51" s="193"/>
-      <c r="I51" s="193"/>
-      <c r="J51" s="194"/>
+      <c r="A51" s="150" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="151"/>
+      <c r="C51" s="151"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="151"/>
+      <c r="F51" s="151"/>
+      <c r="G51" s="151"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="151"/>
+      <c r="J51" s="152"/>
     </row>
     <row r="52" spans="1:10" s="53" customFormat="1">
       <c r="A52" s="56">
         <v>1</v>
       </c>
       <c r="B52" s="83" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C52" s="65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D52" s="66"/>
-      <c r="E52" s="191" t="s">
-        <v>163</v>
-      </c>
-      <c r="F52" s="127"/>
-      <c r="G52" s="127"/>
-      <c r="H52" s="127"/>
-      <c r="I52" s="127"/>
-      <c r="J52" s="127"/>
+      <c r="E52" s="149" t="s">
+        <v>158</v>
+      </c>
+      <c r="F52" s="117"/>
+      <c r="G52" s="117"/>
+      <c r="H52" s="117"/>
+      <c r="I52" s="117"/>
+      <c r="J52" s="117"/>
     </row>
     <row r="53" spans="1:10" s="53" customFormat="1" ht="66" customHeight="1">
       <c r="A53" s="56">
         <v>2</v>
       </c>
       <c r="B53" s="83" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D53" s="69"/>
-      <c r="E53" s="191" t="s">
-        <v>243</v>
-      </c>
-      <c r="F53" s="127"/>
-      <c r="G53" s="127"/>
-      <c r="H53" s="127"/>
-      <c r="I53" s="127"/>
-      <c r="J53" s="127"/>
+      <c r="E53" s="149" t="s">
+        <v>237</v>
+      </c>
+      <c r="F53" s="117"/>
+      <c r="G53" s="117"/>
+      <c r="H53" s="117"/>
+      <c r="I53" s="117"/>
+      <c r="J53" s="117"/>
     </row>
     <row r="54" spans="1:10" s="53" customFormat="1">
       <c r="A54" s="56">
         <v>3</v>
       </c>
       <c r="B54" s="83" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C54" s="65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54" s="69"/>
-      <c r="E54" s="160" t="s">
-        <v>161</v>
-      </c>
-      <c r="F54" s="161"/>
-      <c r="G54" s="161"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="161"/>
-      <c r="J54" s="162"/>
+      <c r="E54" s="153" t="s">
+        <v>156</v>
+      </c>
+      <c r="F54" s="154"/>
+      <c r="G54" s="154"/>
+      <c r="H54" s="154"/>
+      <c r="I54" s="154"/>
+      <c r="J54" s="155"/>
     </row>
     <row r="55" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
       <c r="A55" s="56">
         <v>4</v>
       </c>
       <c r="B55" s="83" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C55" s="65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D55" s="69"/>
-      <c r="E55" s="160" t="s">
-        <v>162</v>
-      </c>
-      <c r="F55" s="161"/>
-      <c r="G55" s="161"/>
-      <c r="H55" s="161"/>
-      <c r="I55" s="161"/>
-      <c r="J55" s="162"/>
+      <c r="E55" s="153" t="s">
+        <v>157</v>
+      </c>
+      <c r="F55" s="154"/>
+      <c r="G55" s="154"/>
+      <c r="H55" s="154"/>
+      <c r="I55" s="154"/>
+      <c r="J55" s="155"/>
     </row>
     <row r="56" spans="1:10" s="53" customFormat="1" hidden="1">
       <c r="A56" s="56">
         <v>5</v>
       </c>
       <c r="B56" s="97" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C56" s="65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D56" s="69"/>
-      <c r="E56" s="160" t="s">
-        <v>103</v>
-      </c>
-      <c r="F56" s="161"/>
-      <c r="G56" s="161"/>
-      <c r="H56" s="161"/>
-      <c r="I56" s="161"/>
-      <c r="J56" s="162"/>
+      <c r="E56" s="153" t="s">
+        <v>99</v>
+      </c>
+      <c r="F56" s="154"/>
+      <c r="G56" s="154"/>
+      <c r="H56" s="154"/>
+      <c r="I56" s="154"/>
+      <c r="J56" s="155"/>
     </row>
     <row r="57" spans="1:10" s="53" customFormat="1">
       <c r="A57" s="73"/>
-      <c r="B57" s="141"/>
-      <c r="C57" s="141"/>
-      <c r="D57" s="141"/>
-      <c r="E57" s="141"/>
-      <c r="F57" s="141"/>
-      <c r="G57" s="141"/>
-      <c r="H57" s="141"/>
-      <c r="I57" s="141"/>
-      <c r="J57" s="156"/>
+      <c r="B57" s="156"/>
+      <c r="C57" s="156"/>
+      <c r="D57" s="156"/>
+      <c r="E57" s="156"/>
+      <c r="F57" s="156"/>
+      <c r="G57" s="156"/>
+      <c r="H57" s="156"/>
+      <c r="I57" s="156"/>
+      <c r="J57" s="140"/>
     </row>
     <row r="58" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="188" t="s">
+      <c r="A58" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="189"/>
-      <c r="C58" s="189"/>
-      <c r="D58" s="189"/>
-      <c r="E58" s="189"/>
-      <c r="F58" s="189"/>
-      <c r="G58" s="189"/>
-      <c r="H58" s="189"/>
-      <c r="I58" s="189"/>
-      <c r="J58" s="190"/>
+      <c r="B58" s="147"/>
+      <c r="C58" s="147"/>
+      <c r="D58" s="147"/>
+      <c r="E58" s="147"/>
+      <c r="F58" s="147"/>
+      <c r="G58" s="147"/>
+      <c r="H58" s="147"/>
+      <c r="I58" s="147"/>
+      <c r="J58" s="148"/>
     </row>
     <row r="59" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="186" t="s">
+      <c r="B59" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="187"/>
-      <c r="D59" s="180" t="s">
+      <c r="C59" s="145"/>
+      <c r="D59" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="117"/>
-      <c r="F59" s="117"/>
-      <c r="G59" s="117"/>
-      <c r="H59" s="117"/>
-      <c r="I59" s="117"/>
-      <c r="J59" s="118"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="109"/>
+      <c r="H59" s="109"/>
+      <c r="I59" s="109"/>
+      <c r="J59" s="110"/>
     </row>
     <row r="60" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="183"/>
-      <c r="B60" s="184"/>
-      <c r="C60" s="184"/>
-      <c r="D60" s="184"/>
-      <c r="E60" s="184"/>
-      <c r="F60" s="184"/>
-      <c r="G60" s="184"/>
-      <c r="H60" s="184"/>
-      <c r="I60" s="184"/>
-      <c r="J60" s="185"/>
+      <c r="A60" s="141"/>
+      <c r="B60" s="142"/>
+      <c r="C60" s="142"/>
+      <c r="D60" s="142"/>
+      <c r="E60" s="142"/>
+      <c r="F60" s="142"/>
+      <c r="G60" s="142"/>
+      <c r="H60" s="142"/>
+      <c r="I60" s="142"/>
+      <c r="J60" s="143"/>
     </row>
     <row r="61" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="70"/>
-      <c r="B61" s="140"/>
-      <c r="C61" s="156"/>
-      <c r="D61" s="180"/>
-      <c r="E61" s="181"/>
-      <c r="F61" s="181"/>
-      <c r="G61" s="181"/>
-      <c r="H61" s="181"/>
-      <c r="I61" s="181"/>
-      <c r="J61" s="182"/>
+      <c r="B61" s="139"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="136"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="G61" s="137"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="137"/>
+      <c r="J61" s="138"/>
     </row>
     <row r="62" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="70"/>
-      <c r="B62" s="140"/>
-      <c r="C62" s="156"/>
-      <c r="D62" s="180"/>
-      <c r="E62" s="181"/>
-      <c r="F62" s="181"/>
-      <c r="G62" s="181"/>
-      <c r="H62" s="181"/>
-      <c r="I62" s="181"/>
-      <c r="J62" s="182"/>
+      <c r="B62" s="139"/>
+      <c r="C62" s="140"/>
+      <c r="D62" s="136"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="137"/>
+      <c r="G62" s="137"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="137"/>
+      <c r="J62" s="138"/>
     </row>
     <row r="63" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="183"/>
-      <c r="B63" s="184"/>
-      <c r="C63" s="184"/>
-      <c r="D63" s="184"/>
-      <c r="E63" s="184"/>
-      <c r="F63" s="184"/>
-      <c r="G63" s="184"/>
-      <c r="H63" s="184"/>
-      <c r="I63" s="184"/>
-      <c r="J63" s="185"/>
+      <c r="A63" s="141"/>
+      <c r="B63" s="142"/>
+      <c r="C63" s="142"/>
+      <c r="D63" s="142"/>
+      <c r="E63" s="142"/>
+      <c r="F63" s="142"/>
+      <c r="G63" s="142"/>
+      <c r="H63" s="142"/>
+      <c r="I63" s="142"/>
+      <c r="J63" s="143"/>
     </row>
     <row r="64" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="70"/>
-      <c r="B64" s="140"/>
-      <c r="C64" s="156"/>
-      <c r="D64" s="180"/>
-      <c r="E64" s="181"/>
-      <c r="F64" s="181"/>
-      <c r="G64" s="181"/>
-      <c r="H64" s="181"/>
-      <c r="I64" s="181"/>
-      <c r="J64" s="182"/>
+      <c r="B64" s="139"/>
+      <c r="C64" s="140"/>
+      <c r="D64" s="136"/>
+      <c r="E64" s="137"/>
+      <c r="F64" s="137"/>
+      <c r="G64" s="137"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="137"/>
+      <c r="J64" s="138"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="74" t="s">
@@ -12662,14 +12692,14 @@
       <c r="B66" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="140"/>
-      <c r="D66" s="117"/>
-      <c r="E66" s="117"/>
-      <c r="F66" s="117"/>
-      <c r="G66" s="117"/>
-      <c r="H66" s="117"/>
-      <c r="I66" s="117"/>
-      <c r="J66" s="118"/>
+      <c r="C66" s="139"/>
+      <c r="D66" s="109"/>
+      <c r="E66" s="109"/>
+      <c r="F66" s="109"/>
+      <c r="G66" s="109"/>
+      <c r="H66" s="109"/>
+      <c r="I66" s="109"/>
+      <c r="J66" s="110"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="70">
@@ -12689,11 +12719,49 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="D64:J64"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="D61:J61"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="A60:J60"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="A58:J58"/>
@@ -12710,49 +12778,11 @@
     <mergeCell ref="B45:J45"/>
     <mergeCell ref="B50:J50"/>
     <mergeCell ref="B57:J57"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="D61:J61"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="B62:C62"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -12774,8 +12804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12806,7 +12836,7 @@
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
       <c r="K1" s="158" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -12895,7 +12925,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="195" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="196"/>
       <c r="C6" s="196"/>
@@ -12915,31 +12945,31 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
-        <v>2</v>
+        <v>250</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>93</v>
+        <v>257</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -12973,7 +13003,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="195" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B10" s="196"/>
       <c r="C10" s="196"/>
@@ -12987,31 +13017,31 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>93</v>
+        <v>257</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -13022,27 +13052,27 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F12" s="200" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G12" s="201"/>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J12" s="45" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="25.5" customHeight="1">
@@ -13050,29 +13080,29 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="99" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E13" s="99" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="91" t="s">
-        <v>123</v>
-      </c>
       <c r="G13" s="91" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J13" s="198" t="s">
-        <v>153</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="22.5" customHeight="1">
@@ -13081,17 +13111,17 @@
       <c r="C14" s="46"/>
       <c r="D14" s="42"/>
       <c r="E14" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="91" t="s">
         <v>143</v>
-      </c>
-      <c r="F14" s="91" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" s="91" t="s">
-        <v>147</v>
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J14" s="199"/>
     </row>
@@ -13100,32 +13130,32 @@
         <v>3</v>
       </c>
       <c r="B15" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>124</v>
-      </c>
       <c r="G15" s="91" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J15" s="48"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="195" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B17" s="196"/>
       <c r="C17" s="196"/>
@@ -13139,31 +13169,31 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="39" t="s">
-        <v>2</v>
+        <v>249</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>13</v>
+        <v>259</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>26</v>
+        <v>252</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>24</v>
+        <v>255</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="J18" s="39" t="s">
         <v>0</v>
@@ -13174,26 +13204,26 @@
         <v>1</v>
       </c>
       <c r="B19" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="E19" s="96" t="s">
-        <v>148</v>
-      </c>
-      <c r="F19" s="91" t="s">
-        <v>123</v>
-      </c>
       <c r="G19" s="91" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -13203,17 +13233,17 @@
       <c r="C20" s="41"/>
       <c r="D20" s="42"/>
       <c r="E20" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="91" t="s">
         <v>143</v>
-      </c>
-      <c r="F20" s="91" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="91" t="s">
-        <v>147</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J20" s="45"/>
     </row>
@@ -13222,27 +13252,27 @@
         <v>3</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="43" t="s">
-        <v>62</v>
-      </c>
       <c r="G21" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J21" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:11" hidden="1">
@@ -13250,27 +13280,27 @@
         <v>4</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="G22" s="46" t="s">
         <v>64</v>
-      </c>
-      <c r="G22" s="46" t="s">
-        <v>65</v>
       </c>
       <c r="H22" s="46"/>
       <c r="I22" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J22" s="48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -13314,8 +13344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13344,7 +13374,7 @@
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
       <c r="K1" s="158" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L1" s="51"/>
       <c r="M1" s="51"/>
@@ -13392,180 +13422,180 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="52" customFormat="1">
-      <c r="A5" s="169" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="115"/>
+      <c r="A5" s="166" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="120"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="133"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="170"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="173"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="170"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="173"/>
+      <c r="A8" s="167"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="170"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="174"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="176"/>
+      <c r="A9" s="171"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="173"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="115"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="177" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="118"/>
+      <c r="A11" s="174" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="110"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="115"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="120"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="118"/>
+      <c r="A13" s="174" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="110"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="115"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="120"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="146" t="s">
-        <v>205</v>
-      </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="152"/>
+      <c r="A15" s="178" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="179"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="180"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="142" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="148"/>
+        <v>78</v>
+      </c>
+      <c r="C16" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="183"/>
     </row>
     <row r="17" spans="1:10" s="53" customFormat="1" ht="64.5" customHeight="1">
       <c r="A17" s="56">
         <v>1</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="150" t="s">
-        <v>202</v>
+        <v>150</v>
+      </c>
+      <c r="C17" s="187" t="s">
+        <v>197</v>
       </c>
       <c r="D17" s="202"/>
       <c r="E17" s="202"/>
@@ -13580,10 +13610,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>210</v>
-      </c>
-      <c r="C18" s="150" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="C18" s="187" t="s">
+        <v>201</v>
       </c>
       <c r="D18" s="202"/>
       <c r="E18" s="202"/>
@@ -13598,10 +13628,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="C19" s="150" t="s">
-        <v>207</v>
+        <v>204</v>
+      </c>
+      <c r="C19" s="187" t="s">
+        <v>202</v>
       </c>
       <c r="D19" s="202"/>
       <c r="E19" s="202"/>
@@ -13616,140 +13646,140 @@
         <v>3</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="C20" s="144" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="149"/>
+        <v>190</v>
+      </c>
+      <c r="C20" s="191" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="188"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="188"/>
+      <c r="J20" s="189"/>
     </row>
     <row r="21" spans="1:10" s="53" customFormat="1">
       <c r="A21" s="56">
         <v>4</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" s="144" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="149"/>
+        <v>192</v>
+      </c>
+      <c r="C21" s="191" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="188"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="188"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="188"/>
+      <c r="J21" s="189"/>
     </row>
     <row r="22" spans="1:10" s="53" customFormat="1" ht="33.75" customHeight="1">
       <c r="A22" s="56">
         <v>5</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C22" s="150" t="s">
-        <v>215</v>
-      </c>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="149"/>
+        <v>194</v>
+      </c>
+      <c r="C22" s="187" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" s="188"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="188"/>
+      <c r="J22" s="189"/>
     </row>
     <row r="23" spans="1:10" s="53" customFormat="1" ht="34.5" customHeight="1">
       <c r="A23" s="63">
         <v>6</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="C23" s="150" t="s">
-        <v>216</v>
-      </c>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="149"/>
+        <v>196</v>
+      </c>
+      <c r="C23" s="187" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="189"/>
     </row>
     <row r="24" spans="1:10" s="53" customFormat="1">
-      <c r="A24" s="206"/>
-      <c r="B24" s="207"/>
-      <c r="C24" s="207"/>
-      <c r="D24" s="207"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="207"/>
-      <c r="H24" s="207"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="208"/>
+      <c r="A24" s="204"/>
+      <c r="B24" s="205"/>
+      <c r="C24" s="205"/>
+      <c r="D24" s="205"/>
+      <c r="E24" s="205"/>
+      <c r="F24" s="205"/>
+      <c r="G24" s="205"/>
+      <c r="H24" s="205"/>
+      <c r="I24" s="205"/>
+      <c r="J24" s="206"/>
     </row>
     <row r="25" spans="1:10" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="136" t="s">
+      <c r="A25" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="209"/>
+      <c r="B25" s="192"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="192"/>
+      <c r="H25" s="192"/>
+      <c r="I25" s="192"/>
+      <c r="J25" s="207"/>
     </row>
     <row r="26" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1">
-      <c r="A26" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="152"/>
+      <c r="A26" s="178" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" s="179"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="179"/>
+      <c r="H26" s="179"/>
+      <c r="I26" s="179"/>
+      <c r="J26" s="180"/>
     </row>
     <row r="27" spans="1:10" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="142" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="148"/>
+        <v>78</v>
+      </c>
+      <c r="C27" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="182"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="182"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="182"/>
+      <c r="I27" s="182"/>
+      <c r="J27" s="183"/>
     </row>
     <row r="28" spans="1:10" s="53" customFormat="1" ht="40.5" customHeight="1">
       <c r="A28" s="56">
         <v>1</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>208</v>
-      </c>
-      <c r="C28" s="150" t="s">
-        <v>221</v>
+        <v>203</v>
+      </c>
+      <c r="C28" s="187" t="s">
+        <v>216</v>
       </c>
       <c r="D28" s="202"/>
       <c r="E28" s="202"/>
@@ -13764,10 +13794,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>210</v>
-      </c>
-      <c r="C29" s="150" t="s">
-        <v>213</v>
+        <v>205</v>
+      </c>
+      <c r="C29" s="187" t="s">
+        <v>208</v>
       </c>
       <c r="D29" s="202"/>
       <c r="E29" s="202"/>
@@ -13782,10 +13812,10 @@
         <v>2</v>
       </c>
       <c r="B30" s="56" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" s="187" t="s">
         <v>209</v>
-      </c>
-      <c r="C30" s="150" t="s">
-        <v>214</v>
       </c>
       <c r="D30" s="202"/>
       <c r="E30" s="202"/>
@@ -13800,120 +13830,120 @@
         <v>3</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="C31" s="144" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="149"/>
+        <v>190</v>
+      </c>
+      <c r="C31" s="191" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="188"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="188"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="189"/>
     </row>
     <row r="32" spans="1:10" s="53" customFormat="1">
       <c r="A32" s="56">
         <v>4</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="C32" s="144" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="149"/>
+        <v>192</v>
+      </c>
+      <c r="C32" s="191" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="188"/>
+      <c r="J32" s="189"/>
     </row>
     <row r="33" spans="1:12" s="53" customFormat="1">
       <c r="A33" s="56">
         <v>5</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C33" s="144" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="149"/>
+        <v>194</v>
+      </c>
+      <c r="C33" s="191" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="189"/>
     </row>
     <row r="34" spans="1:12" s="53" customFormat="1" ht="34.5" customHeight="1">
       <c r="A34" s="63">
         <v>6</v>
       </c>
       <c r="B34" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="187" t="s">
         <v>217</v>
       </c>
-      <c r="C34" s="150" t="s">
-        <v>222</v>
-      </c>
-      <c r="D34" s="145"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="149"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="189"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1">
-      <c r="A35" s="166"/>
-      <c r="B35" s="210"/>
-      <c r="C35" s="210"/>
-      <c r="D35" s="210"/>
-      <c r="E35" s="210"/>
-      <c r="F35" s="210"/>
-      <c r="G35" s="210"/>
-      <c r="H35" s="210"/>
-      <c r="I35" s="210"/>
-      <c r="J35" s="211"/>
+      <c r="A35" s="163"/>
+      <c r="B35" s="208"/>
+      <c r="C35" s="208"/>
+      <c r="D35" s="208"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="208"/>
+      <c r="G35" s="208"/>
+      <c r="H35" s="208"/>
+      <c r="I35" s="208"/>
+      <c r="J35" s="209"/>
     </row>
     <row r="36" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A36" s="136" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="178"/>
-      <c r="C36" s="178"/>
-      <c r="D36" s="178"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="178"/>
-      <c r="G36" s="178"/>
-      <c r="H36" s="178"/>
-      <c r="I36" s="178"/>
-      <c r="J36" s="179"/>
+      <c r="A36" s="175" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="176"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="176"/>
+      <c r="F36" s="176"/>
+      <c r="G36" s="176"/>
+      <c r="H36" s="176"/>
+      <c r="I36" s="176"/>
+      <c r="J36" s="177"/>
     </row>
     <row r="37" spans="1:12" s="79" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="57" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="D37" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="E37" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="138" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="139"/>
+      <c r="F37" s="194"/>
+      <c r="G37" s="194"/>
+      <c r="H37" s="194"/>
+      <c r="I37" s="194"/>
+      <c r="J37" s="194"/>
       <c r="K37" s="53"/>
       <c r="L37" s="53"/>
     </row>
@@ -13922,30 +13952,30 @@
         <v>1</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="62"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="127"/>
-      <c r="G38" s="127"/>
-      <c r="H38" s="127"/>
-      <c r="I38" s="127"/>
-      <c r="J38" s="127"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
     </row>
     <row r="39" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="163" t="s">
-        <v>219</v>
-      </c>
-      <c r="B39" s="164"/>
-      <c r="C39" s="164"/>
-      <c r="D39" s="164"/>
-      <c r="E39" s="164"/>
-      <c r="F39" s="164"/>
-      <c r="G39" s="164"/>
-      <c r="H39" s="164"/>
-      <c r="I39" s="164"/>
-      <c r="J39" s="165"/>
+      <c r="A39" s="160" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39" s="161"/>
+      <c r="C39" s="161"/>
+      <c r="D39" s="161"/>
+      <c r="E39" s="161"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="161"/>
+      <c r="H39" s="161"/>
+      <c r="I39" s="161"/>
+      <c r="J39" s="162"/>
       <c r="K39" s="53"/>
       <c r="L39" s="53"/>
     </row>
@@ -13954,152 +13984,152 @@
         <v>1</v>
       </c>
       <c r="B40" s="64" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C40" s="65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" s="66"/>
-      <c r="E40" s="191" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" s="127"/>
-      <c r="G40" s="127"/>
-      <c r="H40" s="127"/>
-      <c r="I40" s="127"/>
-      <c r="J40" s="127"/>
+      <c r="E40" s="149" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="117"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="117"/>
+      <c r="I40" s="117"/>
+      <c r="J40" s="117"/>
     </row>
     <row r="41" spans="1:12" s="53" customFormat="1" ht="116.25" customHeight="1">
       <c r="A41" s="67">
         <v>1</v>
       </c>
       <c r="B41" s="68" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C41" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D41" s="69"/>
-      <c r="E41" s="160" t="s">
-        <v>223</v>
-      </c>
-      <c r="F41" s="161"/>
-      <c r="G41" s="161"/>
-      <c r="H41" s="161"/>
-      <c r="I41" s="161"/>
-      <c r="J41" s="162"/>
+      <c r="E41" s="153" t="s">
+        <v>248</v>
+      </c>
+      <c r="F41" s="154"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="155"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="52.5" customHeight="1">
       <c r="A42" s="70">
         <v>2</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C42" s="65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D42" s="71"/>
-      <c r="E42" s="180" t="s">
-        <v>242</v>
-      </c>
-      <c r="F42" s="117"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="117"/>
-      <c r="J42" s="118"/>
+      <c r="E42" s="136" t="s">
+        <v>236</v>
+      </c>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="110"/>
     </row>
     <row r="43" spans="1:12" s="53" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="188" t="s">
+      <c r="A43" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="189"/>
-      <c r="C43" s="189"/>
-      <c r="D43" s="189"/>
-      <c r="E43" s="189"/>
-      <c r="F43" s="189"/>
-      <c r="G43" s="189"/>
-      <c r="H43" s="189"/>
-      <c r="I43" s="189"/>
-      <c r="J43" s="190"/>
+      <c r="B43" s="147"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="147"/>
+      <c r="J43" s="148"/>
     </row>
     <row r="44" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="186" t="s">
+      <c r="B44" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="187"/>
-      <c r="D44" s="180" t="s">
+      <c r="C44" s="145"/>
+      <c r="D44" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="117"/>
-      <c r="J44" s="118"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="109"/>
+      <c r="J44" s="110"/>
     </row>
     <row r="45" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="183"/>
-      <c r="B45" s="204"/>
-      <c r="C45" s="204"/>
-      <c r="D45" s="204"/>
-      <c r="E45" s="204"/>
-      <c r="F45" s="204"/>
-      <c r="G45" s="204"/>
-      <c r="H45" s="204"/>
-      <c r="I45" s="204"/>
-      <c r="J45" s="205"/>
+      <c r="A45" s="141"/>
+      <c r="B45" s="210"/>
+      <c r="C45" s="210"/>
+      <c r="D45" s="210"/>
+      <c r="E45" s="210"/>
+      <c r="F45" s="210"/>
+      <c r="G45" s="210"/>
+      <c r="H45" s="210"/>
+      <c r="I45" s="210"/>
+      <c r="J45" s="211"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="70"/>
-      <c r="B46" s="140"/>
-      <c r="C46" s="156"/>
-      <c r="D46" s="180"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="117"/>
-      <c r="J46" s="118"/>
+      <c r="B46" s="139"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="109"/>
+      <c r="G46" s="109"/>
+      <c r="H46" s="109"/>
+      <c r="I46" s="109"/>
+      <c r="J46" s="110"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="70"/>
-      <c r="B47" s="140"/>
-      <c r="C47" s="156"/>
-      <c r="D47" s="180"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="117"/>
-      <c r="J47" s="118"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="140"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="109"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="109"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="109"/>
+      <c r="J47" s="110"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="183"/>
-      <c r="B48" s="204"/>
-      <c r="C48" s="204"/>
-      <c r="D48" s="204"/>
-      <c r="E48" s="204"/>
-      <c r="F48" s="204"/>
-      <c r="G48" s="204"/>
-      <c r="H48" s="204"/>
-      <c r="I48" s="204"/>
-      <c r="J48" s="205"/>
+      <c r="A48" s="141"/>
+      <c r="B48" s="210"/>
+      <c r="C48" s="210"/>
+      <c r="D48" s="210"/>
+      <c r="E48" s="210"/>
+      <c r="F48" s="210"/>
+      <c r="G48" s="210"/>
+      <c r="H48" s="210"/>
+      <c r="I48" s="210"/>
+      <c r="J48" s="211"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="70"/>
-      <c r="B49" s="140"/>
-      <c r="C49" s="156"/>
-      <c r="D49" s="180"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="117"/>
-      <c r="G49" s="117"/>
-      <c r="H49" s="117"/>
-      <c r="I49" s="117"/>
-      <c r="J49" s="118"/>
+      <c r="B49" s="139"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="110"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
       <c r="A50" s="74" t="s">
@@ -14122,14 +14152,14 @@
       <c r="B51" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="140"/>
-      <c r="D51" s="117"/>
-      <c r="E51" s="117"/>
-      <c r="F51" s="117"/>
-      <c r="G51" s="117"/>
-      <c r="H51" s="117"/>
-      <c r="I51" s="117"/>
-      <c r="J51" s="118"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="109"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="109"/>
+      <c r="I51" s="109"/>
+      <c r="J51" s="110"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="70">
@@ -14152,18 +14182,27 @@
     <row r="67" s="51" customFormat="1"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="A39:J39"/>
     <mergeCell ref="E40:J40"/>
     <mergeCell ref="E41:J41"/>
     <mergeCell ref="E42:J42"/>
@@ -14180,27 +14219,18 @@
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A26:J26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -14222,8 +14252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14254,7 +14284,7 @@
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
       <c r="K1" s="158" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -14343,7 +14373,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="195" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="196"/>
       <c r="C6" s="196"/>
@@ -14363,31 +14393,31 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
-        <v>2</v>
+        <v>250</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -14421,7 +14451,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="195" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B10" s="196"/>
       <c r="C10" s="196"/>
@@ -14435,31 +14465,31 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -14470,29 +14500,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F12" s="103" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J12" s="213" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -14500,20 +14530,20 @@
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
       <c r="D13" s="42" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F13" s="103" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J13" s="199"/>
     </row>
@@ -14522,61 +14552,61 @@
         <v>2</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E14" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="104" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="I14" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="104" t="s">
-        <v>175</v>
-      </c>
-      <c r="G14" s="105" t="s">
-        <v>174</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>177</v>
-      </c>
       <c r="J14" s="38" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="40"/>
       <c r="B15" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F15" s="104" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G15" s="105" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J15" s="85" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -14584,31 +14614,31 @@
         <v>3</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14616,26 +14646,26 @@
         <v>4</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C17" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="D17" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>172</v>
-      </c>
       <c r="F17" s="43" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J17" s="100"/>
     </row>
@@ -14644,27 +14674,27 @@
         <v>5</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E18" s="102" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F18" s="212" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G18" s="201"/>
       <c r="H18" s="83"/>
       <c r="I18" s="40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J18" s="101" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14672,26 +14702,26 @@
         <v>6</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H19" s="40"/>
       <c r="I19" s="40" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -14753,7 +14783,7 @@
       <c r="I1" s="90"/>
       <c r="J1" s="90"/>
       <c r="K1" s="158" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L1" s="51"/>
       <c r="M1" s="51"/>
@@ -14801,180 +14831,180 @@
       <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:17" s="89" customFormat="1">
-      <c r="A5" s="169" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="115"/>
+      <c r="A5" s="166" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="120"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="133"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="170"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="173"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="170"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="173"/>
+      <c r="A8" s="167"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="170"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="174"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="176"/>
+      <c r="A9" s="171"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="173"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="115"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="177" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="118"/>
+      <c r="A11" s="174" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="110"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="115"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="120"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="118"/>
+      <c r="A13" s="174" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="110"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="115"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="120"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="146" t="s">
-        <v>226</v>
-      </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="152"/>
+      <c r="A15" s="178" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="179"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="180"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="142" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="148"/>
+        <v>78</v>
+      </c>
+      <c r="C16" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="183"/>
     </row>
     <row r="17" spans="1:10" s="53" customFormat="1" ht="48.75" customHeight="1">
       <c r="A17" s="56">
         <v>1</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="150" t="s">
-        <v>202</v>
+        <v>150</v>
+      </c>
+      <c r="C17" s="187" t="s">
+        <v>197</v>
       </c>
       <c r="D17" s="202"/>
       <c r="E17" s="202"/>
@@ -14989,10 +15019,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>210</v>
-      </c>
-      <c r="C18" s="150" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="C18" s="187" t="s">
+        <v>201</v>
       </c>
       <c r="D18" s="202"/>
       <c r="E18" s="202"/>
@@ -15007,10 +15037,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="C19" s="150" t="s">
-        <v>207</v>
+        <v>204</v>
+      </c>
+      <c r="C19" s="187" t="s">
+        <v>202</v>
       </c>
       <c r="D19" s="202"/>
       <c r="E19" s="202"/>
@@ -15025,140 +15055,140 @@
         <v>3</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="C20" s="144" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="149"/>
+        <v>190</v>
+      </c>
+      <c r="C20" s="191" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="188"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="188"/>
+      <c r="J20" s="189"/>
     </row>
     <row r="21" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="56">
         <v>4</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" s="144" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="149"/>
+        <v>192</v>
+      </c>
+      <c r="C21" s="191" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="188"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="188"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="188"/>
+      <c r="J21" s="189"/>
     </row>
     <row r="22" spans="1:10" s="53" customFormat="1" ht="32.25" customHeight="1">
       <c r="A22" s="56">
         <v>5</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C22" s="150" t="s">
-        <v>215</v>
-      </c>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="149"/>
+        <v>194</v>
+      </c>
+      <c r="C22" s="187" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" s="188"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="188"/>
+      <c r="J22" s="189"/>
     </row>
     <row r="23" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="63">
         <v>6</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="C23" s="150" t="s">
-        <v>216</v>
-      </c>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="149"/>
+        <v>196</v>
+      </c>
+      <c r="C23" s="187" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="189"/>
     </row>
     <row r="24" spans="1:10" s="53" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A24" s="206"/>
-      <c r="B24" s="207"/>
-      <c r="C24" s="207"/>
-      <c r="D24" s="207"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="207"/>
-      <c r="H24" s="207"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="208"/>
+      <c r="A24" s="204"/>
+      <c r="B24" s="205"/>
+      <c r="C24" s="205"/>
+      <c r="D24" s="205"/>
+      <c r="E24" s="205"/>
+      <c r="F24" s="205"/>
+      <c r="G24" s="205"/>
+      <c r="H24" s="205"/>
+      <c r="I24" s="205"/>
+      <c r="J24" s="206"/>
     </row>
     <row r="25" spans="1:10" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="136" t="s">
+      <c r="A25" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="209"/>
+      <c r="B25" s="192"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="192"/>
+      <c r="H25" s="192"/>
+      <c r="I25" s="192"/>
+      <c r="J25" s="207"/>
     </row>
     <row r="26" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1">
-      <c r="A26" s="146" t="s">
-        <v>229</v>
-      </c>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="152"/>
+      <c r="A26" s="178" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" s="179"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="179"/>
+      <c r="H26" s="179"/>
+      <c r="I26" s="179"/>
+      <c r="J26" s="180"/>
     </row>
     <row r="27" spans="1:10" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="142" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="148"/>
+        <v>78</v>
+      </c>
+      <c r="C27" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="182"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="182"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="182"/>
+      <c r="I27" s="182"/>
+      <c r="J27" s="183"/>
     </row>
     <row r="28" spans="1:10" s="53" customFormat="1" ht="51" customHeight="1">
       <c r="A28" s="56">
         <v>1</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>208</v>
-      </c>
-      <c r="C28" s="150" t="s">
-        <v>239</v>
+        <v>203</v>
+      </c>
+      <c r="C28" s="187" t="s">
+        <v>233</v>
       </c>
       <c r="D28" s="202"/>
       <c r="E28" s="202"/>
@@ -15173,10 +15203,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>210</v>
-      </c>
-      <c r="C29" s="150" t="s">
-        <v>213</v>
+        <v>205</v>
+      </c>
+      <c r="C29" s="187" t="s">
+        <v>208</v>
       </c>
       <c r="D29" s="202"/>
       <c r="E29" s="202"/>
@@ -15191,10 +15221,10 @@
         <v>2</v>
       </c>
       <c r="B30" s="56" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" s="187" t="s">
         <v>209</v>
-      </c>
-      <c r="C30" s="150" t="s">
-        <v>214</v>
       </c>
       <c r="D30" s="202"/>
       <c r="E30" s="202"/>
@@ -15209,120 +15239,120 @@
         <v>3</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="C31" s="144" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="149"/>
+        <v>190</v>
+      </c>
+      <c r="C31" s="191" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="188"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="188"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="189"/>
     </row>
     <row r="32" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="56">
         <v>4</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="C32" s="144" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="149"/>
+        <v>192</v>
+      </c>
+      <c r="C32" s="191" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="188"/>
+      <c r="J32" s="189"/>
     </row>
     <row r="33" spans="1:12" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="56">
         <v>5</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C33" s="144" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="149"/>
+        <v>194</v>
+      </c>
+      <c r="C33" s="191" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="189"/>
     </row>
     <row r="34" spans="1:12" s="53" customFormat="1" ht="39.75" customHeight="1">
       <c r="A34" s="63">
         <v>6</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="C34" s="150" t="s">
-        <v>240</v>
-      </c>
-      <c r="D34" s="145"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="149"/>
+        <v>212</v>
+      </c>
+      <c r="C34" s="187" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="189"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1" ht="27" customHeight="1">
-      <c r="A35" s="166"/>
-      <c r="B35" s="210"/>
-      <c r="C35" s="210"/>
-      <c r="D35" s="210"/>
-      <c r="E35" s="210"/>
-      <c r="F35" s="210"/>
-      <c r="G35" s="210"/>
-      <c r="H35" s="210"/>
-      <c r="I35" s="210"/>
-      <c r="J35" s="211"/>
+      <c r="A35" s="163"/>
+      <c r="B35" s="208"/>
+      <c r="C35" s="208"/>
+      <c r="D35" s="208"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="208"/>
+      <c r="G35" s="208"/>
+      <c r="H35" s="208"/>
+      <c r="I35" s="208"/>
+      <c r="J35" s="209"/>
     </row>
     <row r="36" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="136" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="178"/>
-      <c r="C36" s="178"/>
-      <c r="D36" s="178"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="178"/>
-      <c r="G36" s="178"/>
-      <c r="H36" s="178"/>
-      <c r="I36" s="178"/>
-      <c r="J36" s="179"/>
+      <c r="A36" s="175" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="176"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="176"/>
+      <c r="F36" s="176"/>
+      <c r="G36" s="176"/>
+      <c r="H36" s="176"/>
+      <c r="I36" s="176"/>
+      <c r="J36" s="177"/>
     </row>
     <row r="37" spans="1:12" s="79" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="57" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="D37" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="E37" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="138" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="139"/>
+      <c r="F37" s="194"/>
+      <c r="G37" s="194"/>
+      <c r="H37" s="194"/>
+      <c r="I37" s="194"/>
+      <c r="J37" s="194"/>
       <c r="K37" s="53"/>
       <c r="L37" s="53"/>
     </row>
@@ -15331,30 +15361,30 @@
         <v>1</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="62"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="127"/>
-      <c r="G38" s="127"/>
-      <c r="H38" s="127"/>
-      <c r="I38" s="127"/>
-      <c r="J38" s="127"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
     </row>
     <row r="39" spans="1:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A39" s="163" t="s">
-        <v>227</v>
-      </c>
-      <c r="B39" s="164"/>
-      <c r="C39" s="164"/>
-      <c r="D39" s="164"/>
-      <c r="E39" s="164"/>
-      <c r="F39" s="164"/>
-      <c r="G39" s="164"/>
-      <c r="H39" s="164"/>
-      <c r="I39" s="164"/>
-      <c r="J39" s="165"/>
+      <c r="A39" s="160" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" s="161"/>
+      <c r="C39" s="161"/>
+      <c r="D39" s="161"/>
+      <c r="E39" s="161"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="161"/>
+      <c r="H39" s="161"/>
+      <c r="I39" s="161"/>
+      <c r="J39" s="162"/>
       <c r="K39" s="53"/>
       <c r="L39" s="53"/>
     </row>
@@ -15363,152 +15393,152 @@
         <v>1</v>
       </c>
       <c r="B40" s="68" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C40" s="88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" s="87"/>
-      <c r="E40" s="160" t="s">
-        <v>244</v>
-      </c>
-      <c r="F40" s="161"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="161"/>
-      <c r="J40" s="162"/>
+      <c r="E40" s="153" t="s">
+        <v>238</v>
+      </c>
+      <c r="F40" s="154"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="155"/>
     </row>
     <row r="41" spans="1:12" s="53" customFormat="1" ht="51" customHeight="1">
       <c r="A41" s="70">
         <v>2</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C41" s="88" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D41" s="86"/>
-      <c r="E41" s="180" t="s">
-        <v>242</v>
-      </c>
-      <c r="F41" s="117"/>
-      <c r="G41" s="117"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="117"/>
-      <c r="J41" s="118"/>
+      <c r="E41" s="136" t="s">
+        <v>236</v>
+      </c>
+      <c r="F41" s="109"/>
+      <c r="G41" s="109"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="110"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="100.5" customHeight="1">
       <c r="A42" s="70">
         <v>2</v>
       </c>
       <c r="B42" s="84" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C42" s="88" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D42" s="86"/>
-      <c r="E42" s="180" t="s">
-        <v>241</v>
-      </c>
-      <c r="F42" s="117"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="117"/>
-      <c r="J42" s="118"/>
+      <c r="E42" s="136" t="s">
+        <v>235</v>
+      </c>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="110"/>
     </row>
     <row r="43" spans="1:12" s="53" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A43" s="188" t="s">
+      <c r="A43" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="189"/>
-      <c r="C43" s="189"/>
-      <c r="D43" s="189"/>
-      <c r="E43" s="189"/>
-      <c r="F43" s="189"/>
-      <c r="G43" s="189"/>
-      <c r="H43" s="189"/>
-      <c r="I43" s="189"/>
-      <c r="J43" s="190"/>
+      <c r="B43" s="147"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="147"/>
+      <c r="J43" s="148"/>
     </row>
     <row r="44" spans="1:12" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A44" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="186" t="s">
+      <c r="B44" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="187"/>
-      <c r="D44" s="180" t="s">
+      <c r="C44" s="145"/>
+      <c r="D44" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="117"/>
-      <c r="J44" s="118"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="109"/>
+      <c r="J44" s="110"/>
     </row>
     <row r="45" spans="1:12" s="55" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A45" s="183"/>
-      <c r="B45" s="204"/>
-      <c r="C45" s="204"/>
-      <c r="D45" s="204"/>
-      <c r="E45" s="204"/>
-      <c r="F45" s="204"/>
-      <c r="G45" s="204"/>
-      <c r="H45" s="204"/>
-      <c r="I45" s="204"/>
-      <c r="J45" s="205"/>
+      <c r="A45" s="141"/>
+      <c r="B45" s="210"/>
+      <c r="C45" s="210"/>
+      <c r="D45" s="210"/>
+      <c r="E45" s="210"/>
+      <c r="F45" s="210"/>
+      <c r="G45" s="210"/>
+      <c r="H45" s="210"/>
+      <c r="I45" s="210"/>
+      <c r="J45" s="211"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1" ht="28.5" customHeight="1">
       <c r="A46" s="70"/>
-      <c r="B46" s="140"/>
-      <c r="C46" s="156"/>
-      <c r="D46" s="180"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="117"/>
-      <c r="J46" s="118"/>
+      <c r="B46" s="139"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="109"/>
+      <c r="G46" s="109"/>
+      <c r="H46" s="109"/>
+      <c r="I46" s="109"/>
+      <c r="J46" s="110"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A47" s="70"/>
-      <c r="B47" s="140"/>
-      <c r="C47" s="156"/>
-      <c r="D47" s="180"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="117"/>
-      <c r="J47" s="118"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="140"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="109"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="109"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="109"/>
+      <c r="J47" s="110"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A48" s="183"/>
-      <c r="B48" s="204"/>
-      <c r="C48" s="204"/>
-      <c r="D48" s="204"/>
-      <c r="E48" s="204"/>
-      <c r="F48" s="204"/>
-      <c r="G48" s="204"/>
-      <c r="H48" s="204"/>
-      <c r="I48" s="204"/>
-      <c r="J48" s="205"/>
+      <c r="A48" s="141"/>
+      <c r="B48" s="210"/>
+      <c r="C48" s="210"/>
+      <c r="D48" s="210"/>
+      <c r="E48" s="210"/>
+      <c r="F48" s="210"/>
+      <c r="G48" s="210"/>
+      <c r="H48" s="210"/>
+      <c r="I48" s="210"/>
+      <c r="J48" s="211"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="70"/>
-      <c r="B49" s="140"/>
-      <c r="C49" s="156"/>
-      <c r="D49" s="180"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="117"/>
-      <c r="G49" s="117"/>
-      <c r="H49" s="117"/>
-      <c r="I49" s="117"/>
-      <c r="J49" s="118"/>
+      <c r="B49" s="139"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="110"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="74" t="s">
@@ -15531,14 +15561,14 @@
       <c r="B51" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="140"/>
-      <c r="D51" s="117"/>
-      <c r="E51" s="117"/>
-      <c r="F51" s="117"/>
-      <c r="G51" s="117"/>
-      <c r="H51" s="117"/>
-      <c r="I51" s="117"/>
-      <c r="J51" s="118"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="109"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="109"/>
+      <c r="I51" s="109"/>
+      <c r="J51" s="110"/>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1">
       <c r="A52" s="70">
@@ -15572,39 +15602,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A26:J26"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="E38:J38"/>
     <mergeCell ref="A39:J39"/>
@@ -15621,6 +15618,39 @@
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:J49"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/APF/RA006/RA006_APF0201_功能清單設定作業.xlsx
+++ b/APF/RA006/RA006_APF0201_功能清單設定作業.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\RA006\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
     <sheet name="版本控管" sheetId="16" r:id="rId2"/>
     <sheet name="功能簡述" sheetId="32" r:id="rId3"/>
-    <sheet name="IPO" sheetId="41" r:id="rId4"/>
+    <sheet name="IPO" sheetId="42" r:id="rId4"/>
     <sheet name="畫面_APF0201MM1" sheetId="7" r:id="rId5"/>
     <sheet name="欄位_APF0201MM1" sheetId="14" r:id="rId6"/>
     <sheet name="畫面_APF0201MA1" sheetId="33" r:id="rId7"/>
@@ -47,12 +52,12 @@
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="264">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -1356,6 +1361,10 @@
   <si>
     <t>IPO</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2205,13 +2214,70 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2220,27 +2286,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2250,41 +2295,137 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2295,12 +2436,6 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2336,132 +2471,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2484,6 +2493,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2501,12 +2516,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3561,7 +3570,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3569,6 +3578,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3602,7 +3622,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3610,6 +3630,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3637,7 +3668,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="28" name="群組 2"/>
+        <xdr:cNvPr id="2" name="群組 2"/>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -3652,7 +3683,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="Rectangle 25"/>
+          <xdr:cNvPr id="3" name="Rectangle 25"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3725,7 +3756,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="Rectangle 26"/>
+          <xdr:cNvPr id="4" name="Rectangle 26"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3806,7 +3837,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="Rectangle 27"/>
+          <xdr:cNvPr id="5" name="Rectangle 27"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3887,7 +3918,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="Rectangle 28"/>
+          <xdr:cNvPr id="6" name="Rectangle 28"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3949,7 +3980,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="Rectangle 29"/>
+          <xdr:cNvPr id="7" name="Rectangle 29"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4023,7 +4054,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="34" name="Rectangle 30"/>
+          <xdr:cNvPr id="8" name="Rectangle 30"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4099,7 +4130,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="Line 31"/>
+          <xdr:cNvPr id="9" name="Line 31"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4150,16 +4181,16 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="36867" name="Object 3" hidden="1">
+            <xdr:cNvPr id="44033" name="Object 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s36867"/>
+                  <a14:compatExt spid="_x0000_s44033"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4167,6 +4198,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4189,7 +4231,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="37" name="群組 36"/>
+        <xdr:cNvPr id="11" name="群組 10"/>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -4204,7 +4246,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="Rectangle 25"/>
+          <xdr:cNvPr id="12" name="Rectangle 25"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4277,7 +4319,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="39" name="Rectangle 26"/>
+          <xdr:cNvPr id="13" name="Rectangle 26"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4358,7 +4400,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="Rectangle 27"/>
+          <xdr:cNvPr id="14" name="Rectangle 27"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4439,7 +4481,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="Rectangle 28"/>
+          <xdr:cNvPr id="15" name="Rectangle 28"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4511,7 +4553,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="42" name="Rectangle 29"/>
+          <xdr:cNvPr id="16" name="Rectangle 29"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4585,7 +4627,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="43" name="Rectangle 30"/>
+          <xdr:cNvPr id="17" name="Rectangle 30"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4661,7 +4703,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="44" name="Line 31"/>
+          <xdr:cNvPr id="18" name="Line 31"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4712,16 +4754,16 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="36868" name="Object 4" hidden="1">
+            <xdr:cNvPr id="44034" name="Object 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s36868"/>
+                  <a14:compatExt spid="_x0000_s44034"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4729,6 +4771,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4751,7 +4804,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="46" name="群組 45"/>
+        <xdr:cNvPr id="20" name="群組 19"/>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -4766,7 +4819,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="47" name="Rectangle 25"/>
+          <xdr:cNvPr id="21" name="Rectangle 25"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4839,7 +4892,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="48" name="Rectangle 26"/>
+          <xdr:cNvPr id="22" name="Rectangle 26"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4920,7 +4973,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="49" name="Rectangle 27"/>
+          <xdr:cNvPr id="23" name="Rectangle 27"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5001,7 +5054,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="Rectangle 28"/>
+          <xdr:cNvPr id="24" name="Rectangle 28"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5073,7 +5126,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="51" name="Rectangle 29"/>
+          <xdr:cNvPr id="25" name="Rectangle 29"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5147,7 +5200,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="52" name="Rectangle 30"/>
+          <xdr:cNvPr id="26" name="Rectangle 30"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5223,7 +5276,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="53" name="Line 31"/>
+          <xdr:cNvPr id="27" name="Line 31"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -10197,8 +10250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -11132,15 +11185,15 @@
       <c r="A1" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="124" t="s">
+      <c r="M1" s="109" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="125"/>
+      <c r="M2" s="110"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="125"/>
+      <c r="M3" s="110"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -11157,224 +11210,224 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="113"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="132"/>
     </row>
     <row r="6" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="123"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="135"/>
     </row>
     <row r="7" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="118" t="s">
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="120"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="115"/>
     </row>
     <row r="8" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="130" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="109" t="s">
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="110"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="118"/>
     </row>
     <row r="9" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="118" t="s">
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="120"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="115"/>
     </row>
     <row r="10" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="116" t="s">
+      <c r="A10" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="109" t="s">
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="117" t="s">
         <v>109</v>
       </c>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="110"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="118"/>
     </row>
     <row r="11" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="135" t="s">
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="120"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="115"/>
     </row>
     <row r="12" spans="1:13" s="55" customFormat="1" ht="16.5">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="130" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="110"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="118"/>
     </row>
     <row r="13" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="135" t="s">
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="120"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="115"/>
     </row>
     <row r="14" spans="1:13" s="55" customFormat="1" ht="16.5">
-      <c r="A14" s="116" t="s">
+      <c r="A14" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="110"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="118"/>
     </row>
     <row r="15" spans="1:13" s="80" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="111" t="s">
+      <c r="A15" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="131"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="131"/>
-      <c r="L15" s="132"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="125"/>
     </row>
     <row r="16" spans="1:13" s="80" customFormat="1" ht="130.5" customHeight="1">
-      <c r="A16" s="133" t="s">
+      <c r="A16" s="126" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="134"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="128"/>
     </row>
     <row r="17" spans="1:12" s="82" customFormat="1" ht="16.5">
-      <c r="A17" s="111" t="s">
+      <c r="A17" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="110"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="118"/>
     </row>
     <row r="18" spans="1:12" s="82" customFormat="1" ht="14.25"/>
     <row r="19" spans="1:12" s="82" customFormat="1" ht="14.25"/>
@@ -11421,23 +11474,30 @@
     <row r="60" s="82" customFormat="1" ht="14.25"/>
     <row r="61" s="82" customFormat="1" ht="14.25"/>
     <row r="68" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A68" s="128" t="s">
+      <c r="A68" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="B68" s="129"/>
-      <c r="C68" s="129"/>
-      <c r="D68" s="129"/>
-      <c r="E68" s="129"/>
-      <c r="F68" s="129"/>
-      <c r="G68" s="129"/>
-      <c r="H68" s="129"/>
-      <c r="I68" s="129"/>
-      <c r="J68" s="129"/>
-      <c r="K68" s="129"/>
-      <c r="L68" s="130"/>
+      <c r="B68" s="120"/>
+      <c r="C68" s="120"/>
+      <c r="D68" s="120"/>
+      <c r="E68" s="120"/>
+      <c r="F68" s="120"/>
+      <c r="G68" s="120"/>
+      <c r="H68" s="120"/>
+      <c r="I68" s="120"/>
+      <c r="J68" s="120"/>
+      <c r="K68" s="120"/>
+      <c r="L68" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -11454,13 +11514,6 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -11531,22 +11584,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="124" t="s">
-        <v>56</v>
+      <c r="P1" s="109" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="125"/>
+      <c r="P2" s="110"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="125"/>
+      <c r="P3" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11558,13 +11609,14 @@
     <hyperlink ref="P1:P3" location="總表!A1" display="回總表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="36867" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="Visio.Drawing.11" shapeId="44033" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -11583,13 +11635,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="36867" r:id="rId3"/>
+        <oleObject progId="Visio.Drawing.11" shapeId="44033" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="36868" r:id="rId5">
-          <objectPr defaultSize="0" r:id="rId6">
+        <oleObject progId="Visio.Drawing.11" shapeId="44034" r:id="rId6">
+          <objectPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -11608,7 +11660,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="36868" r:id="rId5"/>
+        <oleObject progId="Visio.Drawing.11" shapeId="44034" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -11700,152 +11752,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="52" customFormat="1">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="120"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="115"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="121"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="123"/>
+      <c r="A6" s="133"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="135"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="167"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
+      <c r="A7" s="170"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="173"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="167"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="170"/>
+      <c r="A8" s="170"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="173"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="171"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="173"/>
+      <c r="A9" s="174"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="176"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="120"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="115"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="174" t="s">
+      <c r="A11" s="177" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="110"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="118"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="166" t="s">
+      <c r="A12" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="120"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="115"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="174" t="s">
+      <c r="A13" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="110"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="118"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="120"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="115"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="178" t="s">
+      <c r="A15" s="146" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="179"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="180"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="152"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
@@ -11854,16 +11906,16 @@
       <c r="B16" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="181" t="s">
+      <c r="C16" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="183"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="148"/>
     </row>
     <row r="17" spans="1:12" s="53" customFormat="1">
       <c r="A17" s="56">
@@ -11872,16 +11924,16 @@
       <c r="B17" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="184" t="s">
+      <c r="C17" s="153" t="s">
         <v>239</v>
       </c>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="186"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="155"/>
     </row>
     <row r="18" spans="1:12" s="53" customFormat="1" ht="30.75" customHeight="1">
       <c r="A18" s="56">
@@ -11890,16 +11942,16 @@
       <c r="B18" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="C18" s="187" t="s">
+      <c r="C18" s="150" t="s">
         <v>240</v>
       </c>
-      <c r="D18" s="188"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="188"/>
-      <c r="J18" s="189"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="149"/>
     </row>
     <row r="19" spans="1:12" s="53" customFormat="1" ht="33.75" customHeight="1">
       <c r="A19" s="56">
@@ -11908,42 +11960,42 @@
       <c r="B19" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="188"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="188"/>
-      <c r="J19" s="189"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="149"/>
     </row>
     <row r="20" spans="1:12" s="53" customFormat="1">
-      <c r="A20" s="139"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="140"/>
+      <c r="A20" s="140"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="156"/>
     </row>
     <row r="21" spans="1:12" s="53" customFormat="1">
-      <c r="A21" s="178" t="s">
+      <c r="A21" s="146" t="s">
         <v>135</v>
       </c>
-      <c r="B21" s="179"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="180"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="1:12" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="56" t="s">
@@ -11952,16 +12004,16 @@
       <c r="B22" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="181" t="s">
+      <c r="C22" s="142" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="182"/>
-      <c r="E22" s="182"/>
-      <c r="F22" s="182"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="182"/>
-      <c r="I22" s="182"/>
-      <c r="J22" s="183"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="148"/>
     </row>
     <row r="23" spans="1:12" s="53" customFormat="1">
       <c r="A23" s="56">
@@ -11970,16 +12022,16 @@
       <c r="B23" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="191" t="s">
+      <c r="C23" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="189"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="149"/>
     </row>
     <row r="24" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A24" s="56">
@@ -11988,16 +12040,16 @@
       <c r="B24" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="191" t="s">
+      <c r="C24" s="144" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
-      <c r="J24" s="189"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="149"/>
     </row>
     <row r="25" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A25" s="56">
@@ -12006,16 +12058,16 @@
       <c r="B25" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="191" t="s">
+      <c r="C25" s="144" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="188"/>
-      <c r="J25" s="189"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="149"/>
     </row>
     <row r="26" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A26" s="56">
@@ -12024,56 +12076,56 @@
       <c r="B26" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="191" t="s">
+      <c r="C26" s="144" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="188"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="188"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="188"/>
-      <c r="I26" s="188"/>
-      <c r="J26" s="189"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="149"/>
     </row>
     <row r="27" spans="1:12" s="53" customFormat="1">
-      <c r="A27" s="163"/>
-      <c r="B27" s="164"/>
-      <c r="C27" s="164"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="164"/>
-      <c r="F27" s="164"/>
-      <c r="G27" s="164"/>
-      <c r="H27" s="164"/>
-      <c r="I27" s="164"/>
-      <c r="J27" s="165"/>
+      <c r="A27" s="166"/>
+      <c r="B27" s="167"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="168"/>
     </row>
     <row r="28" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="175" t="s">
+      <c r="A28" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="176"/>
-      <c r="C28" s="176"/>
-      <c r="D28" s="176"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="176"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="177"/>
+      <c r="B28" s="178"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="179"/>
     </row>
     <row r="29" spans="1:12" s="53" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="178" t="s">
+      <c r="A29" s="146" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="179"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="179"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="179"/>
-      <c r="J29" s="180"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="152"/>
     </row>
     <row r="30" spans="1:12" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="56" t="s">
@@ -12082,16 +12134,16 @@
       <c r="B30" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="181" t="s">
+      <c r="C30" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="182"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="182"/>
-      <c r="J30" s="183"/>
+      <c r="D30" s="143"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="148"/>
     </row>
     <row r="31" spans="1:12" s="53" customFormat="1">
       <c r="A31" s="56">
@@ -12100,16 +12152,16 @@
       <c r="B31" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="191" t="s">
+      <c r="C31" s="144" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="188"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
       <c r="K31" s="95"/>
       <c r="L31" s="93"/>
     </row>
@@ -12120,16 +12172,16 @@
       <c r="B32" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="C32" s="187" t="s">
+      <c r="C32" s="150" t="s">
         <v>246</v>
       </c>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="188"/>
-      <c r="J32" s="188"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
       <c r="K32" s="95"/>
       <c r="L32" s="92"/>
     </row>
@@ -12140,46 +12192,46 @@
       <c r="B33" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="C33" s="187" t="s">
+      <c r="C33" s="150" t="s">
         <v>245</v>
       </c>
-      <c r="D33" s="188"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="188"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
       <c r="K33" s="95"/>
       <c r="L33" s="94"/>
     </row>
     <row r="34" spans="1:12" s="53" customFormat="1">
-      <c r="A34" s="139"/>
-      <c r="B34" s="156"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="156"/>
-      <c r="H34" s="156"/>
-      <c r="I34" s="156"/>
-      <c r="J34" s="156"/>
+      <c r="A34" s="140"/>
+      <c r="B34" s="141"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="141"/>
+      <c r="I34" s="141"/>
+      <c r="J34" s="141"/>
       <c r="K34" s="95"/>
       <c r="L34" s="94"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1">
-      <c r="A35" s="178" t="s">
+      <c r="A35" s="146" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="190"/>
-      <c r="C35" s="190"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="190"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="190"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="190"/>
-      <c r="J35" s="190"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="147"/>
       <c r="K35" s="95"/>
       <c r="L35" s="92"/>
     </row>
@@ -12190,16 +12242,16 @@
       <c r="B36" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="181" t="s">
+      <c r="C36" s="142" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="182"/>
-      <c r="E36" s="182"/>
-      <c r="F36" s="182"/>
-      <c r="G36" s="182"/>
-      <c r="H36" s="182"/>
-      <c r="I36" s="182"/>
-      <c r="J36" s="182"/>
+      <c r="D36" s="143"/>
+      <c r="E36" s="143"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="143"/>
       <c r="K36" s="95"/>
       <c r="L36" s="94"/>
     </row>
@@ -12210,16 +12262,16 @@
       <c r="B37" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="191" t="s">
+      <c r="C37" s="144" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="188"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="188"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="188"/>
-      <c r="J37" s="188"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="145"/>
+      <c r="H37" s="145"/>
+      <c r="I37" s="145"/>
+      <c r="J37" s="145"/>
       <c r="K37" s="95"/>
       <c r="L37" s="94"/>
     </row>
@@ -12230,16 +12282,16 @@
       <c r="B38" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="191" t="s">
+      <c r="C38" s="144" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="188"/>
-      <c r="E38" s="188"/>
-      <c r="F38" s="188"/>
-      <c r="G38" s="188"/>
-      <c r="H38" s="188"/>
-      <c r="I38" s="188"/>
-      <c r="J38" s="188"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
+      <c r="J38" s="145"/>
       <c r="K38" s="95"/>
       <c r="L38" s="94"/>
     </row>
@@ -12250,16 +12302,16 @@
       <c r="B39" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="191" t="s">
+      <c r="C39" s="144" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="188"/>
-      <c r="E39" s="188"/>
-      <c r="F39" s="188"/>
-      <c r="G39" s="188"/>
-      <c r="H39" s="188"/>
-      <c r="I39" s="188"/>
-      <c r="J39" s="188"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+      <c r="G39" s="145"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="145"/>
+      <c r="J39" s="145"/>
       <c r="K39" s="95"/>
       <c r="L39" s="94"/>
     </row>
@@ -12270,46 +12322,46 @@
       <c r="B40" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="191" t="s">
+      <c r="C40" s="144" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="188"/>
-      <c r="E40" s="188"/>
-      <c r="F40" s="188"/>
-      <c r="G40" s="188"/>
-      <c r="H40" s="188"/>
-      <c r="I40" s="188"/>
-      <c r="J40" s="188"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
+      <c r="G40" s="145"/>
+      <c r="H40" s="145"/>
+      <c r="I40" s="145"/>
+      <c r="J40" s="145"/>
       <c r="K40" s="95"/>
       <c r="L40" s="92"/>
     </row>
     <row r="41" spans="1:12" s="53" customFormat="1">
-      <c r="A41" s="139"/>
-      <c r="B41" s="156"/>
-      <c r="C41" s="156"/>
-      <c r="D41" s="156"/>
-      <c r="E41" s="156"/>
-      <c r="F41" s="156"/>
-      <c r="G41" s="156"/>
-      <c r="H41" s="156"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="156"/>
+      <c r="A41" s="140"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="141"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="141"/>
+      <c r="I41" s="141"/>
+      <c r="J41" s="141"/>
       <c r="K41" s="95"/>
       <c r="L41" s="92"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="175" t="s">
+      <c r="A42" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="192"/>
-      <c r="C42" s="192"/>
-      <c r="D42" s="192"/>
-      <c r="E42" s="192"/>
-      <c r="F42" s="192"/>
-      <c r="G42" s="192"/>
-      <c r="H42" s="192"/>
-      <c r="I42" s="192"/>
-      <c r="J42" s="192"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137"/>
+      <c r="J42" s="137"/>
       <c r="K42" s="95"/>
       <c r="L42" s="92"/>
     </row>
@@ -12326,14 +12378,14 @@
       <c r="D43" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="193" t="s">
+      <c r="E43" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="194"/>
-      <c r="G43" s="194"/>
-      <c r="H43" s="194"/>
-      <c r="I43" s="194"/>
-      <c r="J43" s="194"/>
+      <c r="F43" s="139"/>
+      <c r="G43" s="139"/>
+      <c r="H43" s="139"/>
+      <c r="I43" s="139"/>
+      <c r="J43" s="139"/>
       <c r="K43" s="53"/>
       <c r="L43" s="53"/>
     </row>
@@ -12346,40 +12398,40 @@
       </c>
       <c r="C44" s="61"/>
       <c r="D44" s="62"/>
-      <c r="E44" s="149" t="s">
+      <c r="E44" s="191" t="s">
         <v>242</v>
       </c>
-      <c r="F44" s="117"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="117"/>
-      <c r="J44" s="117"/>
+      <c r="F44" s="127"/>
+      <c r="G44" s="127"/>
+      <c r="H44" s="127"/>
+      <c r="I44" s="127"/>
+      <c r="J44" s="127"/>
     </row>
     <row r="45" spans="1:12" s="53" customFormat="1">
       <c r="A45" s="63"/>
-      <c r="B45" s="156"/>
-      <c r="C45" s="156"/>
-      <c r="D45" s="156"/>
-      <c r="E45" s="156"/>
-      <c r="F45" s="156"/>
-      <c r="G45" s="156"/>
-      <c r="H45" s="156"/>
-      <c r="I45" s="156"/>
-      <c r="J45" s="140"/>
+      <c r="B45" s="141"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="141"/>
+      <c r="E45" s="141"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="141"/>
+      <c r="H45" s="141"/>
+      <c r="I45" s="141"/>
+      <c r="J45" s="156"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1">
-      <c r="A46" s="160" t="s">
+      <c r="A46" s="163" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="161"/>
-      <c r="C46" s="161"/>
-      <c r="D46" s="161"/>
-      <c r="E46" s="161"/>
-      <c r="F46" s="161"/>
-      <c r="G46" s="161"/>
-      <c r="H46" s="161"/>
-      <c r="I46" s="161"/>
-      <c r="J46" s="162"/>
+      <c r="B46" s="164"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
+      <c r="E46" s="164"/>
+      <c r="F46" s="164"/>
+      <c r="G46" s="164"/>
+      <c r="H46" s="164"/>
+      <c r="I46" s="164"/>
+      <c r="J46" s="165"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="56">
@@ -12392,14 +12444,14 @@
         <v>18</v>
       </c>
       <c r="D47" s="66"/>
-      <c r="E47" s="149" t="s">
+      <c r="E47" s="191" t="s">
         <v>69</v>
       </c>
-      <c r="F47" s="117"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="117"/>
-      <c r="J47" s="117"/>
+      <c r="F47" s="127"/>
+      <c r="G47" s="127"/>
+      <c r="H47" s="127"/>
+      <c r="I47" s="127"/>
+      <c r="J47" s="127"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1">
       <c r="A48" s="67">
@@ -12412,14 +12464,14 @@
         <v>18</v>
       </c>
       <c r="D48" s="69"/>
-      <c r="E48" s="153" t="s">
+      <c r="E48" s="160" t="s">
         <v>132</v>
       </c>
-      <c r="F48" s="154"/>
-      <c r="G48" s="154"/>
-      <c r="H48" s="154"/>
-      <c r="I48" s="154"/>
-      <c r="J48" s="155"/>
+      <c r="F48" s="161"/>
+      <c r="G48" s="161"/>
+      <c r="H48" s="161"/>
+      <c r="I48" s="161"/>
+      <c r="J48" s="162"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1">
       <c r="A49" s="70">
@@ -12432,40 +12484,40 @@
         <v>18</v>
       </c>
       <c r="D49" s="71"/>
-      <c r="E49" s="136" t="s">
+      <c r="E49" s="180" t="s">
         <v>133</v>
       </c>
-      <c r="F49" s="109"/>
-      <c r="G49" s="109"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="109"/>
-      <c r="J49" s="110"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="117"/>
+      <c r="I49" s="117"/>
+      <c r="J49" s="118"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1">
       <c r="A50" s="72"/>
-      <c r="B50" s="156"/>
-      <c r="C50" s="156"/>
-      <c r="D50" s="156"/>
-      <c r="E50" s="156"/>
-      <c r="F50" s="156"/>
-      <c r="G50" s="156"/>
-      <c r="H50" s="156"/>
-      <c r="I50" s="156"/>
-      <c r="J50" s="140"/>
+      <c r="B50" s="141"/>
+      <c r="C50" s="141"/>
+      <c r="D50" s="141"/>
+      <c r="E50" s="141"/>
+      <c r="F50" s="141"/>
+      <c r="G50" s="141"/>
+      <c r="H50" s="141"/>
+      <c r="I50" s="141"/>
+      <c r="J50" s="156"/>
     </row>
     <row r="51" spans="1:10" s="53" customFormat="1">
-      <c r="A51" s="150" t="s">
+      <c r="A51" s="192" t="s">
         <v>134</v>
       </c>
-      <c r="B51" s="151"/>
-      <c r="C51" s="151"/>
-      <c r="D51" s="151"/>
-      <c r="E51" s="151"/>
-      <c r="F51" s="151"/>
-      <c r="G51" s="151"/>
-      <c r="H51" s="151"/>
-      <c r="I51" s="151"/>
-      <c r="J51" s="152"/>
+      <c r="B51" s="193"/>
+      <c r="C51" s="193"/>
+      <c r="D51" s="193"/>
+      <c r="E51" s="193"/>
+      <c r="F51" s="193"/>
+      <c r="G51" s="193"/>
+      <c r="H51" s="193"/>
+      <c r="I51" s="193"/>
+      <c r="J51" s="194"/>
     </row>
     <row r="52" spans="1:10" s="53" customFormat="1">
       <c r="A52" s="56">
@@ -12478,14 +12530,14 @@
         <v>18</v>
       </c>
       <c r="D52" s="66"/>
-      <c r="E52" s="149" t="s">
+      <c r="E52" s="191" t="s">
         <v>158</v>
       </c>
-      <c r="F52" s="117"/>
-      <c r="G52" s="117"/>
-      <c r="H52" s="117"/>
-      <c r="I52" s="117"/>
-      <c r="J52" s="117"/>
+      <c r="F52" s="127"/>
+      <c r="G52" s="127"/>
+      <c r="H52" s="127"/>
+      <c r="I52" s="127"/>
+      <c r="J52" s="127"/>
     </row>
     <row r="53" spans="1:10" s="53" customFormat="1" ht="66" customHeight="1">
       <c r="A53" s="56">
@@ -12498,14 +12550,14 @@
         <v>18</v>
       </c>
       <c r="D53" s="69"/>
-      <c r="E53" s="149" t="s">
+      <c r="E53" s="191" t="s">
         <v>237</v>
       </c>
-      <c r="F53" s="117"/>
-      <c r="G53" s="117"/>
-      <c r="H53" s="117"/>
-      <c r="I53" s="117"/>
-      <c r="J53" s="117"/>
+      <c r="F53" s="127"/>
+      <c r="G53" s="127"/>
+      <c r="H53" s="127"/>
+      <c r="I53" s="127"/>
+      <c r="J53" s="127"/>
     </row>
     <row r="54" spans="1:10" s="53" customFormat="1">
       <c r="A54" s="56">
@@ -12518,14 +12570,14 @@
         <v>18</v>
       </c>
       <c r="D54" s="69"/>
-      <c r="E54" s="153" t="s">
+      <c r="E54" s="160" t="s">
         <v>156</v>
       </c>
-      <c r="F54" s="154"/>
-      <c r="G54" s="154"/>
-      <c r="H54" s="154"/>
-      <c r="I54" s="154"/>
-      <c r="J54" s="155"/>
+      <c r="F54" s="161"/>
+      <c r="G54" s="161"/>
+      <c r="H54" s="161"/>
+      <c r="I54" s="161"/>
+      <c r="J54" s="162"/>
     </row>
     <row r="55" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
       <c r="A55" s="56">
@@ -12538,14 +12590,14 @@
         <v>18</v>
       </c>
       <c r="D55" s="69"/>
-      <c r="E55" s="153" t="s">
+      <c r="E55" s="160" t="s">
         <v>157</v>
       </c>
-      <c r="F55" s="154"/>
-      <c r="G55" s="154"/>
-      <c r="H55" s="154"/>
-      <c r="I55" s="154"/>
-      <c r="J55" s="155"/>
+      <c r="F55" s="161"/>
+      <c r="G55" s="161"/>
+      <c r="H55" s="161"/>
+      <c r="I55" s="161"/>
+      <c r="J55" s="162"/>
     </row>
     <row r="56" spans="1:10" s="53" customFormat="1" hidden="1">
       <c r="A56" s="56">
@@ -12558,118 +12610,118 @@
         <v>18</v>
       </c>
       <c r="D56" s="69"/>
-      <c r="E56" s="153" t="s">
+      <c r="E56" s="160" t="s">
         <v>99</v>
       </c>
-      <c r="F56" s="154"/>
-      <c r="G56" s="154"/>
-      <c r="H56" s="154"/>
-      <c r="I56" s="154"/>
-      <c r="J56" s="155"/>
+      <c r="F56" s="161"/>
+      <c r="G56" s="161"/>
+      <c r="H56" s="161"/>
+      <c r="I56" s="161"/>
+      <c r="J56" s="162"/>
     </row>
     <row r="57" spans="1:10" s="53" customFormat="1">
       <c r="A57" s="73"/>
-      <c r="B57" s="156"/>
-      <c r="C57" s="156"/>
-      <c r="D57" s="156"/>
-      <c r="E57" s="156"/>
-      <c r="F57" s="156"/>
-      <c r="G57" s="156"/>
-      <c r="H57" s="156"/>
-      <c r="I57" s="156"/>
-      <c r="J57" s="140"/>
+      <c r="B57" s="141"/>
+      <c r="C57" s="141"/>
+      <c r="D57" s="141"/>
+      <c r="E57" s="141"/>
+      <c r="F57" s="141"/>
+      <c r="G57" s="141"/>
+      <c r="H57" s="141"/>
+      <c r="I57" s="141"/>
+      <c r="J57" s="156"/>
     </row>
     <row r="58" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="146" t="s">
+      <c r="A58" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="147"/>
-      <c r="C58" s="147"/>
-      <c r="D58" s="147"/>
-      <c r="E58" s="147"/>
-      <c r="F58" s="147"/>
-      <c r="G58" s="147"/>
-      <c r="H58" s="147"/>
-      <c r="I58" s="147"/>
-      <c r="J58" s="148"/>
+      <c r="B58" s="189"/>
+      <c r="C58" s="189"/>
+      <c r="D58" s="189"/>
+      <c r="E58" s="189"/>
+      <c r="F58" s="189"/>
+      <c r="G58" s="189"/>
+      <c r="H58" s="189"/>
+      <c r="I58" s="189"/>
+      <c r="J58" s="190"/>
     </row>
     <row r="59" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="144" t="s">
+      <c r="B59" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="145"/>
-      <c r="D59" s="136" t="s">
+      <c r="C59" s="187"/>
+      <c r="D59" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="109"/>
-      <c r="F59" s="109"/>
-      <c r="G59" s="109"/>
-      <c r="H59" s="109"/>
-      <c r="I59" s="109"/>
-      <c r="J59" s="110"/>
+      <c r="E59" s="117"/>
+      <c r="F59" s="117"/>
+      <c r="G59" s="117"/>
+      <c r="H59" s="117"/>
+      <c r="I59" s="117"/>
+      <c r="J59" s="118"/>
     </row>
     <row r="60" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="141"/>
-      <c r="B60" s="142"/>
-      <c r="C60" s="142"/>
-      <c r="D60" s="142"/>
-      <c r="E60" s="142"/>
-      <c r="F60" s="142"/>
-      <c r="G60" s="142"/>
-      <c r="H60" s="142"/>
-      <c r="I60" s="142"/>
-      <c r="J60" s="143"/>
+      <c r="A60" s="183"/>
+      <c r="B60" s="184"/>
+      <c r="C60" s="184"/>
+      <c r="D60" s="184"/>
+      <c r="E60" s="184"/>
+      <c r="F60" s="184"/>
+      <c r="G60" s="184"/>
+      <c r="H60" s="184"/>
+      <c r="I60" s="184"/>
+      <c r="J60" s="185"/>
     </row>
     <row r="61" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="70"/>
-      <c r="B61" s="139"/>
-      <c r="C61" s="140"/>
-      <c r="D61" s="136"/>
-      <c r="E61" s="137"/>
-      <c r="F61" s="137"/>
-      <c r="G61" s="137"/>
-      <c r="H61" s="137"/>
-      <c r="I61" s="137"/>
-      <c r="J61" s="138"/>
+      <c r="B61" s="140"/>
+      <c r="C61" s="156"/>
+      <c r="D61" s="180"/>
+      <c r="E61" s="181"/>
+      <c r="F61" s="181"/>
+      <c r="G61" s="181"/>
+      <c r="H61" s="181"/>
+      <c r="I61" s="181"/>
+      <c r="J61" s="182"/>
     </row>
     <row r="62" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="70"/>
-      <c r="B62" s="139"/>
-      <c r="C62" s="140"/>
-      <c r="D62" s="136"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="137"/>
-      <c r="G62" s="137"/>
-      <c r="H62" s="137"/>
-      <c r="I62" s="137"/>
-      <c r="J62" s="138"/>
+      <c r="B62" s="140"/>
+      <c r="C62" s="156"/>
+      <c r="D62" s="180"/>
+      <c r="E62" s="181"/>
+      <c r="F62" s="181"/>
+      <c r="G62" s="181"/>
+      <c r="H62" s="181"/>
+      <c r="I62" s="181"/>
+      <c r="J62" s="182"/>
     </row>
     <row r="63" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="141"/>
-      <c r="B63" s="142"/>
-      <c r="C63" s="142"/>
-      <c r="D63" s="142"/>
-      <c r="E63" s="142"/>
-      <c r="F63" s="142"/>
-      <c r="G63" s="142"/>
-      <c r="H63" s="142"/>
-      <c r="I63" s="142"/>
-      <c r="J63" s="143"/>
+      <c r="A63" s="183"/>
+      <c r="B63" s="184"/>
+      <c r="C63" s="184"/>
+      <c r="D63" s="184"/>
+      <c r="E63" s="184"/>
+      <c r="F63" s="184"/>
+      <c r="G63" s="184"/>
+      <c r="H63" s="184"/>
+      <c r="I63" s="184"/>
+      <c r="J63" s="185"/>
     </row>
     <row r="64" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="70"/>
-      <c r="B64" s="139"/>
-      <c r="C64" s="140"/>
-      <c r="D64" s="136"/>
-      <c r="E64" s="137"/>
-      <c r="F64" s="137"/>
-      <c r="G64" s="137"/>
-      <c r="H64" s="137"/>
-      <c r="I64" s="137"/>
-      <c r="J64" s="138"/>
+      <c r="B64" s="140"/>
+      <c r="C64" s="156"/>
+      <c r="D64" s="180"/>
+      <c r="E64" s="181"/>
+      <c r="F64" s="181"/>
+      <c r="G64" s="181"/>
+      <c r="H64" s="181"/>
+      <c r="I64" s="181"/>
+      <c r="J64" s="182"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="74" t="s">
@@ -12692,14 +12744,14 @@
       <c r="B66" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="139"/>
-      <c r="D66" s="109"/>
-      <c r="E66" s="109"/>
-      <c r="F66" s="109"/>
-      <c r="G66" s="109"/>
-      <c r="H66" s="109"/>
-      <c r="I66" s="109"/>
-      <c r="J66" s="110"/>
+      <c r="C66" s="140"/>
+      <c r="D66" s="117"/>
+      <c r="E66" s="117"/>
+      <c r="F66" s="117"/>
+      <c r="G66" s="117"/>
+      <c r="H66" s="117"/>
+      <c r="I66" s="117"/>
+      <c r="J66" s="118"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="70">
@@ -12719,33 +12771,27 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="B57:J57"/>
     <mergeCell ref="C67:J67"/>
     <mergeCell ref="C66:J66"/>
     <mergeCell ref="K1:K3"/>
@@ -12762,27 +12808,33 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="D61:J61"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="D64:J64"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -13422,152 +13474,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="52" customFormat="1">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="120"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="115"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="121"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="123"/>
+      <c r="A6" s="133"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="135"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="167"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
+      <c r="A7" s="170"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="173"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="167"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="170"/>
+      <c r="A8" s="170"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="173"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="171"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="173"/>
+      <c r="A9" s="174"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="176"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="120"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="115"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="174" t="s">
+      <c r="A11" s="177" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="110"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="118"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="166" t="s">
+      <c r="A12" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="120"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="115"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="174" t="s">
+      <c r="A13" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="110"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="118"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="120"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="115"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="178" t="s">
+      <c r="A15" s="146" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="179"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="180"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="152"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
@@ -13576,16 +13628,16 @@
       <c r="B16" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="181" t="s">
+      <c r="C16" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="183"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="148"/>
     </row>
     <row r="17" spans="1:10" s="53" customFormat="1" ht="64.5" customHeight="1">
       <c r="A17" s="56">
@@ -13594,7 +13646,7 @@
       <c r="B17" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="C17" s="187" t="s">
+      <c r="C17" s="150" t="s">
         <v>197</v>
       </c>
       <c r="D17" s="202"/>
@@ -13612,7 +13664,7 @@
       <c r="B18" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="187" t="s">
+      <c r="C18" s="150" t="s">
         <v>201</v>
       </c>
       <c r="D18" s="202"/>
@@ -13630,7 +13682,7 @@
       <c r="B19" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="150" t="s">
         <v>202</v>
       </c>
       <c r="D19" s="202"/>
@@ -13648,16 +13700,16 @@
       <c r="B20" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="C20" s="191" t="s">
+      <c r="C20" s="144" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="188"/>
-      <c r="E20" s="188"/>
-      <c r="F20" s="188"/>
-      <c r="G20" s="188"/>
-      <c r="H20" s="188"/>
-      <c r="I20" s="188"/>
-      <c r="J20" s="189"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="1:10" s="53" customFormat="1">
       <c r="A21" s="56">
@@ -13666,16 +13718,16 @@
       <c r="B21" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="191" t="s">
+      <c r="C21" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="188"/>
-      <c r="E21" s="188"/>
-      <c r="F21" s="188"/>
-      <c r="G21" s="188"/>
-      <c r="H21" s="188"/>
-      <c r="I21" s="188"/>
-      <c r="J21" s="189"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="1:10" s="53" customFormat="1" ht="33.75" customHeight="1">
       <c r="A22" s="56">
@@ -13684,16 +13736,16 @@
       <c r="B22" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="C22" s="187" t="s">
+      <c r="C22" s="150" t="s">
         <v>210</v>
       </c>
-      <c r="D22" s="188"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="188"/>
-      <c r="J22" s="189"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="149"/>
     </row>
     <row r="23" spans="1:10" s="53" customFormat="1" ht="34.5" customHeight="1">
       <c r="A23" s="63">
@@ -13702,56 +13754,56 @@
       <c r="B23" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="C23" s="187" t="s">
+      <c r="C23" s="150" t="s">
         <v>211</v>
       </c>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="189"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="149"/>
     </row>
     <row r="24" spans="1:10" s="53" customFormat="1">
-      <c r="A24" s="204"/>
-      <c r="B24" s="205"/>
-      <c r="C24" s="205"/>
-      <c r="D24" s="205"/>
-      <c r="E24" s="205"/>
-      <c r="F24" s="205"/>
-      <c r="G24" s="205"/>
-      <c r="H24" s="205"/>
-      <c r="I24" s="205"/>
-      <c r="J24" s="206"/>
+      <c r="A24" s="206"/>
+      <c r="B24" s="207"/>
+      <c r="C24" s="207"/>
+      <c r="D24" s="207"/>
+      <c r="E24" s="207"/>
+      <c r="F24" s="207"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="208"/>
     </row>
     <row r="25" spans="1:10" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="175" t="s">
+      <c r="A25" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="192"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="207"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="209"/>
     </row>
     <row r="26" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1">
-      <c r="A26" s="178" t="s">
+      <c r="A26" s="146" t="s">
         <v>213</v>
       </c>
-      <c r="B26" s="179"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="179"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="180"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="152"/>
     </row>
     <row r="27" spans="1:10" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="56" t="s">
@@ -13760,16 +13812,16 @@
       <c r="B27" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="181" t="s">
+      <c r="C27" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="182"/>
-      <c r="E27" s="182"/>
-      <c r="F27" s="182"/>
-      <c r="G27" s="182"/>
-      <c r="H27" s="182"/>
-      <c r="I27" s="182"/>
-      <c r="J27" s="183"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="148"/>
     </row>
     <row r="28" spans="1:10" s="53" customFormat="1" ht="40.5" customHeight="1">
       <c r="A28" s="56">
@@ -13778,7 +13830,7 @@
       <c r="B28" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="C28" s="187" t="s">
+      <c r="C28" s="150" t="s">
         <v>216</v>
       </c>
       <c r="D28" s="202"/>
@@ -13796,7 +13848,7 @@
       <c r="B29" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="C29" s="187" t="s">
+      <c r="C29" s="150" t="s">
         <v>208</v>
       </c>
       <c r="D29" s="202"/>
@@ -13814,7 +13866,7 @@
       <c r="B30" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="C30" s="187" t="s">
+      <c r="C30" s="150" t="s">
         <v>209</v>
       </c>
       <c r="D30" s="202"/>
@@ -13832,16 +13884,16 @@
       <c r="B31" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="C31" s="191" t="s">
+      <c r="C31" s="144" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="189"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="149"/>
     </row>
     <row r="32" spans="1:10" s="53" customFormat="1">
       <c r="A32" s="56">
@@ -13850,16 +13902,16 @@
       <c r="B32" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="C32" s="191" t="s">
+      <c r="C32" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="188"/>
-      <c r="J32" s="189"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="149"/>
     </row>
     <row r="33" spans="1:12" s="53" customFormat="1">
       <c r="A33" s="56">
@@ -13868,16 +13920,16 @@
       <c r="B33" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="C33" s="191" t="s">
+      <c r="C33" s="144" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="188"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="189"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="149"/>
     </row>
     <row r="34" spans="1:12" s="53" customFormat="1" ht="34.5" customHeight="1">
       <c r="A34" s="63">
@@ -13886,42 +13938,42 @@
       <c r="B34" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="C34" s="187" t="s">
+      <c r="C34" s="150" t="s">
         <v>217</v>
       </c>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="189"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="149"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1">
-      <c r="A35" s="163"/>
-      <c r="B35" s="208"/>
-      <c r="C35" s="208"/>
-      <c r="D35" s="208"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="208"/>
-      <c r="G35" s="208"/>
-      <c r="H35" s="208"/>
-      <c r="I35" s="208"/>
-      <c r="J35" s="209"/>
+      <c r="A35" s="166"/>
+      <c r="B35" s="210"/>
+      <c r="C35" s="210"/>
+      <c r="D35" s="210"/>
+      <c r="E35" s="210"/>
+      <c r="F35" s="210"/>
+      <c r="G35" s="210"/>
+      <c r="H35" s="210"/>
+      <c r="I35" s="210"/>
+      <c r="J35" s="211"/>
     </row>
     <row r="36" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A36" s="175" t="s">
+      <c r="A36" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="176"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="176"/>
-      <c r="F36" s="176"/>
-      <c r="G36" s="176"/>
-      <c r="H36" s="176"/>
-      <c r="I36" s="176"/>
-      <c r="J36" s="177"/>
+      <c r="B36" s="178"/>
+      <c r="C36" s="178"/>
+      <c r="D36" s="178"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="178"/>
+      <c r="G36" s="178"/>
+      <c r="H36" s="178"/>
+      <c r="I36" s="178"/>
+      <c r="J36" s="179"/>
     </row>
     <row r="37" spans="1:12" s="79" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="57" t="s">
@@ -13936,14 +13988,14 @@
       <c r="D37" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="193" t="s">
+      <c r="E37" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="194"/>
-      <c r="G37" s="194"/>
-      <c r="H37" s="194"/>
-      <c r="I37" s="194"/>
-      <c r="J37" s="194"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="139"/>
+      <c r="I37" s="139"/>
+      <c r="J37" s="139"/>
       <c r="K37" s="53"/>
       <c r="L37" s="53"/>
     </row>
@@ -13956,26 +14008,26 @@
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="62"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="117"/>
-      <c r="H38" s="117"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="117"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="127"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="127"/>
+      <c r="I38" s="127"/>
+      <c r="J38" s="127"/>
     </row>
     <row r="39" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="160" t="s">
+      <c r="A39" s="163" t="s">
         <v>214</v>
       </c>
-      <c r="B39" s="161"/>
-      <c r="C39" s="161"/>
-      <c r="D39" s="161"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="161"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="161"/>
-      <c r="J39" s="162"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
+      <c r="E39" s="164"/>
+      <c r="F39" s="164"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="164"/>
+      <c r="I39" s="164"/>
+      <c r="J39" s="165"/>
       <c r="K39" s="53"/>
       <c r="L39" s="53"/>
     </row>
@@ -13990,14 +14042,14 @@
         <v>15</v>
       </c>
       <c r="D40" s="66"/>
-      <c r="E40" s="149" t="s">
+      <c r="E40" s="191" t="s">
         <v>98</v>
       </c>
-      <c r="F40" s="117"/>
-      <c r="G40" s="117"/>
-      <c r="H40" s="117"/>
-      <c r="I40" s="117"/>
-      <c r="J40" s="117"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="127"/>
+      <c r="I40" s="127"/>
+      <c r="J40" s="127"/>
     </row>
     <row r="41" spans="1:12" s="53" customFormat="1" ht="116.25" customHeight="1">
       <c r="A41" s="67">
@@ -14010,14 +14062,14 @@
         <v>76</v>
       </c>
       <c r="D41" s="69"/>
-      <c r="E41" s="153" t="s">
+      <c r="E41" s="160" t="s">
         <v>248</v>
       </c>
-      <c r="F41" s="154"/>
-      <c r="G41" s="154"/>
-      <c r="H41" s="154"/>
-      <c r="I41" s="154"/>
-      <c r="J41" s="155"/>
+      <c r="F41" s="161"/>
+      <c r="G41" s="161"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="161"/>
+      <c r="J41" s="162"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="52.5" customHeight="1">
       <c r="A42" s="70">
@@ -14030,106 +14082,106 @@
         <v>77</v>
       </c>
       <c r="D42" s="71"/>
-      <c r="E42" s="136" t="s">
+      <c r="E42" s="180" t="s">
         <v>236</v>
       </c>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="110"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="117"/>
+      <c r="J42" s="118"/>
     </row>
     <row r="43" spans="1:12" s="53" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="146" t="s">
+      <c r="A43" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="147"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="148"/>
+      <c r="B43" s="189"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="189"/>
+      <c r="E43" s="189"/>
+      <c r="F43" s="189"/>
+      <c r="G43" s="189"/>
+      <c r="H43" s="189"/>
+      <c r="I43" s="189"/>
+      <c r="J43" s="190"/>
     </row>
     <row r="44" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="144" t="s">
+      <c r="B44" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="145"/>
-      <c r="D44" s="136" t="s">
+      <c r="C44" s="187"/>
+      <c r="D44" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
-      <c r="G44" s="109"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="109"/>
-      <c r="J44" s="110"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="118"/>
     </row>
     <row r="45" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="141"/>
-      <c r="B45" s="210"/>
-      <c r="C45" s="210"/>
-      <c r="D45" s="210"/>
-      <c r="E45" s="210"/>
-      <c r="F45" s="210"/>
-      <c r="G45" s="210"/>
-      <c r="H45" s="210"/>
-      <c r="I45" s="210"/>
-      <c r="J45" s="211"/>
+      <c r="A45" s="183"/>
+      <c r="B45" s="204"/>
+      <c r="C45" s="204"/>
+      <c r="D45" s="204"/>
+      <c r="E45" s="204"/>
+      <c r="F45" s="204"/>
+      <c r="G45" s="204"/>
+      <c r="H45" s="204"/>
+      <c r="I45" s="204"/>
+      <c r="J45" s="205"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="70"/>
-      <c r="B46" s="139"/>
-      <c r="C46" s="140"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="109"/>
-      <c r="G46" s="109"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="110"/>
+      <c r="B46" s="140"/>
+      <c r="C46" s="156"/>
+      <c r="D46" s="180"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="118"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="70"/>
-      <c r="B47" s="139"/>
-      <c r="C47" s="140"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="109"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="109"/>
-      <c r="J47" s="110"/>
+      <c r="B47" s="140"/>
+      <c r="C47" s="156"/>
+      <c r="D47" s="180"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="117"/>
+      <c r="J47" s="118"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="141"/>
-      <c r="B48" s="210"/>
-      <c r="C48" s="210"/>
-      <c r="D48" s="210"/>
-      <c r="E48" s="210"/>
-      <c r="F48" s="210"/>
-      <c r="G48" s="210"/>
-      <c r="H48" s="210"/>
-      <c r="I48" s="210"/>
-      <c r="J48" s="211"/>
+      <c r="A48" s="183"/>
+      <c r="B48" s="204"/>
+      <c r="C48" s="204"/>
+      <c r="D48" s="204"/>
+      <c r="E48" s="204"/>
+      <c r="F48" s="204"/>
+      <c r="G48" s="204"/>
+      <c r="H48" s="204"/>
+      <c r="I48" s="204"/>
+      <c r="J48" s="205"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="70"/>
-      <c r="B49" s="139"/>
-      <c r="C49" s="140"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="109"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="109"/>
-      <c r="J49" s="110"/>
+      <c r="B49" s="140"/>
+      <c r="C49" s="156"/>
+      <c r="D49" s="180"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="117"/>
+      <c r="I49" s="117"/>
+      <c r="J49" s="118"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
       <c r="A50" s="74" t="s">
@@ -14152,14 +14204,14 @@
       <c r="B51" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="139"/>
-      <c r="D51" s="109"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="109"/>
-      <c r="G51" s="109"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="109"/>
-      <c r="J51" s="110"/>
+      <c r="C51" s="140"/>
+      <c r="D51" s="117"/>
+      <c r="E51" s="117"/>
+      <c r="F51" s="117"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="117"/>
+      <c r="I51" s="117"/>
+      <c r="J51" s="118"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="70">
@@ -14182,11 +14234,34 @@
     <row r="67" s="51" customFormat="1"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C20:J20"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:J49"/>
@@ -14203,34 +14278,11 @@
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="E38:J38"/>
     <mergeCell ref="A39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -14831,152 +14883,152 @@
       <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:17" s="89" customFormat="1">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="120"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="115"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="121"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="123"/>
+      <c r="A6" s="133"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="135"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="167"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
+      <c r="A7" s="170"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="173"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="167"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="170"/>
+      <c r="A8" s="170"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="173"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="171"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="173"/>
+      <c r="A9" s="174"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="176"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="120"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="115"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="174" t="s">
+      <c r="A11" s="177" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="110"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="118"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="166" t="s">
+      <c r="A12" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="120"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="115"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="174" t="s">
+      <c r="A13" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="110"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="118"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="120"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="115"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="178" t="s">
+      <c r="A15" s="146" t="s">
         <v>220</v>
       </c>
-      <c r="B15" s="179"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="180"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="152"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
@@ -14985,16 +15037,16 @@
       <c r="B16" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="181" t="s">
+      <c r="C16" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="183"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="148"/>
     </row>
     <row r="17" spans="1:10" s="53" customFormat="1" ht="48.75" customHeight="1">
       <c r="A17" s="56">
@@ -15003,7 +15055,7 @@
       <c r="B17" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="C17" s="187" t="s">
+      <c r="C17" s="150" t="s">
         <v>197</v>
       </c>
       <c r="D17" s="202"/>
@@ -15021,7 +15073,7 @@
       <c r="B18" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="187" t="s">
+      <c r="C18" s="150" t="s">
         <v>201</v>
       </c>
       <c r="D18" s="202"/>
@@ -15039,7 +15091,7 @@
       <c r="B19" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="150" t="s">
         <v>202</v>
       </c>
       <c r="D19" s="202"/>
@@ -15057,16 +15109,16 @@
       <c r="B20" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="C20" s="191" t="s">
+      <c r="C20" s="144" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="188"/>
-      <c r="E20" s="188"/>
-      <c r="F20" s="188"/>
-      <c r="G20" s="188"/>
-      <c r="H20" s="188"/>
-      <c r="I20" s="188"/>
-      <c r="J20" s="189"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="56">
@@ -15075,16 +15127,16 @@
       <c r="B21" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="191" t="s">
+      <c r="C21" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="188"/>
-      <c r="E21" s="188"/>
-      <c r="F21" s="188"/>
-      <c r="G21" s="188"/>
-      <c r="H21" s="188"/>
-      <c r="I21" s="188"/>
-      <c r="J21" s="189"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="149"/>
     </row>
     <row r="22" spans="1:10" s="53" customFormat="1" ht="32.25" customHeight="1">
       <c r="A22" s="56">
@@ -15093,16 +15145,16 @@
       <c r="B22" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="C22" s="187" t="s">
+      <c r="C22" s="150" t="s">
         <v>210</v>
       </c>
-      <c r="D22" s="188"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="188"/>
-      <c r="J22" s="189"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="149"/>
     </row>
     <row r="23" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="63">
@@ -15111,56 +15163,56 @@
       <c r="B23" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="C23" s="187" t="s">
+      <c r="C23" s="150" t="s">
         <v>211</v>
       </c>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="189"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="149"/>
     </row>
     <row r="24" spans="1:10" s="53" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A24" s="204"/>
-      <c r="B24" s="205"/>
-      <c r="C24" s="205"/>
-      <c r="D24" s="205"/>
-      <c r="E24" s="205"/>
-      <c r="F24" s="205"/>
-      <c r="G24" s="205"/>
-      <c r="H24" s="205"/>
-      <c r="I24" s="205"/>
-      <c r="J24" s="206"/>
+      <c r="A24" s="206"/>
+      <c r="B24" s="207"/>
+      <c r="C24" s="207"/>
+      <c r="D24" s="207"/>
+      <c r="E24" s="207"/>
+      <c r="F24" s="207"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="208"/>
     </row>
     <row r="25" spans="1:10" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="175" t="s">
+      <c r="A25" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="192"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="207"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="209"/>
     </row>
     <row r="26" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1">
-      <c r="A26" s="178" t="s">
+      <c r="A26" s="146" t="s">
         <v>223</v>
       </c>
-      <c r="B26" s="179"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="179"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="180"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="152"/>
     </row>
     <row r="27" spans="1:10" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="56" t="s">
@@ -15169,16 +15221,16 @@
       <c r="B27" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="181" t="s">
+      <c r="C27" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="182"/>
-      <c r="E27" s="182"/>
-      <c r="F27" s="182"/>
-      <c r="G27" s="182"/>
-      <c r="H27" s="182"/>
-      <c r="I27" s="182"/>
-      <c r="J27" s="183"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="148"/>
     </row>
     <row r="28" spans="1:10" s="53" customFormat="1" ht="51" customHeight="1">
       <c r="A28" s="56">
@@ -15187,7 +15239,7 @@
       <c r="B28" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="C28" s="187" t="s">
+      <c r="C28" s="150" t="s">
         <v>233</v>
       </c>
       <c r="D28" s="202"/>
@@ -15205,7 +15257,7 @@
       <c r="B29" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="C29" s="187" t="s">
+      <c r="C29" s="150" t="s">
         <v>208</v>
       </c>
       <c r="D29" s="202"/>
@@ -15223,7 +15275,7 @@
       <c r="B30" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="C30" s="187" t="s">
+      <c r="C30" s="150" t="s">
         <v>209</v>
       </c>
       <c r="D30" s="202"/>
@@ -15241,16 +15293,16 @@
       <c r="B31" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="C31" s="191" t="s">
+      <c r="C31" s="144" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="189"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="149"/>
     </row>
     <row r="32" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="56">
@@ -15259,16 +15311,16 @@
       <c r="B32" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="C32" s="191" t="s">
+      <c r="C32" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="188"/>
-      <c r="J32" s="189"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="149"/>
     </row>
     <row r="33" spans="1:12" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="56">
@@ -15277,16 +15329,16 @@
       <c r="B33" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="C33" s="191" t="s">
+      <c r="C33" s="144" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="188"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="189"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="149"/>
     </row>
     <row r="34" spans="1:12" s="53" customFormat="1" ht="39.75" customHeight="1">
       <c r="A34" s="63">
@@ -15295,42 +15347,42 @@
       <c r="B34" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="C34" s="187" t="s">
+      <c r="C34" s="150" t="s">
         <v>234</v>
       </c>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="189"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="149"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1" ht="27" customHeight="1">
-      <c r="A35" s="163"/>
-      <c r="B35" s="208"/>
-      <c r="C35" s="208"/>
-      <c r="D35" s="208"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="208"/>
-      <c r="G35" s="208"/>
-      <c r="H35" s="208"/>
-      <c r="I35" s="208"/>
-      <c r="J35" s="209"/>
+      <c r="A35" s="166"/>
+      <c r="B35" s="210"/>
+      <c r="C35" s="210"/>
+      <c r="D35" s="210"/>
+      <c r="E35" s="210"/>
+      <c r="F35" s="210"/>
+      <c r="G35" s="210"/>
+      <c r="H35" s="210"/>
+      <c r="I35" s="210"/>
+      <c r="J35" s="211"/>
     </row>
     <row r="36" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="175" t="s">
+      <c r="A36" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="176"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="176"/>
-      <c r="F36" s="176"/>
-      <c r="G36" s="176"/>
-      <c r="H36" s="176"/>
-      <c r="I36" s="176"/>
-      <c r="J36" s="177"/>
+      <c r="B36" s="178"/>
+      <c r="C36" s="178"/>
+      <c r="D36" s="178"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="178"/>
+      <c r="G36" s="178"/>
+      <c r="H36" s="178"/>
+      <c r="I36" s="178"/>
+      <c r="J36" s="179"/>
     </row>
     <row r="37" spans="1:12" s="79" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="57" t="s">
@@ -15345,14 +15397,14 @@
       <c r="D37" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="193" t="s">
+      <c r="E37" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="194"/>
-      <c r="G37" s="194"/>
-      <c r="H37" s="194"/>
-      <c r="I37" s="194"/>
-      <c r="J37" s="194"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="139"/>
+      <c r="I37" s="139"/>
+      <c r="J37" s="139"/>
       <c r="K37" s="53"/>
       <c r="L37" s="53"/>
     </row>
@@ -15365,26 +15417,26 @@
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="62"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="117"/>
-      <c r="H38" s="117"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="117"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="127"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="127"/>
+      <c r="I38" s="127"/>
+      <c r="J38" s="127"/>
     </row>
     <row r="39" spans="1:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A39" s="160" t="s">
+      <c r="A39" s="163" t="s">
         <v>221</v>
       </c>
-      <c r="B39" s="161"/>
-      <c r="C39" s="161"/>
-      <c r="D39" s="161"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="161"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="161"/>
-      <c r="J39" s="162"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
+      <c r="E39" s="164"/>
+      <c r="F39" s="164"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="164"/>
+      <c r="I39" s="164"/>
+      <c r="J39" s="165"/>
       <c r="K39" s="53"/>
       <c r="L39" s="53"/>
     </row>
@@ -15399,14 +15451,14 @@
         <v>15</v>
       </c>
       <c r="D40" s="87"/>
-      <c r="E40" s="153" t="s">
+      <c r="E40" s="160" t="s">
         <v>238</v>
       </c>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="154"/>
-      <c r="I40" s="154"/>
-      <c r="J40" s="155"/>
+      <c r="F40" s="161"/>
+      <c r="G40" s="161"/>
+      <c r="H40" s="161"/>
+      <c r="I40" s="161"/>
+      <c r="J40" s="162"/>
     </row>
     <row r="41" spans="1:12" s="53" customFormat="1" ht="51" customHeight="1">
       <c r="A41" s="70">
@@ -15419,14 +15471,14 @@
         <v>77</v>
       </c>
       <c r="D41" s="86"/>
-      <c r="E41" s="136" t="s">
+      <c r="E41" s="180" t="s">
         <v>236</v>
       </c>
-      <c r="F41" s="109"/>
-      <c r="G41" s="109"/>
-      <c r="H41" s="109"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="110"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="117"/>
+      <c r="J41" s="118"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="100.5" customHeight="1">
       <c r="A42" s="70">
@@ -15439,106 +15491,106 @@
         <v>77</v>
       </c>
       <c r="D42" s="86"/>
-      <c r="E42" s="136" t="s">
+      <c r="E42" s="180" t="s">
         <v>235</v>
       </c>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="110"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="117"/>
+      <c r="J42" s="118"/>
     </row>
     <row r="43" spans="1:12" s="53" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A43" s="146" t="s">
+      <c r="A43" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="147"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="148"/>
+      <c r="B43" s="189"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="189"/>
+      <c r="E43" s="189"/>
+      <c r="F43" s="189"/>
+      <c r="G43" s="189"/>
+      <c r="H43" s="189"/>
+      <c r="I43" s="189"/>
+      <c r="J43" s="190"/>
     </row>
     <row r="44" spans="1:12" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A44" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="144" t="s">
+      <c r="B44" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="145"/>
-      <c r="D44" s="136" t="s">
+      <c r="C44" s="187"/>
+      <c r="D44" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
-      <c r="G44" s="109"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="109"/>
-      <c r="J44" s="110"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="118"/>
     </row>
     <row r="45" spans="1:12" s="55" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A45" s="141"/>
-      <c r="B45" s="210"/>
-      <c r="C45" s="210"/>
-      <c r="D45" s="210"/>
-      <c r="E45" s="210"/>
-      <c r="F45" s="210"/>
-      <c r="G45" s="210"/>
-      <c r="H45" s="210"/>
-      <c r="I45" s="210"/>
-      <c r="J45" s="211"/>
+      <c r="A45" s="183"/>
+      <c r="B45" s="204"/>
+      <c r="C45" s="204"/>
+      <c r="D45" s="204"/>
+      <c r="E45" s="204"/>
+      <c r="F45" s="204"/>
+      <c r="G45" s="204"/>
+      <c r="H45" s="204"/>
+      <c r="I45" s="204"/>
+      <c r="J45" s="205"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1" ht="28.5" customHeight="1">
       <c r="A46" s="70"/>
-      <c r="B46" s="139"/>
-      <c r="C46" s="140"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="109"/>
-      <c r="G46" s="109"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="110"/>
+      <c r="B46" s="140"/>
+      <c r="C46" s="156"/>
+      <c r="D46" s="180"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="118"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A47" s="70"/>
-      <c r="B47" s="139"/>
-      <c r="C47" s="140"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="109"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="109"/>
-      <c r="J47" s="110"/>
+      <c r="B47" s="140"/>
+      <c r="C47" s="156"/>
+      <c r="D47" s="180"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="117"/>
+      <c r="J47" s="118"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A48" s="141"/>
-      <c r="B48" s="210"/>
-      <c r="C48" s="210"/>
-      <c r="D48" s="210"/>
-      <c r="E48" s="210"/>
-      <c r="F48" s="210"/>
-      <c r="G48" s="210"/>
-      <c r="H48" s="210"/>
-      <c r="I48" s="210"/>
-      <c r="J48" s="211"/>
+      <c r="A48" s="183"/>
+      <c r="B48" s="204"/>
+      <c r="C48" s="204"/>
+      <c r="D48" s="204"/>
+      <c r="E48" s="204"/>
+      <c r="F48" s="204"/>
+      <c r="G48" s="204"/>
+      <c r="H48" s="204"/>
+      <c r="I48" s="204"/>
+      <c r="J48" s="205"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="70"/>
-      <c r="B49" s="139"/>
-      <c r="C49" s="140"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="109"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="109"/>
-      <c r="J49" s="110"/>
+      <c r="B49" s="140"/>
+      <c r="C49" s="156"/>
+      <c r="D49" s="180"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="117"/>
+      <c r="I49" s="117"/>
+      <c r="J49" s="118"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="74" t="s">
@@ -15561,14 +15613,14 @@
       <c r="B51" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="139"/>
-      <c r="D51" s="109"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="109"/>
-      <c r="G51" s="109"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="109"/>
-      <c r="J51" s="110"/>
+      <c r="C51" s="140"/>
+      <c r="D51" s="117"/>
+      <c r="E51" s="117"/>
+      <c r="F51" s="117"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="117"/>
+      <c r="I51" s="117"/>
+      <c r="J51" s="118"/>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1">
       <c r="A52" s="70">
@@ -15602,6 +15654,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="E38:J38"/>
     <mergeCell ref="A39:J39"/>
@@ -15618,39 +15703,6 @@
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:J49"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/APF/RA006/RA006_APF0201_功能清單設定作業.xlsx
+++ b/APF/RA006/RA006_APF0201_功能清單設定作業.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -3607,9 +3607,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>86</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11169,8 +11169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N60" sqref="N60"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11539,9 +11539,9 @@
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>67</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -11564,9 +11564,9 @@
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>86</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -11584,7 +11584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>

--- a/APF/RA006/RA006_APF0201_功能清單設定作業.xlsx
+++ b/APF/RA006/RA006_APF0201_功能清單設定作業.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="263">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -286,10 +286,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>輸入/輸出</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>1.0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1152,23 +1148,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>欄位_APF0101MA1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位_APF0101MU1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>畫面_APF0201MM1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>畫面_APF0101MA1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>畫面_APF0101MU1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1208,14 +1188,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>點選儲存按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 14，若選擇是，則進行儲存，若選擇否，則不做任何動作。
-儲存成功:
-1.在APF0201MU1右下角提示儲存成功訊息，訊息內容請參考APF訊息表 APF_NO 12。
-2.左下方功能清單TreeView重新載入，並顯示新增的功能清單，右下方頁面則保持在原新增畫面
-儲存失敗:以MsgBox顯示錯誤訊息，訊息內容請參考APF訊息表 APF_NO 11或13。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>下拉式選單，無</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1242,31 +1214,6 @@
   </si>
   <si>
     <t>輸入之功能代號必須存在於APF apf_menu_node 資料表中，若不存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 9</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>輸入之</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>功能名稱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>必須存在於APF apf_menu_root 或 apf_menu_node 資料表中，若不存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 9</t>
-    </r>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1343,18 +1290,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>輸入/輸出</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>項目名稱</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>輸入/輸出</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>IPO Model</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1365,6 +1304,41 @@
   <si>
     <t>回總表</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入之功能名稱必須存在於APF apf_menu_root 或 apf_menu_node 資料表中，若不存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>點選儲存按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 14，若選擇是，則進行儲存，若選擇否，則不做任何動作。
+儲存成功:
+1.在APF0201MU1右下角提示儲存成功訊息，訊息內容請參考APF訊息表 APF_NO 12。
+2.左下方功能清單TreeView重新載入，並顯示新增的功能清單，右下方頁面則保持在原編輯畫面
+儲存失敗:以MsgBox顯示錯誤訊息，訊息內容請參考APF訊息表 APF_NO 11或13。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>畫面_APF0201MA1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位_APF0201MA1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面_APF0201MU1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位_APF0201MU1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入/輸出/必填</t>
   </si>
 </sst>
 </file>
@@ -2214,6 +2188,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2234,15 +2217,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3555,8 +3529,8 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>67</xdr:row>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>68</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3602,14 +3576,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>68</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>86</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5705,19 +5679,21 @@
             </a:r>
           </a:p>
           <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體"/>
-                <a:ea typeface="標楷體"/>
-              </a:rPr>
-              <a:t>陳慕霖</a:t>
-            </a:r>
+            <a:pPr rtl="0"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>馬凱林</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr algn="l" rtl="0">
@@ -5917,7 +5893,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12039600" cy="523875"/>
+          <a:ext cx="12449175" cy="523875"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -7048,7 +7024,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12030075" cy="609600"/>
+          <a:ext cx="12515850" cy="609600"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -9319,7 +9295,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12030075" cy="609600"/>
+          <a:ext cx="12401550" cy="609600"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -10251,7 +10227,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -10265,7 +10241,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="107" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B1" s="107"/>
       <c r="C1" s="107"/>
@@ -10273,105 +10249,105 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="29" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>55</v>
-      </c>
       <c r="D3" s="106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="108" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D5" s="106" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="108"/>
       <c r="B6" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="D7" s="106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="108"/>
       <c r="B8" s="31" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
       <c r="A9" s="108" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="D9" s="106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
       <c r="A10" s="108"/>
       <c r="B10" s="31" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1" thickBot="1">
@@ -10435,7 +10411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
@@ -10449,7 +10425,7 @@
     <col min="6" max="6" width="14.375" style="38" customWidth="1"/>
     <col min="7" max="7" width="15" style="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="38" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="38" customWidth="1"/>
     <col min="10" max="10" width="34.875" style="38" customWidth="1"/>
     <col min="11" max="11" width="8.75" style="38" customWidth="1"/>
     <col min="12" max="16384" width="9" style="38"/>
@@ -10467,7 +10443,7 @@
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
       <c r="K1" s="158" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -10597,10 +10573,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -10634,7 +10610,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="195" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="196"/>
       <c r="C10" s="196"/>
@@ -10669,10 +10645,10 @@
         <v>16</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -10683,29 +10659,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F12" s="103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J12" s="213" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -10713,20 +10689,20 @@
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
       <c r="D13" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F13" s="103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J13" s="199"/>
     </row>
@@ -10735,61 +10711,61 @@
         <v>2</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F14" s="104" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G14" s="105" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H14" s="46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="40"/>
       <c r="B15" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F15" s="104" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G15" s="105" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J15" s="85" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -10797,31 +10773,31 @@
         <v>3</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10829,26 +10805,26 @@
         <v>4</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J17" s="100"/>
     </row>
@@ -10857,27 +10833,27 @@
         <v>5</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E18" s="102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F18" s="212" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G18" s="201"/>
       <c r="H18" s="83"/>
       <c r="I18" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J18" s="101" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10885,26 +10861,26 @@
         <v>6</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H19" s="40"/>
       <c r="I19" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -11033,10 +11009,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>46</v>
       </c>
       <c r="D6" s="20">
         <v>41563</v>
@@ -11167,10 +11143,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="M73" sqref="M73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11183,17 +11159,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="109" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="M1" s="112" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="110"/>
+      <c r="M2" s="113"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="110"/>
+      <c r="M3" s="113"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -11210,7 +11186,7 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="109" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="131"/>
@@ -11227,7 +11203,7 @@
     </row>
     <row r="6" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="133" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="134"/>
       <c r="C6" s="134"/>
@@ -11249,69 +11225,69 @@
       <c r="C7" s="123"/>
       <c r="D7" s="123"/>
       <c r="E7" s="123"/>
-      <c r="F7" s="113" t="s">
+      <c r="F7" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="115"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="118"/>
     </row>
     <row r="8" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
       <c r="A8" s="130" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="127"/>
       <c r="C8" s="127"/>
       <c r="D8" s="127"/>
       <c r="E8" s="127"/>
-      <c r="F8" s="117" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="118"/>
+      <c r="F8" s="110" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="111"/>
     </row>
     <row r="9" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113" t="s">
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="115"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="118"/>
     </row>
     <row r="10" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
       <c r="A10" s="130" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="127"/>
       <c r="C10" s="127"/>
       <c r="D10" s="127"/>
       <c r="E10" s="127"/>
-      <c r="F10" s="117" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="118"/>
+      <c r="F10" s="110" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="111"/>
     </row>
     <row r="11" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="122" t="s">
@@ -11324,28 +11300,28 @@
       <c r="F11" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="115"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="118"/>
     </row>
     <row r="12" spans="1:13" s="55" customFormat="1" ht="16.5">
       <c r="A12" s="130" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="127"/>
       <c r="C12" s="127"/>
       <c r="D12" s="127"/>
       <c r="E12" s="127"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="118"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="111"/>
     </row>
     <row r="13" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="122" t="s">
@@ -11358,31 +11334,31 @@
       <c r="F13" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="115"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="118"/>
     </row>
     <row r="14" spans="1:13" s="55" customFormat="1" ht="16.5">
       <c r="A14" s="130" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="127"/>
       <c r="C14" s="127"/>
       <c r="D14" s="127"/>
       <c r="E14" s="127"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="118"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="111"/>
     </row>
     <row r="15" spans="1:13" s="80" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="109" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="124"/>
@@ -11399,7 +11375,7 @@
     </row>
     <row r="16" spans="1:13" s="80" customFormat="1" ht="130.5" customHeight="1">
       <c r="A16" s="126" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" s="127"/>
       <c r="C16" s="127"/>
@@ -11414,20 +11390,20 @@
       <c r="L16" s="128"/>
     </row>
     <row r="17" spans="1:12" s="82" customFormat="1" ht="16.5">
-      <c r="A17" s="116" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="118"/>
+      <c r="A17" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="111"/>
     </row>
     <row r="18" spans="1:12" s="82" customFormat="1" ht="14.25"/>
     <row r="19" spans="1:12" s="82" customFormat="1" ht="14.25"/>
@@ -11475,7 +11451,7 @@
     <row r="61" s="82" customFormat="1" ht="14.25"/>
     <row r="68" spans="1:12" ht="21.75" customHeight="1">
       <c r="A68" s="119" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B68" s="120"/>
       <c r="C68" s="120"/>
@@ -11489,8 +11465,25 @@
       <c r="K68" s="120"/>
       <c r="L68" s="121"/>
     </row>
+    <row r="69" spans="1:12" s="82" customFormat="1" ht="16.5">
+      <c r="A69" s="109" t="s">
+        <v>255</v>
+      </c>
+      <c r="B69" s="110"/>
+      <c r="C69" s="110"/>
+      <c r="D69" s="110"/>
+      <c r="E69" s="110"/>
+      <c r="F69" s="110"/>
+      <c r="G69" s="110"/>
+      <c r="H69" s="110"/>
+      <c r="I69" s="110"/>
+      <c r="J69" s="110"/>
+      <c r="K69" s="110"/>
+      <c r="L69" s="111"/>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A7:E7"/>
@@ -11498,6 +11491,7 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A69:L69"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -11513,7 +11507,6 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -11540,8 +11533,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>67</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -11559,14 +11552,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>68</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>86</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -11589,15 +11582,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="109" t="s">
-        <v>263</v>
+      <c r="P1" s="112" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="110"/>
+      <c r="P2" s="113"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="110"/>
+      <c r="P3" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11673,7 +11666,7 @@
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:J32"/>
+      <selection activeCell="A6" sqref="A6:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11704,7 +11697,7 @@
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
       <c r="K1" s="158" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L1" s="51"/>
       <c r="M1" s="51"/>
@@ -11755,15 +11748,15 @@
       <c r="A5" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="115"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="133"/>
@@ -11819,75 +11812,75 @@
       <c r="A10" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="115"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
       <c r="A11" s="177" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="118"/>
+        <v>101</v>
+      </c>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="111"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="115"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
       <c r="A13" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="118"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="111"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="115"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="33.75" customHeight="1">
       <c r="A15" s="146" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B15" s="151"/>
       <c r="C15" s="151"/>
@@ -11904,10 +11897,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="142" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="143"/>
       <c r="E16" s="143"/>
@@ -11922,10 +11915,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="153" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D17" s="154"/>
       <c r="E17" s="154"/>
@@ -11940,10 +11933,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C18" s="150" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D18" s="145"/>
       <c r="E18" s="145"/>
@@ -11958,10 +11951,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="150" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19" s="145"/>
       <c r="E19" s="145"/>
@@ -11985,7 +11978,7 @@
     </row>
     <row r="21" spans="1:12" s="53" customFormat="1">
       <c r="A21" s="146" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" s="151"/>
       <c r="C21" s="151"/>
@@ -12002,10 +11995,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="142" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="143"/>
       <c r="E22" s="143"/>
@@ -12020,10 +12013,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C23" s="144" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D23" s="145"/>
       <c r="E23" s="145"/>
@@ -12038,10 +12031,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="144" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="145"/>
       <c r="E24" s="145"/>
@@ -12056,10 +12049,10 @@
         <v>3</v>
       </c>
       <c r="B25" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="144" t="s">
         <v>82</v>
-      </c>
-      <c r="C25" s="144" t="s">
-        <v>83</v>
       </c>
       <c r="D25" s="145"/>
       <c r="E25" s="145"/>
@@ -12074,10 +12067,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="144" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="145"/>
       <c r="E26" s="145"/>
@@ -12115,7 +12108,7 @@
     </row>
     <row r="29" spans="1:12" s="53" customFormat="1" ht="36.75" customHeight="1">
       <c r="A29" s="146" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="151"/>
       <c r="C29" s="151"/>
@@ -12132,10 +12125,10 @@
         <v>6</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="142" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" s="143"/>
       <c r="E30" s="143"/>
@@ -12150,10 +12143,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31" s="144" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31" s="145"/>
       <c r="E31" s="145"/>
@@ -12170,10 +12163,10 @@
         <v>2</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C32" s="150" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D32" s="145"/>
       <c r="E32" s="145"/>
@@ -12190,10 +12183,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C33" s="150" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D33" s="145"/>
       <c r="E33" s="145"/>
@@ -12221,7 +12214,7 @@
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1">
       <c r="A35" s="146" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B35" s="147"/>
       <c r="C35" s="147"/>
@@ -12240,10 +12233,10 @@
         <v>6</v>
       </c>
       <c r="B36" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="142" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D36" s="143"/>
       <c r="E36" s="143"/>
@@ -12260,10 +12253,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C37" s="144" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D37" s="145"/>
       <c r="E37" s="145"/>
@@ -12280,10 +12273,10 @@
         <v>2</v>
       </c>
       <c r="B38" s="56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" s="144" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D38" s="145"/>
       <c r="E38" s="145"/>
@@ -12300,10 +12293,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="144" t="s">
         <v>82</v>
-      </c>
-      <c r="C39" s="144" t="s">
-        <v>83</v>
       </c>
       <c r="D39" s="145"/>
       <c r="E39" s="145"/>
@@ -12320,10 +12313,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" s="144" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D40" s="145"/>
       <c r="E40" s="145"/>
@@ -12394,12 +12387,12 @@
         <v>1</v>
       </c>
       <c r="B44" s="60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" s="61"/>
       <c r="D44" s="62"/>
       <c r="E44" s="191" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F44" s="127"/>
       <c r="G44" s="127"/>
@@ -12421,7 +12414,7 @@
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1">
       <c r="A46" s="163" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B46" s="164"/>
       <c r="C46" s="164"/>
@@ -12438,14 +12431,14 @@
         <v>1</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="66"/>
       <c r="E47" s="191" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F47" s="127"/>
       <c r="G47" s="127"/>
@@ -12458,14 +12451,14 @@
         <v>2</v>
       </c>
       <c r="B48" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C48" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="69"/>
       <c r="E48" s="160" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F48" s="161"/>
       <c r="G48" s="161"/>
@@ -12478,20 +12471,20 @@
         <v>3</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="71"/>
       <c r="E49" s="180" t="s">
-        <v>133</v>
-      </c>
-      <c r="F49" s="117"/>
-      <c r="G49" s="117"/>
-      <c r="H49" s="117"/>
-      <c r="I49" s="117"/>
-      <c r="J49" s="118"/>
+        <v>132</v>
+      </c>
+      <c r="F49" s="110"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="111"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1">
       <c r="A50" s="72"/>
@@ -12507,7 +12500,7 @@
     </row>
     <row r="51" spans="1:10" s="53" customFormat="1">
       <c r="A51" s="192" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B51" s="193"/>
       <c r="C51" s="193"/>
@@ -12524,14 +12517,14 @@
         <v>1</v>
       </c>
       <c r="B52" s="83" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C52" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="66"/>
       <c r="E52" s="191" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F52" s="127"/>
       <c r="G52" s="127"/>
@@ -12544,14 +12537,14 @@
         <v>2</v>
       </c>
       <c r="B53" s="83" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C53" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="69"/>
       <c r="E53" s="191" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F53" s="127"/>
       <c r="G53" s="127"/>
@@ -12564,14 +12557,14 @@
         <v>3</v>
       </c>
       <c r="B54" s="83" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C54" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="69"/>
       <c r="E54" s="160" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F54" s="161"/>
       <c r="G54" s="161"/>
@@ -12584,14 +12577,14 @@
         <v>4</v>
       </c>
       <c r="B55" s="83" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C55" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="69"/>
       <c r="E55" s="160" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F55" s="161"/>
       <c r="G55" s="161"/>
@@ -12604,14 +12597,14 @@
         <v>5</v>
       </c>
       <c r="B56" s="97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C56" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="69"/>
       <c r="E56" s="160" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F56" s="161"/>
       <c r="G56" s="161"/>
@@ -12656,12 +12649,12 @@
       <c r="D59" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="117"/>
-      <c r="F59" s="117"/>
-      <c r="G59" s="117"/>
-      <c r="H59" s="117"/>
-      <c r="I59" s="117"/>
-      <c r="J59" s="118"/>
+      <c r="E59" s="110"/>
+      <c r="F59" s="110"/>
+      <c r="G59" s="110"/>
+      <c r="H59" s="110"/>
+      <c r="I59" s="110"/>
+      <c r="J59" s="111"/>
     </row>
     <row r="60" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="183"/>
@@ -12745,13 +12738,13 @@
         <v>4</v>
       </c>
       <c r="C66" s="140"/>
-      <c r="D66" s="117"/>
-      <c r="E66" s="117"/>
-      <c r="F66" s="117"/>
-      <c r="G66" s="117"/>
-      <c r="H66" s="117"/>
-      <c r="I66" s="117"/>
-      <c r="J66" s="118"/>
+      <c r="D66" s="110"/>
+      <c r="E66" s="110"/>
+      <c r="F66" s="110"/>
+      <c r="G66" s="110"/>
+      <c r="H66" s="110"/>
+      <c r="I66" s="110"/>
+      <c r="J66" s="111"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="70">
@@ -12856,8 +12849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12870,7 +12863,7 @@
     <col min="6" max="6" width="14.375" style="38" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="38" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="38" customWidth="1"/>
     <col min="10" max="10" width="37" style="38" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="38" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="38"/>
@@ -12888,7 +12881,7 @@
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
       <c r="K1" s="158" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -12997,19 +12990,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>22</v>
@@ -13018,10 +13011,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -13055,7 +13048,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="195" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" s="196"/>
       <c r="C10" s="196"/>
@@ -13069,19 +13062,19 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>22</v>
@@ -13090,10 +13083,10 @@
         <v>16</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -13104,27 +13097,27 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F12" s="200" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G12" s="201"/>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J12" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="25.5" customHeight="1">
@@ -13132,29 +13125,29 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E13" s="99" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F13" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G13" s="91" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J13" s="198" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="22.5" customHeight="1">
@@ -13163,17 +13156,17 @@
       <c r="C14" s="46"/>
       <c r="D14" s="42"/>
       <c r="E14" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="F14" s="91" t="s">
-        <v>140</v>
-      </c>
       <c r="G14" s="91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J14" s="199"/>
     </row>
@@ -13182,32 +13175,32 @@
         <v>3</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="91" t="s">
         <v>120</v>
-      </c>
-      <c r="G15" s="91" t="s">
-        <v>121</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J15" s="48"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="195" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" s="196"/>
       <c r="C17" s="196"/>
@@ -13221,19 +13214,19 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="39" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F18" s="39" t="s">
         <v>22</v>
@@ -13242,10 +13235,10 @@
         <v>16</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J18" s="39" t="s">
         <v>0</v>
@@ -13256,26 +13249,26 @@
         <v>1</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="42" t="s">
-        <v>146</v>
-      </c>
       <c r="E19" s="96" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F19" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G19" s="91" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -13285,17 +13278,17 @@
       <c r="C20" s="41"/>
       <c r="D20" s="42"/>
       <c r="E20" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="91" t="s">
-        <v>140</v>
-      </c>
       <c r="G20" s="91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J20" s="45"/>
     </row>
@@ -13304,27 +13297,27 @@
         <v>3</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="43" t="s">
-        <v>61</v>
-      </c>
       <c r="G21" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J21" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:11" hidden="1">
@@ -13332,27 +13325,27 @@
         <v>4</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="G22" s="46" t="s">
         <v>63</v>
-      </c>
-      <c r="G22" s="46" t="s">
-        <v>64</v>
       </c>
       <c r="H22" s="46"/>
       <c r="I22" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J22" s="48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -13396,7 +13389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E41" sqref="E41:J41"/>
     </sheetView>
   </sheetViews>
@@ -13426,7 +13419,7 @@
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
       <c r="K1" s="158" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L1" s="51"/>
       <c r="M1" s="51"/>
@@ -13477,15 +13470,15 @@
       <c r="A5" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="115"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="133"/>
@@ -13541,75 +13534,75 @@
       <c r="A10" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="115"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
       <c r="A11" s="177" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="118"/>
+        <v>135</v>
+      </c>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="111"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="115"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
       <c r="A13" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="118"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="111"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="115"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="35.25" customHeight="1">
       <c r="A15" s="146" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B15" s="151"/>
       <c r="C15" s="151"/>
@@ -13626,10 +13619,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="142" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="143"/>
       <c r="E16" s="143"/>
@@ -13644,10 +13637,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" s="150" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D17" s="202"/>
       <c r="E17" s="202"/>
@@ -13662,10 +13655,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C18" s="150" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D18" s="202"/>
       <c r="E18" s="202"/>
@@ -13680,10 +13673,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C19" s="150" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D19" s="202"/>
       <c r="E19" s="202"/>
@@ -13698,10 +13691,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C20" s="144" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="145"/>
       <c r="E20" s="145"/>
@@ -13716,10 +13709,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C21" s="144" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="145"/>
       <c r="E21" s="145"/>
@@ -13734,10 +13727,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C22" s="150" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D22" s="145"/>
       <c r="E22" s="145"/>
@@ -13752,10 +13745,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C23" s="150" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D23" s="145"/>
       <c r="E23" s="145"/>
@@ -13793,7 +13786,7 @@
     </row>
     <row r="26" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1">
       <c r="A26" s="146" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B26" s="151"/>
       <c r="C26" s="151"/>
@@ -13810,10 +13803,10 @@
         <v>6</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" s="142" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="143"/>
       <c r="E27" s="143"/>
@@ -13828,10 +13821,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C28" s="150" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D28" s="202"/>
       <c r="E28" s="202"/>
@@ -13846,10 +13839,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C29" s="150" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D29" s="202"/>
       <c r="E29" s="202"/>
@@ -13864,10 +13857,10 @@
         <v>2</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C30" s="150" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D30" s="202"/>
       <c r="E30" s="202"/>
@@ -13882,10 +13875,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C31" s="144" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D31" s="145"/>
       <c r="E31" s="145"/>
@@ -13900,10 +13893,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C32" s="144" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" s="145"/>
       <c r="E32" s="145"/>
@@ -13918,10 +13911,10 @@
         <v>5</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C33" s="144" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" s="145"/>
       <c r="E33" s="145"/>
@@ -13936,10 +13929,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D34" s="145"/>
       <c r="E34" s="145"/>
@@ -14004,7 +13997,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="62"/>
@@ -14017,7 +14010,7 @@
     </row>
     <row r="39" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="163" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B39" s="164"/>
       <c r="C39" s="164"/>
@@ -14036,14 +14029,14 @@
         <v>1</v>
       </c>
       <c r="B40" s="64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="65" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="66"/>
       <c r="E40" s="191" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F40" s="127"/>
       <c r="G40" s="127"/>
@@ -14056,14 +14049,14 @@
         <v>1</v>
       </c>
       <c r="B41" s="68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41" s="65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" s="69"/>
       <c r="E41" s="160" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F41" s="161"/>
       <c r="G41" s="161"/>
@@ -14076,20 +14069,20 @@
         <v>2</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" s="65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D42" s="71"/>
       <c r="E42" s="180" t="s">
-        <v>236</v>
-      </c>
-      <c r="F42" s="117"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="117"/>
-      <c r="J42" s="118"/>
+        <v>231</v>
+      </c>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="111"/>
     </row>
     <row r="43" spans="1:12" s="53" customFormat="1" ht="17.25" customHeight="1">
       <c r="A43" s="188" t="s">
@@ -14116,12 +14109,12 @@
       <c r="D44" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="117"/>
-      <c r="J44" s="118"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="111"/>
     </row>
     <row r="45" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="183"/>
@@ -14140,24 +14133,24 @@
       <c r="B46" s="140"/>
       <c r="C46" s="156"/>
       <c r="D46" s="180"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="117"/>
-      <c r="J46" s="118"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="111"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="70"/>
       <c r="B47" s="140"/>
       <c r="C47" s="156"/>
       <c r="D47" s="180"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="117"/>
-      <c r="J47" s="118"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="111"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="183"/>
@@ -14176,12 +14169,12 @@
       <c r="B49" s="140"/>
       <c r="C49" s="156"/>
       <c r="D49" s="180"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="117"/>
-      <c r="G49" s="117"/>
-      <c r="H49" s="117"/>
-      <c r="I49" s="117"/>
-      <c r="J49" s="118"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="111"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
       <c r="A50" s="74" t="s">
@@ -14205,13 +14198,13 @@
         <v>4</v>
       </c>
       <c r="C51" s="140"/>
-      <c r="D51" s="117"/>
-      <c r="E51" s="117"/>
-      <c r="F51" s="117"/>
-      <c r="G51" s="117"/>
-      <c r="H51" s="117"/>
-      <c r="I51" s="117"/>
-      <c r="J51" s="118"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="110"/>
+      <c r="J51" s="111"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="70">
@@ -14318,7 +14311,7 @@
     <col min="6" max="6" width="14.375" style="38" customWidth="1"/>
     <col min="7" max="7" width="15" style="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="38" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.75" style="38" customWidth="1"/>
     <col min="10" max="10" width="34.875" style="38" customWidth="1"/>
     <col min="11" max="11" width="8.75" style="38" customWidth="1"/>
     <col min="12" max="16384" width="9" style="38"/>
@@ -14336,7 +14329,7 @@
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
       <c r="K1" s="158" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -14445,19 +14438,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>22</v>
@@ -14466,10 +14459,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -14503,7 +14496,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="195" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="196"/>
       <c r="C10" s="196"/>
@@ -14517,19 +14510,19 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>22</v>
@@ -14538,10 +14531,10 @@
         <v>16</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -14552,29 +14545,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F12" s="103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J12" s="213" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -14582,20 +14575,20 @@
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
       <c r="D13" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F13" s="103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J13" s="199"/>
     </row>
@@ -14604,61 +14597,61 @@
         <v>2</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F14" s="104" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G14" s="105" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H14" s="46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="40"/>
       <c r="B15" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F15" s="104" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G15" s="105" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J15" s="85" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -14666,31 +14659,31 @@
         <v>3</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14698,26 +14691,26 @@
         <v>4</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J17" s="100"/>
     </row>
@@ -14726,27 +14719,27 @@
         <v>5</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E18" s="102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F18" s="212" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G18" s="201"/>
       <c r="H18" s="83"/>
       <c r="I18" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J18" s="101" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14754,26 +14747,26 @@
         <v>6</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H19" s="40"/>
       <c r="I19" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -14805,7 +14798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="106" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="106" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E40" sqref="E40:J40"/>
     </sheetView>
   </sheetViews>
@@ -14835,7 +14828,7 @@
       <c r="I1" s="90"/>
       <c r="J1" s="90"/>
       <c r="K1" s="158" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L1" s="51"/>
       <c r="M1" s="51"/>
@@ -14886,15 +14879,15 @@
       <c r="A5" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="115"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="133"/>
@@ -14950,75 +14943,75 @@
       <c r="A10" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="115"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
       <c r="A11" s="177" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="118"/>
+        <v>135</v>
+      </c>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="111"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="115"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
       <c r="A13" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="118"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="111"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="115"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="33.75" customHeight="1">
       <c r="A15" s="146" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B15" s="151"/>
       <c r="C15" s="151"/>
@@ -15035,10 +15028,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="142" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="143"/>
       <c r="E16" s="143"/>
@@ -15053,10 +15046,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" s="150" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D17" s="202"/>
       <c r="E17" s="202"/>
@@ -15071,10 +15064,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C18" s="150" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D18" s="202"/>
       <c r="E18" s="202"/>
@@ -15089,10 +15082,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C19" s="150" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D19" s="202"/>
       <c r="E19" s="202"/>
@@ -15107,10 +15100,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C20" s="144" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="145"/>
       <c r="E20" s="145"/>
@@ -15125,10 +15118,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C21" s="144" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="145"/>
       <c r="E21" s="145"/>
@@ -15143,10 +15136,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C22" s="150" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D22" s="145"/>
       <c r="E22" s="145"/>
@@ -15161,10 +15154,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C23" s="150" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D23" s="145"/>
       <c r="E23" s="145"/>
@@ -15202,7 +15195,7 @@
     </row>
     <row r="26" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1">
       <c r="A26" s="146" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B26" s="151"/>
       <c r="C26" s="151"/>
@@ -15219,10 +15212,10 @@
         <v>6</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" s="142" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="143"/>
       <c r="E27" s="143"/>
@@ -15237,10 +15230,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C28" s="150" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D28" s="202"/>
       <c r="E28" s="202"/>
@@ -15255,10 +15248,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C29" s="150" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D29" s="202"/>
       <c r="E29" s="202"/>
@@ -15273,10 +15266,10 @@
         <v>2</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C30" s="150" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D30" s="202"/>
       <c r="E30" s="202"/>
@@ -15291,10 +15284,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C31" s="144" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D31" s="145"/>
       <c r="E31" s="145"/>
@@ -15309,10 +15302,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C32" s="144" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" s="145"/>
       <c r="E32" s="145"/>
@@ -15327,10 +15320,10 @@
         <v>5</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C33" s="144" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" s="145"/>
       <c r="E33" s="145"/>
@@ -15345,10 +15338,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="150" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D34" s="145"/>
       <c r="E34" s="145"/>
@@ -15413,7 +15406,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="62"/>
@@ -15426,7 +15419,7 @@
     </row>
     <row r="39" spans="1:12" s="55" customFormat="1" ht="16.5" customHeight="1">
       <c r="A39" s="163" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B39" s="164"/>
       <c r="C39" s="164"/>
@@ -15445,14 +15438,14 @@
         <v>1</v>
       </c>
       <c r="B40" s="68" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C40" s="88" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="87"/>
       <c r="E40" s="160" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="F40" s="161"/>
       <c r="G40" s="161"/>
@@ -15465,40 +15458,40 @@
         <v>2</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C41" s="88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D41" s="86"/>
       <c r="E41" s="180" t="s">
-        <v>236</v>
-      </c>
-      <c r="F41" s="117"/>
-      <c r="G41" s="117"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="117"/>
-      <c r="J41" s="118"/>
+        <v>231</v>
+      </c>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="110"/>
+      <c r="J41" s="111"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="100.5" customHeight="1">
       <c r="A42" s="70">
         <v>2</v>
       </c>
       <c r="B42" s="84" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C42" s="88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D42" s="86"/>
       <c r="E42" s="180" t="s">
-        <v>235</v>
-      </c>
-      <c r="F42" s="117"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="117"/>
-      <c r="J42" s="118"/>
+        <v>230</v>
+      </c>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="111"/>
     </row>
     <row r="43" spans="1:12" s="53" customFormat="1" ht="14.25" customHeight="1">
       <c r="A43" s="188" t="s">
@@ -15525,12 +15518,12 @@
       <c r="D44" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="117"/>
-      <c r="J44" s="118"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="111"/>
     </row>
     <row r="45" spans="1:12" s="55" customFormat="1" ht="26.25" customHeight="1">
       <c r="A45" s="183"/>
@@ -15549,24 +15542,24 @@
       <c r="B46" s="140"/>
       <c r="C46" s="156"/>
       <c r="D46" s="180"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="117"/>
-      <c r="J46" s="118"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="111"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A47" s="70"/>
       <c r="B47" s="140"/>
       <c r="C47" s="156"/>
       <c r="D47" s="180"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="117"/>
-      <c r="J47" s="118"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="111"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1" ht="16.5" customHeight="1">
       <c r="A48" s="183"/>
@@ -15585,12 +15578,12 @@
       <c r="B49" s="140"/>
       <c r="C49" s="156"/>
       <c r="D49" s="180"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="117"/>
-      <c r="G49" s="117"/>
-      <c r="H49" s="117"/>
-      <c r="I49" s="117"/>
-      <c r="J49" s="118"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="111"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="74" t="s">
@@ -15614,13 +15607,13 @@
         <v>4</v>
       </c>
       <c r="C51" s="140"/>
-      <c r="D51" s="117"/>
-      <c r="E51" s="117"/>
-      <c r="F51" s="117"/>
-      <c r="G51" s="117"/>
-      <c r="H51" s="117"/>
-      <c r="I51" s="117"/>
-      <c r="J51" s="118"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="110"/>
+      <c r="J51" s="111"/>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1">
       <c r="A52" s="70">

--- a/APF/RA006/RA006_APF0201_功能清單設定作業.xlsx
+++ b/APF/RA006/RA006_APF0201_功能清單設定作業.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="261">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -250,10 +250,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>操作功能描述</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Button說明</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -579,17 +575,6 @@
   </si>
   <si>
     <t>使用者由功能清單點選功能清單設定作業時</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">查詢功能清單資訊
-1. 系統人員輸入查詢條件
-2. 系統依查詢條件顯示資料於grid
-維護功能清單資訊
-1. 系統人員點選新增按鈕後新增功能清單資訊 ，系統回應新增成功訊息
-2. 系統人員選取特定功能清單資訊後進行更新，系統回應更新成功訊息
-3. 系統人員選取特定功能清單資訊後點選刪除按鈕，系統回應刪除成功訊息
-</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1902,7 +1887,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2188,14 +2173,50 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2209,15 +2230,6 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2227,51 +2239,177 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2280,171 +2418,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2467,29 +2440,29 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3524,13 +3497,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>68</xdr:row>
+          <xdr:row>66</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3576,13 +3549,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>69</xdr:row>
+          <xdr:row>67</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>86</xdr:row>
+          <xdr:row>84</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10241,7 +10214,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="107" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B1" s="107"/>
       <c r="C1" s="107"/>
@@ -10249,105 +10222,105 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="29" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>54</v>
-      </c>
       <c r="D3" s="106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="108" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D5" s="106" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="108"/>
       <c r="B6" s="31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="108" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D7" s="106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="108"/>
       <c r="B8" s="31" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
       <c r="A9" s="108" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D9" s="106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
       <c r="A10" s="108"/>
       <c r="B10" s="31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1" thickBot="1">
@@ -10411,7 +10384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
@@ -10442,8 +10415,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="158" t="s">
-        <v>55</v>
+      <c r="K1" s="154" t="s">
+        <v>54</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -10469,7 +10442,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="159"/>
+      <c r="K2" s="155"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -10487,7 +10460,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="159"/>
+      <c r="K3" s="155"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -10531,18 +10504,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="195" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="197"/>
+      <c r="A6" s="191" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="193"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -10573,10 +10546,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -10609,18 +10582,18 @@
       <c r="J9" s="90"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="195" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="197"/>
+      <c r="A10" s="191" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="192"/>
+      <c r="C10" s="192"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="192"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="192"/>
+      <c r="J10" s="193"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
@@ -10645,10 +10618,10 @@
         <v>16</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -10659,29 +10632,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="46" t="s">
-        <v>116</v>
-      </c>
       <c r="D12" s="42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F12" s="103" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="J12" s="213" t="s">
-        <v>183</v>
+        <v>169</v>
+      </c>
+      <c r="J12" s="209" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -10689,83 +10662,83 @@
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
       <c r="D13" s="42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F13" s="103" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="J13" s="199"/>
+        <v>169</v>
+      </c>
+      <c r="J13" s="195"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="40">
         <v>2</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E14" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="104" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="F14" s="104" t="s">
+      <c r="H14" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="I14" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="G14" s="105" t="s">
-        <v>168</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>171</v>
-      </c>
       <c r="J14" s="38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="40"/>
       <c r="B15" s="46" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E15" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="104" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="104" t="s">
+      <c r="H15" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="I15" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="G15" s="105" t="s">
-        <v>168</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>172</v>
-      </c>
       <c r="J15" s="85" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -10773,31 +10746,31 @@
         <v>3</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10805,26 +10778,26 @@
         <v>4</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J17" s="100"/>
     </row>
@@ -10833,27 +10806,27 @@
         <v>5</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D18" s="83" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="208" t="s">
         <v>177</v>
       </c>
-      <c r="E18" s="102" t="s">
-        <v>158</v>
-      </c>
-      <c r="F18" s="212" t="s">
-        <v>179</v>
-      </c>
-      <c r="G18" s="201"/>
+      <c r="G18" s="197"/>
       <c r="H18" s="83"/>
       <c r="I18" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J18" s="101" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10861,26 +10834,26 @@
         <v>6</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H19" s="40"/>
       <c r="I19" s="40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -11009,10 +10982,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>45</v>
       </c>
       <c r="D6" s="20">
         <v>41563</v>
@@ -11143,10 +11116,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11159,17 +11132,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="112" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="M1" s="124" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="113"/>
+      <c r="M2" s="125"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="113"/>
+      <c r="M3" s="125"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -11186,240 +11159,210 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="132"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="115"/>
     </row>
     <row r="6" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="133" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="135"/>
+      <c r="A6" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="123"/>
     </row>
     <row r="7" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="116" t="s">
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="118"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="120"/>
     </row>
     <row r="8" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="109" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="110" t="s">
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="112"/>
+    </row>
+    <row r="9" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="126" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="120"/>
+    </row>
+    <row r="10" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A10" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="111"/>
-    </row>
-    <row r="9" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="114" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="116" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="118"/>
-    </row>
-    <row r="10" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="130" t="s">
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="110" t="s">
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="112"/>
+    </row>
+    <row r="11" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="131" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="120"/>
+    </row>
+    <row r="12" spans="1:13" s="55" customFormat="1" ht="16.5">
+      <c r="A12" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="111"/>
-    </row>
-    <row r="11" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="122" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="129" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="118"/>
-    </row>
-    <row r="12" spans="1:13" s="55" customFormat="1" ht="16.5">
-      <c r="A12" s="130" t="s">
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="112"/>
+    </row>
+    <row r="13" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="116" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="120"/>
+    </row>
+    <row r="14" spans="1:13" s="55" customFormat="1" ht="16.5">
+      <c r="A14" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="111"/>
-    </row>
-    <row r="13" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="122" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="129" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="118"/>
-    </row>
-    <row r="14" spans="1:13" s="55" customFormat="1" ht="16.5">
-      <c r="A14" s="130" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="111"/>
-    </row>
-    <row r="15" spans="1:13" s="80" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="109" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="125"/>
-    </row>
-    <row r="16" spans="1:13" s="80" customFormat="1" ht="130.5" customHeight="1">
-      <c r="A16" s="126" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="128"/>
-    </row>
-    <row r="17" spans="1:12" s="82" customFormat="1" ht="16.5">
-      <c r="A17" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="111"/>
-    </row>
-    <row r="18" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="19" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="20" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="21" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="22" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="23" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="24" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="25" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="26" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="27" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="28" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="29" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="30" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="31" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="32" spans="1:12" s="82" customFormat="1" ht="14.25"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="112"/>
+    </row>
+    <row r="15" spans="1:13" s="82" customFormat="1" ht="16.5">
+      <c r="A15" s="113" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="112"/>
+    </row>
+    <row r="16" spans="1:13" s="82" customFormat="1" ht="14.25"/>
+    <row r="17" s="82" customFormat="1" ht="14.25"/>
+    <row r="18" s="82" customFormat="1" ht="14.25"/>
+    <row r="19" s="82" customFormat="1" ht="14.25"/>
+    <row r="20" s="82" customFormat="1" ht="14.25"/>
+    <row r="21" s="82" customFormat="1" ht="14.25"/>
+    <row r="22" s="82" customFormat="1" ht="14.25"/>
+    <row r="23" s="82" customFormat="1" ht="14.25"/>
+    <row r="24" s="82" customFormat="1" ht="14.25"/>
+    <row r="25" s="82" customFormat="1" ht="14.25"/>
+    <row r="26" s="82" customFormat="1" ht="14.25"/>
+    <row r="27" s="82" customFormat="1" ht="14.25"/>
+    <row r="28" s="82" customFormat="1" ht="14.25"/>
+    <row r="29" s="82" customFormat="1" ht="14.25"/>
+    <row r="30" s="82" customFormat="1" ht="14.25"/>
+    <row r="31" s="82" customFormat="1" ht="14.25"/>
+    <row r="32" s="82" customFormat="1" ht="14.25"/>
     <row r="33" s="82" customFormat="1" ht="14.25"/>
     <row r="34" s="82" customFormat="1" ht="14.25"/>
     <row r="35" s="82" customFormat="1" ht="14.25"/>
@@ -11447,42 +11390,54 @@
     <row r="57" s="82" customFormat="1" ht="14.25"/>
     <row r="58" s="82" customFormat="1" ht="14.25"/>
     <row r="59" s="82" customFormat="1" ht="14.25"/>
-    <row r="60" s="82" customFormat="1" ht="14.25"/>
-    <row r="61" s="82" customFormat="1" ht="14.25"/>
-    <row r="68" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A68" s="119" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68" s="120"/>
-      <c r="C68" s="120"/>
-      <c r="D68" s="120"/>
-      <c r="E68" s="120"/>
-      <c r="F68" s="120"/>
-      <c r="G68" s="120"/>
-      <c r="H68" s="120"/>
-      <c r="I68" s="120"/>
-      <c r="J68" s="120"/>
-      <c r="K68" s="120"/>
-      <c r="L68" s="121"/>
-    </row>
-    <row r="69" spans="1:12" s="82" customFormat="1" ht="16.5">
-      <c r="A69" s="109" t="s">
-        <v>255</v>
-      </c>
-      <c r="B69" s="110"/>
-      <c r="C69" s="110"/>
-      <c r="D69" s="110"/>
-      <c r="E69" s="110"/>
-      <c r="F69" s="110"/>
-      <c r="G69" s="110"/>
-      <c r="H69" s="110"/>
-      <c r="I69" s="110"/>
-      <c r="J69" s="110"/>
-      <c r="K69" s="110"/>
-      <c r="L69" s="111"/>
+    <row r="66" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A66" s="128" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="129"/>
+      <c r="C66" s="129"/>
+      <c r="D66" s="129"/>
+      <c r="E66" s="129"/>
+      <c r="F66" s="129"/>
+      <c r="G66" s="129"/>
+      <c r="H66" s="129"/>
+      <c r="I66" s="129"/>
+      <c r="J66" s="129"/>
+      <c r="K66" s="129"/>
+      <c r="L66" s="130"/>
+    </row>
+    <row r="67" spans="1:12" s="82" customFormat="1" ht="16.5">
+      <c r="A67" s="113" t="s">
+        <v>253</v>
+      </c>
+      <c r="B67" s="111"/>
+      <c r="C67" s="111"/>
+      <c r="D67" s="111"/>
+      <c r="E67" s="111"/>
+      <c r="F67" s="111"/>
+      <c r="G67" s="111"/>
+      <c r="H67" s="111"/>
+      <c r="I67" s="111"/>
+      <c r="J67" s="111"/>
+      <c r="K67" s="111"/>
+      <c r="L67" s="112"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="22">
+    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A66:L66"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
@@ -11491,22 +11446,6 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A69:L69"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A68:L68"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -11527,13 +11466,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>68</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -11552,13 +11491,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>67</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>84</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
@@ -11582,15 +11521,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="112" t="s">
-        <v>254</v>
+      <c r="P1" s="124" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="113"/>
+      <c r="P2" s="125"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="113"/>
+      <c r="P3" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11696,8 +11635,8 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="158" t="s">
-        <v>55</v>
+      <c r="K1" s="154" t="s">
+        <v>54</v>
       </c>
       <c r="L1" s="51"/>
       <c r="M1" s="51"/>
@@ -11717,7 +11656,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="159"/>
+      <c r="K2" s="155"/>
     </row>
     <row r="3" spans="1:17" s="52" customFormat="1">
       <c r="A3" s="44"/>
@@ -11730,7 +11669,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="159"/>
+      <c r="K3" s="155"/>
     </row>
     <row r="4" spans="1:17" s="52" customFormat="1">
       <c r="A4" s="44"/>
@@ -11745,416 +11684,416 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="52" customFormat="1">
-      <c r="A5" s="169" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118"/>
+      <c r="A5" s="162" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="120"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="133"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="170"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="173"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="166"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="170"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="173"/>
+      <c r="A8" s="163"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="166"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="174"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="176"/>
+      <c r="A9" s="167"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="169"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="177" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="111"/>
+      <c r="A11" s="170" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="112"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="120"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="177" t="s">
+      <c r="A13" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="111"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="112"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="120"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="146" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="152"/>
+      <c r="A15" s="174" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="175"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="176"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="142" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="148"/>
+        <v>76</v>
+      </c>
+      <c r="C16" s="177" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="179"/>
     </row>
     <row r="17" spans="1:12" s="53" customFormat="1">
       <c r="A17" s="56">
         <v>1</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="153" t="s">
-        <v>233</v>
-      </c>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="155"/>
+        <v>111</v>
+      </c>
+      <c r="C17" s="180" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="181"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="181"/>
+      <c r="I17" s="181"/>
+      <c r="J17" s="182"/>
     </row>
     <row r="18" spans="1:12" s="53" customFormat="1" ht="30.75" customHeight="1">
       <c r="A18" s="56">
         <v>2</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="150" t="s">
-        <v>234</v>
-      </c>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="149"/>
+        <v>146</v>
+      </c>
+      <c r="C18" s="183" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" s="184"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="185"/>
     </row>
     <row r="19" spans="1:12" s="53" customFormat="1" ht="33.75" customHeight="1">
       <c r="A19" s="56">
         <v>3</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="150" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="149"/>
+        <v>113</v>
+      </c>
+      <c r="C19" s="183" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="185"/>
     </row>
     <row r="20" spans="1:12" s="53" customFormat="1">
-      <c r="A20" s="140"/>
-      <c r="B20" s="141"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="156"/>
+      <c r="A20" s="135"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="136"/>
     </row>
     <row r="21" spans="1:12" s="53" customFormat="1">
-      <c r="A21" s="146" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="A21" s="174" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="175"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="175"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="176"/>
     </row>
     <row r="22" spans="1:12" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="142" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="148"/>
+        <v>76</v>
+      </c>
+      <c r="C22" s="177" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="178"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="179"/>
     </row>
     <row r="23" spans="1:12" s="53" customFormat="1">
       <c r="A23" s="56">
         <v>1</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" s="144" t="s">
-        <v>235</v>
-      </c>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="149"/>
+        <v>147</v>
+      </c>
+      <c r="C23" s="187" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="185"/>
     </row>
     <row r="24" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A24" s="56">
         <v>2</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="149"/>
+        <v>77</v>
+      </c>
+      <c r="C24" s="187" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="184"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="184"/>
+      <c r="J24" s="185"/>
     </row>
     <row r="25" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A25" s="56">
         <v>3</v>
       </c>
       <c r="B25" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="187" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="149"/>
+      <c r="D25" s="184"/>
+      <c r="E25" s="184"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="184"/>
+      <c r="H25" s="184"/>
+      <c r="I25" s="184"/>
+      <c r="J25" s="185"/>
     </row>
     <row r="26" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A26" s="56">
         <v>4</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="145"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="149"/>
+        <v>78</v>
+      </c>
+      <c r="C26" s="187" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="184"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="184"/>
+      <c r="I26" s="184"/>
+      <c r="J26" s="185"/>
     </row>
     <row r="27" spans="1:12" s="53" customFormat="1">
-      <c r="A27" s="166"/>
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="168"/>
+      <c r="A27" s="159"/>
+      <c r="B27" s="160"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="161"/>
     </row>
     <row r="28" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="136" t="s">
+      <c r="A28" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="178"/>
-      <c r="C28" s="178"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="179"/>
+      <c r="B28" s="172"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="173"/>
     </row>
     <row r="29" spans="1:12" s="53" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="146" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="151"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="152"/>
+      <c r="A29" s="174" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="175"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="176"/>
     </row>
     <row r="30" spans="1:12" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="142" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="148"/>
+        <v>76</v>
+      </c>
+      <c r="C30" s="177" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="179"/>
     </row>
     <row r="31" spans="1:12" s="53" customFormat="1">
       <c r="A31" s="56">
         <v>1</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="144" t="s">
-        <v>128</v>
-      </c>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="145"/>
+        <v>111</v>
+      </c>
+      <c r="C31" s="187" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="184"/>
       <c r="K31" s="95"/>
       <c r="L31" s="93"/>
     </row>
@@ -12163,18 +12102,18 @@
         <v>2</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="C32" s="150" t="s">
-        <v>256</v>
-      </c>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="145"/>
+        <v>235</v>
+      </c>
+      <c r="C32" s="183" t="s">
+        <v>254</v>
+      </c>
+      <c r="D32" s="184"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="184"/>
+      <c r="J32" s="184"/>
       <c r="K32" s="95"/>
       <c r="L32" s="92"/>
     </row>
@@ -12183,48 +12122,48 @@
         <v>3</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="C33" s="150" t="s">
-        <v>239</v>
-      </c>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="145"/>
+        <v>236</v>
+      </c>
+      <c r="C33" s="183" t="s">
+        <v>237</v>
+      </c>
+      <c r="D33" s="184"/>
+      <c r="E33" s="184"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="184"/>
       <c r="K33" s="95"/>
       <c r="L33" s="94"/>
     </row>
     <row r="34" spans="1:12" s="53" customFormat="1">
-      <c r="A34" s="140"/>
-      <c r="B34" s="141"/>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="141"/>
+      <c r="A34" s="135"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="152"/>
       <c r="K34" s="95"/>
       <c r="L34" s="94"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1">
-      <c r="A35" s="146" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" s="147"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
+      <c r="A35" s="174" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="186"/>
+      <c r="C35" s="186"/>
+      <c r="D35" s="186"/>
+      <c r="E35" s="186"/>
+      <c r="F35" s="186"/>
+      <c r="G35" s="186"/>
+      <c r="H35" s="186"/>
+      <c r="I35" s="186"/>
+      <c r="J35" s="186"/>
       <c r="K35" s="95"/>
       <c r="L35" s="92"/>
     </row>
@@ -12233,18 +12172,18 @@
         <v>6</v>
       </c>
       <c r="B36" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="142" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="143"/>
-      <c r="E36" s="143"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="143"/>
+        <v>76</v>
+      </c>
+      <c r="C36" s="177" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="178"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="178"/>
+      <c r="G36" s="178"/>
+      <c r="H36" s="178"/>
+      <c r="I36" s="178"/>
+      <c r="J36" s="178"/>
       <c r="K36" s="95"/>
       <c r="L36" s="94"/>
     </row>
@@ -12253,18 +12192,18 @@
         <v>1</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="145"/>
-      <c r="E37" s="145"/>
-      <c r="F37" s="145"/>
-      <c r="G37" s="145"/>
-      <c r="H37" s="145"/>
-      <c r="I37" s="145"/>
-      <c r="J37" s="145"/>
+        <v>112</v>
+      </c>
+      <c r="C37" s="187" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="184"/>
+      <c r="E37" s="184"/>
+      <c r="F37" s="184"/>
+      <c r="G37" s="184"/>
+      <c r="H37" s="184"/>
+      <c r="I37" s="184"/>
+      <c r="J37" s="184"/>
       <c r="K37" s="95"/>
       <c r="L37" s="94"/>
     </row>
@@ -12273,18 +12212,18 @@
         <v>2</v>
       </c>
       <c r="B38" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="145"/>
-      <c r="E38" s="145"/>
-      <c r="F38" s="145"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="145"/>
-      <c r="I38" s="145"/>
-      <c r="J38" s="145"/>
+        <v>77</v>
+      </c>
+      <c r="C38" s="187" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="184"/>
+      <c r="E38" s="184"/>
+      <c r="F38" s="184"/>
+      <c r="G38" s="184"/>
+      <c r="H38" s="184"/>
+      <c r="I38" s="184"/>
+      <c r="J38" s="184"/>
       <c r="K38" s="95"/>
       <c r="L38" s="94"/>
     </row>
@@ -12293,18 +12232,18 @@
         <v>3</v>
       </c>
       <c r="B39" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="187" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="145"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="145"/>
-      <c r="G39" s="145"/>
-      <c r="H39" s="145"/>
-      <c r="I39" s="145"/>
-      <c r="J39" s="145"/>
+      <c r="D39" s="184"/>
+      <c r="E39" s="184"/>
+      <c r="F39" s="184"/>
+      <c r="G39" s="184"/>
+      <c r="H39" s="184"/>
+      <c r="I39" s="184"/>
+      <c r="J39" s="184"/>
       <c r="K39" s="95"/>
       <c r="L39" s="94"/>
     </row>
@@ -12313,72 +12252,72 @@
         <v>4</v>
       </c>
       <c r="B40" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="145"/>
-      <c r="E40" s="145"/>
-      <c r="F40" s="145"/>
-      <c r="G40" s="145"/>
-      <c r="H40" s="145"/>
-      <c r="I40" s="145"/>
-      <c r="J40" s="145"/>
+        <v>78</v>
+      </c>
+      <c r="C40" s="187" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="184"/>
+      <c r="E40" s="184"/>
+      <c r="F40" s="184"/>
+      <c r="G40" s="184"/>
+      <c r="H40" s="184"/>
+      <c r="I40" s="184"/>
+      <c r="J40" s="184"/>
       <c r="K40" s="95"/>
       <c r="L40" s="92"/>
     </row>
     <row r="41" spans="1:12" s="53" customFormat="1">
-      <c r="A41" s="140"/>
-      <c r="B41" s="141"/>
-      <c r="C41" s="141"/>
-      <c r="D41" s="141"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="141"/>
-      <c r="H41" s="141"/>
-      <c r="I41" s="141"/>
-      <c r="J41" s="141"/>
+      <c r="A41" s="135"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="152"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152"/>
+      <c r="I41" s="152"/>
+      <c r="J41" s="152"/>
       <c r="K41" s="95"/>
       <c r="L41" s="92"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="136" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="137"/>
-      <c r="C42" s="137"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="137"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="137"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="137"/>
-      <c r="J42" s="137"/>
+      <c r="A42" s="171" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="188"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="188"/>
+      <c r="E42" s="188"/>
+      <c r="F42" s="188"/>
+      <c r="G42" s="188"/>
+      <c r="H42" s="188"/>
+      <c r="I42" s="188"/>
+      <c r="J42" s="188"/>
       <c r="K42" s="95"/>
       <c r="L42" s="92"/>
     </row>
     <row r="43" spans="1:12" s="55" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="57" t="s">
+      <c r="C43" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="58" t="s">
+      <c r="D43" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="59" t="s">
+      <c r="E43" s="189" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="138" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="139"/>
-      <c r="G43" s="139"/>
-      <c r="H43" s="139"/>
-      <c r="I43" s="139"/>
-      <c r="J43" s="139"/>
+      <c r="F43" s="190"/>
+      <c r="G43" s="190"/>
+      <c r="H43" s="190"/>
+      <c r="I43" s="190"/>
+      <c r="J43" s="190"/>
       <c r="K43" s="53"/>
       <c r="L43" s="53"/>
     </row>
@@ -12387,334 +12326,334 @@
         <v>1</v>
       </c>
       <c r="B44" s="60" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C44" s="61"/>
       <c r="D44" s="62"/>
-      <c r="E44" s="191" t="s">
-        <v>236</v>
-      </c>
-      <c r="F44" s="127"/>
-      <c r="G44" s="127"/>
-      <c r="H44" s="127"/>
-      <c r="I44" s="127"/>
-      <c r="J44" s="127"/>
+      <c r="E44" s="145" t="s">
+        <v>234</v>
+      </c>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="110"/>
     </row>
     <row r="45" spans="1:12" s="53" customFormat="1">
       <c r="A45" s="63"/>
-      <c r="B45" s="141"/>
-      <c r="C45" s="141"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="156"/>
+      <c r="B45" s="152"/>
+      <c r="C45" s="152"/>
+      <c r="D45" s="152"/>
+      <c r="E45" s="152"/>
+      <c r="F45" s="152"/>
+      <c r="G45" s="152"/>
+      <c r="H45" s="152"/>
+      <c r="I45" s="152"/>
+      <c r="J45" s="136"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1">
-      <c r="A46" s="163" t="s">
-        <v>130</v>
-      </c>
-      <c r="B46" s="164"/>
-      <c r="C46" s="164"/>
-      <c r="D46" s="164"/>
-      <c r="E46" s="164"/>
-      <c r="F46" s="164"/>
-      <c r="G46" s="164"/>
-      <c r="H46" s="164"/>
-      <c r="I46" s="164"/>
-      <c r="J46" s="165"/>
+      <c r="A46" s="156" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="157"/>
+      <c r="C46" s="157"/>
+      <c r="D46" s="157"/>
+      <c r="E46" s="157"/>
+      <c r="F46" s="157"/>
+      <c r="G46" s="157"/>
+      <c r="H46" s="157"/>
+      <c r="I46" s="157"/>
+      <c r="J46" s="158"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="56">
         <v>1</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="66"/>
-      <c r="E47" s="191" t="s">
-        <v>68</v>
-      </c>
-      <c r="F47" s="127"/>
-      <c r="G47" s="127"/>
-      <c r="H47" s="127"/>
-      <c r="I47" s="127"/>
-      <c r="J47" s="127"/>
+      <c r="E47" s="145" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="110"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1">
       <c r="A48" s="67">
         <v>2</v>
       </c>
       <c r="B48" s="68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="69"/>
-      <c r="E48" s="160" t="s">
-        <v>131</v>
-      </c>
-      <c r="F48" s="161"/>
-      <c r="G48" s="161"/>
-      <c r="H48" s="161"/>
-      <c r="I48" s="161"/>
-      <c r="J48" s="162"/>
+      <c r="E48" s="149" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" s="150"/>
+      <c r="G48" s="150"/>
+      <c r="H48" s="150"/>
+      <c r="I48" s="150"/>
+      <c r="J48" s="151"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1">
       <c r="A49" s="70">
         <v>3</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C49" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="71"/>
-      <c r="E49" s="180" t="s">
-        <v>132</v>
-      </c>
-      <c r="F49" s="110"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="110"/>
-      <c r="I49" s="110"/>
-      <c r="J49" s="111"/>
+      <c r="E49" s="132" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" s="111"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="112"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1">
       <c r="A50" s="72"/>
-      <c r="B50" s="141"/>
-      <c r="C50" s="141"/>
-      <c r="D50" s="141"/>
-      <c r="E50" s="141"/>
-      <c r="F50" s="141"/>
-      <c r="G50" s="141"/>
-      <c r="H50" s="141"/>
-      <c r="I50" s="141"/>
-      <c r="J50" s="156"/>
+      <c r="B50" s="152"/>
+      <c r="C50" s="152"/>
+      <c r="D50" s="152"/>
+      <c r="E50" s="152"/>
+      <c r="F50" s="152"/>
+      <c r="G50" s="152"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="152"/>
+      <c r="J50" s="136"/>
     </row>
     <row r="51" spans="1:10" s="53" customFormat="1">
-      <c r="A51" s="192" t="s">
-        <v>133</v>
-      </c>
-      <c r="B51" s="193"/>
-      <c r="C51" s="193"/>
-      <c r="D51" s="193"/>
-      <c r="E51" s="193"/>
-      <c r="F51" s="193"/>
-      <c r="G51" s="193"/>
-      <c r="H51" s="193"/>
-      <c r="I51" s="193"/>
-      <c r="J51" s="194"/>
+      <c r="A51" s="146" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" s="147"/>
+      <c r="C51" s="147"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="147"/>
+      <c r="F51" s="147"/>
+      <c r="G51" s="147"/>
+      <c r="H51" s="147"/>
+      <c r="I51" s="147"/>
+      <c r="J51" s="148"/>
     </row>
     <row r="52" spans="1:10" s="53" customFormat="1">
       <c r="A52" s="56">
         <v>1</v>
       </c>
       <c r="B52" s="83" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C52" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="66"/>
-      <c r="E52" s="191" t="s">
-        <v>157</v>
-      </c>
-      <c r="F52" s="127"/>
-      <c r="G52" s="127"/>
-      <c r="H52" s="127"/>
-      <c r="I52" s="127"/>
-      <c r="J52" s="127"/>
+      <c r="E52" s="145" t="s">
+        <v>155</v>
+      </c>
+      <c r="F52" s="110"/>
+      <c r="G52" s="110"/>
+      <c r="H52" s="110"/>
+      <c r="I52" s="110"/>
+      <c r="J52" s="110"/>
     </row>
     <row r="53" spans="1:10" s="53" customFormat="1" ht="66" customHeight="1">
       <c r="A53" s="56">
         <v>2</v>
       </c>
       <c r="B53" s="83" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C53" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="69"/>
-      <c r="E53" s="191" t="s">
-        <v>232</v>
-      </c>
-      <c r="F53" s="127"/>
-      <c r="G53" s="127"/>
-      <c r="H53" s="127"/>
-      <c r="I53" s="127"/>
-      <c r="J53" s="127"/>
+      <c r="E53" s="145" t="s">
+        <v>230</v>
+      </c>
+      <c r="F53" s="110"/>
+      <c r="G53" s="110"/>
+      <c r="H53" s="110"/>
+      <c r="I53" s="110"/>
+      <c r="J53" s="110"/>
     </row>
     <row r="54" spans="1:10" s="53" customFormat="1">
       <c r="A54" s="56">
         <v>3</v>
       </c>
       <c r="B54" s="83" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C54" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="69"/>
-      <c r="E54" s="160" t="s">
-        <v>155</v>
-      </c>
-      <c r="F54" s="161"/>
-      <c r="G54" s="161"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="161"/>
-      <c r="J54" s="162"/>
+      <c r="E54" s="149" t="s">
+        <v>153</v>
+      </c>
+      <c r="F54" s="150"/>
+      <c r="G54" s="150"/>
+      <c r="H54" s="150"/>
+      <c r="I54" s="150"/>
+      <c r="J54" s="151"/>
     </row>
     <row r="55" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
       <c r="A55" s="56">
         <v>4</v>
       </c>
       <c r="B55" s="83" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C55" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="69"/>
-      <c r="E55" s="160" t="s">
-        <v>156</v>
-      </c>
-      <c r="F55" s="161"/>
-      <c r="G55" s="161"/>
-      <c r="H55" s="161"/>
-      <c r="I55" s="161"/>
-      <c r="J55" s="162"/>
+      <c r="E55" s="149" t="s">
+        <v>154</v>
+      </c>
+      <c r="F55" s="150"/>
+      <c r="G55" s="150"/>
+      <c r="H55" s="150"/>
+      <c r="I55" s="150"/>
+      <c r="J55" s="151"/>
     </row>
     <row r="56" spans="1:10" s="53" customFormat="1" hidden="1">
       <c r="A56" s="56">
         <v>5</v>
       </c>
       <c r="B56" s="97" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C56" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="69"/>
-      <c r="E56" s="160" t="s">
-        <v>98</v>
-      </c>
-      <c r="F56" s="161"/>
-      <c r="G56" s="161"/>
-      <c r="H56" s="161"/>
-      <c r="I56" s="161"/>
-      <c r="J56" s="162"/>
+      <c r="E56" s="149" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" s="150"/>
+      <c r="G56" s="150"/>
+      <c r="H56" s="150"/>
+      <c r="I56" s="150"/>
+      <c r="J56" s="151"/>
     </row>
     <row r="57" spans="1:10" s="53" customFormat="1">
       <c r="A57" s="73"/>
-      <c r="B57" s="141"/>
-      <c r="C57" s="141"/>
-      <c r="D57" s="141"/>
-      <c r="E57" s="141"/>
-      <c r="F57" s="141"/>
-      <c r="G57" s="141"/>
-      <c r="H57" s="141"/>
-      <c r="I57" s="141"/>
-      <c r="J57" s="156"/>
+      <c r="B57" s="152"/>
+      <c r="C57" s="152"/>
+      <c r="D57" s="152"/>
+      <c r="E57" s="152"/>
+      <c r="F57" s="152"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="152"/>
+      <c r="I57" s="152"/>
+      <c r="J57" s="136"/>
     </row>
     <row r="58" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="188" t="s">
+      <c r="A58" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="189"/>
-      <c r="C58" s="189"/>
-      <c r="D58" s="189"/>
-      <c r="E58" s="189"/>
-      <c r="F58" s="189"/>
-      <c r="G58" s="189"/>
-      <c r="H58" s="189"/>
-      <c r="I58" s="189"/>
-      <c r="J58" s="190"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="143"/>
+      <c r="E58" s="143"/>
+      <c r="F58" s="143"/>
+      <c r="G58" s="143"/>
+      <c r="H58" s="143"/>
+      <c r="I58" s="143"/>
+      <c r="J58" s="144"/>
     </row>
     <row r="59" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="186" t="s">
+      <c r="B59" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="187"/>
-      <c r="D59" s="180" t="s">
+      <c r="C59" s="141"/>
+      <c r="D59" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="110"/>
-      <c r="F59" s="110"/>
-      <c r="G59" s="110"/>
-      <c r="H59" s="110"/>
-      <c r="I59" s="110"/>
-      <c r="J59" s="111"/>
+      <c r="E59" s="111"/>
+      <c r="F59" s="111"/>
+      <c r="G59" s="111"/>
+      <c r="H59" s="111"/>
+      <c r="I59" s="111"/>
+      <c r="J59" s="112"/>
     </row>
     <row r="60" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="183"/>
-      <c r="B60" s="184"/>
-      <c r="C60" s="184"/>
-      <c r="D60" s="184"/>
-      <c r="E60" s="184"/>
-      <c r="F60" s="184"/>
-      <c r="G60" s="184"/>
-      <c r="H60" s="184"/>
-      <c r="I60" s="184"/>
-      <c r="J60" s="185"/>
+      <c r="A60" s="137"/>
+      <c r="B60" s="138"/>
+      <c r="C60" s="138"/>
+      <c r="D60" s="138"/>
+      <c r="E60" s="138"/>
+      <c r="F60" s="138"/>
+      <c r="G60" s="138"/>
+      <c r="H60" s="138"/>
+      <c r="I60" s="138"/>
+      <c r="J60" s="139"/>
     </row>
     <row r="61" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="70"/>
-      <c r="B61" s="140"/>
-      <c r="C61" s="156"/>
-      <c r="D61" s="180"/>
-      <c r="E61" s="181"/>
-      <c r="F61" s="181"/>
-      <c r="G61" s="181"/>
-      <c r="H61" s="181"/>
-      <c r="I61" s="181"/>
-      <c r="J61" s="182"/>
+      <c r="B61" s="135"/>
+      <c r="C61" s="136"/>
+      <c r="D61" s="132"/>
+      <c r="E61" s="133"/>
+      <c r="F61" s="133"/>
+      <c r="G61" s="133"/>
+      <c r="H61" s="133"/>
+      <c r="I61" s="133"/>
+      <c r="J61" s="134"/>
     </row>
     <row r="62" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="70"/>
-      <c r="B62" s="140"/>
-      <c r="C62" s="156"/>
-      <c r="D62" s="180"/>
-      <c r="E62" s="181"/>
-      <c r="F62" s="181"/>
-      <c r="G62" s="181"/>
-      <c r="H62" s="181"/>
-      <c r="I62" s="181"/>
-      <c r="J62" s="182"/>
+      <c r="B62" s="135"/>
+      <c r="C62" s="136"/>
+      <c r="D62" s="132"/>
+      <c r="E62" s="133"/>
+      <c r="F62" s="133"/>
+      <c r="G62" s="133"/>
+      <c r="H62" s="133"/>
+      <c r="I62" s="133"/>
+      <c r="J62" s="134"/>
     </row>
     <row r="63" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="183"/>
-      <c r="B63" s="184"/>
-      <c r="C63" s="184"/>
-      <c r="D63" s="184"/>
-      <c r="E63" s="184"/>
-      <c r="F63" s="184"/>
-      <c r="G63" s="184"/>
-      <c r="H63" s="184"/>
-      <c r="I63" s="184"/>
-      <c r="J63" s="185"/>
+      <c r="A63" s="137"/>
+      <c r="B63" s="138"/>
+      <c r="C63" s="138"/>
+      <c r="D63" s="138"/>
+      <c r="E63" s="138"/>
+      <c r="F63" s="138"/>
+      <c r="G63" s="138"/>
+      <c r="H63" s="138"/>
+      <c r="I63" s="138"/>
+      <c r="J63" s="139"/>
     </row>
     <row r="64" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="70"/>
-      <c r="B64" s="140"/>
-      <c r="C64" s="156"/>
-      <c r="D64" s="180"/>
-      <c r="E64" s="181"/>
-      <c r="F64" s="181"/>
-      <c r="G64" s="181"/>
-      <c r="H64" s="181"/>
-      <c r="I64" s="181"/>
-      <c r="J64" s="182"/>
+      <c r="B64" s="135"/>
+      <c r="C64" s="136"/>
+      <c r="D64" s="132"/>
+      <c r="E64" s="133"/>
+      <c r="F64" s="133"/>
+      <c r="G64" s="133"/>
+      <c r="H64" s="133"/>
+      <c r="I64" s="133"/>
+      <c r="J64" s="134"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="74" t="s">
@@ -12737,14 +12676,14 @@
       <c r="B66" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="140"/>
-      <c r="D66" s="110"/>
-      <c r="E66" s="110"/>
-      <c r="F66" s="110"/>
-      <c r="G66" s="110"/>
-      <c r="H66" s="110"/>
-      <c r="I66" s="110"/>
-      <c r="J66" s="111"/>
+      <c r="C66" s="135"/>
+      <c r="D66" s="111"/>
+      <c r="E66" s="111"/>
+      <c r="F66" s="111"/>
+      <c r="G66" s="111"/>
+      <c r="H66" s="111"/>
+      <c r="I66" s="111"/>
+      <c r="J66" s="112"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="70">
@@ -12753,22 +12692,60 @@
       <c r="B67" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="157"/>
-      <c r="D67" s="157"/>
-      <c r="E67" s="157"/>
-      <c r="F67" s="157"/>
-      <c r="G67" s="157"/>
-      <c r="H67" s="157"/>
-      <c r="I67" s="157"/>
-      <c r="J67" s="157"/>
+      <c r="C67" s="153"/>
+      <c r="D67" s="153"/>
+      <c r="E67" s="153"/>
+      <c r="F67" s="153"/>
+      <c r="G67" s="153"/>
+      <c r="H67" s="153"/>
+      <c r="I67" s="153"/>
+      <c r="J67" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="D64:J64"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="D61:J61"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="A60:J60"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="A58:J58"/>
@@ -12785,49 +12762,11 @@
     <mergeCell ref="B45:J45"/>
     <mergeCell ref="B50:J50"/>
     <mergeCell ref="B57:J57"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="D61:J61"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="B62:C62"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -12880,8 +12819,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="158" t="s">
-        <v>55</v>
+      <c r="K1" s="154" t="s">
+        <v>54</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -12907,7 +12846,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="159"/>
+      <c r="K2" s="155"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -12925,7 +12864,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="159"/>
+      <c r="K3" s="155"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -12969,18 +12908,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="195" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="197"/>
+      <c r="A6" s="191" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="193"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -12990,19 +12929,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B7" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>246</v>
-      </c>
       <c r="D7" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>247</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>249</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>22</v>
@@ -13011,10 +12950,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -13047,34 +12986,34 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="195" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="197"/>
+      <c r="A10" s="191" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="192"/>
+      <c r="C10" s="192"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="192"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="192"/>
+      <c r="J10" s="193"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B11" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>246</v>
-      </c>
       <c r="D11" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>247</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>249</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>22</v>
@@ -13083,10 +13022,10 @@
         <v>16</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -13097,27 +13036,27 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="200" t="s">
-        <v>178</v>
-      </c>
-      <c r="G12" s="201"/>
+        <v>156</v>
+      </c>
+      <c r="F12" s="196" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12" s="197"/>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J12" s="45" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="25.5" customHeight="1">
@@ -13125,29 +13064,29 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="D13" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="99" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="E13" s="99" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" s="91" t="s">
-        <v>118</v>
-      </c>
       <c r="G13" s="91" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="198" t="s">
-        <v>240</v>
+        <v>68</v>
+      </c>
+      <c r="J13" s="194" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="22.5" customHeight="1">
@@ -13156,77 +13095,77 @@
       <c r="C14" s="46"/>
       <c r="D14" s="42"/>
       <c r="E14" s="42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F14" s="91" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G14" s="91" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="199"/>
+        <v>68</v>
+      </c>
+      <c r="J14" s="195"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="40">
         <v>3</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G15" s="91" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J15" s="48"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="195" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="196"/>
-      <c r="C17" s="196"/>
-      <c r="D17" s="196"/>
-      <c r="E17" s="196"/>
-      <c r="F17" s="196"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="196"/>
-      <c r="I17" s="196"/>
-      <c r="J17" s="197"/>
+      <c r="A17" s="191" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="192"/>
+      <c r="C17" s="192"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="193"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="39" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C18" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="D18" s="39" t="s">
-        <v>247</v>
-      </c>
       <c r="E18" s="39" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F18" s="39" t="s">
         <v>22</v>
@@ -13235,10 +13174,10 @@
         <v>16</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J18" s="39" t="s">
         <v>0</v>
@@ -13249,26 +13188,26 @@
         <v>1</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E19" s="96" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F19" s="91" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G19" s="91" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -13278,17 +13217,17 @@
       <c r="C20" s="41"/>
       <c r="D20" s="42"/>
       <c r="E20" s="42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F20" s="91" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G20" s="91" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J20" s="45"/>
     </row>
@@ -13297,27 +13236,27 @@
         <v>3</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="43" t="s">
-        <v>60</v>
-      </c>
       <c r="G21" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J21" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:11" hidden="1">
@@ -13325,27 +13264,27 @@
         <v>4</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="G22" s="46" t="s">
         <v>62</v>
-      </c>
-      <c r="G22" s="46" t="s">
-        <v>63</v>
       </c>
       <c r="H22" s="46"/>
       <c r="I22" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J22" s="48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -13418,8 +13357,8 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="158" t="s">
-        <v>55</v>
+      <c r="K1" s="154" t="s">
+        <v>54</v>
       </c>
       <c r="L1" s="51"/>
       <c r="M1" s="51"/>
@@ -13439,7 +13378,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="159"/>
+      <c r="K2" s="155"/>
     </row>
     <row r="3" spans="1:17" s="52" customFormat="1">
       <c r="A3" s="44"/>
@@ -13452,7 +13391,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="159"/>
+      <c r="K3" s="155"/>
     </row>
     <row r="4" spans="1:17" s="52" customFormat="1">
       <c r="A4" s="44"/>
@@ -13467,528 +13406,528 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="52" customFormat="1">
-      <c r="A5" s="169" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118"/>
+      <c r="A5" s="162" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="120"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="133"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="170"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="173"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="166"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="170"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="173"/>
+      <c r="A8" s="163"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="166"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="174"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="176"/>
+      <c r="A9" s="167"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="169"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="177" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="111"/>
+      <c r="A11" s="170" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="112"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="120"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="177" t="s">
+      <c r="A13" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="111"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="112"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="120"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="146" t="s">
-        <v>199</v>
-      </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="152"/>
+      <c r="A15" s="174" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="175"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="176"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="142" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="148"/>
+        <v>76</v>
+      </c>
+      <c r="C16" s="177" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="179"/>
     </row>
     <row r="17" spans="1:10" s="53" customFormat="1" ht="64.5" customHeight="1">
       <c r="A17" s="56">
         <v>1</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="150" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" s="202"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="202"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="202"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="203"/>
+        <v>147</v>
+      </c>
+      <c r="C17" s="183" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="198"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="198"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="199"/>
     </row>
     <row r="18" spans="1:10" s="53" customFormat="1" ht="88.5" customHeight="1">
       <c r="A18" s="56">
         <v>2</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="C18" s="150" t="s">
-        <v>200</v>
-      </c>
-      <c r="D18" s="202"/>
-      <c r="E18" s="202"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="202"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="203"/>
+        <v>202</v>
+      </c>
+      <c r="C18" s="183" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="198"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="198"/>
+      <c r="I18" s="198"/>
+      <c r="J18" s="199"/>
     </row>
     <row r="19" spans="1:10" s="53" customFormat="1" ht="84.75" customHeight="1">
       <c r="A19" s="56">
         <v>2</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>203</v>
-      </c>
-      <c r="C19" s="150" t="s">
         <v>201</v>
       </c>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="203"/>
+      <c r="C19" s="183" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="198"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="198"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="199"/>
     </row>
     <row r="20" spans="1:10" s="53" customFormat="1">
       <c r="A20" s="56">
         <v>3</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="C20" s="144" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="149"/>
+        <v>187</v>
+      </c>
+      <c r="C20" s="187" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="184"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="184"/>
+      <c r="J20" s="185"/>
     </row>
     <row r="21" spans="1:10" s="53" customFormat="1">
       <c r="A21" s="56">
         <v>4</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="C21" s="144" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="149"/>
+        <v>189</v>
+      </c>
+      <c r="C21" s="187" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="184"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="184"/>
+      <c r="I21" s="184"/>
+      <c r="J21" s="185"/>
     </row>
     <row r="22" spans="1:10" s="53" customFormat="1" ht="33.75" customHeight="1">
       <c r="A22" s="56">
         <v>5</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="C22" s="150" t="s">
-        <v>209</v>
-      </c>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="149"/>
+        <v>191</v>
+      </c>
+      <c r="C22" s="183" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="185"/>
     </row>
     <row r="23" spans="1:10" s="53" customFormat="1" ht="34.5" customHeight="1">
       <c r="A23" s="63">
         <v>6</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" s="150" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="183" t="s">
+        <v>208</v>
+      </c>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="185"/>
+    </row>
+    <row r="24" spans="1:10" s="53" customFormat="1">
+      <c r="A24" s="200"/>
+      <c r="B24" s="201"/>
+      <c r="C24" s="201"/>
+      <c r="D24" s="201"/>
+      <c r="E24" s="201"/>
+      <c r="F24" s="201"/>
+      <c r="G24" s="201"/>
+      <c r="H24" s="201"/>
+      <c r="I24" s="201"/>
+      <c r="J24" s="202"/>
+    </row>
+    <row r="25" spans="1:10" s="53" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A25" s="171" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="188"/>
+      <c r="C25" s="188"/>
+      <c r="D25" s="188"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="188"/>
+      <c r="G25" s="188"/>
+      <c r="H25" s="188"/>
+      <c r="I25" s="188"/>
+      <c r="J25" s="203"/>
+    </row>
+    <row r="26" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1">
+      <c r="A26" s="174" t="s">
         <v>210</v>
       </c>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="149"/>
-    </row>
-    <row r="24" spans="1:10" s="53" customFormat="1">
-      <c r="A24" s="206"/>
-      <c r="B24" s="207"/>
-      <c r="C24" s="207"/>
-      <c r="D24" s="207"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="207"/>
-      <c r="H24" s="207"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="208"/>
-    </row>
-    <row r="25" spans="1:10" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="136" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="209"/>
-    </row>
-    <row r="26" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1">
-      <c r="A26" s="146" t="s">
-        <v>212</v>
-      </c>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="152"/>
+      <c r="B26" s="175"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="176"/>
     </row>
     <row r="27" spans="1:10" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="142" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="148"/>
+        <v>76</v>
+      </c>
+      <c r="C27" s="177" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="179"/>
     </row>
     <row r="28" spans="1:10" s="53" customFormat="1" ht="40.5" customHeight="1">
       <c r="A28" s="56">
         <v>1</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="C28" s="150" t="s">
-        <v>215</v>
-      </c>
-      <c r="D28" s="202"/>
-      <c r="E28" s="202"/>
-      <c r="F28" s="202"/>
-      <c r="G28" s="202"/>
-      <c r="H28" s="202"/>
-      <c r="I28" s="202"/>
-      <c r="J28" s="203"/>
+        <v>200</v>
+      </c>
+      <c r="C28" s="183" t="s">
+        <v>213</v>
+      </c>
+      <c r="D28" s="198"/>
+      <c r="E28" s="198"/>
+      <c r="F28" s="198"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="198"/>
+      <c r="I28" s="198"/>
+      <c r="J28" s="199"/>
     </row>
     <row r="29" spans="1:10" s="53" customFormat="1">
       <c r="A29" s="56">
         <v>2</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="C29" s="150" t="s">
-        <v>207</v>
-      </c>
-      <c r="D29" s="202"/>
-      <c r="E29" s="202"/>
-      <c r="F29" s="202"/>
-      <c r="G29" s="202"/>
-      <c r="H29" s="202"/>
-      <c r="I29" s="202"/>
-      <c r="J29" s="203"/>
+        <v>202</v>
+      </c>
+      <c r="C29" s="183" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" s="198"/>
+      <c r="E29" s="198"/>
+      <c r="F29" s="198"/>
+      <c r="G29" s="198"/>
+      <c r="H29" s="198"/>
+      <c r="I29" s="198"/>
+      <c r="J29" s="199"/>
     </row>
     <row r="30" spans="1:10" s="53" customFormat="1">
       <c r="A30" s="56">
         <v>2</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>203</v>
-      </c>
-      <c r="C30" s="150" t="s">
-        <v>208</v>
-      </c>
-      <c r="D30" s="202"/>
-      <c r="E30" s="202"/>
-      <c r="F30" s="202"/>
-      <c r="G30" s="202"/>
-      <c r="H30" s="202"/>
-      <c r="I30" s="202"/>
-      <c r="J30" s="203"/>
+        <v>201</v>
+      </c>
+      <c r="C30" s="183" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" s="198"/>
+      <c r="E30" s="198"/>
+      <c r="F30" s="198"/>
+      <c r="G30" s="198"/>
+      <c r="H30" s="198"/>
+      <c r="I30" s="198"/>
+      <c r="J30" s="199"/>
     </row>
     <row r="31" spans="1:10" s="53" customFormat="1">
       <c r="A31" s="56">
         <v>3</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="C31" s="144" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="149"/>
+        <v>187</v>
+      </c>
+      <c r="C31" s="187" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="185"/>
     </row>
     <row r="32" spans="1:10" s="53" customFormat="1">
       <c r="A32" s="56">
         <v>4</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="C32" s="144" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="149"/>
+        <v>189</v>
+      </c>
+      <c r="C32" s="187" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="184"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="184"/>
+      <c r="J32" s="185"/>
     </row>
     <row r="33" spans="1:12" s="53" customFormat="1">
       <c r="A33" s="56">
         <v>5</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="C33" s="144" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="149"/>
+        <v>191</v>
+      </c>
+      <c r="C33" s="187" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="184"/>
+      <c r="E33" s="184"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="185"/>
     </row>
     <row r="34" spans="1:12" s="53" customFormat="1" ht="34.5" customHeight="1">
       <c r="A34" s="63">
         <v>6</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="150" t="s">
-        <v>216</v>
-      </c>
-      <c r="D34" s="145"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="149"/>
+        <v>209</v>
+      </c>
+      <c r="C34" s="183" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" s="184"/>
+      <c r="E34" s="184"/>
+      <c r="F34" s="184"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="184"/>
+      <c r="J34" s="185"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1">
-      <c r="A35" s="166"/>
-      <c r="B35" s="210"/>
-      <c r="C35" s="210"/>
-      <c r="D35" s="210"/>
-      <c r="E35" s="210"/>
-      <c r="F35" s="210"/>
-      <c r="G35" s="210"/>
-      <c r="H35" s="210"/>
-      <c r="I35" s="210"/>
-      <c r="J35" s="211"/>
+      <c r="A35" s="159"/>
+      <c r="B35" s="204"/>
+      <c r="C35" s="204"/>
+      <c r="D35" s="204"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="204"/>
+      <c r="G35" s="204"/>
+      <c r="H35" s="204"/>
+      <c r="I35" s="204"/>
+      <c r="J35" s="205"/>
     </row>
     <row r="36" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A36" s="136" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="178"/>
-      <c r="C36" s="178"/>
-      <c r="D36" s="178"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="178"/>
-      <c r="G36" s="178"/>
-      <c r="H36" s="178"/>
-      <c r="I36" s="178"/>
-      <c r="J36" s="179"/>
+      <c r="A36" s="171" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="172"/>
+      <c r="C36" s="172"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="172"/>
+      <c r="H36" s="172"/>
+      <c r="I36" s="172"/>
+      <c r="J36" s="173"/>
     </row>
     <row r="37" spans="1:12" s="79" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="57" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="D37" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="E37" s="189" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="138" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="139"/>
+      <c r="F37" s="190"/>
+      <c r="G37" s="190"/>
+      <c r="H37" s="190"/>
+      <c r="I37" s="190"/>
+      <c r="J37" s="190"/>
       <c r="K37" s="53"/>
       <c r="L37" s="53"/>
     </row>
@@ -13997,30 +13936,30 @@
         <v>1</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="62"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="127"/>
-      <c r="G38" s="127"/>
-      <c r="H38" s="127"/>
-      <c r="I38" s="127"/>
-      <c r="J38" s="127"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110"/>
     </row>
     <row r="39" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="163" t="s">
-        <v>213</v>
-      </c>
-      <c r="B39" s="164"/>
-      <c r="C39" s="164"/>
-      <c r="D39" s="164"/>
-      <c r="E39" s="164"/>
-      <c r="F39" s="164"/>
-      <c r="G39" s="164"/>
-      <c r="H39" s="164"/>
-      <c r="I39" s="164"/>
-      <c r="J39" s="165"/>
+      <c r="A39" s="156" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" s="157"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="157"/>
+      <c r="H39" s="157"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="158"/>
       <c r="K39" s="53"/>
       <c r="L39" s="53"/>
     </row>
@@ -14029,152 +13968,152 @@
         <v>1</v>
       </c>
       <c r="B40" s="64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="65" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="66"/>
-      <c r="E40" s="191" t="s">
-        <v>97</v>
-      </c>
-      <c r="F40" s="127"/>
-      <c r="G40" s="127"/>
-      <c r="H40" s="127"/>
-      <c r="I40" s="127"/>
-      <c r="J40" s="127"/>
+      <c r="E40" s="145" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="110"/>
+      <c r="J40" s="110"/>
     </row>
     <row r="41" spans="1:12" s="53" customFormat="1" ht="116.25" customHeight="1">
       <c r="A41" s="67">
         <v>1</v>
       </c>
       <c r="B41" s="68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" s="65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D41" s="69"/>
-      <c r="E41" s="160" t="s">
-        <v>241</v>
-      </c>
-      <c r="F41" s="161"/>
-      <c r="G41" s="161"/>
-      <c r="H41" s="161"/>
-      <c r="I41" s="161"/>
-      <c r="J41" s="162"/>
+      <c r="E41" s="149" t="s">
+        <v>239</v>
+      </c>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="151"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="52.5" customHeight="1">
       <c r="A42" s="70">
         <v>2</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D42" s="71"/>
-      <c r="E42" s="180" t="s">
-        <v>231</v>
-      </c>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="111"/>
+      <c r="E42" s="132" t="s">
+        <v>229</v>
+      </c>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="112"/>
     </row>
     <row r="43" spans="1:12" s="53" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="188" t="s">
+      <c r="A43" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="189"/>
-      <c r="C43" s="189"/>
-      <c r="D43" s="189"/>
-      <c r="E43" s="189"/>
-      <c r="F43" s="189"/>
-      <c r="G43" s="189"/>
-      <c r="H43" s="189"/>
-      <c r="I43" s="189"/>
-      <c r="J43" s="190"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="143"/>
+      <c r="E43" s="143"/>
+      <c r="F43" s="143"/>
+      <c r="G43" s="143"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="143"/>
+      <c r="J43" s="144"/>
     </row>
     <row r="44" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="186" t="s">
+      <c r="B44" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="187"/>
-      <c r="D44" s="180" t="s">
+      <c r="C44" s="141"/>
+      <c r="D44" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="112"/>
     </row>
     <row r="45" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="183"/>
-      <c r="B45" s="204"/>
-      <c r="C45" s="204"/>
-      <c r="D45" s="204"/>
-      <c r="E45" s="204"/>
-      <c r="F45" s="204"/>
-      <c r="G45" s="204"/>
-      <c r="H45" s="204"/>
-      <c r="I45" s="204"/>
-      <c r="J45" s="205"/>
+      <c r="A45" s="137"/>
+      <c r="B45" s="206"/>
+      <c r="C45" s="206"/>
+      <c r="D45" s="206"/>
+      <c r="E45" s="206"/>
+      <c r="F45" s="206"/>
+      <c r="G45" s="206"/>
+      <c r="H45" s="206"/>
+      <c r="I45" s="206"/>
+      <c r="J45" s="207"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="70"/>
-      <c r="B46" s="140"/>
-      <c r="C46" s="156"/>
-      <c r="D46" s="180"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="111"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="112"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="70"/>
-      <c r="B47" s="140"/>
-      <c r="C47" s="156"/>
-      <c r="D47" s="180"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="110"/>
-      <c r="I47" s="110"/>
-      <c r="J47" s="111"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="136"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="111"/>
+      <c r="I47" s="111"/>
+      <c r="J47" s="112"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="183"/>
-      <c r="B48" s="204"/>
-      <c r="C48" s="204"/>
-      <c r="D48" s="204"/>
-      <c r="E48" s="204"/>
-      <c r="F48" s="204"/>
-      <c r="G48" s="204"/>
-      <c r="H48" s="204"/>
-      <c r="I48" s="204"/>
-      <c r="J48" s="205"/>
+      <c r="A48" s="137"/>
+      <c r="B48" s="206"/>
+      <c r="C48" s="206"/>
+      <c r="D48" s="206"/>
+      <c r="E48" s="206"/>
+      <c r="F48" s="206"/>
+      <c r="G48" s="206"/>
+      <c r="H48" s="206"/>
+      <c r="I48" s="206"/>
+      <c r="J48" s="207"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="70"/>
-      <c r="B49" s="140"/>
-      <c r="C49" s="156"/>
-      <c r="D49" s="180"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="110"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="110"/>
-      <c r="I49" s="110"/>
-      <c r="J49" s="111"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="111"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="112"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
       <c r="A50" s="74" t="s">
@@ -14197,14 +14136,14 @@
       <c r="B51" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="140"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="110"/>
-      <c r="I51" s="110"/>
-      <c r="J51" s="111"/>
+      <c r="C51" s="135"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="111"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="112"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="70">
@@ -14213,32 +14152,41 @@
       <c r="B52" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="157"/>
-      <c r="D52" s="157"/>
-      <c r="E52" s="157"/>
-      <c r="F52" s="157"/>
-      <c r="G52" s="157"/>
-      <c r="H52" s="157"/>
-      <c r="I52" s="157"/>
-      <c r="J52" s="157"/>
+      <c r="C52" s="153"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="153"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="153"/>
+      <c r="H52" s="153"/>
+      <c r="I52" s="153"/>
+      <c r="J52" s="153"/>
     </row>
     <row r="65" s="51" customFormat="1"/>
     <row r="66" s="51" customFormat="1"/>
     <row r="67" s="51" customFormat="1"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="A39:J39"/>
     <mergeCell ref="E40:J40"/>
     <mergeCell ref="E41:J41"/>
     <mergeCell ref="E42:J42"/>
@@ -14255,27 +14203,18 @@
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A26:J26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -14328,8 +14267,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="158" t="s">
-        <v>55</v>
+      <c r="K1" s="154" t="s">
+        <v>54</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -14355,7 +14294,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="159"/>
+      <c r="K2" s="155"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -14373,7 +14312,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="159"/>
+      <c r="K3" s="155"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -14417,18 +14356,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="195" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="197"/>
+      <c r="A6" s="191" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="193"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -14438,19 +14377,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B7" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>246</v>
-      </c>
       <c r="D7" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>247</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>249</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>22</v>
@@ -14459,10 +14398,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -14495,34 +14434,34 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="195" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="197"/>
+      <c r="A10" s="191" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="192"/>
+      <c r="C10" s="192"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="192"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="192"/>
+      <c r="J10" s="193"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B11" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>246</v>
-      </c>
       <c r="D11" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>247</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>249</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>22</v>
@@ -14531,10 +14470,10 @@
         <v>16</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -14545,29 +14484,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="46" t="s">
-        <v>116</v>
-      </c>
       <c r="D12" s="42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F12" s="103" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="J12" s="213" t="s">
-        <v>183</v>
+        <v>169</v>
+      </c>
+      <c r="J12" s="209" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -14575,83 +14514,83 @@
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
       <c r="D13" s="42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F13" s="103" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="J13" s="199"/>
+        <v>169</v>
+      </c>
+      <c r="J13" s="195"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="40">
         <v>2</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E14" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="104" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="F14" s="104" t="s">
+      <c r="H14" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="I14" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="G14" s="105" t="s">
-        <v>168</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>171</v>
-      </c>
       <c r="J14" s="38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="40"/>
       <c r="B15" s="46" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E15" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="104" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="104" t="s">
+      <c r="H15" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="I15" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="G15" s="105" t="s">
-        <v>168</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>172</v>
-      </c>
       <c r="J15" s="85" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -14659,31 +14598,31 @@
         <v>3</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14691,26 +14630,26 @@
         <v>4</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J17" s="100"/>
     </row>
@@ -14719,27 +14658,27 @@
         <v>5</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D18" s="83" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="208" t="s">
         <v>177</v>
       </c>
-      <c r="E18" s="102" t="s">
-        <v>158</v>
-      </c>
-      <c r="F18" s="212" t="s">
-        <v>179</v>
-      </c>
-      <c r="G18" s="201"/>
+      <c r="G18" s="197"/>
       <c r="H18" s="83"/>
       <c r="I18" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J18" s="101" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14747,26 +14686,26 @@
         <v>6</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H19" s="40"/>
       <c r="I19" s="40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -14827,8 +14766,8 @@
       <c r="H1" s="90"/>
       <c r="I1" s="90"/>
       <c r="J1" s="90"/>
-      <c r="K1" s="158" t="s">
-        <v>55</v>
+      <c r="K1" s="154" t="s">
+        <v>54</v>
       </c>
       <c r="L1" s="51"/>
       <c r="M1" s="51"/>
@@ -14848,7 +14787,7 @@
       <c r="H2" s="90"/>
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
-      <c r="K2" s="159"/>
+      <c r="K2" s="155"/>
     </row>
     <row r="3" spans="1:17" s="89" customFormat="1">
       <c r="A3" s="90"/>
@@ -14861,7 +14800,7 @@
       <c r="H3" s="90"/>
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
-      <c r="K3" s="159"/>
+      <c r="K3" s="155"/>
     </row>
     <row r="4" spans="1:17" s="89" customFormat="1">
       <c r="A4" s="90"/>
@@ -14876,528 +14815,528 @@
       <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:17" s="89" customFormat="1">
-      <c r="A5" s="169" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118"/>
+      <c r="A5" s="162" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="120"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="133"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="170"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="173"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="166"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="170"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="173"/>
+      <c r="A8" s="163"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="166"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="174"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="176"/>
+      <c r="A9" s="167"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="169"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="177" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="111"/>
+      <c r="A11" s="170" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="112"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="120"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="177" t="s">
+      <c r="A13" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="111"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="112"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="120"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="146" t="s">
-        <v>219</v>
-      </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="152"/>
+      <c r="A15" s="174" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" s="175"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="176"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="142" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="148"/>
+        <v>76</v>
+      </c>
+      <c r="C16" s="177" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="179"/>
     </row>
     <row r="17" spans="1:10" s="53" customFormat="1" ht="48.75" customHeight="1">
       <c r="A17" s="56">
         <v>1</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="150" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" s="202"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="202"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="202"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="203"/>
+        <v>147</v>
+      </c>
+      <c r="C17" s="183" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="198"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="198"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="199"/>
     </row>
     <row r="18" spans="1:10" s="53" customFormat="1" ht="85.5" customHeight="1">
       <c r="A18" s="56">
         <v>2</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="C18" s="150" t="s">
-        <v>200</v>
-      </c>
-      <c r="D18" s="202"/>
-      <c r="E18" s="202"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="202"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="203"/>
+        <v>202</v>
+      </c>
+      <c r="C18" s="183" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="198"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="198"/>
+      <c r="I18" s="198"/>
+      <c r="J18" s="199"/>
     </row>
     <row r="19" spans="1:10" s="53" customFormat="1" ht="85.5" customHeight="1">
       <c r="A19" s="56">
         <v>2</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>203</v>
-      </c>
-      <c r="C19" s="150" t="s">
         <v>201</v>
       </c>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="203"/>
+      <c r="C19" s="183" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="198"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="198"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="199"/>
     </row>
     <row r="20" spans="1:10" s="53" customFormat="1">
       <c r="A20" s="56">
         <v>3</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="C20" s="144" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="149"/>
+        <v>187</v>
+      </c>
+      <c r="C20" s="187" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="184"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="184"/>
+      <c r="J20" s="185"/>
     </row>
     <row r="21" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="56">
         <v>4</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="C21" s="144" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="149"/>
+        <v>189</v>
+      </c>
+      <c r="C21" s="187" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="184"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="184"/>
+      <c r="I21" s="184"/>
+      <c r="J21" s="185"/>
     </row>
     <row r="22" spans="1:10" s="53" customFormat="1" ht="32.25" customHeight="1">
       <c r="A22" s="56">
         <v>5</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="C22" s="150" t="s">
-        <v>209</v>
-      </c>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="149"/>
+        <v>191</v>
+      </c>
+      <c r="C22" s="183" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="185"/>
     </row>
     <row r="23" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="63">
         <v>6</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" s="150" t="s">
-        <v>210</v>
-      </c>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="149"/>
+        <v>193</v>
+      </c>
+      <c r="C23" s="183" t="s">
+        <v>208</v>
+      </c>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="185"/>
     </row>
     <row r="24" spans="1:10" s="53" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A24" s="206"/>
-      <c r="B24" s="207"/>
-      <c r="C24" s="207"/>
-      <c r="D24" s="207"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="207"/>
-      <c r="H24" s="207"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="208"/>
+      <c r="A24" s="200"/>
+      <c r="B24" s="201"/>
+      <c r="C24" s="201"/>
+      <c r="D24" s="201"/>
+      <c r="E24" s="201"/>
+      <c r="F24" s="201"/>
+      <c r="G24" s="201"/>
+      <c r="H24" s="201"/>
+      <c r="I24" s="201"/>
+      <c r="J24" s="202"/>
     </row>
     <row r="25" spans="1:10" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="136" t="s">
+      <c r="A25" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="209"/>
+      <c r="B25" s="188"/>
+      <c r="C25" s="188"/>
+      <c r="D25" s="188"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="188"/>
+      <c r="G25" s="188"/>
+      <c r="H25" s="188"/>
+      <c r="I25" s="188"/>
+      <c r="J25" s="203"/>
     </row>
     <row r="26" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1">
-      <c r="A26" s="146" t="s">
-        <v>222</v>
-      </c>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="152"/>
+      <c r="A26" s="174" t="s">
+        <v>220</v>
+      </c>
+      <c r="B26" s="175"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="176"/>
     </row>
     <row r="27" spans="1:10" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="142" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="148"/>
+        <v>76</v>
+      </c>
+      <c r="C27" s="177" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="179"/>
     </row>
     <row r="28" spans="1:10" s="53" customFormat="1" ht="51" customHeight="1">
       <c r="A28" s="56">
         <v>1</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="C28" s="150" t="s">
-        <v>228</v>
-      </c>
-      <c r="D28" s="202"/>
-      <c r="E28" s="202"/>
-      <c r="F28" s="202"/>
-      <c r="G28" s="202"/>
-      <c r="H28" s="202"/>
-      <c r="I28" s="202"/>
-      <c r="J28" s="203"/>
+        <v>200</v>
+      </c>
+      <c r="C28" s="183" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="198"/>
+      <c r="E28" s="198"/>
+      <c r="F28" s="198"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="198"/>
+      <c r="I28" s="198"/>
+      <c r="J28" s="199"/>
     </row>
     <row r="29" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A29" s="56">
         <v>2</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="C29" s="150" t="s">
-        <v>207</v>
-      </c>
-      <c r="D29" s="202"/>
-      <c r="E29" s="202"/>
-      <c r="F29" s="202"/>
-      <c r="G29" s="202"/>
-      <c r="H29" s="202"/>
-      <c r="I29" s="202"/>
-      <c r="J29" s="203"/>
+        <v>202</v>
+      </c>
+      <c r="C29" s="183" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" s="198"/>
+      <c r="E29" s="198"/>
+      <c r="F29" s="198"/>
+      <c r="G29" s="198"/>
+      <c r="H29" s="198"/>
+      <c r="I29" s="198"/>
+      <c r="J29" s="199"/>
     </row>
     <row r="30" spans="1:10" s="53" customFormat="1">
       <c r="A30" s="56">
         <v>2</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>203</v>
-      </c>
-      <c r="C30" s="150" t="s">
-        <v>208</v>
-      </c>
-      <c r="D30" s="202"/>
-      <c r="E30" s="202"/>
-      <c r="F30" s="202"/>
-      <c r="G30" s="202"/>
-      <c r="H30" s="202"/>
-      <c r="I30" s="202"/>
-      <c r="J30" s="203"/>
+        <v>201</v>
+      </c>
+      <c r="C30" s="183" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" s="198"/>
+      <c r="E30" s="198"/>
+      <c r="F30" s="198"/>
+      <c r="G30" s="198"/>
+      <c r="H30" s="198"/>
+      <c r="I30" s="198"/>
+      <c r="J30" s="199"/>
     </row>
     <row r="31" spans="1:10" s="53" customFormat="1">
       <c r="A31" s="56">
         <v>3</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="C31" s="144" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="149"/>
+        <v>187</v>
+      </c>
+      <c r="C31" s="187" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="185"/>
     </row>
     <row r="32" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="56">
         <v>4</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="C32" s="144" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="149"/>
+        <v>189</v>
+      </c>
+      <c r="C32" s="187" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="184"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="184"/>
+      <c r="J32" s="185"/>
     </row>
     <row r="33" spans="1:12" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="56">
         <v>5</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="C33" s="144" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="149"/>
+        <v>191</v>
+      </c>
+      <c r="C33" s="187" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="184"/>
+      <c r="E33" s="184"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="185"/>
     </row>
     <row r="34" spans="1:12" s="53" customFormat="1" ht="39.75" customHeight="1">
       <c r="A34" s="63">
         <v>6</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="150" t="s">
-        <v>229</v>
-      </c>
-      <c r="D34" s="145"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="149"/>
+        <v>209</v>
+      </c>
+      <c r="C34" s="183" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" s="184"/>
+      <c r="E34" s="184"/>
+      <c r="F34" s="184"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="184"/>
+      <c r="J34" s="185"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1" ht="27" customHeight="1">
-      <c r="A35" s="166"/>
-      <c r="B35" s="210"/>
-      <c r="C35" s="210"/>
-      <c r="D35" s="210"/>
-      <c r="E35" s="210"/>
-      <c r="F35" s="210"/>
-      <c r="G35" s="210"/>
-      <c r="H35" s="210"/>
-      <c r="I35" s="210"/>
-      <c r="J35" s="211"/>
+      <c r="A35" s="159"/>
+      <c r="B35" s="204"/>
+      <c r="C35" s="204"/>
+      <c r="D35" s="204"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="204"/>
+      <c r="G35" s="204"/>
+      <c r="H35" s="204"/>
+      <c r="I35" s="204"/>
+      <c r="J35" s="205"/>
     </row>
     <row r="36" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="136" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="178"/>
-      <c r="C36" s="178"/>
-      <c r="D36" s="178"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="178"/>
-      <c r="G36" s="178"/>
-      <c r="H36" s="178"/>
-      <c r="I36" s="178"/>
-      <c r="J36" s="179"/>
+      <c r="A36" s="171" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="172"/>
+      <c r="C36" s="172"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="172"/>
+      <c r="H36" s="172"/>
+      <c r="I36" s="172"/>
+      <c r="J36" s="173"/>
     </row>
     <row r="37" spans="1:12" s="79" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="57" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="D37" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="E37" s="189" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="138" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="139"/>
+      <c r="F37" s="190"/>
+      <c r="G37" s="190"/>
+      <c r="H37" s="190"/>
+      <c r="I37" s="190"/>
+      <c r="J37" s="190"/>
       <c r="K37" s="53"/>
       <c r="L37" s="53"/>
     </row>
@@ -15406,30 +15345,30 @@
         <v>1</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="62"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="127"/>
-      <c r="G38" s="127"/>
-      <c r="H38" s="127"/>
-      <c r="I38" s="127"/>
-      <c r="J38" s="127"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110"/>
     </row>
     <row r="39" spans="1:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A39" s="163" t="s">
-        <v>220</v>
-      </c>
-      <c r="B39" s="164"/>
-      <c r="C39" s="164"/>
-      <c r="D39" s="164"/>
-      <c r="E39" s="164"/>
-      <c r="F39" s="164"/>
-      <c r="G39" s="164"/>
-      <c r="H39" s="164"/>
-      <c r="I39" s="164"/>
-      <c r="J39" s="165"/>
+      <c r="A39" s="156" t="s">
+        <v>218</v>
+      </c>
+      <c r="B39" s="157"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="157"/>
+      <c r="H39" s="157"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="158"/>
       <c r="K39" s="53"/>
       <c r="L39" s="53"/>
     </row>
@@ -15438,152 +15377,152 @@
         <v>1</v>
       </c>
       <c r="B40" s="68" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C40" s="88" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="87"/>
-      <c r="E40" s="160" t="s">
-        <v>257</v>
-      </c>
-      <c r="F40" s="161"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="161"/>
-      <c r="J40" s="162"/>
+      <c r="E40" s="149" t="s">
+        <v>255</v>
+      </c>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="151"/>
     </row>
     <row r="41" spans="1:12" s="53" customFormat="1" ht="51" customHeight="1">
       <c r="A41" s="70">
         <v>2</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41" s="88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" s="86"/>
-      <c r="E41" s="180" t="s">
-        <v>231</v>
-      </c>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="110"/>
-      <c r="I41" s="110"/>
-      <c r="J41" s="111"/>
+      <c r="E41" s="132" t="s">
+        <v>229</v>
+      </c>
+      <c r="F41" s="111"/>
+      <c r="G41" s="111"/>
+      <c r="H41" s="111"/>
+      <c r="I41" s="111"/>
+      <c r="J41" s="112"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="100.5" customHeight="1">
       <c r="A42" s="70">
         <v>2</v>
       </c>
       <c r="B42" s="84" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C42" s="88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D42" s="86"/>
-      <c r="E42" s="180" t="s">
-        <v>230</v>
-      </c>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="111"/>
+      <c r="E42" s="132" t="s">
+        <v>228</v>
+      </c>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="112"/>
     </row>
     <row r="43" spans="1:12" s="53" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A43" s="188" t="s">
+      <c r="A43" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="189"/>
-      <c r="C43" s="189"/>
-      <c r="D43" s="189"/>
-      <c r="E43" s="189"/>
-      <c r="F43" s="189"/>
-      <c r="G43" s="189"/>
-      <c r="H43" s="189"/>
-      <c r="I43" s="189"/>
-      <c r="J43" s="190"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="143"/>
+      <c r="E43" s="143"/>
+      <c r="F43" s="143"/>
+      <c r="G43" s="143"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="143"/>
+      <c r="J43" s="144"/>
     </row>
     <row r="44" spans="1:12" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A44" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="186" t="s">
+      <c r="B44" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="187"/>
-      <c r="D44" s="180" t="s">
+      <c r="C44" s="141"/>
+      <c r="D44" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="112"/>
     </row>
     <row r="45" spans="1:12" s="55" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A45" s="183"/>
-      <c r="B45" s="204"/>
-      <c r="C45" s="204"/>
-      <c r="D45" s="204"/>
-      <c r="E45" s="204"/>
-      <c r="F45" s="204"/>
-      <c r="G45" s="204"/>
-      <c r="H45" s="204"/>
-      <c r="I45" s="204"/>
-      <c r="J45" s="205"/>
+      <c r="A45" s="137"/>
+      <c r="B45" s="206"/>
+      <c r="C45" s="206"/>
+      <c r="D45" s="206"/>
+      <c r="E45" s="206"/>
+      <c r="F45" s="206"/>
+      <c r="G45" s="206"/>
+      <c r="H45" s="206"/>
+      <c r="I45" s="206"/>
+      <c r="J45" s="207"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1" ht="28.5" customHeight="1">
       <c r="A46" s="70"/>
-      <c r="B46" s="140"/>
-      <c r="C46" s="156"/>
-      <c r="D46" s="180"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="111"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="112"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A47" s="70"/>
-      <c r="B47" s="140"/>
-      <c r="C47" s="156"/>
-      <c r="D47" s="180"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="110"/>
-      <c r="I47" s="110"/>
-      <c r="J47" s="111"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="136"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="111"/>
+      <c r="I47" s="111"/>
+      <c r="J47" s="112"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A48" s="183"/>
-      <c r="B48" s="204"/>
-      <c r="C48" s="204"/>
-      <c r="D48" s="204"/>
-      <c r="E48" s="204"/>
-      <c r="F48" s="204"/>
-      <c r="G48" s="204"/>
-      <c r="H48" s="204"/>
-      <c r="I48" s="204"/>
-      <c r="J48" s="205"/>
+      <c r="A48" s="137"/>
+      <c r="B48" s="206"/>
+      <c r="C48" s="206"/>
+      <c r="D48" s="206"/>
+      <c r="E48" s="206"/>
+      <c r="F48" s="206"/>
+      <c r="G48" s="206"/>
+      <c r="H48" s="206"/>
+      <c r="I48" s="206"/>
+      <c r="J48" s="207"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="70"/>
-      <c r="B49" s="140"/>
-      <c r="C49" s="156"/>
-      <c r="D49" s="180"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="110"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="110"/>
-      <c r="I49" s="110"/>
-      <c r="J49" s="111"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="111"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="112"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="74" t="s">
@@ -15606,14 +15545,14 @@
       <c r="B51" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="140"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="110"/>
-      <c r="I51" s="110"/>
-      <c r="J51" s="111"/>
+      <c r="C51" s="135"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="111"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="112"/>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1">
       <c r="A52" s="70">
@@ -15622,14 +15561,14 @@
       <c r="B52" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="157"/>
-      <c r="D52" s="157"/>
-      <c r="E52" s="157"/>
-      <c r="F52" s="157"/>
-      <c r="G52" s="157"/>
-      <c r="H52" s="157"/>
-      <c r="I52" s="157"/>
-      <c r="J52" s="157"/>
+      <c r="C52" s="153"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="153"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="153"/>
+      <c r="H52" s="153"/>
+      <c r="I52" s="153"/>
+      <c r="J52" s="153"/>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1"/>
     <row r="54" spans="1:10" ht="15" customHeight="1"/>
@@ -15647,12 +15586,33 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="C28:J28"/>
     <mergeCell ref="C52:J52"/>
@@ -15669,33 +15629,12 @@
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="D46:J46"/>
     <mergeCell ref="E40:J40"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:J49"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/APF/RA006/RA006_APF0201_功能清單設定作業.xlsx
+++ b/APF/RA006/RA006_APF0201_功能清單設定作業.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\RA006\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -52,12 +47,12 @@
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="268">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -250,6 +245,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>操作功能描述</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>Button說明</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -279,6 +278,10 @@
   </si>
   <si>
     <t>Global 參數</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入/輸出</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -578,6 +581,17 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t xml:space="preserve">查詢功能清單資訊
+1. 系統人員輸入查詢條件
+2. 系統依查詢條件顯示資料於grid
+維護功能清單資訊
+1. 系統人員點選新增按鈕後新增功能清單資訊 ，系統回應新增成功訊息
+2. 系統人員選取特定功能清單資訊後進行更新，系統回應更新成功訊息
+3. 系統人員選取特定功能清單資訊後點選刪除按鈕，系統回應刪除成功訊息
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>功能清單設定作業</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -660,19 +674,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>APF0201MM1_Query</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>開啟APF0201MM1_Tree，將查詢結果置於APF0201MM1_Tree中</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>清除APF0201MM1_Query畫面所有欄位</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0201MM1_Tree</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1149,22 +1155,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>按下刪除按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 19或20，若對提示確認訊息選擇是，則進行刪除並回應刪除成功訊息，訊息內容請參考APF訊息表 APF_NO 16，左下方功能清單TreeView重新載入，右下角頁面則清除所有欄位，如刪除失敗，則回應顯示錯誤訊息，訊息內容請參考APF訊息表 APF_NO 17或18；若對提示確認訊息選擇否，則不做任何動作。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>點選清除重填按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 46。若選擇是，則清除所有欄位，若選擇否，則不做任何動作。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1215,13 +1205,6 @@
       <t>TreeView</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>儲存成功:
-1.在APF0201MM1右下角提示儲存成功訊息，訊息內容請參考APF訊息表 APF_NO 10。
-2.左下方功能清單TreeView重新載入，並顯示新增的功能清單，右下方頁面則保持在原新增畫面
-儲存失敗:以MsgBox顯示錯誤訊息，訊息內容請參考APF訊息表 APF_NO 11。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>No.</t>
@@ -1275,10 +1258,18 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>輸入/輸出</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>項目名稱</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>輸入/輸出</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>IPO Model</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1296,34 +1287,74 @@
   </si>
   <si>
     <t>輸入之功能名稱必須存在於APF apf_menu_root 或 apf_menu_node 資料表中，若不存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>畫面_APF0201MA1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位_APF0201MA1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面_APF0201MU1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位_APF0201MU1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>儲存成功:
+1.於本頁顯示儲存成功確認訊息，訊息內容請參考APF訊息表 APF_NO 10。
+2.左下方功能清單TreeView重新載入，並顯示新增的功能清單，右下方頁面則保持在原新增畫面
+儲存失敗:以MsgBox顯示錯誤訊息，訊息內容請參考APF訊息表 APF_NO 11。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>點選儲存按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 14，若選擇是，則進行儲存，若選擇否，則不做任何動作。
 儲存成功:
 1.在APF0201MU1右下角提示儲存成功訊息，訊息內容請參考APF訊息表 APF_NO 12。
-2.左下方功能清單TreeView重新載入，並顯示新增的功能清單，右下方頁面則保持在原編輯畫面
+2.左下方功能清單TreeView重新載入，並顯示修改的功能清單，右下方頁面則保持在原編輯畫面
 儲存失敗:以MsgBox顯示錯誤訊息，訊息內容請參考APF訊息表 APF_NO 11或13。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>畫面_APF0201MA1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位_APF0201MA1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>畫面_APF0201MU1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位_APF0201MU1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入/輸出/必填</t>
+    <t>重新載入</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0201MM1_Query</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0201MM1_Tree</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>按下刪除按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 19，若對提示確認訊息選擇是，則進行刪除並回應刪除成功訊息，訊息內容請參考APF訊息表 APF_NO 16，左下方功能清單TreeView重新載入，右下角頁面則清除所有欄位，如刪除失敗，則回應顯示錯誤訊息，訊息內容請參考APF訊息表 APF_NO 17或18；若對提示確認訊息選擇否，則不做任何動作。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>點選重新載入按鈕，欄位重新載入，回至最近一次編輯初始狀態。</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1887,7 +1918,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2173,6 +2204,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2203,12 +2243,6 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2239,7 +2273,16 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3497,13 +3540,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:row>69</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3517,7 +3560,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3525,17 +3568,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3549,13 +3581,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>67</xdr:row>
+          <xdr:row>70</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>84</xdr:row>
+          <xdr:row>87</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3569,7 +3601,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3577,17 +3609,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4137,7 +4158,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4145,17 +4166,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4710,7 +4720,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4718,17 +4728,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5866,7 +5865,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12449175" cy="523875"/>
+          <a:ext cx="12039600" cy="523875"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -6997,7 +6996,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12515850" cy="609600"/>
+          <a:ext cx="12030075" cy="609600"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -9199,19 +9198,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>17971</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>73924</xdr:rowOff>
+      <xdr:rowOff>8987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>62901</xdr:colOff>
+      <xdr:colOff>143774</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1329906</xdr:rowOff>
+      <xdr:rowOff>1312240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="圖片 28"/>
+        <xdr:cNvPr id="10" name="圖片 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9230,8 +9229,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="1116282"/>
-          <a:ext cx="4636697" cy="3484473"/>
+          <a:off x="17971" y="1051345"/>
+          <a:ext cx="4699600" cy="3531744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9268,7 +9267,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12401550" cy="609600"/>
+          <a:ext cx="12030075" cy="609600"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -10214,7 +10213,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="107" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B1" s="107"/>
       <c r="C1" s="107"/>
@@ -10222,74 +10221,74 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="106" t="s">
         <v>52</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="106" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="106" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="108" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D5" s="106" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="108"/>
       <c r="B6" s="31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="106" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="108" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B7" s="31" t="s">
         <v>256</v>
       </c>
       <c r="D7" s="106" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
@@ -10299,18 +10298,18 @@
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="106" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
       <c r="A9" s="108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>258</v>
       </c>
       <c r="D9" s="106" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
@@ -10320,7 +10319,7 @@
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="106" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1" thickBot="1">
@@ -10398,7 +10397,7 @@
     <col min="6" max="6" width="14.375" style="38" customWidth="1"/>
     <col min="7" max="7" width="15" style="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="38" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="38" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="38" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="34.875" style="38" customWidth="1"/>
     <col min="11" max="11" width="8.75" style="38" customWidth="1"/>
     <col min="12" max="16384" width="9" style="38"/>
@@ -10415,8 +10414,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="154" t="s">
-        <v>54</v>
+      <c r="K1" s="158" t="s">
+        <v>56</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -10442,7 +10441,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="155"/>
+      <c r="K2" s="159"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -10460,7 +10459,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="155"/>
+      <c r="K3" s="159"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -10504,18 +10503,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="191" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
-      <c r="F6" s="192"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="192"/>
-      <c r="I6" s="192"/>
-      <c r="J6" s="193"/>
+      <c r="A6" s="195" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="197"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -10546,10 +10545,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>260</v>
+        <v>44</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -10582,18 +10581,18 @@
       <c r="J9" s="90"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="191" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="192"/>
-      <c r="C10" s="192"/>
-      <c r="D10" s="192"/>
-      <c r="E10" s="192"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="192"/>
-      <c r="I10" s="192"/>
-      <c r="J10" s="193"/>
+      <c r="A10" s="195" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="197"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
@@ -10618,10 +10617,10 @@
         <v>16</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>260</v>
+        <v>44</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -10632,29 +10631,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E12" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="F12" s="103" t="s">
-        <v>162</v>
-      </c>
       <c r="G12" s="42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="J12" s="209" t="s">
-        <v>181</v>
+        <v>170</v>
+      </c>
+      <c r="J12" s="213" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -10662,83 +10661,83 @@
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
       <c r="D13" s="42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F13" s="103" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="J13" s="195"/>
+        <v>170</v>
+      </c>
+      <c r="J13" s="199"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="40">
         <v>2</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F14" s="104" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="G14" s="105" t="s">
-        <v>166</v>
-      </c>
       <c r="H14" s="46" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="40"/>
       <c r="B15" s="46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F15" s="104" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G15" s="105" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J15" s="85" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -10746,31 +10745,31 @@
         <v>3</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10778,26 +10777,26 @@
         <v>4</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F17" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="42" t="s">
         <v>173</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>172</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="40" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J17" s="100"/>
     </row>
@@ -10806,27 +10805,27 @@
         <v>5</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E18" s="102" t="s">
-        <v>156</v>
-      </c>
-      <c r="F18" s="208" t="s">
-        <v>177</v>
-      </c>
-      <c r="G18" s="197"/>
+        <v>157</v>
+      </c>
+      <c r="F18" s="212" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" s="201"/>
       <c r="H18" s="83"/>
       <c r="I18" s="40" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J18" s="101" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10834,26 +10833,26 @@
         <v>6</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H19" s="40"/>
       <c r="I19" s="40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -10982,10 +10981,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" s="20">
         <v>41563</v>
@@ -11116,10 +11115,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11132,17 +11131,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="124" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="M1" s="125" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="125"/>
+      <c r="M2" s="126"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="125"/>
+      <c r="M3" s="126"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -11159,210 +11158,240 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="115"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="118"/>
     </row>
     <row r="6" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="122" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
+    </row>
+    <row r="7" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="121" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="111"/>
+    </row>
+    <row r="8" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="114" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="115"/>
+    </row>
+    <row r="9" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="127" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="121" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="111"/>
+    </row>
+    <row r="10" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A10" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="115"/>
+    </row>
+    <row r="11" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="119" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="111"/>
+    </row>
+    <row r="12" spans="1:13" s="55" customFormat="1" ht="16.5">
+      <c r="A12" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="123"/>
-    </row>
-    <row r="7" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="116" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="118" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="120"/>
-    </row>
-    <row r="8" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="109" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="111" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="112"/>
-    </row>
-    <row r="9" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="126" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="118" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="120"/>
-    </row>
-    <row r="10" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="109" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="112"/>
-    </row>
-    <row r="11" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="131" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="120"/>
-    </row>
-    <row r="12" spans="1:13" s="55" customFormat="1" ht="16.5">
-      <c r="A12" s="109" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="115"/>
     </row>
     <row r="13" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="131" t="s">
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="120"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="111"/>
     </row>
     <row r="14" spans="1:13" s="55" customFormat="1" ht="16.5">
-      <c r="A14" s="109" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="112"/>
-    </row>
-    <row r="15" spans="1:13" s="82" customFormat="1" ht="16.5">
-      <c r="A15" s="113" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="112"/>
-    </row>
-    <row r="16" spans="1:13" s="82" customFormat="1" ht="14.25"/>
-    <row r="17" s="82" customFormat="1" ht="14.25"/>
-    <row r="18" s="82" customFormat="1" ht="14.25"/>
-    <row r="19" s="82" customFormat="1" ht="14.25"/>
-    <row r="20" s="82" customFormat="1" ht="14.25"/>
-    <row r="21" s="82" customFormat="1" ht="14.25"/>
-    <row r="22" s="82" customFormat="1" ht="14.25"/>
-    <row r="23" s="82" customFormat="1" ht="14.25"/>
-    <row r="24" s="82" customFormat="1" ht="14.25"/>
-    <row r="25" s="82" customFormat="1" ht="14.25"/>
-    <row r="26" s="82" customFormat="1" ht="14.25"/>
-    <row r="27" s="82" customFormat="1" ht="14.25"/>
-    <row r="28" s="82" customFormat="1" ht="14.25"/>
-    <row r="29" s="82" customFormat="1" ht="14.25"/>
-    <row r="30" s="82" customFormat="1" ht="14.25"/>
-    <row r="31" s="82" customFormat="1" ht="14.25"/>
-    <row r="32" s="82" customFormat="1" ht="14.25"/>
+      <c r="A14" s="112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="115"/>
+    </row>
+    <row r="15" spans="1:13" s="80" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="132"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="133"/>
+    </row>
+    <row r="16" spans="1:13" s="80" customFormat="1" ht="130.5" customHeight="1">
+      <c r="A16" s="134" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="135"/>
+    </row>
+    <row r="17" spans="1:12" s="82" customFormat="1" ht="16.5">
+      <c r="A17" s="116" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="114"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="115"/>
+    </row>
+    <row r="18" spans="1:12" s="82" customFormat="1" ht="14.25"/>
+    <row r="19" spans="1:12" s="82" customFormat="1" ht="14.25"/>
+    <row r="20" spans="1:12" s="82" customFormat="1" ht="14.25"/>
+    <row r="21" spans="1:12" s="82" customFormat="1" ht="14.25"/>
+    <row r="22" spans="1:12" s="82" customFormat="1" ht="14.25"/>
+    <row r="23" spans="1:12" s="82" customFormat="1" ht="14.25"/>
+    <row r="24" spans="1:12" s="82" customFormat="1" ht="14.25"/>
+    <row r="25" spans="1:12" s="82" customFormat="1" ht="14.25"/>
+    <row r="26" spans="1:12" s="82" customFormat="1" ht="14.25"/>
+    <row r="27" spans="1:12" s="82" customFormat="1" ht="14.25"/>
+    <row r="28" spans="1:12" s="82" customFormat="1" ht="14.25"/>
+    <row r="29" spans="1:12" s="82" customFormat="1" ht="14.25"/>
+    <row r="30" spans="1:12" s="82" customFormat="1" ht="14.25"/>
+    <row r="31" spans="1:12" s="82" customFormat="1" ht="14.25"/>
+    <row r="32" spans="1:12" s="82" customFormat="1" ht="14.25"/>
     <row r="33" s="82" customFormat="1" ht="14.25"/>
     <row r="34" s="82" customFormat="1" ht="14.25"/>
     <row r="35" s="82" customFormat="1" ht="14.25"/>
@@ -11390,47 +11419,68 @@
     <row r="57" s="82" customFormat="1" ht="14.25"/>
     <row r="58" s="82" customFormat="1" ht="14.25"/>
     <row r="59" s="82" customFormat="1" ht="14.25"/>
-    <row r="66" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A66" s="128" t="s">
-        <v>46</v>
-      </c>
-      <c r="B66" s="129"/>
-      <c r="C66" s="129"/>
-      <c r="D66" s="129"/>
-      <c r="E66" s="129"/>
-      <c r="F66" s="129"/>
-      <c r="G66" s="129"/>
-      <c r="H66" s="129"/>
-      <c r="I66" s="129"/>
-      <c r="J66" s="129"/>
-      <c r="K66" s="129"/>
-      <c r="L66" s="130"/>
-    </row>
-    <row r="67" spans="1:12" s="82" customFormat="1" ht="16.5">
-      <c r="A67" s="113" t="s">
-        <v>253</v>
-      </c>
-      <c r="B67" s="111"/>
-      <c r="C67" s="111"/>
-      <c r="D67" s="111"/>
-      <c r="E67" s="111"/>
-      <c r="F67" s="111"/>
-      <c r="G67" s="111"/>
-      <c r="H67" s="111"/>
-      <c r="I67" s="111"/>
-      <c r="J67" s="111"/>
-      <c r="K67" s="111"/>
-      <c r="L67" s="112"/>
+    <row r="60" s="82" customFormat="1" ht="14.25"/>
+    <row r="61" s="82" customFormat="1" ht="14.25"/>
+    <row r="68" spans="1:12" ht="31.5" customHeight="1">
+      <c r="A68" s="129" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="130"/>
+      <c r="C68" s="130"/>
+      <c r="D68" s="130"/>
+      <c r="E68" s="130"/>
+      <c r="F68" s="130"/>
+      <c r="G68" s="130"/>
+      <c r="H68" s="130"/>
+      <c r="I68" s="130"/>
+      <c r="J68" s="130"/>
+      <c r="K68" s="130"/>
+      <c r="L68" s="131"/>
+    </row>
+    <row r="69" spans="1:12" s="82" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A69" s="116" t="s">
+        <v>254</v>
+      </c>
+      <c r="B69" s="114"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="114"/>
+      <c r="F69" s="114"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="114"/>
+      <c r="L69" s="115"/>
+    </row>
+    <row r="70" spans="1:12" s="82" customFormat="1" ht="21" customHeight="1">
+      <c r="A70" s="116" t="s">
+        <v>266</v>
+      </c>
+      <c r="B70" s="114"/>
+      <c r="C70" s="114"/>
+      <c r="D70" s="114"/>
+      <c r="E70" s="114"/>
+      <c r="F70" s="114"/>
+      <c r="G70" s="114"/>
+      <c r="H70" s="114"/>
+      <c r="I70" s="114"/>
+      <c r="J70" s="114"/>
+      <c r="K70" s="114"/>
+      <c r="L70" s="115"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A67:L67"/>
+  <mergeCells count="25">
+    <mergeCell ref="A70:L70"/>
+    <mergeCell ref="A69:L69"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A68:L68"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A66:L66"/>
-    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A16:L16"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -11466,13 +11516,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>69</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -11491,13 +11541,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>67</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>84</xdr:row>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
@@ -11521,15 +11571,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="124" t="s">
-        <v>252</v>
+      <c r="P1" s="125" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="125"/>
+      <c r="P2" s="126"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="125"/>
+      <c r="P3" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11604,8 +11654,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:J9"/>
+    <sheetView topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11635,8 +11685,8 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="154" t="s">
-        <v>54</v>
+      <c r="K1" s="158" t="s">
+        <v>56</v>
       </c>
       <c r="L1" s="51"/>
       <c r="M1" s="51"/>
@@ -11656,7 +11706,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="155"/>
+      <c r="K2" s="159"/>
     </row>
     <row r="3" spans="1:17" s="52" customFormat="1">
       <c r="A3" s="44"/>
@@ -11669,7 +11719,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="155"/>
+      <c r="K3" s="159"/>
     </row>
     <row r="4" spans="1:17" s="52" customFormat="1">
       <c r="A4" s="44"/>
@@ -11684,416 +11734,416 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="52" customFormat="1">
-      <c r="A5" s="162" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="120"/>
+      <c r="A5" s="166" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="121"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="123"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="124"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="163"/>
-      <c r="B7" s="164"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="166"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="163"/>
-      <c r="B8" s="164"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="166"/>
+      <c r="A8" s="167"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="170"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="167"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="169"/>
+      <c r="A9" s="171"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="173"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="120"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="111"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="170" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="112"/>
+      <c r="A11" s="174" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="115"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="162" t="s">
+      <c r="A12" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="120"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="111"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="170" t="s">
+      <c r="A13" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="112"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="162" t="s">
+      <c r="A14" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="120"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="111"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="174" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="175"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="176"/>
+      <c r="A15" s="178" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="179"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="180"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="177" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="179"/>
+        <v>78</v>
+      </c>
+      <c r="C16" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="183"/>
     </row>
     <row r="17" spans="1:12" s="53" customFormat="1">
       <c r="A17" s="56">
         <v>1</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="180" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="184" t="s">
         <v>231</v>
       </c>
-      <c r="D17" s="181"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="181"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="181"/>
-      <c r="I17" s="181"/>
-      <c r="J17" s="182"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="185"/>
+      <c r="J17" s="186"/>
     </row>
     <row r="18" spans="1:12" s="53" customFormat="1" ht="30.75" customHeight="1">
       <c r="A18" s="56">
         <v>2</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="183" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="187" t="s">
         <v>232</v>
       </c>
-      <c r="D18" s="184"/>
-      <c r="E18" s="184"/>
-      <c r="F18" s="184"/>
-      <c r="G18" s="184"/>
-      <c r="H18" s="184"/>
-      <c r="I18" s="184"/>
-      <c r="J18" s="185"/>
+      <c r="D18" s="188"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="189"/>
     </row>
     <row r="19" spans="1:12" s="53" customFormat="1" ht="33.75" customHeight="1">
       <c r="A19" s="56">
         <v>3</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="183" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="184"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="184"/>
-      <c r="I19" s="184"/>
-      <c r="J19" s="185"/>
+        <v>116</v>
+      </c>
+      <c r="C19" s="187" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="188"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="188"/>
+      <c r="J19" s="189"/>
     </row>
     <row r="20" spans="1:12" s="53" customFormat="1">
-      <c r="A20" s="135"/>
-      <c r="B20" s="152"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="136"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="140"/>
     </row>
     <row r="21" spans="1:12" s="53" customFormat="1">
-      <c r="A21" s="174" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="175"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="175"/>
-      <c r="I21" s="175"/>
-      <c r="J21" s="176"/>
+      <c r="A21" s="178" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="179"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="180"/>
     </row>
     <row r="22" spans="1:12" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="177" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="178"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="179"/>
+        <v>78</v>
+      </c>
+      <c r="C22" s="181" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="182"/>
+      <c r="E22" s="182"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="182"/>
+      <c r="H22" s="182"/>
+      <c r="I22" s="182"/>
+      <c r="J22" s="183"/>
     </row>
     <row r="23" spans="1:12" s="53" customFormat="1">
       <c r="A23" s="56">
         <v>1</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="187" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="191" t="s">
         <v>233</v>
       </c>
-      <c r="D23" s="184"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="184"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="185"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="189"/>
     </row>
     <row r="24" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A24" s="56">
         <v>2</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="187" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="184"/>
-      <c r="E24" s="184"/>
-      <c r="F24" s="184"/>
-      <c r="G24" s="184"/>
-      <c r="H24" s="184"/>
-      <c r="I24" s="184"/>
-      <c r="J24" s="185"/>
+        <v>79</v>
+      </c>
+      <c r="C24" s="191" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="188"/>
+      <c r="J24" s="189"/>
     </row>
     <row r="25" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A25" s="56">
         <v>3</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="187" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="184"/>
-      <c r="E25" s="184"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="184"/>
-      <c r="H25" s="184"/>
-      <c r="I25" s="184"/>
-      <c r="J25" s="185"/>
+        <v>82</v>
+      </c>
+      <c r="C25" s="191" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="188"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="188"/>
+      <c r="G25" s="188"/>
+      <c r="H25" s="188"/>
+      <c r="I25" s="188"/>
+      <c r="J25" s="189"/>
     </row>
     <row r="26" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A26" s="56">
         <v>4</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="187" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="184"/>
-      <c r="E26" s="184"/>
-      <c r="F26" s="184"/>
-      <c r="G26" s="184"/>
-      <c r="H26" s="184"/>
-      <c r="I26" s="184"/>
-      <c r="J26" s="185"/>
+        <v>80</v>
+      </c>
+      <c r="C26" s="191" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="188"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="188"/>
+      <c r="I26" s="188"/>
+      <c r="J26" s="189"/>
     </row>
     <row r="27" spans="1:12" s="53" customFormat="1">
-      <c r="A27" s="159"/>
-      <c r="B27" s="160"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="160"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="161"/>
+      <c r="A27" s="163"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="164"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="165"/>
     </row>
     <row r="28" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="171" t="s">
+      <c r="A28" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="172"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="173"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="176"/>
+      <c r="D28" s="176"/>
+      <c r="E28" s="176"/>
+      <c r="F28" s="176"/>
+      <c r="G28" s="176"/>
+      <c r="H28" s="176"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="177"/>
     </row>
     <row r="29" spans="1:12" s="53" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="174" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="175"/>
-      <c r="C29" s="175"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="176"/>
+      <c r="A29" s="178" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="179"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="179"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="179"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="179"/>
+      <c r="J29" s="180"/>
     </row>
     <row r="30" spans="1:12" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="177" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="179"/>
+        <v>78</v>
+      </c>
+      <c r="C30" s="181" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="182"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="182"/>
+      <c r="G30" s="182"/>
+      <c r="H30" s="182"/>
+      <c r="I30" s="182"/>
+      <c r="J30" s="183"/>
     </row>
     <row r="31" spans="1:12" s="53" customFormat="1">
       <c r="A31" s="56">
         <v>1</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="187" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="184"/>
+        <v>114</v>
+      </c>
+      <c r="C31" s="191" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="188"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="188"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="188"/>
       <c r="K31" s="95"/>
       <c r="L31" s="93"/>
     </row>
@@ -12104,16 +12154,16 @@
       <c r="B32" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="C32" s="183" t="s">
-        <v>254</v>
-      </c>
-      <c r="D32" s="184"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="184"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="184"/>
-      <c r="I32" s="184"/>
-      <c r="J32" s="184"/>
+      <c r="C32" s="187" t="s">
+        <v>255</v>
+      </c>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="188"/>
+      <c r="J32" s="188"/>
       <c r="K32" s="95"/>
       <c r="L32" s="92"/>
     </row>
@@ -12124,46 +12174,46 @@
       <c r="B33" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="C33" s="183" t="s">
+      <c r="C33" s="187" t="s">
         <v>237</v>
       </c>
-      <c r="D33" s="184"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="184"/>
-      <c r="J33" s="184"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="188"/>
       <c r="K33" s="95"/>
       <c r="L33" s="94"/>
     </row>
     <row r="34" spans="1:12" s="53" customFormat="1">
-      <c r="A34" s="135"/>
-      <c r="B34" s="152"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="152"/>
-      <c r="E34" s="152"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="152"/>
-      <c r="H34" s="152"/>
-      <c r="I34" s="152"/>
-      <c r="J34" s="152"/>
+      <c r="A34" s="139"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="156"/>
+      <c r="J34" s="156"/>
       <c r="K34" s="95"/>
       <c r="L34" s="94"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1">
-      <c r="A35" s="174" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="186"/>
-      <c r="C35" s="186"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="186"/>
-      <c r="J35" s="186"/>
+      <c r="A35" s="178" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="190"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="190"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="190"/>
+      <c r="J35" s="190"/>
       <c r="K35" s="95"/>
       <c r="L35" s="92"/>
     </row>
@@ -12172,18 +12222,18 @@
         <v>6</v>
       </c>
       <c r="B36" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="177" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="178"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="178"/>
-      <c r="G36" s="178"/>
-      <c r="H36" s="178"/>
-      <c r="I36" s="178"/>
-      <c r="J36" s="178"/>
+        <v>78</v>
+      </c>
+      <c r="C36" s="181" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="182"/>
+      <c r="E36" s="182"/>
+      <c r="F36" s="182"/>
+      <c r="G36" s="182"/>
+      <c r="H36" s="182"/>
+      <c r="I36" s="182"/>
+      <c r="J36" s="182"/>
       <c r="K36" s="95"/>
       <c r="L36" s="94"/>
     </row>
@@ -12192,18 +12242,18 @@
         <v>1</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="187" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="184"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="184"/>
-      <c r="G37" s="184"/>
-      <c r="H37" s="184"/>
-      <c r="I37" s="184"/>
-      <c r="J37" s="184"/>
+        <v>115</v>
+      </c>
+      <c r="C37" s="191" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="188"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="188"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="188"/>
+      <c r="J37" s="188"/>
       <c r="K37" s="95"/>
       <c r="L37" s="94"/>
     </row>
@@ -12212,18 +12262,18 @@
         <v>2</v>
       </c>
       <c r="B38" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="187" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="184"/>
-      <c r="E38" s="184"/>
-      <c r="F38" s="184"/>
-      <c r="G38" s="184"/>
-      <c r="H38" s="184"/>
-      <c r="I38" s="184"/>
-      <c r="J38" s="184"/>
+        <v>79</v>
+      </c>
+      <c r="C38" s="191" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="188"/>
+      <c r="E38" s="188"/>
+      <c r="F38" s="188"/>
+      <c r="G38" s="188"/>
+      <c r="H38" s="188"/>
+      <c r="I38" s="188"/>
+      <c r="J38" s="188"/>
       <c r="K38" s="95"/>
       <c r="L38" s="94"/>
     </row>
@@ -12232,18 +12282,18 @@
         <v>3</v>
       </c>
       <c r="B39" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="187" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="184"/>
-      <c r="E39" s="184"/>
-      <c r="F39" s="184"/>
-      <c r="G39" s="184"/>
-      <c r="H39" s="184"/>
-      <c r="I39" s="184"/>
-      <c r="J39" s="184"/>
+        <v>82</v>
+      </c>
+      <c r="C39" s="191" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="188"/>
+      <c r="E39" s="188"/>
+      <c r="F39" s="188"/>
+      <c r="G39" s="188"/>
+      <c r="H39" s="188"/>
+      <c r="I39" s="188"/>
+      <c r="J39" s="188"/>
       <c r="K39" s="95"/>
       <c r="L39" s="94"/>
     </row>
@@ -12252,72 +12302,72 @@
         <v>4</v>
       </c>
       <c r="B40" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="187" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="184"/>
-      <c r="E40" s="184"/>
-      <c r="F40" s="184"/>
-      <c r="G40" s="184"/>
-      <c r="H40" s="184"/>
-      <c r="I40" s="184"/>
-      <c r="J40" s="184"/>
+        <v>80</v>
+      </c>
+      <c r="C40" s="191" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="188"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="188"/>
+      <c r="G40" s="188"/>
+      <c r="H40" s="188"/>
+      <c r="I40" s="188"/>
+      <c r="J40" s="188"/>
       <c r="K40" s="95"/>
       <c r="L40" s="92"/>
     </row>
     <row r="41" spans="1:12" s="53" customFormat="1">
-      <c r="A41" s="135"/>
-      <c r="B41" s="152"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="152"/>
-      <c r="E41" s="152"/>
-      <c r="F41" s="152"/>
-      <c r="G41" s="152"/>
-      <c r="H41" s="152"/>
-      <c r="I41" s="152"/>
-      <c r="J41" s="152"/>
+      <c r="A41" s="139"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="156"/>
+      <c r="E41" s="156"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="156"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="156"/>
+      <c r="J41" s="156"/>
       <c r="K41" s="95"/>
       <c r="L41" s="92"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="171" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="188"/>
-      <c r="C42" s="188"/>
-      <c r="D42" s="188"/>
-      <c r="E42" s="188"/>
-      <c r="F42" s="188"/>
-      <c r="G42" s="188"/>
-      <c r="H42" s="188"/>
-      <c r="I42" s="188"/>
-      <c r="J42" s="188"/>
+      <c r="A42" s="175" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="192"/>
+      <c r="C42" s="192"/>
+      <c r="D42" s="192"/>
+      <c r="E42" s="192"/>
+      <c r="F42" s="192"/>
+      <c r="G42" s="192"/>
+      <c r="H42" s="192"/>
+      <c r="I42" s="192"/>
+      <c r="J42" s="192"/>
       <c r="K42" s="95"/>
       <c r="L42" s="92"/>
     </row>
     <row r="43" spans="1:12" s="55" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B43" s="57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D43" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="189" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="190"/>
-      <c r="G43" s="190"/>
-      <c r="H43" s="190"/>
-      <c r="I43" s="190"/>
-      <c r="J43" s="190"/>
+      <c r="E43" s="193" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="194"/>
+      <c r="G43" s="194"/>
+      <c r="H43" s="194"/>
+      <c r="I43" s="194"/>
+      <c r="J43" s="194"/>
       <c r="K43" s="53"/>
       <c r="L43" s="53"/>
     </row>
@@ -12326,334 +12376,334 @@
         <v>1</v>
       </c>
       <c r="B44" s="60" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C44" s="61"/>
       <c r="D44" s="62"/>
-      <c r="E44" s="145" t="s">
+      <c r="E44" s="149" t="s">
         <v>234</v>
       </c>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="110"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="113"/>
     </row>
     <row r="45" spans="1:12" s="53" customFormat="1">
       <c r="A45" s="63"/>
-      <c r="B45" s="152"/>
-      <c r="C45" s="152"/>
-      <c r="D45" s="152"/>
-      <c r="E45" s="152"/>
-      <c r="F45" s="152"/>
-      <c r="G45" s="152"/>
-      <c r="H45" s="152"/>
-      <c r="I45" s="152"/>
-      <c r="J45" s="136"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="156"/>
+      <c r="D45" s="156"/>
+      <c r="E45" s="156"/>
+      <c r="F45" s="156"/>
+      <c r="G45" s="156"/>
+      <c r="H45" s="156"/>
+      <c r="I45" s="156"/>
+      <c r="J45" s="140"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1">
-      <c r="A46" s="156" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" s="157"/>
-      <c r="C46" s="157"/>
-      <c r="D46" s="157"/>
-      <c r="E46" s="157"/>
-      <c r="F46" s="157"/>
-      <c r="G46" s="157"/>
-      <c r="H46" s="157"/>
-      <c r="I46" s="157"/>
-      <c r="J46" s="158"/>
+      <c r="A46" s="160" t="s">
+        <v>263</v>
+      </c>
+      <c r="B46" s="161"/>
+      <c r="C46" s="161"/>
+      <c r="D46" s="161"/>
+      <c r="E46" s="161"/>
+      <c r="F46" s="161"/>
+      <c r="G46" s="161"/>
+      <c r="H46" s="161"/>
+      <c r="I46" s="161"/>
+      <c r="J46" s="162"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="56">
         <v>1</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C47" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="66"/>
-      <c r="E47" s="145" t="s">
-        <v>67</v>
-      </c>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="110"/>
-      <c r="I47" s="110"/>
-      <c r="J47" s="110"/>
+      <c r="E47" s="149" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="113"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="113"/>
+      <c r="J47" s="113"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1">
       <c r="A48" s="67">
         <v>2</v>
       </c>
       <c r="B48" s="68" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C48" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="69"/>
-      <c r="E48" s="149" t="s">
-        <v>129</v>
-      </c>
-      <c r="F48" s="150"/>
-      <c r="G48" s="150"/>
-      <c r="H48" s="150"/>
-      <c r="I48" s="150"/>
-      <c r="J48" s="151"/>
+      <c r="E48" s="153" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" s="154"/>
+      <c r="G48" s="154"/>
+      <c r="H48" s="154"/>
+      <c r="I48" s="154"/>
+      <c r="J48" s="155"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1">
       <c r="A49" s="70">
         <v>3</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C49" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="71"/>
-      <c r="E49" s="132" t="s">
-        <v>130</v>
-      </c>
-      <c r="F49" s="111"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="111"/>
-      <c r="J49" s="112"/>
+      <c r="E49" s="136" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="115"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1">
       <c r="A50" s="72"/>
-      <c r="B50" s="152"/>
-      <c r="C50" s="152"/>
-      <c r="D50" s="152"/>
-      <c r="E50" s="152"/>
-      <c r="F50" s="152"/>
-      <c r="G50" s="152"/>
-      <c r="H50" s="152"/>
-      <c r="I50" s="152"/>
-      <c r="J50" s="136"/>
+      <c r="B50" s="156"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="156"/>
+      <c r="E50" s="156"/>
+      <c r="F50" s="156"/>
+      <c r="G50" s="156"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="140"/>
     </row>
     <row r="51" spans="1:10" s="53" customFormat="1">
-      <c r="A51" s="146" t="s">
-        <v>131</v>
-      </c>
-      <c r="B51" s="147"/>
-      <c r="C51" s="147"/>
-      <c r="D51" s="147"/>
-      <c r="E51" s="147"/>
-      <c r="F51" s="147"/>
-      <c r="G51" s="147"/>
-      <c r="H51" s="147"/>
-      <c r="I51" s="147"/>
-      <c r="J51" s="148"/>
+      <c r="A51" s="150" t="s">
+        <v>264</v>
+      </c>
+      <c r="B51" s="151"/>
+      <c r="C51" s="151"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="151"/>
+      <c r="F51" s="151"/>
+      <c r="G51" s="151"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="151"/>
+      <c r="J51" s="152"/>
     </row>
     <row r="52" spans="1:10" s="53" customFormat="1">
       <c r="A52" s="56">
         <v>1</v>
       </c>
       <c r="B52" s="83" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C52" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="66"/>
-      <c r="E52" s="145" t="s">
-        <v>155</v>
-      </c>
-      <c r="F52" s="110"/>
-      <c r="G52" s="110"/>
-      <c r="H52" s="110"/>
-      <c r="I52" s="110"/>
-      <c r="J52" s="110"/>
+      <c r="E52" s="149" t="s">
+        <v>156</v>
+      </c>
+      <c r="F52" s="113"/>
+      <c r="G52" s="113"/>
+      <c r="H52" s="113"/>
+      <c r="I52" s="113"/>
+      <c r="J52" s="113"/>
     </row>
     <row r="53" spans="1:10" s="53" customFormat="1" ht="66" customHeight="1">
       <c r="A53" s="56">
         <v>2</v>
       </c>
       <c r="B53" s="83" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C53" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="69"/>
-      <c r="E53" s="145" t="s">
+      <c r="E53" s="149" t="s">
         <v>230</v>
       </c>
-      <c r="F53" s="110"/>
-      <c r="G53" s="110"/>
-      <c r="H53" s="110"/>
-      <c r="I53" s="110"/>
-      <c r="J53" s="110"/>
+      <c r="F53" s="113"/>
+      <c r="G53" s="113"/>
+      <c r="H53" s="113"/>
+      <c r="I53" s="113"/>
+      <c r="J53" s="113"/>
     </row>
     <row r="54" spans="1:10" s="53" customFormat="1">
       <c r="A54" s="56">
         <v>3</v>
       </c>
       <c r="B54" s="83" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C54" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="69"/>
-      <c r="E54" s="149" t="s">
-        <v>153</v>
-      </c>
-      <c r="F54" s="150"/>
-      <c r="G54" s="150"/>
-      <c r="H54" s="150"/>
-      <c r="I54" s="150"/>
-      <c r="J54" s="151"/>
+      <c r="E54" s="153" t="s">
+        <v>154</v>
+      </c>
+      <c r="F54" s="154"/>
+      <c r="G54" s="154"/>
+      <c r="H54" s="154"/>
+      <c r="I54" s="154"/>
+      <c r="J54" s="155"/>
     </row>
     <row r="55" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
       <c r="A55" s="56">
         <v>4</v>
       </c>
       <c r="B55" s="83" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C55" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="69"/>
-      <c r="E55" s="149" t="s">
-        <v>154</v>
-      </c>
-      <c r="F55" s="150"/>
-      <c r="G55" s="150"/>
-      <c r="H55" s="150"/>
-      <c r="I55" s="150"/>
-      <c r="J55" s="151"/>
+      <c r="E55" s="153" t="s">
+        <v>155</v>
+      </c>
+      <c r="F55" s="154"/>
+      <c r="G55" s="154"/>
+      <c r="H55" s="154"/>
+      <c r="I55" s="154"/>
+      <c r="J55" s="155"/>
     </row>
     <row r="56" spans="1:10" s="53" customFormat="1" hidden="1">
       <c r="A56" s="56">
         <v>5</v>
       </c>
       <c r="B56" s="97" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C56" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="69"/>
-      <c r="E56" s="149" t="s">
-        <v>97</v>
-      </c>
-      <c r="F56" s="150"/>
-      <c r="G56" s="150"/>
-      <c r="H56" s="150"/>
-      <c r="I56" s="150"/>
-      <c r="J56" s="151"/>
+      <c r="E56" s="153" t="s">
+        <v>99</v>
+      </c>
+      <c r="F56" s="154"/>
+      <c r="G56" s="154"/>
+      <c r="H56" s="154"/>
+      <c r="I56" s="154"/>
+      <c r="J56" s="155"/>
     </row>
     <row r="57" spans="1:10" s="53" customFormat="1">
       <c r="A57" s="73"/>
-      <c r="B57" s="152"/>
-      <c r="C57" s="152"/>
-      <c r="D57" s="152"/>
-      <c r="E57" s="152"/>
-      <c r="F57" s="152"/>
-      <c r="G57" s="152"/>
-      <c r="H57" s="152"/>
-      <c r="I57" s="152"/>
-      <c r="J57" s="136"/>
+      <c r="B57" s="156"/>
+      <c r="C57" s="156"/>
+      <c r="D57" s="156"/>
+      <c r="E57" s="156"/>
+      <c r="F57" s="156"/>
+      <c r="G57" s="156"/>
+      <c r="H57" s="156"/>
+      <c r="I57" s="156"/>
+      <c r="J57" s="140"/>
     </row>
     <row r="58" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="142" t="s">
+      <c r="A58" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="143"/>
-      <c r="C58" s="143"/>
-      <c r="D58" s="143"/>
-      <c r="E58" s="143"/>
-      <c r="F58" s="143"/>
-      <c r="G58" s="143"/>
-      <c r="H58" s="143"/>
-      <c r="I58" s="143"/>
-      <c r="J58" s="144"/>
+      <c r="B58" s="147"/>
+      <c r="C58" s="147"/>
+      <c r="D58" s="147"/>
+      <c r="E58" s="147"/>
+      <c r="F58" s="147"/>
+      <c r="G58" s="147"/>
+      <c r="H58" s="147"/>
+      <c r="I58" s="147"/>
+      <c r="J58" s="148"/>
     </row>
     <row r="59" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="140" t="s">
+      <c r="B59" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="141"/>
-      <c r="D59" s="132" t="s">
+      <c r="C59" s="145"/>
+      <c r="D59" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="111"/>
-      <c r="F59" s="111"/>
-      <c r="G59" s="111"/>
-      <c r="H59" s="111"/>
-      <c r="I59" s="111"/>
-      <c r="J59" s="112"/>
+      <c r="E59" s="114"/>
+      <c r="F59" s="114"/>
+      <c r="G59" s="114"/>
+      <c r="H59" s="114"/>
+      <c r="I59" s="114"/>
+      <c r="J59" s="115"/>
     </row>
     <row r="60" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="137"/>
-      <c r="B60" s="138"/>
-      <c r="C60" s="138"/>
-      <c r="D60" s="138"/>
-      <c r="E60" s="138"/>
-      <c r="F60" s="138"/>
-      <c r="G60" s="138"/>
-      <c r="H60" s="138"/>
-      <c r="I60" s="138"/>
-      <c r="J60" s="139"/>
+      <c r="A60" s="141"/>
+      <c r="B60" s="142"/>
+      <c r="C60" s="142"/>
+      <c r="D60" s="142"/>
+      <c r="E60" s="142"/>
+      <c r="F60" s="142"/>
+      <c r="G60" s="142"/>
+      <c r="H60" s="142"/>
+      <c r="I60" s="142"/>
+      <c r="J60" s="143"/>
     </row>
     <row r="61" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="70"/>
-      <c r="B61" s="135"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="132"/>
-      <c r="E61" s="133"/>
-      <c r="F61" s="133"/>
-      <c r="G61" s="133"/>
-      <c r="H61" s="133"/>
-      <c r="I61" s="133"/>
-      <c r="J61" s="134"/>
+      <c r="B61" s="139"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="136"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="G61" s="137"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="137"/>
+      <c r="J61" s="138"/>
     </row>
     <row r="62" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="70"/>
-      <c r="B62" s="135"/>
-      <c r="C62" s="136"/>
-      <c r="D62" s="132"/>
-      <c r="E62" s="133"/>
-      <c r="F62" s="133"/>
-      <c r="G62" s="133"/>
-      <c r="H62" s="133"/>
-      <c r="I62" s="133"/>
-      <c r="J62" s="134"/>
+      <c r="B62" s="139"/>
+      <c r="C62" s="140"/>
+      <c r="D62" s="136"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="137"/>
+      <c r="G62" s="137"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="137"/>
+      <c r="J62" s="138"/>
     </row>
     <row r="63" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="137"/>
-      <c r="B63" s="138"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="138"/>
-      <c r="E63" s="138"/>
-      <c r="F63" s="138"/>
-      <c r="G63" s="138"/>
-      <c r="H63" s="138"/>
-      <c r="I63" s="138"/>
-      <c r="J63" s="139"/>
+      <c r="A63" s="141"/>
+      <c r="B63" s="142"/>
+      <c r="C63" s="142"/>
+      <c r="D63" s="142"/>
+      <c r="E63" s="142"/>
+      <c r="F63" s="142"/>
+      <c r="G63" s="142"/>
+      <c r="H63" s="142"/>
+      <c r="I63" s="142"/>
+      <c r="J63" s="143"/>
     </row>
     <row r="64" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="70"/>
-      <c r="B64" s="135"/>
-      <c r="C64" s="136"/>
-      <c r="D64" s="132"/>
-      <c r="E64" s="133"/>
-      <c r="F64" s="133"/>
-      <c r="G64" s="133"/>
-      <c r="H64" s="133"/>
-      <c r="I64" s="133"/>
-      <c r="J64" s="134"/>
+      <c r="B64" s="139"/>
+      <c r="C64" s="140"/>
+      <c r="D64" s="136"/>
+      <c r="E64" s="137"/>
+      <c r="F64" s="137"/>
+      <c r="G64" s="137"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="137"/>
+      <c r="J64" s="138"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="74" t="s">
@@ -12676,14 +12726,14 @@
       <c r="B66" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="135"/>
-      <c r="D66" s="111"/>
-      <c r="E66" s="111"/>
-      <c r="F66" s="111"/>
-      <c r="G66" s="111"/>
-      <c r="H66" s="111"/>
-      <c r="I66" s="111"/>
-      <c r="J66" s="112"/>
+      <c r="C66" s="139"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="114"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="114"/>
+      <c r="H66" s="114"/>
+      <c r="I66" s="114"/>
+      <c r="J66" s="115"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="70">
@@ -12692,14 +12742,14 @@
       <c r="B67" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="153"/>
-      <c r="D67" s="153"/>
-      <c r="E67" s="153"/>
-      <c r="F67" s="153"/>
-      <c r="G67" s="153"/>
-      <c r="H67" s="153"/>
-      <c r="I67" s="153"/>
-      <c r="J67" s="153"/>
+      <c r="C67" s="157"/>
+      <c r="D67" s="157"/>
+      <c r="E67" s="157"/>
+      <c r="F67" s="157"/>
+      <c r="G67" s="157"/>
+      <c r="H67" s="157"/>
+      <c r="I67" s="157"/>
+      <c r="J67" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="64">
@@ -12788,8 +12838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12802,7 +12852,7 @@
     <col min="6" max="6" width="14.375" style="38" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="38" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="38" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="38" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37" style="38" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="38" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="38"/>
@@ -12819,8 +12869,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="154" t="s">
-        <v>54</v>
+      <c r="K1" s="158" t="s">
+        <v>56</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -12846,7 +12896,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="155"/>
+      <c r="K2" s="159"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -12864,7 +12914,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="155"/>
+      <c r="K3" s="159"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -12908,18 +12958,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="191" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
-      <c r="F6" s="192"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="192"/>
-      <c r="I6" s="192"/>
-      <c r="J6" s="193"/>
+      <c r="A6" s="195" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="197"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -12929,19 +12979,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>242</v>
-      </c>
       <c r="C7" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="39" t="s">
-        <v>245</v>
-      </c>
       <c r="E7" s="39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>22</v>
@@ -12950,10 +13000,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="I7" s="39" t="s">
         <v>248</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>260</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -12986,34 +13036,34 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="191" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="192"/>
-      <c r="C10" s="192"/>
-      <c r="D10" s="192"/>
-      <c r="E10" s="192"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="192"/>
-      <c r="I10" s="192"/>
-      <c r="J10" s="193"/>
+      <c r="A10" s="195" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="197"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>242</v>
-      </c>
       <c r="C11" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>245</v>
-      </c>
       <c r="E11" s="39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>22</v>
@@ -13022,10 +13072,10 @@
         <v>16</v>
       </c>
       <c r="H11" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="I11" s="39" t="s">
         <v>248</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>260</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -13036,27 +13086,27 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>156</v>
-      </c>
-      <c r="F12" s="196" t="s">
-        <v>176</v>
-      </c>
-      <c r="G12" s="197"/>
+        <v>157</v>
+      </c>
+      <c r="F12" s="200" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="201"/>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J12" s="45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="25.5" customHeight="1">
@@ -13064,28 +13114,28 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E13" s="99" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F13" s="91" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G13" s="91" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="194" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="198" t="s">
         <v>238</v>
       </c>
     </row>
@@ -13095,77 +13145,77 @@
       <c r="C14" s="46"/>
       <c r="D14" s="42"/>
       <c r="E14" s="42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F14" s="91" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G14" s="91" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="195"/>
+        <v>70</v>
+      </c>
+      <c r="J14" s="199"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="40">
         <v>3</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G15" s="91" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J15" s="48"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="191" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="192"/>
-      <c r="C17" s="192"/>
-      <c r="D17" s="192"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="193"/>
+      <c r="A17" s="195" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="196"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="196"/>
+      <c r="F17" s="196"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="196"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="197"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B18" s="39" t="s">
         <v>249</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D18" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="E18" s="39" t="s">
         <v>245</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>246</v>
       </c>
       <c r="F18" s="39" t="s">
         <v>22</v>
@@ -13174,10 +13224,10 @@
         <v>16</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="J18" s="39" t="s">
         <v>0</v>
@@ -13188,26 +13238,26 @@
         <v>1</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C19" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="E19" s="96" t="s">
-        <v>141</v>
-      </c>
       <c r="F19" s="91" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G19" s="91" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -13217,17 +13267,17 @@
       <c r="C20" s="41"/>
       <c r="D20" s="42"/>
       <c r="E20" s="42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F20" s="91" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G20" s="91" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J20" s="45"/>
     </row>
@@ -13236,27 +13286,27 @@
         <v>3</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J21" s="43" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:11" hidden="1">
@@ -13264,27 +13314,27 @@
         <v>4</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G22" s="46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H22" s="46"/>
       <c r="I22" s="40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J22" s="48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -13328,8 +13378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41:J41"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13357,8 +13407,8 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="154" t="s">
-        <v>54</v>
+      <c r="K1" s="158" t="s">
+        <v>56</v>
       </c>
       <c r="L1" s="51"/>
       <c r="M1" s="51"/>
@@ -13378,7 +13428,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="155"/>
+      <c r="K2" s="159"/>
     </row>
     <row r="3" spans="1:17" s="52" customFormat="1">
       <c r="A3" s="44"/>
@@ -13391,7 +13441,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="155"/>
+      <c r="K3" s="159"/>
     </row>
     <row r="4" spans="1:17" s="52" customFormat="1">
       <c r="A4" s="44"/>
@@ -13406,528 +13456,528 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="52" customFormat="1">
-      <c r="A5" s="162" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="120"/>
+      <c r="A5" s="166" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="121"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="123"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="124"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="163"/>
-      <c r="B7" s="164"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="166"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="163"/>
-      <c r="B8" s="164"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="166"/>
+      <c r="A8" s="167"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="170"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="167"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="169"/>
+      <c r="A9" s="171"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="173"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="120"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="111"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="170" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="112"/>
+      <c r="A11" s="174" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="115"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="162" t="s">
+      <c r="A12" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="120"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="111"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="170" t="s">
+      <c r="A13" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="112"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="162" t="s">
+      <c r="A14" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="120"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="111"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="174" t="s">
-        <v>197</v>
-      </c>
-      <c r="B15" s="175"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="176"/>
+      <c r="A15" s="178" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="179"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="180"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="177" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="179"/>
+        <v>78</v>
+      </c>
+      <c r="C16" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="183"/>
     </row>
     <row r="17" spans="1:10" s="53" customFormat="1" ht="64.5" customHeight="1">
       <c r="A17" s="56">
         <v>1</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="183" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="198"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="198"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="199"/>
+        <v>148</v>
+      </c>
+      <c r="C17" s="187" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="202"/>
+      <c r="E17" s="202"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="202"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="203"/>
     </row>
     <row r="18" spans="1:10" s="53" customFormat="1" ht="88.5" customHeight="1">
       <c r="A18" s="56">
         <v>2</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18" s="183" t="s">
-        <v>198</v>
-      </c>
-      <c r="D18" s="198"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="198"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="198"/>
-      <c r="I18" s="198"/>
-      <c r="J18" s="199"/>
+        <v>203</v>
+      </c>
+      <c r="C18" s="187" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="202"/>
+      <c r="E18" s="202"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="203"/>
     </row>
     <row r="19" spans="1:10" s="53" customFormat="1" ht="84.75" customHeight="1">
       <c r="A19" s="56">
         <v>2</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="C19" s="183" t="s">
-        <v>199</v>
-      </c>
-      <c r="D19" s="198"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="198"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="198"/>
-      <c r="I19" s="198"/>
-      <c r="J19" s="199"/>
+        <v>202</v>
+      </c>
+      <c r="C19" s="187" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="202"/>
+      <c r="E19" s="202"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="203"/>
     </row>
     <row r="20" spans="1:10" s="53" customFormat="1">
       <c r="A20" s="56">
         <v>3</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>187</v>
-      </c>
-      <c r="C20" s="187" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="184"/>
-      <c r="E20" s="184"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="184"/>
-      <c r="H20" s="184"/>
-      <c r="I20" s="184"/>
-      <c r="J20" s="185"/>
+        <v>188</v>
+      </c>
+      <c r="C20" s="191" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="188"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="188"/>
+      <c r="J20" s="189"/>
     </row>
     <row r="21" spans="1:10" s="53" customFormat="1">
       <c r="A21" s="56">
         <v>4</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="C21" s="187" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="184"/>
-      <c r="E21" s="184"/>
-      <c r="F21" s="184"/>
-      <c r="G21" s="184"/>
-      <c r="H21" s="184"/>
-      <c r="I21" s="184"/>
-      <c r="J21" s="185"/>
+        <v>190</v>
+      </c>
+      <c r="C21" s="191" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="188"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="188"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="188"/>
+      <c r="J21" s="189"/>
     </row>
     <row r="22" spans="1:10" s="53" customFormat="1" ht="33.75" customHeight="1">
       <c r="A22" s="56">
         <v>5</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" s="183" t="s">
-        <v>207</v>
-      </c>
-      <c r="D22" s="184"/>
-      <c r="E22" s="184"/>
-      <c r="F22" s="184"/>
-      <c r="G22" s="184"/>
-      <c r="H22" s="184"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="185"/>
+        <v>192</v>
+      </c>
+      <c r="C22" s="187" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" s="188"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="188"/>
+      <c r="J22" s="189"/>
     </row>
     <row r="23" spans="1:10" s="53" customFormat="1" ht="34.5" customHeight="1">
       <c r="A23" s="63">
         <v>6</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" s="183" t="s">
-        <v>208</v>
-      </c>
-      <c r="D23" s="184"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="184"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="185"/>
+        <v>194</v>
+      </c>
+      <c r="C23" s="187" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="189"/>
     </row>
     <row r="24" spans="1:10" s="53" customFormat="1">
-      <c r="A24" s="200"/>
-      <c r="B24" s="201"/>
-      <c r="C24" s="201"/>
-      <c r="D24" s="201"/>
-      <c r="E24" s="201"/>
-      <c r="F24" s="201"/>
-      <c r="G24" s="201"/>
-      <c r="H24" s="201"/>
-      <c r="I24" s="201"/>
-      <c r="J24" s="202"/>
+      <c r="A24" s="204"/>
+      <c r="B24" s="205"/>
+      <c r="C24" s="205"/>
+      <c r="D24" s="205"/>
+      <c r="E24" s="205"/>
+      <c r="F24" s="205"/>
+      <c r="G24" s="205"/>
+      <c r="H24" s="205"/>
+      <c r="I24" s="205"/>
+      <c r="J24" s="206"/>
     </row>
     <row r="25" spans="1:10" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="171" t="s">
+      <c r="A25" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="188"/>
-      <c r="C25" s="188"/>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="188"/>
-      <c r="J25" s="203"/>
+      <c r="B25" s="192"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="192"/>
+      <c r="H25" s="192"/>
+      <c r="I25" s="192"/>
+      <c r="J25" s="207"/>
     </row>
     <row r="26" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1">
-      <c r="A26" s="174" t="s">
-        <v>210</v>
-      </c>
-      <c r="B26" s="175"/>
-      <c r="C26" s="175"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="176"/>
+      <c r="A26" s="178" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" s="179"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="179"/>
+      <c r="H26" s="179"/>
+      <c r="I26" s="179"/>
+      <c r="J26" s="180"/>
     </row>
     <row r="27" spans="1:10" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="177" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="179"/>
+        <v>78</v>
+      </c>
+      <c r="C27" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="182"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="182"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="182"/>
+      <c r="I27" s="182"/>
+      <c r="J27" s="183"/>
     </row>
     <row r="28" spans="1:10" s="53" customFormat="1" ht="40.5" customHeight="1">
       <c r="A28" s="56">
         <v>1</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="C28" s="183" t="s">
-        <v>213</v>
-      </c>
-      <c r="D28" s="198"/>
-      <c r="E28" s="198"/>
-      <c r="F28" s="198"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="198"/>
-      <c r="I28" s="198"/>
-      <c r="J28" s="199"/>
+        <v>201</v>
+      </c>
+      <c r="C28" s="187" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="202"/>
+      <c r="E28" s="202"/>
+      <c r="F28" s="202"/>
+      <c r="G28" s="202"/>
+      <c r="H28" s="202"/>
+      <c r="I28" s="202"/>
+      <c r="J28" s="203"/>
     </row>
     <row r="29" spans="1:10" s="53" customFormat="1">
       <c r="A29" s="56">
         <v>2</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="C29" s="183" t="s">
-        <v>205</v>
-      </c>
-      <c r="D29" s="198"/>
-      <c r="E29" s="198"/>
-      <c r="F29" s="198"/>
-      <c r="G29" s="198"/>
-      <c r="H29" s="198"/>
-      <c r="I29" s="198"/>
-      <c r="J29" s="199"/>
+        <v>203</v>
+      </c>
+      <c r="C29" s="187" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="202"/>
+      <c r="E29" s="202"/>
+      <c r="F29" s="202"/>
+      <c r="G29" s="202"/>
+      <c r="H29" s="202"/>
+      <c r="I29" s="202"/>
+      <c r="J29" s="203"/>
     </row>
     <row r="30" spans="1:10" s="53" customFormat="1">
       <c r="A30" s="56">
         <v>2</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="C30" s="183" t="s">
-        <v>206</v>
-      </c>
-      <c r="D30" s="198"/>
-      <c r="E30" s="198"/>
-      <c r="F30" s="198"/>
-      <c r="G30" s="198"/>
-      <c r="H30" s="198"/>
-      <c r="I30" s="198"/>
-      <c r="J30" s="199"/>
+        <v>202</v>
+      </c>
+      <c r="C30" s="187" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" s="202"/>
+      <c r="E30" s="202"/>
+      <c r="F30" s="202"/>
+      <c r="G30" s="202"/>
+      <c r="H30" s="202"/>
+      <c r="I30" s="202"/>
+      <c r="J30" s="203"/>
     </row>
     <row r="31" spans="1:10" s="53" customFormat="1">
       <c r="A31" s="56">
         <v>3</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>187</v>
-      </c>
-      <c r="C31" s="187" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="185"/>
+        <v>188</v>
+      </c>
+      <c r="C31" s="191" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="188"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="188"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="189"/>
     </row>
     <row r="32" spans="1:10" s="53" customFormat="1">
       <c r="A32" s="56">
         <v>4</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="C32" s="187" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="184"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="184"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="184"/>
-      <c r="I32" s="184"/>
-      <c r="J32" s="185"/>
+        <v>190</v>
+      </c>
+      <c r="C32" s="191" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="188"/>
+      <c r="J32" s="189"/>
     </row>
     <row r="33" spans="1:12" s="53" customFormat="1">
       <c r="A33" s="56">
         <v>5</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="C33" s="187" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="184"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="184"/>
-      <c r="J33" s="185"/>
+        <v>192</v>
+      </c>
+      <c r="C33" s="191" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="189"/>
     </row>
     <row r="34" spans="1:12" s="53" customFormat="1" ht="34.5" customHeight="1">
       <c r="A34" s="63">
         <v>6</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="C34" s="183" t="s">
-        <v>214</v>
-      </c>
-      <c r="D34" s="184"/>
-      <c r="E34" s="184"/>
-      <c r="F34" s="184"/>
-      <c r="G34" s="184"/>
-      <c r="H34" s="184"/>
-      <c r="I34" s="184"/>
-      <c r="J34" s="185"/>
+        <v>210</v>
+      </c>
+      <c r="C34" s="187" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="189"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1">
-      <c r="A35" s="159"/>
-      <c r="B35" s="204"/>
-      <c r="C35" s="204"/>
-      <c r="D35" s="204"/>
-      <c r="E35" s="204"/>
-      <c r="F35" s="204"/>
-      <c r="G35" s="204"/>
-      <c r="H35" s="204"/>
-      <c r="I35" s="204"/>
-      <c r="J35" s="205"/>
+      <c r="A35" s="163"/>
+      <c r="B35" s="208"/>
+      <c r="C35" s="208"/>
+      <c r="D35" s="208"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="208"/>
+      <c r="G35" s="208"/>
+      <c r="H35" s="208"/>
+      <c r="I35" s="208"/>
+      <c r="J35" s="209"/>
     </row>
     <row r="36" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A36" s="171" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="172"/>
-      <c r="C36" s="172"/>
-      <c r="D36" s="172"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="173"/>
+      <c r="A36" s="175" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="176"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="176"/>
+      <c r="F36" s="176"/>
+      <c r="G36" s="176"/>
+      <c r="H36" s="176"/>
+      <c r="I36" s="176"/>
+      <c r="J36" s="177"/>
     </row>
     <row r="37" spans="1:12" s="79" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="57" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D37" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="189" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="190"/>
-      <c r="G37" s="190"/>
-      <c r="H37" s="190"/>
-      <c r="I37" s="190"/>
-      <c r="J37" s="190"/>
+      <c r="E37" s="193" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="194"/>
+      <c r="G37" s="194"/>
+      <c r="H37" s="194"/>
+      <c r="I37" s="194"/>
+      <c r="J37" s="194"/>
       <c r="K37" s="53"/>
       <c r="L37" s="53"/>
     </row>
@@ -13936,30 +13986,30 @@
         <v>1</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="62"/>
-      <c r="E38" s="145"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
     </row>
     <row r="39" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="156" t="s">
-        <v>211</v>
-      </c>
-      <c r="B39" s="157"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="157"/>
-      <c r="H39" s="157"/>
-      <c r="I39" s="157"/>
-      <c r="J39" s="158"/>
+      <c r="A39" s="160" t="s">
+        <v>212</v>
+      </c>
+      <c r="B39" s="161"/>
+      <c r="C39" s="161"/>
+      <c r="D39" s="161"/>
+      <c r="E39" s="161"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="161"/>
+      <c r="H39" s="161"/>
+      <c r="I39" s="161"/>
+      <c r="J39" s="162"/>
       <c r="K39" s="53"/>
       <c r="L39" s="53"/>
     </row>
@@ -13968,152 +14018,152 @@
         <v>1</v>
       </c>
       <c r="B40" s="64" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C40" s="65" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="66"/>
-      <c r="E40" s="145" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="110"/>
+      <c r="E40" s="149" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
     </row>
     <row r="41" spans="1:12" s="53" customFormat="1" ht="116.25" customHeight="1">
       <c r="A41" s="67">
         <v>1</v>
       </c>
       <c r="B41" s="68" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C41" s="65" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D41" s="69"/>
-      <c r="E41" s="149" t="s">
-        <v>239</v>
-      </c>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="151"/>
+      <c r="E41" s="153" t="s">
+        <v>260</v>
+      </c>
+      <c r="F41" s="154"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="155"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="52.5" customHeight="1">
       <c r="A42" s="70">
         <v>2</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C42" s="65" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D42" s="71"/>
-      <c r="E42" s="132" t="s">
+      <c r="E42" s="136" t="s">
         <v>229</v>
       </c>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="112"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="115"/>
     </row>
     <row r="43" spans="1:12" s="53" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="142" t="s">
+      <c r="A43" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="143"/>
-      <c r="C43" s="143"/>
-      <c r="D43" s="143"/>
-      <c r="E43" s="143"/>
-      <c r="F43" s="143"/>
-      <c r="G43" s="143"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="143"/>
-      <c r="J43" s="144"/>
+      <c r="B43" s="147"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="147"/>
+      <c r="J43" s="148"/>
     </row>
     <row r="44" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="140" t="s">
+      <c r="B44" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="141"/>
-      <c r="D44" s="132" t="s">
+      <c r="C44" s="145"/>
+      <c r="D44" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="111"/>
-      <c r="J44" s="112"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="115"/>
     </row>
     <row r="45" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="137"/>
-      <c r="B45" s="206"/>
-      <c r="C45" s="206"/>
-      <c r="D45" s="206"/>
-      <c r="E45" s="206"/>
-      <c r="F45" s="206"/>
-      <c r="G45" s="206"/>
-      <c r="H45" s="206"/>
-      <c r="I45" s="206"/>
-      <c r="J45" s="207"/>
+      <c r="A45" s="141"/>
+      <c r="B45" s="210"/>
+      <c r="C45" s="210"/>
+      <c r="D45" s="210"/>
+      <c r="E45" s="210"/>
+      <c r="F45" s="210"/>
+      <c r="G45" s="210"/>
+      <c r="H45" s="210"/>
+      <c r="I45" s="210"/>
+      <c r="J45" s="211"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="70"/>
-      <c r="B46" s="135"/>
-      <c r="C46" s="136"/>
-      <c r="D46" s="132"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="111"/>
-      <c r="G46" s="111"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="111"/>
-      <c r="J46" s="112"/>
+      <c r="B46" s="139"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="115"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="70"/>
-      <c r="B47" s="135"/>
-      <c r="C47" s="136"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="111"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="111"/>
-      <c r="I47" s="111"/>
-      <c r="J47" s="112"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="140"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="115"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="137"/>
-      <c r="B48" s="206"/>
-      <c r="C48" s="206"/>
-      <c r="D48" s="206"/>
-      <c r="E48" s="206"/>
-      <c r="F48" s="206"/>
-      <c r="G48" s="206"/>
-      <c r="H48" s="206"/>
-      <c r="I48" s="206"/>
-      <c r="J48" s="207"/>
+      <c r="A48" s="141"/>
+      <c r="B48" s="210"/>
+      <c r="C48" s="210"/>
+      <c r="D48" s="210"/>
+      <c r="E48" s="210"/>
+      <c r="F48" s="210"/>
+      <c r="G48" s="210"/>
+      <c r="H48" s="210"/>
+      <c r="I48" s="210"/>
+      <c r="J48" s="211"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="70"/>
-      <c r="B49" s="135"/>
-      <c r="C49" s="136"/>
-      <c r="D49" s="132"/>
-      <c r="E49" s="111"/>
-      <c r="F49" s="111"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="111"/>
-      <c r="J49" s="112"/>
+      <c r="B49" s="139"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="115"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
       <c r="A50" s="74" t="s">
@@ -14136,14 +14186,14 @@
       <c r="B51" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="135"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="111"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="111"/>
-      <c r="I51" s="111"/>
-      <c r="J51" s="112"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
+      <c r="J51" s="115"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="70">
@@ -14152,14 +14202,14 @@
       <c r="B52" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="153"/>
-      <c r="D52" s="153"/>
-      <c r="E52" s="153"/>
-      <c r="F52" s="153"/>
-      <c r="G52" s="153"/>
-      <c r="H52" s="153"/>
-      <c r="I52" s="153"/>
-      <c r="J52" s="153"/>
+      <c r="C52" s="157"/>
+      <c r="D52" s="157"/>
+      <c r="E52" s="157"/>
+      <c r="F52" s="157"/>
+      <c r="G52" s="157"/>
+      <c r="H52" s="157"/>
+      <c r="I52" s="157"/>
+      <c r="J52" s="157"/>
     </row>
     <row r="65" s="51" customFormat="1"/>
     <row r="66" s="51" customFormat="1"/>
@@ -14250,7 +14300,7 @@
     <col min="6" max="6" width="14.375" style="38" customWidth="1"/>
     <col min="7" max="7" width="15" style="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="38" customWidth="1"/>
-    <col min="9" max="9" width="15.75" style="38" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="38" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="34.875" style="38" customWidth="1"/>
     <col min="11" max="11" width="8.75" style="38" customWidth="1"/>
     <col min="12" max="16384" width="9" style="38"/>
@@ -14267,8 +14317,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="154" t="s">
-        <v>54</v>
+      <c r="K1" s="158" t="s">
+        <v>56</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -14294,7 +14344,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="155"/>
+      <c r="K2" s="159"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -14312,7 +14362,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="155"/>
+      <c r="K3" s="159"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -14356,18 +14406,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="191" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
-      <c r="F6" s="192"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="192"/>
-      <c r="I6" s="192"/>
-      <c r="J6" s="193"/>
+      <c r="A6" s="195" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="197"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -14377,19 +14427,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>242</v>
-      </c>
       <c r="C7" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="39" t="s">
-        <v>245</v>
-      </c>
       <c r="E7" s="39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>22</v>
@@ -14398,10 +14448,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="I7" s="39" t="s">
         <v>248</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>260</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -14434,34 +14484,34 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="191" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="192"/>
-      <c r="C10" s="192"/>
-      <c r="D10" s="192"/>
-      <c r="E10" s="192"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="192"/>
-      <c r="I10" s="192"/>
-      <c r="J10" s="193"/>
+      <c r="A10" s="195" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="197"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>242</v>
-      </c>
       <c r="C11" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>245</v>
-      </c>
       <c r="E11" s="39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>22</v>
@@ -14470,10 +14520,10 @@
         <v>16</v>
       </c>
       <c r="H11" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="I11" s="39" t="s">
         <v>248</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>260</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -14484,29 +14534,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E12" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="F12" s="103" t="s">
-        <v>162</v>
-      </c>
       <c r="G12" s="42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="J12" s="209" t="s">
-        <v>181</v>
+        <v>170</v>
+      </c>
+      <c r="J12" s="213" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -14514,83 +14564,83 @@
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
       <c r="D13" s="42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F13" s="103" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="J13" s="195"/>
+        <v>170</v>
+      </c>
+      <c r="J13" s="199"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="40">
         <v>2</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F14" s="104" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="G14" s="105" t="s">
-        <v>166</v>
-      </c>
       <c r="H14" s="46" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="40"/>
       <c r="B15" s="46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F15" s="104" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G15" s="105" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J15" s="85" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -14598,31 +14648,31 @@
         <v>3</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14630,26 +14680,26 @@
         <v>4</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F17" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="42" t="s">
         <v>173</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>172</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="40" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J17" s="100"/>
     </row>
@@ -14658,27 +14708,27 @@
         <v>5</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E18" s="102" t="s">
-        <v>156</v>
-      </c>
-      <c r="F18" s="208" t="s">
-        <v>177</v>
-      </c>
-      <c r="G18" s="197"/>
+        <v>157</v>
+      </c>
+      <c r="F18" s="212" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" s="201"/>
       <c r="H18" s="83"/>
       <c r="I18" s="40" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J18" s="101" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14686,26 +14736,26 @@
         <v>6</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H19" s="40"/>
       <c r="I19" s="40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -14737,8 +14787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="106" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:J40"/>
+    <sheetView topLeftCell="A13" zoomScale="106" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14766,8 +14816,8 @@
       <c r="H1" s="90"/>
       <c r="I1" s="90"/>
       <c r="J1" s="90"/>
-      <c r="K1" s="154" t="s">
-        <v>54</v>
+      <c r="K1" s="158" t="s">
+        <v>56</v>
       </c>
       <c r="L1" s="51"/>
       <c r="M1" s="51"/>
@@ -14787,7 +14837,7 @@
       <c r="H2" s="90"/>
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
-      <c r="K2" s="155"/>
+      <c r="K2" s="159"/>
     </row>
     <row r="3" spans="1:17" s="89" customFormat="1">
       <c r="A3" s="90"/>
@@ -14800,7 +14850,7 @@
       <c r="H3" s="90"/>
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
-      <c r="K3" s="155"/>
+      <c r="K3" s="159"/>
     </row>
     <row r="4" spans="1:17" s="89" customFormat="1">
       <c r="A4" s="90"/>
@@ -14815,528 +14865,528 @@
       <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:17" s="89" customFormat="1">
-      <c r="A5" s="162" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="120"/>
+      <c r="A5" s="166" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="121"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="123"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="124"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="163"/>
-      <c r="B7" s="164"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="166"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="163"/>
-      <c r="B8" s="164"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="166"/>
+      <c r="A8" s="167"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="170"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="167"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="169"/>
+      <c r="A9" s="171"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="173"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="120"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="111"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="170" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="112"/>
+      <c r="A11" s="174" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="115"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="162" t="s">
+      <c r="A12" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="120"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="111"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="170" t="s">
+      <c r="A13" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="112"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="162" t="s">
+      <c r="A14" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="120"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="111"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="174" t="s">
-        <v>217</v>
-      </c>
-      <c r="B15" s="175"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="176"/>
+      <c r="A15" s="178" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" s="179"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="180"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="177" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="179"/>
+        <v>78</v>
+      </c>
+      <c r="C16" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="183"/>
     </row>
     <row r="17" spans="1:10" s="53" customFormat="1" ht="48.75" customHeight="1">
       <c r="A17" s="56">
         <v>1</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="183" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="198"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="198"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="199"/>
+        <v>148</v>
+      </c>
+      <c r="C17" s="187" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="202"/>
+      <c r="E17" s="202"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="202"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="203"/>
     </row>
     <row r="18" spans="1:10" s="53" customFormat="1" ht="85.5" customHeight="1">
       <c r="A18" s="56">
         <v>2</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18" s="183" t="s">
-        <v>198</v>
-      </c>
-      <c r="D18" s="198"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="198"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="198"/>
-      <c r="I18" s="198"/>
-      <c r="J18" s="199"/>
+        <v>203</v>
+      </c>
+      <c r="C18" s="187" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="202"/>
+      <c r="E18" s="202"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="203"/>
     </row>
     <row r="19" spans="1:10" s="53" customFormat="1" ht="85.5" customHeight="1">
       <c r="A19" s="56">
         <v>2</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="C19" s="183" t="s">
-        <v>199</v>
-      </c>
-      <c r="D19" s="198"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="198"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="198"/>
-      <c r="I19" s="198"/>
-      <c r="J19" s="199"/>
+        <v>202</v>
+      </c>
+      <c r="C19" s="187" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="202"/>
+      <c r="E19" s="202"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="203"/>
     </row>
     <row r="20" spans="1:10" s="53" customFormat="1">
       <c r="A20" s="56">
         <v>3</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>187</v>
-      </c>
-      <c r="C20" s="187" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="184"/>
-      <c r="E20" s="184"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="184"/>
-      <c r="H20" s="184"/>
-      <c r="I20" s="184"/>
-      <c r="J20" s="185"/>
+        <v>188</v>
+      </c>
+      <c r="C20" s="191" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="188"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="188"/>
+      <c r="J20" s="189"/>
     </row>
     <row r="21" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="56">
         <v>4</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="C21" s="187" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="184"/>
-      <c r="E21" s="184"/>
-      <c r="F21" s="184"/>
-      <c r="G21" s="184"/>
-      <c r="H21" s="184"/>
-      <c r="I21" s="184"/>
-      <c r="J21" s="185"/>
+        <v>190</v>
+      </c>
+      <c r="C21" s="191" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="188"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="188"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="188"/>
+      <c r="J21" s="189"/>
     </row>
     <row r="22" spans="1:10" s="53" customFormat="1" ht="32.25" customHeight="1">
       <c r="A22" s="56">
         <v>5</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" s="183" t="s">
-        <v>207</v>
-      </c>
-      <c r="D22" s="184"/>
-      <c r="E22" s="184"/>
-      <c r="F22" s="184"/>
-      <c r="G22" s="184"/>
-      <c r="H22" s="184"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="185"/>
+        <v>192</v>
+      </c>
+      <c r="C22" s="187" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" s="188"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="188"/>
+      <c r="J22" s="189"/>
     </row>
     <row r="23" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="63">
         <v>6</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" s="183" t="s">
-        <v>208</v>
-      </c>
-      <c r="D23" s="184"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="184"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="185"/>
+        <v>194</v>
+      </c>
+      <c r="C23" s="187" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="189"/>
     </row>
     <row r="24" spans="1:10" s="53" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A24" s="200"/>
-      <c r="B24" s="201"/>
-      <c r="C24" s="201"/>
-      <c r="D24" s="201"/>
-      <c r="E24" s="201"/>
-      <c r="F24" s="201"/>
-      <c r="G24" s="201"/>
-      <c r="H24" s="201"/>
-      <c r="I24" s="201"/>
-      <c r="J24" s="202"/>
+      <c r="A24" s="204"/>
+      <c r="B24" s="205"/>
+      <c r="C24" s="205"/>
+      <c r="D24" s="205"/>
+      <c r="E24" s="205"/>
+      <c r="F24" s="205"/>
+      <c r="G24" s="205"/>
+      <c r="H24" s="205"/>
+      <c r="I24" s="205"/>
+      <c r="J24" s="206"/>
     </row>
     <row r="25" spans="1:10" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="171" t="s">
+      <c r="A25" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="188"/>
-      <c r="C25" s="188"/>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="188"/>
-      <c r="J25" s="203"/>
+      <c r="B25" s="192"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="192"/>
+      <c r="H25" s="192"/>
+      <c r="I25" s="192"/>
+      <c r="J25" s="207"/>
     </row>
     <row r="26" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1">
-      <c r="A26" s="174" t="s">
-        <v>220</v>
-      </c>
-      <c r="B26" s="175"/>
-      <c r="C26" s="175"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="176"/>
+      <c r="A26" s="178" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" s="179"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="179"/>
+      <c r="H26" s="179"/>
+      <c r="I26" s="179"/>
+      <c r="J26" s="180"/>
     </row>
     <row r="27" spans="1:10" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="177" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="179"/>
+        <v>78</v>
+      </c>
+      <c r="C27" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="182"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="182"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="182"/>
+      <c r="I27" s="182"/>
+      <c r="J27" s="183"/>
     </row>
     <row r="28" spans="1:10" s="53" customFormat="1" ht="51" customHeight="1">
       <c r="A28" s="56">
         <v>1</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="C28" s="183" t="s">
-        <v>226</v>
-      </c>
-      <c r="D28" s="198"/>
-      <c r="E28" s="198"/>
-      <c r="F28" s="198"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="198"/>
-      <c r="I28" s="198"/>
-      <c r="J28" s="199"/>
+        <v>201</v>
+      </c>
+      <c r="C28" s="187" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="202"/>
+      <c r="E28" s="202"/>
+      <c r="F28" s="202"/>
+      <c r="G28" s="202"/>
+      <c r="H28" s="202"/>
+      <c r="I28" s="202"/>
+      <c r="J28" s="203"/>
     </row>
     <row r="29" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A29" s="56">
         <v>2</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="C29" s="183" t="s">
-        <v>205</v>
-      </c>
-      <c r="D29" s="198"/>
-      <c r="E29" s="198"/>
-      <c r="F29" s="198"/>
-      <c r="G29" s="198"/>
-      <c r="H29" s="198"/>
-      <c r="I29" s="198"/>
-      <c r="J29" s="199"/>
+        <v>203</v>
+      </c>
+      <c r="C29" s="187" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="202"/>
+      <c r="E29" s="202"/>
+      <c r="F29" s="202"/>
+      <c r="G29" s="202"/>
+      <c r="H29" s="202"/>
+      <c r="I29" s="202"/>
+      <c r="J29" s="203"/>
     </row>
     <row r="30" spans="1:10" s="53" customFormat="1">
       <c r="A30" s="56">
         <v>2</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="C30" s="183" t="s">
-        <v>206</v>
-      </c>
-      <c r="D30" s="198"/>
-      <c r="E30" s="198"/>
-      <c r="F30" s="198"/>
-      <c r="G30" s="198"/>
-      <c r="H30" s="198"/>
-      <c r="I30" s="198"/>
-      <c r="J30" s="199"/>
+        <v>202</v>
+      </c>
+      <c r="C30" s="187" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" s="202"/>
+      <c r="E30" s="202"/>
+      <c r="F30" s="202"/>
+      <c r="G30" s="202"/>
+      <c r="H30" s="202"/>
+      <c r="I30" s="202"/>
+      <c r="J30" s="203"/>
     </row>
     <row r="31" spans="1:10" s="53" customFormat="1">
       <c r="A31" s="56">
         <v>3</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>187</v>
-      </c>
-      <c r="C31" s="187" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="185"/>
+        <v>188</v>
+      </c>
+      <c r="C31" s="191" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="188"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="188"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="189"/>
     </row>
     <row r="32" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="56">
         <v>4</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="C32" s="187" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="184"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="184"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="184"/>
-      <c r="I32" s="184"/>
-      <c r="J32" s="185"/>
+        <v>190</v>
+      </c>
+      <c r="C32" s="191" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="188"/>
+      <c r="J32" s="189"/>
     </row>
     <row r="33" spans="1:12" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="56">
         <v>5</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="C33" s="187" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="184"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="184"/>
-      <c r="J33" s="185"/>
+        <v>192</v>
+      </c>
+      <c r="C33" s="191" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="189"/>
     </row>
     <row r="34" spans="1:12" s="53" customFormat="1" ht="39.75" customHeight="1">
       <c r="A34" s="63">
         <v>6</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="C34" s="183" t="s">
-        <v>227</v>
-      </c>
-      <c r="D34" s="184"/>
-      <c r="E34" s="184"/>
-      <c r="F34" s="184"/>
-      <c r="G34" s="184"/>
-      <c r="H34" s="184"/>
-      <c r="I34" s="184"/>
-      <c r="J34" s="185"/>
+        <v>210</v>
+      </c>
+      <c r="C34" s="187" t="s">
+        <v>228</v>
+      </c>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="189"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1" ht="27" customHeight="1">
-      <c r="A35" s="159"/>
-      <c r="B35" s="204"/>
-      <c r="C35" s="204"/>
-      <c r="D35" s="204"/>
-      <c r="E35" s="204"/>
-      <c r="F35" s="204"/>
-      <c r="G35" s="204"/>
-      <c r="H35" s="204"/>
-      <c r="I35" s="204"/>
-      <c r="J35" s="205"/>
+      <c r="A35" s="163"/>
+      <c r="B35" s="208"/>
+      <c r="C35" s="208"/>
+      <c r="D35" s="208"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="208"/>
+      <c r="G35" s="208"/>
+      <c r="H35" s="208"/>
+      <c r="I35" s="208"/>
+      <c r="J35" s="209"/>
     </row>
     <row r="36" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="171" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="172"/>
-      <c r="C36" s="172"/>
-      <c r="D36" s="172"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="173"/>
+      <c r="A36" s="175" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="176"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="176"/>
+      <c r="F36" s="176"/>
+      <c r="G36" s="176"/>
+      <c r="H36" s="176"/>
+      <c r="I36" s="176"/>
+      <c r="J36" s="177"/>
     </row>
     <row r="37" spans="1:12" s="79" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="57" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D37" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="189" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="190"/>
-      <c r="G37" s="190"/>
-      <c r="H37" s="190"/>
-      <c r="I37" s="190"/>
-      <c r="J37" s="190"/>
+      <c r="E37" s="193" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="194"/>
+      <c r="G37" s="194"/>
+      <c r="H37" s="194"/>
+      <c r="I37" s="194"/>
+      <c r="J37" s="194"/>
       <c r="K37" s="53"/>
       <c r="L37" s="53"/>
     </row>
@@ -15345,30 +15395,30 @@
         <v>1</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="62"/>
-      <c r="E38" s="145"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
     </row>
     <row r="39" spans="1:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A39" s="156" t="s">
-        <v>218</v>
-      </c>
-      <c r="B39" s="157"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="157"/>
-      <c r="H39" s="157"/>
-      <c r="I39" s="157"/>
-      <c r="J39" s="158"/>
+      <c r="A39" s="160" t="s">
+        <v>219</v>
+      </c>
+      <c r="B39" s="161"/>
+      <c r="C39" s="161"/>
+      <c r="D39" s="161"/>
+      <c r="E39" s="161"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="161"/>
+      <c r="H39" s="161"/>
+      <c r="I39" s="161"/>
+      <c r="J39" s="162"/>
       <c r="K39" s="53"/>
       <c r="L39" s="53"/>
     </row>
@@ -15377,152 +15427,152 @@
         <v>1</v>
       </c>
       <c r="B40" s="68" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C40" s="88" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="87"/>
-      <c r="E40" s="149" t="s">
-        <v>255</v>
-      </c>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="151"/>
-    </row>
-    <row r="41" spans="1:12" s="53" customFormat="1" ht="51" customHeight="1">
+      <c r="E40" s="153" t="s">
+        <v>261</v>
+      </c>
+      <c r="F40" s="154"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="155"/>
+    </row>
+    <row r="41" spans="1:12" s="53" customFormat="1" ht="32.25" customHeight="1">
       <c r="A41" s="70">
         <v>2</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>93</v>
+        <v>262</v>
       </c>
       <c r="C41" s="88" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D41" s="86"/>
-      <c r="E41" s="132" t="s">
-        <v>229</v>
-      </c>
-      <c r="F41" s="111"/>
-      <c r="G41" s="111"/>
-      <c r="H41" s="111"/>
-      <c r="I41" s="111"/>
-      <c r="J41" s="112"/>
+      <c r="E41" s="136" t="s">
+        <v>267</v>
+      </c>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="115"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="100.5" customHeight="1">
       <c r="A42" s="70">
         <v>2</v>
       </c>
       <c r="B42" s="84" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C42" s="88" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D42" s="86"/>
-      <c r="E42" s="132" t="s">
-        <v>228</v>
-      </c>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="112"/>
+      <c r="E42" s="136" t="s">
+        <v>265</v>
+      </c>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="115"/>
     </row>
     <row r="43" spans="1:12" s="53" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A43" s="142" t="s">
+      <c r="A43" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="143"/>
-      <c r="C43" s="143"/>
-      <c r="D43" s="143"/>
-      <c r="E43" s="143"/>
-      <c r="F43" s="143"/>
-      <c r="G43" s="143"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="143"/>
-      <c r="J43" s="144"/>
+      <c r="B43" s="147"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="147"/>
+      <c r="J43" s="148"/>
     </row>
     <row r="44" spans="1:12" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A44" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="140" t="s">
+      <c r="B44" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="141"/>
-      <c r="D44" s="132" t="s">
+      <c r="C44" s="145"/>
+      <c r="D44" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="111"/>
-      <c r="J44" s="112"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="115"/>
     </row>
     <row r="45" spans="1:12" s="55" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A45" s="137"/>
-      <c r="B45" s="206"/>
-      <c r="C45" s="206"/>
-      <c r="D45" s="206"/>
-      <c r="E45" s="206"/>
-      <c r="F45" s="206"/>
-      <c r="G45" s="206"/>
-      <c r="H45" s="206"/>
-      <c r="I45" s="206"/>
-      <c r="J45" s="207"/>
+      <c r="A45" s="141"/>
+      <c r="B45" s="210"/>
+      <c r="C45" s="210"/>
+      <c r="D45" s="210"/>
+      <c r="E45" s="210"/>
+      <c r="F45" s="210"/>
+      <c r="G45" s="210"/>
+      <c r="H45" s="210"/>
+      <c r="I45" s="210"/>
+      <c r="J45" s="211"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1" ht="28.5" customHeight="1">
       <c r="A46" s="70"/>
-      <c r="B46" s="135"/>
-      <c r="C46" s="136"/>
-      <c r="D46" s="132"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="111"/>
-      <c r="G46" s="111"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="111"/>
-      <c r="J46" s="112"/>
+      <c r="B46" s="139"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="115"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A47" s="70"/>
-      <c r="B47" s="135"/>
-      <c r="C47" s="136"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="111"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="111"/>
-      <c r="I47" s="111"/>
-      <c r="J47" s="112"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="140"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="115"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A48" s="137"/>
-      <c r="B48" s="206"/>
-      <c r="C48" s="206"/>
-      <c r="D48" s="206"/>
-      <c r="E48" s="206"/>
-      <c r="F48" s="206"/>
-      <c r="G48" s="206"/>
-      <c r="H48" s="206"/>
-      <c r="I48" s="206"/>
-      <c r="J48" s="207"/>
+      <c r="A48" s="141"/>
+      <c r="B48" s="210"/>
+      <c r="C48" s="210"/>
+      <c r="D48" s="210"/>
+      <c r="E48" s="210"/>
+      <c r="F48" s="210"/>
+      <c r="G48" s="210"/>
+      <c r="H48" s="210"/>
+      <c r="I48" s="210"/>
+      <c r="J48" s="211"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="70"/>
-      <c r="B49" s="135"/>
-      <c r="C49" s="136"/>
-      <c r="D49" s="132"/>
-      <c r="E49" s="111"/>
-      <c r="F49" s="111"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="111"/>
-      <c r="J49" s="112"/>
+      <c r="B49" s="139"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="115"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="74" t="s">
@@ -15545,14 +15595,14 @@
       <c r="B51" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="135"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="111"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="111"/>
-      <c r="I51" s="111"/>
-      <c r="J51" s="112"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
+      <c r="J51" s="115"/>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1">
       <c r="A52" s="70">
@@ -15561,14 +15611,14 @@
       <c r="B52" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="153"/>
-      <c r="D52" s="153"/>
-      <c r="E52" s="153"/>
-      <c r="F52" s="153"/>
-      <c r="G52" s="153"/>
-      <c r="H52" s="153"/>
-      <c r="I52" s="153"/>
-      <c r="J52" s="153"/>
+      <c r="C52" s="157"/>
+      <c r="D52" s="157"/>
+      <c r="E52" s="157"/>
+      <c r="F52" s="157"/>
+      <c r="G52" s="157"/>
+      <c r="H52" s="157"/>
+      <c r="I52" s="157"/>
+      <c r="J52" s="157"/>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1"/>
     <row r="54" spans="1:10" ht="15" customHeight="1"/>

--- a/APF/RA006/RA006_APF0201_功能清單設定作業.xlsx
+++ b/APF/RA006/RA006_APF0201_功能清單設定作業.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\RA006\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -47,12 +52,12 @@
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="269">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -939,12 +944,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>輸入型態:string
-最大長度限制:中文200(控制項控制)
-必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 35，並將cursor停留於該欄位且顏色反橘。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>預設起日為今日</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -968,20 +967,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>輸入型態:date
-最大長度限制:英文8(控制項控制)
-如是有URL的功能的新增，則是必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 35，並將cursor停留於該欄位且顏色反橘。
-如輸入日期內容錯誤，出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 21,22</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:date
-最大長度限制:英文8(控制項控制)
-如是有URL的功能的新增，則是必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 35，並將cursor停留於該欄位且顏色反橘。
-如輸入日期內容錯誤，出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 21,23</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>功能名稱</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1059,10 +1044,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>輸入之功能名稱不得存在於APF apf_menu_root 或 apf_menu_node 資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 11</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>輸入之功能代號不得存在於APF apf_menu_node 資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 11</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1147,14 +1128,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">儲存輸入之功能名稱不得存在於APF apf_menu_root 或 apf_menu_node 資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 11，或該筆記錄在儲存前，已被人刪除，則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 13 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">輸入之功能代號不得存在於APF apf_menu_node 資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 11，或該筆記錄在儲存前，已被人刪除，則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 13 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>點選清除重填按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 46。若選擇是，則清除所有欄位，若選擇否，則不做任何動作。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1186,10 +1159,6 @@
   <si>
     <t>功能代號</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入之功能代號必須存在於APF apf_menu_node 資料表中，若不存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 9</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -1286,10 +1255,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>輸入之功能名稱必須存在於APF apf_menu_root 或 apf_menu_node 資料表中，若不存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 9</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>畫面_APF0201MA1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1354,6 +1319,50 @@
   </si>
   <si>
     <t>點選重新載入按鈕，欄位重新載入，回至最近一次編輯初始狀態。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入之功能名稱不得存在於APF apf_menu_root 或 apf_menu_node 資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 49</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+最大長度限制:中文200(控制項控制)
+必填欄位。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:date
+最大長度限制:英文8(控制項控制)
+如是有URL的功能的新增，則是必填欄位。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:date
+最大長度限制:英文8(控制項控制)
+如是有URL的功能的新增，則是必填欄位。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>如是有URL的功能的新增，則是必填欄位，</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+最大長度限制:中文200(控制項控制)
+必填欄位。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">儲存輸入之功能名稱不得存在於APF apf_menu_root 或 apf_menu_node 資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 50，或該筆記錄在儲存前，已被人刪除，則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 13 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">輸入之功能代號不得存在於APF apf_menu_node 資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 50，或該筆記錄在儲存前，已被人刪除，則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 13 </t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1918,7 +1927,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2511,6 +2520,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3560,7 +3587,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3568,6 +3595,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3587,8 +3625,8 @@
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>87</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3601,7 +3639,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3609,6 +3647,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4158,7 +4207,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4166,6 +4215,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4720,7 +4780,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4728,6 +4788,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -10213,7 +10284,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="107" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B1" s="107"/>
       <c r="C1" s="107"/>
@@ -10249,10 +10320,10 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="106" t="s">
@@ -10264,16 +10335,16 @@
         <v>104</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D5" s="106" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="108"/>
       <c r="B6" s="31" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="106" t="s">
@@ -10285,7 +10356,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D7" s="106" t="s">
         <v>101</v>
@@ -10294,7 +10365,7 @@
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="108"/>
       <c r="B8" s="31" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="106" t="s">
@@ -10303,10 +10374,10 @@
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
       <c r="A9" s="108" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D9" s="106" t="s">
         <v>100</v>
@@ -10315,7 +10386,7 @@
     <row r="10" spans="1:4" ht="21" customHeight="1">
       <c r="A10" s="108"/>
       <c r="B10" s="31" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="106" t="s">
@@ -10683,13 +10754,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C14" s="46" t="s">
         <v>158</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>165</v>
@@ -10701,7 +10772,7 @@
         <v>167</v>
       </c>
       <c r="H14" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>170</v>
@@ -10713,13 +10784,13 @@
     <row r="15" spans="1:23">
       <c r="A15" s="40"/>
       <c r="B15" s="46" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C15" s="46" t="s">
         <v>159</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>165</v>
@@ -10731,7 +10802,7 @@
         <v>167</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I15" s="40" t="s">
         <v>171</v>
@@ -11117,8 +11188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O60" sqref="O60"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="N86" sqref="N86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11439,7 +11510,7 @@
     </row>
     <row r="69" spans="1:12" s="82" customFormat="1" ht="20.25" customHeight="1">
       <c r="A69" s="116" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B69" s="114"/>
       <c r="C69" s="114"/>
@@ -11455,7 +11526,7 @@
     </row>
     <row r="70" spans="1:12" s="82" customFormat="1" ht="21" customHeight="1">
       <c r="A70" s="116" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B70" s="114"/>
       <c r="C70" s="114"/>
@@ -11547,8 +11618,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>87</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -11572,7 +11643,7 @@
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
       <c r="P1" s="125" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="16:16">
@@ -11654,8 +11725,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:J51"/>
+    <sheetView topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11907,7 +11978,7 @@
         <v>114</v>
       </c>
       <c r="C17" s="184" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D17" s="185"/>
       <c r="E17" s="185"/>
@@ -11925,7 +11996,7 @@
         <v>147</v>
       </c>
       <c r="C18" s="187" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D18" s="188"/>
       <c r="E18" s="188"/>
@@ -12005,7 +12076,7 @@
         <v>148</v>
       </c>
       <c r="C23" s="191" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D23" s="188"/>
       <c r="E23" s="188"/>
@@ -12152,18 +12223,18 @@
         <v>2</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="C32" s="187" t="s">
-        <v>255</v>
-      </c>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="188"/>
-      <c r="J32" s="188"/>
+        <v>229</v>
+      </c>
+      <c r="C32" s="214" t="s">
+        <v>260</v>
+      </c>
+      <c r="D32" s="215"/>
+      <c r="E32" s="215"/>
+      <c r="F32" s="215"/>
+      <c r="G32" s="215"/>
+      <c r="H32" s="215"/>
+      <c r="I32" s="215"/>
+      <c r="J32" s="216"/>
       <c r="K32" s="95"/>
       <c r="L32" s="92"/>
     </row>
@@ -12172,18 +12243,16 @@
         <v>3</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="C33" s="187" t="s">
-        <v>237</v>
-      </c>
-      <c r="D33" s="188"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="188"/>
+        <v>230</v>
+      </c>
+      <c r="C33" s="217"/>
+      <c r="D33" s="218"/>
+      <c r="E33" s="218"/>
+      <c r="F33" s="218"/>
+      <c r="G33" s="218"/>
+      <c r="H33" s="218"/>
+      <c r="I33" s="218"/>
+      <c r="J33" s="219"/>
       <c r="K33" s="95"/>
       <c r="L33" s="94"/>
     </row>
@@ -12381,7 +12450,7 @@
       <c r="C44" s="61"/>
       <c r="D44" s="62"/>
       <c r="E44" s="149" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F44" s="113"/>
       <c r="G44" s="113"/>
@@ -12403,7 +12472,7 @@
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1">
       <c r="A46" s="160" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B46" s="161"/>
       <c r="C46" s="161"/>
@@ -12489,7 +12558,7 @@
     </row>
     <row r="51" spans="1:10" s="53" customFormat="1">
       <c r="A51" s="150" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B51" s="151"/>
       <c r="C51" s="151"/>
@@ -12533,7 +12602,7 @@
       </c>
       <c r="D53" s="69"/>
       <c r="E53" s="149" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F53" s="113"/>
       <c r="G53" s="113"/>
@@ -12752,7 +12821,7 @@
       <c r="J67" s="157"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="63">
     <mergeCell ref="A42:J42"/>
     <mergeCell ref="E43:J43"/>
     <mergeCell ref="A41:J41"/>
@@ -12768,9 +12837,8 @@
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C32:J32"/>
     <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J33"/>
     <mergeCell ref="A21:J21"/>
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="C30:J30"/>
@@ -12979,19 +13047,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>22</v>
@@ -13000,10 +13068,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -13051,19 +13119,19 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>22</v>
@@ -13072,10 +13140,10 @@
         <v>16</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -13136,7 +13204,7 @@
         <v>70</v>
       </c>
       <c r="J13" s="198" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="22.5" customHeight="1">
@@ -13203,19 +13271,19 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="39" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F18" s="39" t="s">
         <v>22</v>
@@ -13227,7 +13295,7 @@
         <v>90</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J18" s="39" t="s">
         <v>0</v>
@@ -13378,8 +13446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13591,7 +13659,7 @@
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="35.25" customHeight="1">
       <c r="A15" s="178" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B15" s="179"/>
       <c r="C15" s="179"/>
@@ -13629,7 +13697,7 @@
         <v>148</v>
       </c>
       <c r="C17" s="187" t="s">
-        <v>195</v>
+        <v>262</v>
       </c>
       <c r="D17" s="202"/>
       <c r="E17" s="202"/>
@@ -13644,10 +13712,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C18" s="187" t="s">
-        <v>199</v>
+        <v>263</v>
       </c>
       <c r="D18" s="202"/>
       <c r="E18" s="202"/>
@@ -13662,10 +13730,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C19" s="187" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="D19" s="202"/>
       <c r="E19" s="202"/>
@@ -13719,7 +13787,7 @@
         <v>192</v>
       </c>
       <c r="C22" s="187" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D22" s="188"/>
       <c r="E22" s="188"/>
@@ -13737,7 +13805,7 @@
         <v>194</v>
       </c>
       <c r="C23" s="187" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D23" s="188"/>
       <c r="E23" s="188"/>
@@ -13775,7 +13843,7 @@
     </row>
     <row r="26" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1">
       <c r="A26" s="178" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B26" s="179"/>
       <c r="C26" s="179"/>
@@ -13810,10 +13878,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C28" s="187" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="D28" s="202"/>
       <c r="E28" s="202"/>
@@ -13828,10 +13896,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" s="187" t="s">
         <v>203</v>
-      </c>
-      <c r="C29" s="187" t="s">
-        <v>206</v>
       </c>
       <c r="D29" s="202"/>
       <c r="E29" s="202"/>
@@ -13846,10 +13914,10 @@
         <v>2</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C30" s="187" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D30" s="202"/>
       <c r="E30" s="202"/>
@@ -13918,10 +13986,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C34" s="187" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D34" s="188"/>
       <c r="E34" s="188"/>
@@ -13999,7 +14067,7 @@
     </row>
     <row r="39" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="160" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B39" s="161"/>
       <c r="C39" s="161"/>
@@ -14045,7 +14113,7 @@
       </c>
       <c r="D41" s="69"/>
       <c r="E41" s="153" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F41" s="154"/>
       <c r="G41" s="154"/>
@@ -14065,7 +14133,7 @@
       </c>
       <c r="D42" s="71"/>
       <c r="E42" s="136" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F42" s="114"/>
       <c r="G42" s="114"/>
@@ -14427,19 +14495,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>22</v>
@@ -14448,10 +14516,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -14499,19 +14567,19 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>22</v>
@@ -14520,10 +14588,10 @@
         <v>16</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -14586,13 +14654,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C14" s="46" t="s">
         <v>158</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>165</v>
@@ -14604,7 +14672,7 @@
         <v>167</v>
       </c>
       <c r="H14" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>170</v>
@@ -14616,13 +14684,13 @@
     <row r="15" spans="1:23">
       <c r="A15" s="40"/>
       <c r="B15" s="46" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C15" s="46" t="s">
         <v>159</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>165</v>
@@ -14634,7 +14702,7 @@
         <v>167</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I15" s="40" t="s">
         <v>171</v>
@@ -14787,8 +14855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="106" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:J42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="106" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15000,7 +15068,7 @@
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="33.75" customHeight="1">
       <c r="A15" s="178" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B15" s="179"/>
       <c r="C15" s="179"/>
@@ -15038,7 +15106,7 @@
         <v>148</v>
       </c>
       <c r="C17" s="187" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
       <c r="D17" s="202"/>
       <c r="E17" s="202"/>
@@ -15053,10 +15121,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C18" s="187" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
       <c r="D18" s="202"/>
       <c r="E18" s="202"/>
@@ -15071,10 +15139,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C19" s="187" t="s">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="D19" s="202"/>
       <c r="E19" s="202"/>
@@ -15128,7 +15196,7 @@
         <v>192</v>
       </c>
       <c r="C22" s="187" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D22" s="188"/>
       <c r="E22" s="188"/>
@@ -15146,7 +15214,7 @@
         <v>194</v>
       </c>
       <c r="C23" s="187" t="s">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="D23" s="188"/>
       <c r="E23" s="188"/>
@@ -15184,7 +15252,7 @@
     </row>
     <row r="26" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1">
       <c r="A26" s="178" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B26" s="179"/>
       <c r="C26" s="179"/>
@@ -15219,10 +15287,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C28" s="187" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="D28" s="202"/>
       <c r="E28" s="202"/>
@@ -15237,10 +15305,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" s="187" t="s">
         <v>203</v>
-      </c>
-      <c r="C29" s="187" t="s">
-        <v>206</v>
       </c>
       <c r="D29" s="202"/>
       <c r="E29" s="202"/>
@@ -15255,10 +15323,10 @@
         <v>2</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C30" s="187" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D30" s="202"/>
       <c r="E30" s="202"/>
@@ -15327,10 +15395,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C34" s="187" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="D34" s="188"/>
       <c r="E34" s="188"/>
@@ -15395,7 +15463,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="62"/>
@@ -15408,7 +15476,7 @@
     </row>
     <row r="39" spans="1:12" s="55" customFormat="1" ht="16.5" customHeight="1">
       <c r="A39" s="160" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B39" s="161"/>
       <c r="C39" s="161"/>
@@ -15427,14 +15495,14 @@
         <v>1</v>
       </c>
       <c r="B40" s="68" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C40" s="88" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="87"/>
       <c r="E40" s="153" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F40" s="154"/>
       <c r="G40" s="154"/>
@@ -15447,14 +15515,14 @@
         <v>2</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C41" s="88" t="s">
         <v>77</v>
       </c>
       <c r="D41" s="86"/>
       <c r="E41" s="136" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F41" s="114"/>
       <c r="G41" s="114"/>
@@ -15467,14 +15535,14 @@
         <v>2</v>
       </c>
       <c r="B42" s="84" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C42" s="88" t="s">
         <v>77</v>
       </c>
       <c r="D42" s="86"/>
       <c r="E42" s="136" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F42" s="114"/>
       <c r="G42" s="114"/>

--- a/APF/RA006/RA006_APF0201_功能清單設定作業.xlsx
+++ b/APF/RA006/RA006_APF0201_功能清單設定作業.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="267">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -250,10 +250,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>操作功能描述</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Button說明</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -583,17 +579,6 @@
   </si>
   <si>
     <t>使用者由功能清單點選功能清單設定作業時</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">查詢功能清單資訊
-1. 系統人員輸入查詢條件
-2. 系統依查詢條件顯示資料於grid
-維護功能清單資訊
-1. 系統人員點選新增按鈕後新增功能清單資訊 ，系統回應新增成功訊息
-2. 系統人員選取特定功能清單資訊後進行更新，系統回應更新成功訊息
-3. 系統人員選取特定功能清單資訊後點選刪除按鈕，系統回應刪除成功訊息
-</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1927,7 +1912,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2213,45 +2198,66 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2261,38 +2267,155 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2303,12 +2426,6 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2344,132 +2461,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2492,6 +2483,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2510,34 +2507,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3567,13 +3540,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>69</xdr:row>
+          <xdr:row>67</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3619,13 +3592,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>70</xdr:row>
+          <xdr:row>68</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>92</xdr:row>
+          <xdr:row>90</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10270,7 +10243,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -10284,7 +10257,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B1" s="107"/>
       <c r="C1" s="107"/>
@@ -10292,105 +10265,105 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="29" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>55</v>
-      </c>
       <c r="D3" s="106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="108" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D5" s="106" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="108"/>
       <c r="B6" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D7" s="106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="108"/>
       <c r="B8" s="31" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
       <c r="A9" s="108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D9" s="106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
       <c r="A10" s="108"/>
       <c r="B10" s="31" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1" thickBot="1">
@@ -10485,8 +10458,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="158" t="s">
-        <v>56</v>
+      <c r="K1" s="160" t="s">
+        <v>55</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -10512,7 +10485,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="159"/>
+      <c r="K2" s="161"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -10530,7 +10503,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="159"/>
+      <c r="K3" s="161"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -10574,18 +10547,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="195" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="197"/>
+      <c r="A6" s="197" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="198"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="198"/>
+      <c r="H6" s="198"/>
+      <c r="I6" s="198"/>
+      <c r="J6" s="199"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -10616,10 +10589,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -10652,18 +10625,18 @@
       <c r="J9" s="90"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="195" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="197"/>
+      <c r="A10" s="197" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="198"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="198"/>
+      <c r="I10" s="198"/>
+      <c r="J10" s="199"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
@@ -10688,10 +10661,10 @@
         <v>16</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -10702,29 +10675,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="46" t="s">
-        <v>117</v>
-      </c>
       <c r="D12" s="42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F12" s="103" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="J12" s="213" t="s">
-        <v>182</v>
+        <v>168</v>
+      </c>
+      <c r="J12" s="215" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -10732,83 +10705,83 @@
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
       <c r="D13" s="42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F13" s="103" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="J13" s="199"/>
+        <v>168</v>
+      </c>
+      <c r="J13" s="201"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="40">
         <v>2</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E14" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="104" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="105" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="104" t="s">
+      <c r="H14" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="I14" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="G14" s="105" t="s">
-        <v>167</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>170</v>
-      </c>
       <c r="J14" s="38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="40"/>
       <c r="B15" s="46" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E15" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" s="104" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="105" t="s">
         <v>165</v>
       </c>
-      <c r="F15" s="104" t="s">
+      <c r="H15" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="G15" s="105" t="s">
-        <v>167</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>171</v>
-      </c>
       <c r="J15" s="85" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -10816,31 +10789,31 @@
         <v>3</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10848,26 +10821,26 @@
         <v>4</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J17" s="100"/>
     </row>
@@ -10876,27 +10849,27 @@
         <v>5</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D18" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="214" t="s">
         <v>176</v>
       </c>
-      <c r="E18" s="102" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" s="212" t="s">
-        <v>178</v>
-      </c>
-      <c r="G18" s="201"/>
+      <c r="G18" s="203"/>
       <c r="H18" s="83"/>
       <c r="I18" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J18" s="101" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10904,26 +10877,26 @@
         <v>6</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H19" s="40"/>
       <c r="I19" s="40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -11052,10 +11025,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>46</v>
       </c>
       <c r="D6" s="20">
         <v>41563</v>
@@ -11186,10 +11159,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="N86" sqref="N86"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11202,17 +11175,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="125" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="M1" s="112" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="126"/>
+      <c r="M2" s="113"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="126"/>
+      <c r="M3" s="113"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -11229,240 +11202,210 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="118"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="128"/>
     </row>
     <row r="6" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="122" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="124"/>
+      <c r="A6" s="129" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="130"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="131"/>
     </row>
     <row r="7" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="121" t="s">
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="111"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="118"/>
     </row>
     <row r="8" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="126" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="114" t="s">
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="111"/>
+    </row>
+    <row r="9" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="114" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="118"/>
+    </row>
+    <row r="10" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A10" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="115"/>
-    </row>
-    <row r="9" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="121" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="111"/>
-    </row>
-    <row r="10" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="112" t="s">
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="114" t="s">
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="111"/>
+    </row>
+    <row r="11" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="122" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="125" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="118"/>
+    </row>
+    <row r="12" spans="1:13" s="55" customFormat="1" ht="16.5">
+      <c r="A12" s="126" t="s">
         <v>109</v>
       </c>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="115"/>
-    </row>
-    <row r="11" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="119" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="109" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="111"/>
-    </row>
-    <row r="12" spans="1:13" s="55" customFormat="1" ht="16.5">
-      <c r="A12" s="112" t="s">
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="111"/>
+    </row>
+    <row r="13" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="122" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="118"/>
+    </row>
+    <row r="14" spans="1:13" s="55" customFormat="1" ht="16.5">
+      <c r="A14" s="126" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="115"/>
-    </row>
-    <row r="13" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="119" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="109" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="111"/>
-    </row>
-    <row r="14" spans="1:13" s="55" customFormat="1" ht="16.5">
-      <c r="A14" s="112" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="115"/>
-    </row>
-    <row r="15" spans="1:13" s="80" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="116" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="132"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="133"/>
-    </row>
-    <row r="16" spans="1:13" s="80" customFormat="1" ht="130.5" customHeight="1">
-      <c r="A16" s="134" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="135"/>
-    </row>
-    <row r="17" spans="1:12" s="82" customFormat="1" ht="16.5">
-      <c r="A17" s="116" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="115"/>
-    </row>
-    <row r="18" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="19" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="20" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="21" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="22" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="23" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="24" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="25" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="26" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="27" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="28" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="29" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="30" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="31" spans="1:12" s="82" customFormat="1" ht="14.25"/>
-    <row r="32" spans="1:12" s="82" customFormat="1" ht="14.25"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="111"/>
+    </row>
+    <row r="15" spans="1:13" s="82" customFormat="1" ht="16.5">
+      <c r="A15" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="111"/>
+    </row>
+    <row r="16" spans="1:13" s="82" customFormat="1" ht="14.25"/>
+    <row r="17" s="82" customFormat="1" ht="14.25"/>
+    <row r="18" s="82" customFormat="1" ht="14.25"/>
+    <row r="19" s="82" customFormat="1" ht="14.25"/>
+    <row r="20" s="82" customFormat="1" ht="14.25"/>
+    <row r="21" s="82" customFormat="1" ht="14.25"/>
+    <row r="22" s="82" customFormat="1" ht="14.25"/>
+    <row r="23" s="82" customFormat="1" ht="14.25"/>
+    <row r="24" s="82" customFormat="1" ht="14.25"/>
+    <row r="25" s="82" customFormat="1" ht="14.25"/>
+    <row r="26" s="82" customFormat="1" ht="14.25"/>
+    <row r="27" s="82" customFormat="1" ht="14.25"/>
+    <row r="28" s="82" customFormat="1" ht="14.25"/>
+    <row r="29" s="82" customFormat="1" ht="14.25"/>
+    <row r="30" s="82" customFormat="1" ht="14.25"/>
+    <row r="31" s="82" customFormat="1" ht="14.25"/>
+    <row r="32" s="82" customFormat="1" ht="14.25"/>
     <row r="33" s="82" customFormat="1" ht="14.25"/>
     <row r="34" s="82" customFormat="1" ht="14.25"/>
     <row r="35" s="82" customFormat="1" ht="14.25"/>
@@ -11490,74 +11433,56 @@
     <row r="57" s="82" customFormat="1" ht="14.25"/>
     <row r="58" s="82" customFormat="1" ht="14.25"/>
     <row r="59" s="82" customFormat="1" ht="14.25"/>
-    <row r="60" s="82" customFormat="1" ht="14.25"/>
-    <row r="61" s="82" customFormat="1" ht="14.25"/>
-    <row r="68" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A68" s="129" t="s">
-        <v>48</v>
-      </c>
-      <c r="B68" s="130"/>
-      <c r="C68" s="130"/>
-      <c r="D68" s="130"/>
-      <c r="E68" s="130"/>
-      <c r="F68" s="130"/>
-      <c r="G68" s="130"/>
-      <c r="H68" s="130"/>
-      <c r="I68" s="130"/>
-      <c r="J68" s="130"/>
-      <c r="K68" s="130"/>
-      <c r="L68" s="131"/>
-    </row>
-    <row r="69" spans="1:12" s="82" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A69" s="116" t="s">
-        <v>247</v>
-      </c>
-      <c r="B69" s="114"/>
-      <c r="C69" s="114"/>
-      <c r="D69" s="114"/>
-      <c r="E69" s="114"/>
-      <c r="F69" s="114"/>
-      <c r="G69" s="114"/>
-      <c r="H69" s="114"/>
-      <c r="I69" s="114"/>
-      <c r="J69" s="114"/>
-      <c r="K69" s="114"/>
-      <c r="L69" s="115"/>
-    </row>
-    <row r="70" spans="1:12" s="82" customFormat="1" ht="21" customHeight="1">
-      <c r="A70" s="116" t="s">
-        <v>258</v>
-      </c>
-      <c r="B70" s="114"/>
-      <c r="C70" s="114"/>
-      <c r="D70" s="114"/>
-      <c r="E70" s="114"/>
-      <c r="F70" s="114"/>
-      <c r="G70" s="114"/>
-      <c r="H70" s="114"/>
-      <c r="I70" s="114"/>
-      <c r="J70" s="114"/>
-      <c r="K70" s="114"/>
-      <c r="L70" s="115"/>
+    <row r="66" spans="1:12" ht="31.5" customHeight="1">
+      <c r="A66" s="119" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" s="120"/>
+      <c r="C66" s="120"/>
+      <c r="D66" s="120"/>
+      <c r="E66" s="120"/>
+      <c r="F66" s="120"/>
+      <c r="G66" s="120"/>
+      <c r="H66" s="120"/>
+      <c r="I66" s="120"/>
+      <c r="J66" s="120"/>
+      <c r="K66" s="120"/>
+      <c r="L66" s="121"/>
+    </row>
+    <row r="67" spans="1:12" s="82" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A67" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="B67" s="110"/>
+      <c r="C67" s="110"/>
+      <c r="D67" s="110"/>
+      <c r="E67" s="110"/>
+      <c r="F67" s="110"/>
+      <c r="G67" s="110"/>
+      <c r="H67" s="110"/>
+      <c r="I67" s="110"/>
+      <c r="J67" s="110"/>
+      <c r="K67" s="110"/>
+      <c r="L67" s="111"/>
+    </row>
+    <row r="68" spans="1:12" s="82" customFormat="1" ht="21" customHeight="1">
+      <c r="A68" s="109" t="s">
+        <v>256</v>
+      </c>
+      <c r="B68" s="110"/>
+      <c r="C68" s="110"/>
+      <c r="D68" s="110"/>
+      <c r="E68" s="110"/>
+      <c r="F68" s="110"/>
+      <c r="G68" s="110"/>
+      <c r="H68" s="110"/>
+      <c r="I68" s="110"/>
+      <c r="J68" s="110"/>
+      <c r="K68" s="110"/>
+      <c r="L68" s="111"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A70:L70"/>
-    <mergeCell ref="A69:L69"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A68:L68"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
+  <mergeCells count="23">
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
@@ -11567,6 +11492,20 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A68:L68"/>
+    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A66:L66"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -11587,13 +11526,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>69</xdr:row>
+                <xdr:row>67</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -11612,13 +11551,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>68</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>92</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -11642,15 +11581,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="125" t="s">
-        <v>246</v>
+      <c r="P1" s="112" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="126"/>
+      <c r="P2" s="113"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="126"/>
+      <c r="P3" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11725,8 +11664,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:J35"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11756,8 +11695,8 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="158" t="s">
-        <v>56</v>
+      <c r="K1" s="160" t="s">
+        <v>55</v>
       </c>
       <c r="L1" s="51"/>
       <c r="M1" s="51"/>
@@ -11777,7 +11716,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="159"/>
+      <c r="K2" s="161"/>
     </row>
     <row r="3" spans="1:17" s="52" customFormat="1">
       <c r="A3" s="44"/>
@@ -11790,7 +11729,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="159"/>
+      <c r="K3" s="161"/>
     </row>
     <row r="4" spans="1:17" s="52" customFormat="1">
       <c r="A4" s="44"/>
@@ -11805,416 +11744,416 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="52" customFormat="1">
-      <c r="A5" s="166" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="A5" s="171" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="122"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124"/>
+      <c r="A6" s="129"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="131"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="167"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
+      <c r="A7" s="172"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="175"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="167"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="170"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="173"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="175"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="171"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="173"/>
+      <c r="A9" s="176"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="178"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="111"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="174" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="115"/>
+      <c r="A11" s="179" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="111"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="166" t="s">
+      <c r="A12" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="111"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="174" t="s">
+      <c r="A13" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="111"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="111"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="178" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="179"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="180"/>
+      <c r="A15" s="142" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="152"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="153"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="181" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="183"/>
+        <v>77</v>
+      </c>
+      <c r="C16" s="138" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="144"/>
     </row>
     <row r="17" spans="1:12" s="53" customFormat="1">
       <c r="A17" s="56">
         <v>1</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="184" t="s">
-        <v>225</v>
-      </c>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="186"/>
+        <v>112</v>
+      </c>
+      <c r="C17" s="154" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="155"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="156"/>
     </row>
     <row r="18" spans="1:12" s="53" customFormat="1" ht="30.75" customHeight="1">
       <c r="A18" s="56">
         <v>2</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="187" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18" s="188"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="188"/>
-      <c r="J18" s="189"/>
+        <v>145</v>
+      </c>
+      <c r="C18" s="157" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="145"/>
     </row>
     <row r="19" spans="1:12" s="53" customFormat="1" ht="33.75" customHeight="1">
       <c r="A19" s="56">
         <v>3</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="187" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="188"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="188"/>
-      <c r="J19" s="189"/>
+        <v>114</v>
+      </c>
+      <c r="C19" s="157" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="145"/>
     </row>
     <row r="20" spans="1:12" s="53" customFormat="1">
-      <c r="A20" s="139"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="140"/>
+      <c r="A20" s="136"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="158"/>
     </row>
     <row r="21" spans="1:12" s="53" customFormat="1">
-      <c r="A21" s="178" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="179"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="180"/>
+      <c r="A21" s="142" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="152"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="153"/>
     </row>
     <row r="22" spans="1:12" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="181" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="182"/>
-      <c r="E22" s="182"/>
-      <c r="F22" s="182"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="182"/>
-      <c r="I22" s="182"/>
-      <c r="J22" s="183"/>
+        <v>77</v>
+      </c>
+      <c r="C22" s="138" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="144"/>
     </row>
     <row r="23" spans="1:12" s="53" customFormat="1">
       <c r="A23" s="56">
         <v>1</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="C23" s="191" t="s">
-        <v>227</v>
-      </c>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="189"/>
+        <v>146</v>
+      </c>
+      <c r="C23" s="140" t="s">
+        <v>225</v>
+      </c>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="145"/>
     </row>
     <row r="24" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A24" s="56">
         <v>2</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="191" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
-      <c r="J24" s="189"/>
+        <v>78</v>
+      </c>
+      <c r="C24" s="140" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="141"/>
+      <c r="J24" s="145"/>
     </row>
     <row r="25" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A25" s="56">
         <v>3</v>
       </c>
       <c r="B25" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="191" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="188"/>
-      <c r="J25" s="189"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="141"/>
+      <c r="J25" s="145"/>
     </row>
     <row r="26" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A26" s="56">
         <v>4</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="191" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="188"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="188"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="188"/>
-      <c r="I26" s="188"/>
-      <c r="J26" s="189"/>
+        <v>79</v>
+      </c>
+      <c r="C26" s="140" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="141"/>
+      <c r="J26" s="145"/>
     </row>
     <row r="27" spans="1:12" s="53" customFormat="1">
-      <c r="A27" s="163"/>
-      <c r="B27" s="164"/>
-      <c r="C27" s="164"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="164"/>
-      <c r="F27" s="164"/>
-      <c r="G27" s="164"/>
-      <c r="H27" s="164"/>
-      <c r="I27" s="164"/>
-      <c r="J27" s="165"/>
+      <c r="A27" s="168"/>
+      <c r="B27" s="169"/>
+      <c r="C27" s="169"/>
+      <c r="D27" s="169"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="169"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="170"/>
     </row>
     <row r="28" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="175" t="s">
+      <c r="A28" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="176"/>
-      <c r="C28" s="176"/>
-      <c r="D28" s="176"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="176"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="177"/>
+      <c r="B28" s="180"/>
+      <c r="C28" s="180"/>
+      <c r="D28" s="180"/>
+      <c r="E28" s="180"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="180"/>
+      <c r="H28" s="180"/>
+      <c r="I28" s="180"/>
+      <c r="J28" s="181"/>
     </row>
     <row r="29" spans="1:12" s="53" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="178" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="179"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="179"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="179"/>
-      <c r="J29" s="180"/>
+      <c r="A29" s="142" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="152"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="153"/>
     </row>
     <row r="30" spans="1:12" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="181" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="182"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="182"/>
-      <c r="J30" s="183"/>
+        <v>77</v>
+      </c>
+      <c r="C30" s="138" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="139"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="144"/>
     </row>
     <row r="31" spans="1:12" s="53" customFormat="1">
       <c r="A31" s="56">
         <v>1</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="191" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="188"/>
+        <v>112</v>
+      </c>
+      <c r="C31" s="140" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="141"/>
+      <c r="J31" s="141"/>
       <c r="K31" s="95"/>
       <c r="L31" s="93"/>
     </row>
@@ -12223,18 +12162,18 @@
         <v>2</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="C32" s="214" t="s">
-        <v>260</v>
-      </c>
-      <c r="D32" s="215"/>
-      <c r="E32" s="215"/>
-      <c r="F32" s="215"/>
-      <c r="G32" s="215"/>
-      <c r="H32" s="215"/>
-      <c r="I32" s="215"/>
-      <c r="J32" s="216"/>
+        <v>227</v>
+      </c>
+      <c r="C32" s="146" t="s">
+        <v>258</v>
+      </c>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="148"/>
       <c r="K32" s="95"/>
       <c r="L32" s="92"/>
     </row>
@@ -12243,46 +12182,46 @@
         <v>3</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="C33" s="217"/>
-      <c r="D33" s="218"/>
-      <c r="E33" s="218"/>
-      <c r="F33" s="218"/>
-      <c r="G33" s="218"/>
-      <c r="H33" s="218"/>
-      <c r="I33" s="218"/>
-      <c r="J33" s="219"/>
+        <v>228</v>
+      </c>
+      <c r="C33" s="149"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="151"/>
       <c r="K33" s="95"/>
       <c r="L33" s="94"/>
     </row>
     <row r="34" spans="1:12" s="53" customFormat="1">
-      <c r="A34" s="139"/>
-      <c r="B34" s="156"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="156"/>
-      <c r="H34" s="156"/>
-      <c r="I34" s="156"/>
-      <c r="J34" s="156"/>
+      <c r="A34" s="136"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="137"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="137"/>
+      <c r="H34" s="137"/>
+      <c r="I34" s="137"/>
+      <c r="J34" s="137"/>
       <c r="K34" s="95"/>
       <c r="L34" s="94"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1">
-      <c r="A35" s="178" t="s">
-        <v>133</v>
-      </c>
-      <c r="B35" s="190"/>
-      <c r="C35" s="190"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="190"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="190"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="190"/>
-      <c r="J35" s="190"/>
+      <c r="A35" s="142" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="143"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="143"/>
       <c r="K35" s="95"/>
       <c r="L35" s="92"/>
     </row>
@@ -12291,18 +12230,18 @@
         <v>6</v>
       </c>
       <c r="B36" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="181" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="182"/>
-      <c r="E36" s="182"/>
-      <c r="F36" s="182"/>
-      <c r="G36" s="182"/>
-      <c r="H36" s="182"/>
-      <c r="I36" s="182"/>
-      <c r="J36" s="182"/>
+        <v>77</v>
+      </c>
+      <c r="C36" s="138" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="139"/>
+      <c r="E36" s="139"/>
+      <c r="F36" s="139"/>
+      <c r="G36" s="139"/>
+      <c r="H36" s="139"/>
+      <c r="I36" s="139"/>
+      <c r="J36" s="139"/>
       <c r="K36" s="95"/>
       <c r="L36" s="94"/>
     </row>
@@ -12311,18 +12250,18 @@
         <v>1</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="191" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="188"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="188"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="188"/>
-      <c r="J37" s="188"/>
+        <v>113</v>
+      </c>
+      <c r="C37" s="140" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="141"/>
+      <c r="E37" s="141"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="141"/>
+      <c r="H37" s="141"/>
+      <c r="I37" s="141"/>
+      <c r="J37" s="141"/>
       <c r="K37" s="95"/>
       <c r="L37" s="94"/>
     </row>
@@ -12331,18 +12270,18 @@
         <v>2</v>
       </c>
       <c r="B38" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="191" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="188"/>
-      <c r="E38" s="188"/>
-      <c r="F38" s="188"/>
-      <c r="G38" s="188"/>
-      <c r="H38" s="188"/>
-      <c r="I38" s="188"/>
-      <c r="J38" s="188"/>
+        <v>78</v>
+      </c>
+      <c r="C38" s="140" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="141"/>
+      <c r="E38" s="141"/>
+      <c r="F38" s="141"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="141"/>
+      <c r="I38" s="141"/>
+      <c r="J38" s="141"/>
       <c r="K38" s="95"/>
       <c r="L38" s="94"/>
     </row>
@@ -12351,18 +12290,18 @@
         <v>3</v>
       </c>
       <c r="B39" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="191" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="188"/>
-      <c r="E39" s="188"/>
-      <c r="F39" s="188"/>
-      <c r="G39" s="188"/>
-      <c r="H39" s="188"/>
-      <c r="I39" s="188"/>
-      <c r="J39" s="188"/>
+      <c r="D39" s="141"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="141"/>
+      <c r="H39" s="141"/>
+      <c r="I39" s="141"/>
+      <c r="J39" s="141"/>
       <c r="K39" s="95"/>
       <c r="L39" s="94"/>
     </row>
@@ -12371,72 +12310,72 @@
         <v>4</v>
       </c>
       <c r="B40" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="191" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="188"/>
-      <c r="E40" s="188"/>
-      <c r="F40" s="188"/>
-      <c r="G40" s="188"/>
-      <c r="H40" s="188"/>
-      <c r="I40" s="188"/>
-      <c r="J40" s="188"/>
+        <v>79</v>
+      </c>
+      <c r="C40" s="140" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="141"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="141"/>
+      <c r="H40" s="141"/>
+      <c r="I40" s="141"/>
+      <c r="J40" s="141"/>
       <c r="K40" s="95"/>
       <c r="L40" s="92"/>
     </row>
     <row r="41" spans="1:12" s="53" customFormat="1">
-      <c r="A41" s="139"/>
-      <c r="B41" s="156"/>
-      <c r="C41" s="156"/>
-      <c r="D41" s="156"/>
-      <c r="E41" s="156"/>
-      <c r="F41" s="156"/>
-      <c r="G41" s="156"/>
-      <c r="H41" s="156"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="156"/>
+      <c r="A41" s="136"/>
+      <c r="B41" s="137"/>
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137"/>
+      <c r="J41" s="137"/>
       <c r="K41" s="95"/>
       <c r="L41" s="92"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="175" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="192"/>
-      <c r="C42" s="192"/>
-      <c r="D42" s="192"/>
-      <c r="E42" s="192"/>
-      <c r="F42" s="192"/>
-      <c r="G42" s="192"/>
-      <c r="H42" s="192"/>
-      <c r="I42" s="192"/>
-      <c r="J42" s="192"/>
+      <c r="A42" s="132" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="133"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="133"/>
+      <c r="E42" s="133"/>
+      <c r="F42" s="133"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="133"/>
+      <c r="I42" s="133"/>
+      <c r="J42" s="133"/>
       <c r="K42" s="95"/>
       <c r="L42" s="92"/>
     </row>
     <row r="43" spans="1:12" s="55" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="57" t="s">
+      <c r="C43" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="58" t="s">
+      <c r="D43" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="59" t="s">
+      <c r="E43" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="193" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="194"/>
-      <c r="G43" s="194"/>
-      <c r="H43" s="194"/>
-      <c r="I43" s="194"/>
-      <c r="J43" s="194"/>
+      <c r="F43" s="135"/>
+      <c r="G43" s="135"/>
+      <c r="H43" s="135"/>
+      <c r="I43" s="135"/>
+      <c r="J43" s="135"/>
       <c r="K43" s="53"/>
       <c r="L43" s="53"/>
     </row>
@@ -12445,334 +12384,334 @@
         <v>1</v>
       </c>
       <c r="B44" s="60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C44" s="61"/>
       <c r="D44" s="62"/>
-      <c r="E44" s="149" t="s">
-        <v>228</v>
-      </c>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="113"/>
+      <c r="E44" s="193" t="s">
+        <v>226</v>
+      </c>
+      <c r="F44" s="124"/>
+      <c r="G44" s="124"/>
+      <c r="H44" s="124"/>
+      <c r="I44" s="124"/>
+      <c r="J44" s="124"/>
     </row>
     <row r="45" spans="1:12" s="53" customFormat="1">
       <c r="A45" s="63"/>
-      <c r="B45" s="156"/>
-      <c r="C45" s="156"/>
-      <c r="D45" s="156"/>
-      <c r="E45" s="156"/>
-      <c r="F45" s="156"/>
-      <c r="G45" s="156"/>
-      <c r="H45" s="156"/>
-      <c r="I45" s="156"/>
-      <c r="J45" s="140"/>
+      <c r="B45" s="137"/>
+      <c r="C45" s="137"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="137"/>
+      <c r="F45" s="137"/>
+      <c r="G45" s="137"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="137"/>
+      <c r="J45" s="158"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1">
-      <c r="A46" s="160" t="s">
-        <v>255</v>
-      </c>
-      <c r="B46" s="161"/>
-      <c r="C46" s="161"/>
-      <c r="D46" s="161"/>
-      <c r="E46" s="161"/>
-      <c r="F46" s="161"/>
-      <c r="G46" s="161"/>
-      <c r="H46" s="161"/>
-      <c r="I46" s="161"/>
-      <c r="J46" s="162"/>
+      <c r="A46" s="165" t="s">
+        <v>253</v>
+      </c>
+      <c r="B46" s="166"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="166"/>
+      <c r="E46" s="166"/>
+      <c r="F46" s="166"/>
+      <c r="G46" s="166"/>
+      <c r="H46" s="166"/>
+      <c r="I46" s="166"/>
+      <c r="J46" s="167"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="56">
         <v>1</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="66"/>
-      <c r="E47" s="149" t="s">
-        <v>69</v>
-      </c>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="113"/>
-      <c r="J47" s="113"/>
+      <c r="E47" s="193" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="124"/>
+      <c r="G47" s="124"/>
+      <c r="H47" s="124"/>
+      <c r="I47" s="124"/>
+      <c r="J47" s="124"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1">
       <c r="A48" s="67">
         <v>2</v>
       </c>
       <c r="B48" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C48" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="69"/>
-      <c r="E48" s="153" t="s">
-        <v>131</v>
-      </c>
-      <c r="F48" s="154"/>
-      <c r="G48" s="154"/>
-      <c r="H48" s="154"/>
-      <c r="I48" s="154"/>
-      <c r="J48" s="155"/>
+      <c r="E48" s="162" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" s="163"/>
+      <c r="G48" s="163"/>
+      <c r="H48" s="163"/>
+      <c r="I48" s="163"/>
+      <c r="J48" s="164"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1">
       <c r="A49" s="70">
         <v>3</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="71"/>
-      <c r="E49" s="136" t="s">
-        <v>132</v>
-      </c>
-      <c r="F49" s="114"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="114"/>
-      <c r="I49" s="114"/>
-      <c r="J49" s="115"/>
+      <c r="E49" s="182" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" s="110"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="111"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1">
       <c r="A50" s="72"/>
-      <c r="B50" s="156"/>
-      <c r="C50" s="156"/>
-      <c r="D50" s="156"/>
-      <c r="E50" s="156"/>
-      <c r="F50" s="156"/>
-      <c r="G50" s="156"/>
-      <c r="H50" s="156"/>
-      <c r="I50" s="156"/>
-      <c r="J50" s="140"/>
+      <c r="B50" s="137"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="137"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="137"/>
+      <c r="J50" s="158"/>
     </row>
     <row r="51" spans="1:10" s="53" customFormat="1">
-      <c r="A51" s="150" t="s">
-        <v>256</v>
-      </c>
-      <c r="B51" s="151"/>
-      <c r="C51" s="151"/>
-      <c r="D51" s="151"/>
-      <c r="E51" s="151"/>
-      <c r="F51" s="151"/>
-      <c r="G51" s="151"/>
-      <c r="H51" s="151"/>
-      <c r="I51" s="151"/>
-      <c r="J51" s="152"/>
+      <c r="A51" s="194" t="s">
+        <v>254</v>
+      </c>
+      <c r="B51" s="195"/>
+      <c r="C51" s="195"/>
+      <c r="D51" s="195"/>
+      <c r="E51" s="195"/>
+      <c r="F51" s="195"/>
+      <c r="G51" s="195"/>
+      <c r="H51" s="195"/>
+      <c r="I51" s="195"/>
+      <c r="J51" s="196"/>
     </row>
     <row r="52" spans="1:10" s="53" customFormat="1">
       <c r="A52" s="56">
         <v>1</v>
       </c>
       <c r="B52" s="83" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C52" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="66"/>
-      <c r="E52" s="149" t="s">
-        <v>156</v>
-      </c>
-      <c r="F52" s="113"/>
-      <c r="G52" s="113"/>
-      <c r="H52" s="113"/>
-      <c r="I52" s="113"/>
-      <c r="J52" s="113"/>
+      <c r="E52" s="193" t="s">
+        <v>154</v>
+      </c>
+      <c r="F52" s="124"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="124"/>
+      <c r="I52" s="124"/>
+      <c r="J52" s="124"/>
     </row>
     <row r="53" spans="1:10" s="53" customFormat="1" ht="66" customHeight="1">
       <c r="A53" s="56">
         <v>2</v>
       </c>
       <c r="B53" s="83" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C53" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="69"/>
-      <c r="E53" s="149" t="s">
-        <v>224</v>
-      </c>
-      <c r="F53" s="113"/>
-      <c r="G53" s="113"/>
-      <c r="H53" s="113"/>
-      <c r="I53" s="113"/>
-      <c r="J53" s="113"/>
+      <c r="E53" s="193" t="s">
+        <v>222</v>
+      </c>
+      <c r="F53" s="124"/>
+      <c r="G53" s="124"/>
+      <c r="H53" s="124"/>
+      <c r="I53" s="124"/>
+      <c r="J53" s="124"/>
     </row>
     <row r="54" spans="1:10" s="53" customFormat="1">
       <c r="A54" s="56">
         <v>3</v>
       </c>
       <c r="B54" s="83" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C54" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="69"/>
-      <c r="E54" s="153" t="s">
-        <v>154</v>
-      </c>
-      <c r="F54" s="154"/>
-      <c r="G54" s="154"/>
-      <c r="H54" s="154"/>
-      <c r="I54" s="154"/>
-      <c r="J54" s="155"/>
+      <c r="E54" s="162" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" s="163"/>
+      <c r="G54" s="163"/>
+      <c r="H54" s="163"/>
+      <c r="I54" s="163"/>
+      <c r="J54" s="164"/>
     </row>
     <row r="55" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
       <c r="A55" s="56">
         <v>4</v>
       </c>
       <c r="B55" s="83" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C55" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="69"/>
-      <c r="E55" s="153" t="s">
-        <v>155</v>
-      </c>
-      <c r="F55" s="154"/>
-      <c r="G55" s="154"/>
-      <c r="H55" s="154"/>
-      <c r="I55" s="154"/>
-      <c r="J55" s="155"/>
+      <c r="E55" s="162" t="s">
+        <v>153</v>
+      </c>
+      <c r="F55" s="163"/>
+      <c r="G55" s="163"/>
+      <c r="H55" s="163"/>
+      <c r="I55" s="163"/>
+      <c r="J55" s="164"/>
     </row>
     <row r="56" spans="1:10" s="53" customFormat="1" hidden="1">
       <c r="A56" s="56">
         <v>5</v>
       </c>
       <c r="B56" s="97" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C56" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="69"/>
-      <c r="E56" s="153" t="s">
-        <v>99</v>
-      </c>
-      <c r="F56" s="154"/>
-      <c r="G56" s="154"/>
-      <c r="H56" s="154"/>
-      <c r="I56" s="154"/>
-      <c r="J56" s="155"/>
+      <c r="E56" s="162" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" s="163"/>
+      <c r="G56" s="163"/>
+      <c r="H56" s="163"/>
+      <c r="I56" s="163"/>
+      <c r="J56" s="164"/>
     </row>
     <row r="57" spans="1:10" s="53" customFormat="1">
       <c r="A57" s="73"/>
-      <c r="B57" s="156"/>
-      <c r="C57" s="156"/>
-      <c r="D57" s="156"/>
-      <c r="E57" s="156"/>
-      <c r="F57" s="156"/>
-      <c r="G57" s="156"/>
-      <c r="H57" s="156"/>
-      <c r="I57" s="156"/>
-      <c r="J57" s="140"/>
+      <c r="B57" s="137"/>
+      <c r="C57" s="137"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="137"/>
+      <c r="F57" s="137"/>
+      <c r="G57" s="137"/>
+      <c r="H57" s="137"/>
+      <c r="I57" s="137"/>
+      <c r="J57" s="158"/>
     </row>
     <row r="58" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="146" t="s">
+      <c r="A58" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="147"/>
-      <c r="C58" s="147"/>
-      <c r="D58" s="147"/>
-      <c r="E58" s="147"/>
-      <c r="F58" s="147"/>
-      <c r="G58" s="147"/>
-      <c r="H58" s="147"/>
-      <c r="I58" s="147"/>
-      <c r="J58" s="148"/>
+      <c r="B58" s="191"/>
+      <c r="C58" s="191"/>
+      <c r="D58" s="191"/>
+      <c r="E58" s="191"/>
+      <c r="F58" s="191"/>
+      <c r="G58" s="191"/>
+      <c r="H58" s="191"/>
+      <c r="I58" s="191"/>
+      <c r="J58" s="192"/>
     </row>
     <row r="59" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="144" t="s">
+      <c r="B59" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="145"/>
-      <c r="D59" s="136" t="s">
+      <c r="C59" s="189"/>
+      <c r="D59" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="114"/>
-      <c r="F59" s="114"/>
-      <c r="G59" s="114"/>
-      <c r="H59" s="114"/>
-      <c r="I59" s="114"/>
-      <c r="J59" s="115"/>
+      <c r="E59" s="110"/>
+      <c r="F59" s="110"/>
+      <c r="G59" s="110"/>
+      <c r="H59" s="110"/>
+      <c r="I59" s="110"/>
+      <c r="J59" s="111"/>
     </row>
     <row r="60" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="141"/>
-      <c r="B60" s="142"/>
-      <c r="C60" s="142"/>
-      <c r="D60" s="142"/>
-      <c r="E60" s="142"/>
-      <c r="F60" s="142"/>
-      <c r="G60" s="142"/>
-      <c r="H60" s="142"/>
-      <c r="I60" s="142"/>
-      <c r="J60" s="143"/>
+      <c r="A60" s="185"/>
+      <c r="B60" s="186"/>
+      <c r="C60" s="186"/>
+      <c r="D60" s="186"/>
+      <c r="E60" s="186"/>
+      <c r="F60" s="186"/>
+      <c r="G60" s="186"/>
+      <c r="H60" s="186"/>
+      <c r="I60" s="186"/>
+      <c r="J60" s="187"/>
     </row>
     <row r="61" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="70"/>
-      <c r="B61" s="139"/>
-      <c r="C61" s="140"/>
-      <c r="D61" s="136"/>
-      <c r="E61" s="137"/>
-      <c r="F61" s="137"/>
-      <c r="G61" s="137"/>
-      <c r="H61" s="137"/>
-      <c r="I61" s="137"/>
-      <c r="J61" s="138"/>
+      <c r="B61" s="136"/>
+      <c r="C61" s="158"/>
+      <c r="D61" s="182"/>
+      <c r="E61" s="183"/>
+      <c r="F61" s="183"/>
+      <c r="G61" s="183"/>
+      <c r="H61" s="183"/>
+      <c r="I61" s="183"/>
+      <c r="J61" s="184"/>
     </row>
     <row r="62" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="70"/>
-      <c r="B62" s="139"/>
-      <c r="C62" s="140"/>
-      <c r="D62" s="136"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="137"/>
-      <c r="G62" s="137"/>
-      <c r="H62" s="137"/>
-      <c r="I62" s="137"/>
-      <c r="J62" s="138"/>
+      <c r="B62" s="136"/>
+      <c r="C62" s="158"/>
+      <c r="D62" s="182"/>
+      <c r="E62" s="183"/>
+      <c r="F62" s="183"/>
+      <c r="G62" s="183"/>
+      <c r="H62" s="183"/>
+      <c r="I62" s="183"/>
+      <c r="J62" s="184"/>
     </row>
     <row r="63" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="141"/>
-      <c r="B63" s="142"/>
-      <c r="C63" s="142"/>
-      <c r="D63" s="142"/>
-      <c r="E63" s="142"/>
-      <c r="F63" s="142"/>
-      <c r="G63" s="142"/>
-      <c r="H63" s="142"/>
-      <c r="I63" s="142"/>
-      <c r="J63" s="143"/>
+      <c r="A63" s="185"/>
+      <c r="B63" s="186"/>
+      <c r="C63" s="186"/>
+      <c r="D63" s="186"/>
+      <c r="E63" s="186"/>
+      <c r="F63" s="186"/>
+      <c r="G63" s="186"/>
+      <c r="H63" s="186"/>
+      <c r="I63" s="186"/>
+      <c r="J63" s="187"/>
     </row>
     <row r="64" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="70"/>
-      <c r="B64" s="139"/>
-      <c r="C64" s="140"/>
-      <c r="D64" s="136"/>
-      <c r="E64" s="137"/>
-      <c r="F64" s="137"/>
-      <c r="G64" s="137"/>
-      <c r="H64" s="137"/>
-      <c r="I64" s="137"/>
-      <c r="J64" s="138"/>
+      <c r="B64" s="136"/>
+      <c r="C64" s="158"/>
+      <c r="D64" s="182"/>
+      <c r="E64" s="183"/>
+      <c r="F64" s="183"/>
+      <c r="G64" s="183"/>
+      <c r="H64" s="183"/>
+      <c r="I64" s="183"/>
+      <c r="J64" s="184"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="74" t="s">
@@ -12795,14 +12734,14 @@
       <c r="B66" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="139"/>
-      <c r="D66" s="114"/>
-      <c r="E66" s="114"/>
-      <c r="F66" s="114"/>
-      <c r="G66" s="114"/>
-      <c r="H66" s="114"/>
-      <c r="I66" s="114"/>
-      <c r="J66" s="115"/>
+      <c r="C66" s="136"/>
+      <c r="D66" s="110"/>
+      <c r="E66" s="110"/>
+      <c r="F66" s="110"/>
+      <c r="G66" s="110"/>
+      <c r="H66" s="110"/>
+      <c r="I66" s="110"/>
+      <c r="J66" s="111"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="70">
@@ -12811,43 +12750,38 @@
       <c r="B67" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="157"/>
-      <c r="D67" s="157"/>
-      <c r="E67" s="157"/>
-      <c r="F67" s="157"/>
-      <c r="G67" s="157"/>
-      <c r="H67" s="157"/>
-      <c r="I67" s="157"/>
-      <c r="J67" s="157"/>
+      <c r="C67" s="159"/>
+      <c r="D67" s="159"/>
+      <c r="E67" s="159"/>
+      <c r="F67" s="159"/>
+      <c r="G67" s="159"/>
+      <c r="H67" s="159"/>
+      <c r="I67" s="159"/>
+      <c r="J67" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J33"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="B57:J57"/>
     <mergeCell ref="C67:J67"/>
     <mergeCell ref="C66:J66"/>
     <mergeCell ref="K1:K3"/>
@@ -12864,27 +12798,32 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="D61:J61"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="D64:J64"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J33"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -12937,8 +12876,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="158" t="s">
-        <v>56</v>
+      <c r="K1" s="160" t="s">
+        <v>55</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -12964,7 +12903,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="159"/>
+      <c r="K2" s="161"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -12982,7 +12921,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="159"/>
+      <c r="K3" s="161"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -13026,18 +12965,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="195" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="197"/>
+      <c r="A6" s="197" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="198"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="198"/>
+      <c r="H6" s="198"/>
+      <c r="I6" s="198"/>
+      <c r="J6" s="199"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -13047,19 +12986,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B7" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>236</v>
-      </c>
       <c r="D7" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>237</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>239</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>22</v>
@@ -13068,10 +13007,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -13104,34 +13043,34 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="195" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="197"/>
+      <c r="A10" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="198"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="198"/>
+      <c r="I10" s="198"/>
+      <c r="J10" s="199"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B11" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>236</v>
-      </c>
       <c r="D11" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>237</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>239</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>22</v>
@@ -13140,10 +13079,10 @@
         <v>16</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -13154,27 +13093,27 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>157</v>
-      </c>
-      <c r="F12" s="200" t="s">
-        <v>177</v>
-      </c>
-      <c r="G12" s="201"/>
+        <v>155</v>
+      </c>
+      <c r="F12" s="202" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="203"/>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J12" s="45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="25.5" customHeight="1">
@@ -13182,29 +13121,29 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="D13" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="99" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="99" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" s="91" t="s">
-        <v>119</v>
-      </c>
       <c r="G13" s="91" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="198" t="s">
-        <v>231</v>
+        <v>69</v>
+      </c>
+      <c r="J13" s="200" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="22.5" customHeight="1">
@@ -13213,77 +13152,77 @@
       <c r="C14" s="46"/>
       <c r="D14" s="42"/>
       <c r="E14" s="42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F14" s="91" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G14" s="91" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="199"/>
+        <v>69</v>
+      </c>
+      <c r="J14" s="201"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="40">
         <v>3</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G15" s="91" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J15" s="48"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="195" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="196"/>
-      <c r="C17" s="196"/>
-      <c r="D17" s="196"/>
-      <c r="E17" s="196"/>
-      <c r="F17" s="196"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="196"/>
-      <c r="I17" s="196"/>
-      <c r="J17" s="197"/>
+      <c r="A17" s="197" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="198"/>
+      <c r="C17" s="198"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="198"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="199"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="39" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C18" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="D18" s="39" t="s">
-        <v>237</v>
-      </c>
       <c r="E18" s="39" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F18" s="39" t="s">
         <v>22</v>
@@ -13292,10 +13231,10 @@
         <v>16</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J18" s="39" t="s">
         <v>0</v>
@@ -13306,26 +13245,26 @@
         <v>1</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E19" s="96" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F19" s="91" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G19" s="91" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -13335,17 +13274,17 @@
       <c r="C20" s="41"/>
       <c r="D20" s="42"/>
       <c r="E20" s="42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F20" s="91" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G20" s="91" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J20" s="45"/>
     </row>
@@ -13354,27 +13293,27 @@
         <v>3</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="43" t="s">
-        <v>61</v>
-      </c>
       <c r="G21" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J21" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:11" hidden="1">
@@ -13382,27 +13321,27 @@
         <v>4</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="G22" s="46" t="s">
         <v>63</v>
-      </c>
-      <c r="G22" s="46" t="s">
-        <v>64</v>
       </c>
       <c r="H22" s="46"/>
       <c r="I22" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J22" s="48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -13475,8 +13414,8 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="158" t="s">
-        <v>56</v>
+      <c r="K1" s="160" t="s">
+        <v>55</v>
       </c>
       <c r="L1" s="51"/>
       <c r="M1" s="51"/>
@@ -13496,7 +13435,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="159"/>
+      <c r="K2" s="161"/>
     </row>
     <row r="3" spans="1:17" s="52" customFormat="1">
       <c r="A3" s="44"/>
@@ -13509,7 +13448,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="159"/>
+      <c r="K3" s="161"/>
     </row>
     <row r="4" spans="1:17" s="52" customFormat="1">
       <c r="A4" s="44"/>
@@ -13524,528 +13463,528 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="52" customFormat="1">
-      <c r="A5" s="166" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="A5" s="171" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="122"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124"/>
+      <c r="A6" s="129"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="131"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="167"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
+      <c r="A7" s="172"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="175"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="167"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="170"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="173"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="175"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="171"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="173"/>
+      <c r="A9" s="176"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="178"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="111"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="174" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="115"/>
+      <c r="A11" s="179" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="111"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="166" t="s">
+      <c r="A12" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="111"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="174" t="s">
+      <c r="A13" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="111"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="111"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="178" t="s">
-        <v>197</v>
-      </c>
-      <c r="B15" s="179"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="180"/>
+      <c r="A15" s="142" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="152"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="153"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="181" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="183"/>
+        <v>77</v>
+      </c>
+      <c r="C16" s="138" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="144"/>
     </row>
     <row r="17" spans="1:10" s="53" customFormat="1" ht="64.5" customHeight="1">
       <c r="A17" s="56">
         <v>1</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="187" t="s">
-        <v>262</v>
-      </c>
-      <c r="D17" s="202"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="202"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="202"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="203"/>
+        <v>146</v>
+      </c>
+      <c r="C17" s="157" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="204"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="204"/>
+      <c r="G17" s="204"/>
+      <c r="H17" s="204"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="205"/>
     </row>
     <row r="18" spans="1:10" s="53" customFormat="1" ht="88.5" customHeight="1">
       <c r="A18" s="56">
         <v>2</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" s="187" t="s">
-        <v>263</v>
-      </c>
-      <c r="D18" s="202"/>
-      <c r="E18" s="202"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="202"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="203"/>
+        <v>198</v>
+      </c>
+      <c r="C18" s="157" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" s="204"/>
+      <c r="E18" s="204"/>
+      <c r="F18" s="204"/>
+      <c r="G18" s="204"/>
+      <c r="H18" s="204"/>
+      <c r="I18" s="204"/>
+      <c r="J18" s="205"/>
     </row>
     <row r="19" spans="1:10" s="53" customFormat="1" ht="84.75" customHeight="1">
       <c r="A19" s="56">
         <v>2</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" s="187" t="s">
-        <v>263</v>
-      </c>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="203"/>
+        <v>197</v>
+      </c>
+      <c r="C19" s="157" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" s="204"/>
+      <c r="E19" s="204"/>
+      <c r="F19" s="204"/>
+      <c r="G19" s="204"/>
+      <c r="H19" s="204"/>
+      <c r="I19" s="204"/>
+      <c r="J19" s="205"/>
     </row>
     <row r="20" spans="1:10" s="53" customFormat="1">
       <c r="A20" s="56">
         <v>3</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" s="191" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="188"/>
-      <c r="E20" s="188"/>
-      <c r="F20" s="188"/>
-      <c r="G20" s="188"/>
-      <c r="H20" s="188"/>
-      <c r="I20" s="188"/>
-      <c r="J20" s="189"/>
+        <v>186</v>
+      </c>
+      <c r="C20" s="140" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="145"/>
     </row>
     <row r="21" spans="1:10" s="53" customFormat="1">
       <c r="A21" s="56">
         <v>4</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="C21" s="191" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="188"/>
-      <c r="E21" s="188"/>
-      <c r="F21" s="188"/>
-      <c r="G21" s="188"/>
-      <c r="H21" s="188"/>
-      <c r="I21" s="188"/>
-      <c r="J21" s="189"/>
+        <v>188</v>
+      </c>
+      <c r="C21" s="140" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="145"/>
     </row>
     <row r="22" spans="1:10" s="53" customFormat="1" ht="33.75" customHeight="1">
       <c r="A22" s="56">
         <v>5</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="C22" s="187" t="s">
-        <v>205</v>
-      </c>
-      <c r="D22" s="188"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="188"/>
-      <c r="J22" s="189"/>
+        <v>190</v>
+      </c>
+      <c r="C22" s="157" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="145"/>
     </row>
     <row r="23" spans="1:10" s="53" customFormat="1" ht="34.5" customHeight="1">
       <c r="A23" s="63">
         <v>6</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" s="187" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="157" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="145"/>
+    </row>
+    <row r="24" spans="1:10" s="53" customFormat="1">
+      <c r="A24" s="208"/>
+      <c r="B24" s="209"/>
+      <c r="C24" s="209"/>
+      <c r="D24" s="209"/>
+      <c r="E24" s="209"/>
+      <c r="F24" s="209"/>
+      <c r="G24" s="209"/>
+      <c r="H24" s="209"/>
+      <c r="I24" s="209"/>
+      <c r="J24" s="210"/>
+    </row>
+    <row r="25" spans="1:10" s="53" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A25" s="132" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="133"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="211"/>
+    </row>
+    <row r="26" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1">
+      <c r="A26" s="142" t="s">
         <v>206</v>
       </c>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="189"/>
-    </row>
-    <row r="24" spans="1:10" s="53" customFormat="1">
-      <c r="A24" s="204"/>
-      <c r="B24" s="205"/>
-      <c r="C24" s="205"/>
-      <c r="D24" s="205"/>
-      <c r="E24" s="205"/>
-      <c r="F24" s="205"/>
-      <c r="G24" s="205"/>
-      <c r="H24" s="205"/>
-      <c r="I24" s="205"/>
-      <c r="J24" s="206"/>
-    </row>
-    <row r="25" spans="1:10" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="175" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="192"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="207"/>
-    </row>
-    <row r="26" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1">
-      <c r="A26" s="178" t="s">
-        <v>208</v>
-      </c>
-      <c r="B26" s="179"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="179"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="180"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="153"/>
     </row>
     <row r="27" spans="1:10" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="181" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="182"/>
-      <c r="E27" s="182"/>
-      <c r="F27" s="182"/>
-      <c r="G27" s="182"/>
-      <c r="H27" s="182"/>
-      <c r="I27" s="182"/>
-      <c r="J27" s="183"/>
+        <v>77</v>
+      </c>
+      <c r="C27" s="138" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="139"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="144"/>
     </row>
     <row r="28" spans="1:10" s="53" customFormat="1" ht="40.5" customHeight="1">
       <c r="A28" s="56">
         <v>1</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="C28" s="187" t="s">
-        <v>261</v>
-      </c>
-      <c r="D28" s="202"/>
-      <c r="E28" s="202"/>
-      <c r="F28" s="202"/>
-      <c r="G28" s="202"/>
-      <c r="H28" s="202"/>
-      <c r="I28" s="202"/>
-      <c r="J28" s="203"/>
+        <v>196</v>
+      </c>
+      <c r="C28" s="157" t="s">
+        <v>259</v>
+      </c>
+      <c r="D28" s="204"/>
+      <c r="E28" s="204"/>
+      <c r="F28" s="204"/>
+      <c r="G28" s="204"/>
+      <c r="H28" s="204"/>
+      <c r="I28" s="204"/>
+      <c r="J28" s="205"/>
     </row>
     <row r="29" spans="1:10" s="53" customFormat="1">
       <c r="A29" s="56">
         <v>2</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="C29" s="187" t="s">
-        <v>203</v>
-      </c>
-      <c r="D29" s="202"/>
-      <c r="E29" s="202"/>
-      <c r="F29" s="202"/>
-      <c r="G29" s="202"/>
-      <c r="H29" s="202"/>
-      <c r="I29" s="202"/>
-      <c r="J29" s="203"/>
+        <v>198</v>
+      </c>
+      <c r="C29" s="157" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" s="204"/>
+      <c r="E29" s="204"/>
+      <c r="F29" s="204"/>
+      <c r="G29" s="204"/>
+      <c r="H29" s="204"/>
+      <c r="I29" s="204"/>
+      <c r="J29" s="205"/>
     </row>
     <row r="30" spans="1:10" s="53" customFormat="1">
       <c r="A30" s="56">
         <v>2</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C30" s="187" t="s">
-        <v>204</v>
-      </c>
-      <c r="D30" s="202"/>
-      <c r="E30" s="202"/>
-      <c r="F30" s="202"/>
-      <c r="G30" s="202"/>
-      <c r="H30" s="202"/>
-      <c r="I30" s="202"/>
-      <c r="J30" s="203"/>
+        <v>197</v>
+      </c>
+      <c r="C30" s="157" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" s="204"/>
+      <c r="E30" s="204"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="204"/>
+      <c r="H30" s="204"/>
+      <c r="I30" s="204"/>
+      <c r="J30" s="205"/>
     </row>
     <row r="31" spans="1:10" s="53" customFormat="1">
       <c r="A31" s="56">
         <v>3</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="C31" s="191" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="189"/>
+        <v>186</v>
+      </c>
+      <c r="C31" s="140" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="141"/>
+      <c r="J31" s="145"/>
     </row>
     <row r="32" spans="1:10" s="53" customFormat="1">
       <c r="A32" s="56">
         <v>4</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="C32" s="191" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="188"/>
-      <c r="J32" s="189"/>
+        <v>188</v>
+      </c>
+      <c r="C32" s="140" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="145"/>
     </row>
     <row r="33" spans="1:12" s="53" customFormat="1">
       <c r="A33" s="56">
         <v>5</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="C33" s="191" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="188"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="189"/>
+        <v>190</v>
+      </c>
+      <c r="C33" s="140" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="141"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="145"/>
     </row>
     <row r="34" spans="1:12" s="53" customFormat="1" ht="34.5" customHeight="1">
       <c r="A34" s="63">
         <v>6</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" s="187" t="s">
-        <v>211</v>
-      </c>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="189"/>
+        <v>205</v>
+      </c>
+      <c r="C34" s="157" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="141"/>
+      <c r="I34" s="141"/>
+      <c r="J34" s="145"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1">
-      <c r="A35" s="163"/>
-      <c r="B35" s="208"/>
-      <c r="C35" s="208"/>
-      <c r="D35" s="208"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="208"/>
-      <c r="G35" s="208"/>
-      <c r="H35" s="208"/>
-      <c r="I35" s="208"/>
-      <c r="J35" s="209"/>
+      <c r="A35" s="168"/>
+      <c r="B35" s="212"/>
+      <c r="C35" s="212"/>
+      <c r="D35" s="212"/>
+      <c r="E35" s="212"/>
+      <c r="F35" s="212"/>
+      <c r="G35" s="212"/>
+      <c r="H35" s="212"/>
+      <c r="I35" s="212"/>
+      <c r="J35" s="213"/>
     </row>
     <row r="36" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A36" s="175" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="176"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="176"/>
-      <c r="F36" s="176"/>
-      <c r="G36" s="176"/>
-      <c r="H36" s="176"/>
-      <c r="I36" s="176"/>
-      <c r="J36" s="177"/>
+      <c r="A36" s="132" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="180"/>
+      <c r="C36" s="180"/>
+      <c r="D36" s="180"/>
+      <c r="E36" s="180"/>
+      <c r="F36" s="180"/>
+      <c r="G36" s="180"/>
+      <c r="H36" s="180"/>
+      <c r="I36" s="180"/>
+      <c r="J36" s="181"/>
     </row>
     <row r="37" spans="1:12" s="79" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="57" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="D37" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="E37" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="193" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="194"/>
-      <c r="G37" s="194"/>
-      <c r="H37" s="194"/>
-      <c r="I37" s="194"/>
-      <c r="J37" s="194"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="135"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="135"/>
+      <c r="J37" s="135"/>
       <c r="K37" s="53"/>
       <c r="L37" s="53"/>
     </row>
@@ -14054,30 +13993,30 @@
         <v>1</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="62"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
+      <c r="E38" s="193"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="124"/>
+      <c r="J38" s="124"/>
     </row>
     <row r="39" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="160" t="s">
-        <v>209</v>
-      </c>
-      <c r="B39" s="161"/>
-      <c r="C39" s="161"/>
-      <c r="D39" s="161"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="161"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="161"/>
-      <c r="J39" s="162"/>
+      <c r="A39" s="165" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" s="166"/>
+      <c r="C39" s="166"/>
+      <c r="D39" s="166"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="166"/>
+      <c r="G39" s="166"/>
+      <c r="H39" s="166"/>
+      <c r="I39" s="166"/>
+      <c r="J39" s="167"/>
       <c r="K39" s="53"/>
       <c r="L39" s="53"/>
     </row>
@@ -14086,152 +14025,152 @@
         <v>1</v>
       </c>
       <c r="B40" s="64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="65" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="66"/>
-      <c r="E40" s="149" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="113"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="113"/>
+      <c r="E40" s="193" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="124"/>
     </row>
     <row r="41" spans="1:12" s="53" customFormat="1" ht="116.25" customHeight="1">
       <c r="A41" s="67">
         <v>1</v>
       </c>
       <c r="B41" s="68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41" s="65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" s="69"/>
-      <c r="E41" s="153" t="s">
-        <v>252</v>
-      </c>
-      <c r="F41" s="154"/>
-      <c r="G41" s="154"/>
-      <c r="H41" s="154"/>
-      <c r="I41" s="154"/>
-      <c r="J41" s="155"/>
+      <c r="E41" s="162" t="s">
+        <v>250</v>
+      </c>
+      <c r="F41" s="163"/>
+      <c r="G41" s="163"/>
+      <c r="H41" s="163"/>
+      <c r="I41" s="163"/>
+      <c r="J41" s="164"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="52.5" customHeight="1">
       <c r="A42" s="70">
         <v>2</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" s="65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D42" s="71"/>
-      <c r="E42" s="136" t="s">
-        <v>223</v>
-      </c>
-      <c r="F42" s="114"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="114"/>
-      <c r="J42" s="115"/>
+      <c r="E42" s="182" t="s">
+        <v>221</v>
+      </c>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="111"/>
     </row>
     <row r="43" spans="1:12" s="53" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="146" t="s">
+      <c r="A43" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="147"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="148"/>
+      <c r="B43" s="191"/>
+      <c r="C43" s="191"/>
+      <c r="D43" s="191"/>
+      <c r="E43" s="191"/>
+      <c r="F43" s="191"/>
+      <c r="G43" s="191"/>
+      <c r="H43" s="191"/>
+      <c r="I43" s="191"/>
+      <c r="J43" s="192"/>
     </row>
     <row r="44" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="144" t="s">
+      <c r="B44" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="145"/>
-      <c r="D44" s="136" t="s">
+      <c r="C44" s="189"/>
+      <c r="D44" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="115"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="111"/>
     </row>
     <row r="45" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="141"/>
-      <c r="B45" s="210"/>
-      <c r="C45" s="210"/>
-      <c r="D45" s="210"/>
-      <c r="E45" s="210"/>
-      <c r="F45" s="210"/>
-      <c r="G45" s="210"/>
-      <c r="H45" s="210"/>
-      <c r="I45" s="210"/>
-      <c r="J45" s="211"/>
+      <c r="A45" s="185"/>
+      <c r="B45" s="206"/>
+      <c r="C45" s="206"/>
+      <c r="D45" s="206"/>
+      <c r="E45" s="206"/>
+      <c r="F45" s="206"/>
+      <c r="G45" s="206"/>
+      <c r="H45" s="206"/>
+      <c r="I45" s="206"/>
+      <c r="J45" s="207"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="70"/>
-      <c r="B46" s="139"/>
-      <c r="C46" s="140"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="115"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="158"/>
+      <c r="D46" s="182"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="111"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="70"/>
-      <c r="B47" s="139"/>
-      <c r="C47" s="140"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="115"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="158"/>
+      <c r="D47" s="182"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="111"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="141"/>
-      <c r="B48" s="210"/>
-      <c r="C48" s="210"/>
-      <c r="D48" s="210"/>
-      <c r="E48" s="210"/>
-      <c r="F48" s="210"/>
-      <c r="G48" s="210"/>
-      <c r="H48" s="210"/>
-      <c r="I48" s="210"/>
-      <c r="J48" s="211"/>
+      <c r="A48" s="185"/>
+      <c r="B48" s="206"/>
+      <c r="C48" s="206"/>
+      <c r="D48" s="206"/>
+      <c r="E48" s="206"/>
+      <c r="F48" s="206"/>
+      <c r="G48" s="206"/>
+      <c r="H48" s="206"/>
+      <c r="I48" s="206"/>
+      <c r="J48" s="207"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="70"/>
-      <c r="B49" s="139"/>
-      <c r="C49" s="140"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="114"/>
-      <c r="I49" s="114"/>
-      <c r="J49" s="115"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="158"/>
+      <c r="D49" s="182"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="111"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
       <c r="A50" s="74" t="s">
@@ -14254,14 +14193,14 @@
       <c r="B51" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="139"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="114"/>
-      <c r="H51" s="114"/>
-      <c r="I51" s="114"/>
-      <c r="J51" s="115"/>
+      <c r="C51" s="136"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="110"/>
+      <c r="J51" s="111"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="70">
@@ -14270,25 +14209,48 @@
       <c r="B52" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="157"/>
-      <c r="D52" s="157"/>
-      <c r="E52" s="157"/>
-      <c r="F52" s="157"/>
-      <c r="G52" s="157"/>
-      <c r="H52" s="157"/>
-      <c r="I52" s="157"/>
-      <c r="J52" s="157"/>
+      <c r="C52" s="159"/>
+      <c r="D52" s="159"/>
+      <c r="E52" s="159"/>
+      <c r="F52" s="159"/>
+      <c r="G52" s="159"/>
+      <c r="H52" s="159"/>
+      <c r="I52" s="159"/>
+      <c r="J52" s="159"/>
     </row>
     <row r="65" s="51" customFormat="1"/>
     <row r="66" s="51" customFormat="1"/>
     <row r="67" s="51" customFormat="1"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C20:J20"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:J49"/>
@@ -14305,34 +14267,11 @@
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="E38:J38"/>
     <mergeCell ref="A39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -14385,8 +14324,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="158" t="s">
-        <v>56</v>
+      <c r="K1" s="160" t="s">
+        <v>55</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -14412,7 +14351,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="159"/>
+      <c r="K2" s="161"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -14430,7 +14369,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="159"/>
+      <c r="K3" s="161"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -14474,18 +14413,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="195" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="197"/>
+      <c r="A6" s="197" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="198"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="198"/>
+      <c r="H6" s="198"/>
+      <c r="I6" s="198"/>
+      <c r="J6" s="199"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -14495,19 +14434,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B7" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>236</v>
-      </c>
       <c r="D7" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>237</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>239</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>22</v>
@@ -14516,10 +14455,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -14552,34 +14491,34 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="195" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="197"/>
+      <c r="A10" s="197" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="198"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="198"/>
+      <c r="I10" s="198"/>
+      <c r="J10" s="199"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B11" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>236</v>
-      </c>
       <c r="D11" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>237</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>239</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>22</v>
@@ -14588,10 +14527,10 @@
         <v>16</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -14602,29 +14541,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="46" t="s">
-        <v>117</v>
-      </c>
       <c r="D12" s="42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F12" s="103" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="J12" s="213" t="s">
-        <v>182</v>
+        <v>168</v>
+      </c>
+      <c r="J12" s="215" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -14632,83 +14571,83 @@
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
       <c r="D13" s="42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F13" s="103" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="J13" s="199"/>
+        <v>168</v>
+      </c>
+      <c r="J13" s="201"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="40">
         <v>2</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E14" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="104" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="105" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="104" t="s">
+      <c r="H14" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="I14" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="G14" s="105" t="s">
-        <v>167</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>170</v>
-      </c>
       <c r="J14" s="38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="40"/>
       <c r="B15" s="46" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E15" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" s="104" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="105" t="s">
         <v>165</v>
       </c>
-      <c r="F15" s="104" t="s">
+      <c r="H15" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="G15" s="105" t="s">
-        <v>167</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>171</v>
-      </c>
       <c r="J15" s="85" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -14716,31 +14655,31 @@
         <v>3</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14748,26 +14687,26 @@
         <v>4</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J17" s="100"/>
     </row>
@@ -14776,27 +14715,27 @@
         <v>5</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D18" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="214" t="s">
         <v>176</v>
       </c>
-      <c r="E18" s="102" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" s="212" t="s">
-        <v>178</v>
-      </c>
-      <c r="G18" s="201"/>
+      <c r="G18" s="203"/>
       <c r="H18" s="83"/>
       <c r="I18" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J18" s="101" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14804,26 +14743,26 @@
         <v>6</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H19" s="40"/>
       <c r="I19" s="40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -14855,7 +14794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="106" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="106" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C33" sqref="C33:J33"/>
     </sheetView>
   </sheetViews>
@@ -14884,8 +14823,8 @@
       <c r="H1" s="90"/>
       <c r="I1" s="90"/>
       <c r="J1" s="90"/>
-      <c r="K1" s="158" t="s">
-        <v>56</v>
+      <c r="K1" s="160" t="s">
+        <v>55</v>
       </c>
       <c r="L1" s="51"/>
       <c r="M1" s="51"/>
@@ -14905,7 +14844,7 @@
       <c r="H2" s="90"/>
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
-      <c r="K2" s="159"/>
+      <c r="K2" s="161"/>
     </row>
     <row r="3" spans="1:17" s="89" customFormat="1">
       <c r="A3" s="90"/>
@@ -14918,7 +14857,7 @@
       <c r="H3" s="90"/>
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
-      <c r="K3" s="159"/>
+      <c r="K3" s="161"/>
     </row>
     <row r="4" spans="1:17" s="89" customFormat="1">
       <c r="A4" s="90"/>
@@ -14933,528 +14872,528 @@
       <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:17" s="89" customFormat="1">
-      <c r="A5" s="166" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="A5" s="171" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="122"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124"/>
+      <c r="A6" s="129"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="131"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="167"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
+      <c r="A7" s="172"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="175"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="167"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="170"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="173"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="175"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="171"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="173"/>
+      <c r="A9" s="176"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="178"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="111"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="174" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="115"/>
+      <c r="A11" s="179" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="111"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="166" t="s">
+      <c r="A12" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="111"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="174" t="s">
+      <c r="A13" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="111"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="111"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="178" t="s">
-        <v>214</v>
-      </c>
-      <c r="B15" s="179"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="180"/>
+      <c r="A15" s="142" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="152"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="153"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="181" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="183"/>
+        <v>77</v>
+      </c>
+      <c r="C16" s="138" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="144"/>
     </row>
     <row r="17" spans="1:10" s="53" customFormat="1" ht="48.75" customHeight="1">
       <c r="A17" s="56">
         <v>1</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="187" t="s">
-        <v>266</v>
-      </c>
-      <c r="D17" s="202"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="202"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="202"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="203"/>
+        <v>146</v>
+      </c>
+      <c r="C17" s="157" t="s">
+        <v>264</v>
+      </c>
+      <c r="D17" s="204"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="204"/>
+      <c r="G17" s="204"/>
+      <c r="H17" s="204"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="205"/>
     </row>
     <row r="18" spans="1:10" s="53" customFormat="1" ht="85.5" customHeight="1">
       <c r="A18" s="56">
         <v>2</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" s="187" t="s">
-        <v>264</v>
-      </c>
-      <c r="D18" s="202"/>
-      <c r="E18" s="202"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="202"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="203"/>
+        <v>198</v>
+      </c>
+      <c r="C18" s="157" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="204"/>
+      <c r="E18" s="204"/>
+      <c r="F18" s="204"/>
+      <c r="G18" s="204"/>
+      <c r="H18" s="204"/>
+      <c r="I18" s="204"/>
+      <c r="J18" s="205"/>
     </row>
     <row r="19" spans="1:10" s="53" customFormat="1" ht="85.5" customHeight="1">
       <c r="A19" s="56">
         <v>2</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" s="187" t="s">
-        <v>264</v>
-      </c>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="203"/>
+        <v>197</v>
+      </c>
+      <c r="C19" s="157" t="s">
+        <v>262</v>
+      </c>
+      <c r="D19" s="204"/>
+      <c r="E19" s="204"/>
+      <c r="F19" s="204"/>
+      <c r="G19" s="204"/>
+      <c r="H19" s="204"/>
+      <c r="I19" s="204"/>
+      <c r="J19" s="205"/>
     </row>
     <row r="20" spans="1:10" s="53" customFormat="1">
       <c r="A20" s="56">
         <v>3</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" s="191" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="188"/>
-      <c r="E20" s="188"/>
-      <c r="F20" s="188"/>
-      <c r="G20" s="188"/>
-      <c r="H20" s="188"/>
-      <c r="I20" s="188"/>
-      <c r="J20" s="189"/>
+        <v>186</v>
+      </c>
+      <c r="C20" s="140" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="145"/>
     </row>
     <row r="21" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="56">
         <v>4</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="C21" s="191" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="188"/>
-      <c r="E21" s="188"/>
-      <c r="F21" s="188"/>
-      <c r="G21" s="188"/>
-      <c r="H21" s="188"/>
-      <c r="I21" s="188"/>
-      <c r="J21" s="189"/>
+        <v>188</v>
+      </c>
+      <c r="C21" s="140" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="145"/>
     </row>
     <row r="22" spans="1:10" s="53" customFormat="1" ht="32.25" customHeight="1">
       <c r="A22" s="56">
         <v>5</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="C22" s="187" t="s">
-        <v>205</v>
-      </c>
-      <c r="D22" s="188"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="188"/>
-      <c r="J22" s="189"/>
+        <v>190</v>
+      </c>
+      <c r="C22" s="157" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="145"/>
     </row>
     <row r="23" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="63">
         <v>6</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" s="187" t="s">
-        <v>265</v>
-      </c>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="189"/>
+        <v>192</v>
+      </c>
+      <c r="C23" s="157" t="s">
+        <v>263</v>
+      </c>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="145"/>
     </row>
     <row r="24" spans="1:10" s="53" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A24" s="204"/>
-      <c r="B24" s="205"/>
-      <c r="C24" s="205"/>
-      <c r="D24" s="205"/>
-      <c r="E24" s="205"/>
-      <c r="F24" s="205"/>
-      <c r="G24" s="205"/>
-      <c r="H24" s="205"/>
-      <c r="I24" s="205"/>
-      <c r="J24" s="206"/>
+      <c r="A24" s="208"/>
+      <c r="B24" s="209"/>
+      <c r="C24" s="209"/>
+      <c r="D24" s="209"/>
+      <c r="E24" s="209"/>
+      <c r="F24" s="209"/>
+      <c r="G24" s="209"/>
+      <c r="H24" s="209"/>
+      <c r="I24" s="209"/>
+      <c r="J24" s="210"/>
     </row>
     <row r="25" spans="1:10" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="175" t="s">
+      <c r="A25" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="192"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="207"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="211"/>
     </row>
     <row r="26" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1">
-      <c r="A26" s="178" t="s">
-        <v>217</v>
-      </c>
-      <c r="B26" s="179"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="179"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="180"/>
+      <c r="A26" s="142" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" s="152"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="153"/>
     </row>
     <row r="27" spans="1:10" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="181" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="182"/>
-      <c r="E27" s="182"/>
-      <c r="F27" s="182"/>
-      <c r="G27" s="182"/>
-      <c r="H27" s="182"/>
-      <c r="I27" s="182"/>
-      <c r="J27" s="183"/>
+        <v>77</v>
+      </c>
+      <c r="C27" s="138" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="139"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="144"/>
     </row>
     <row r="28" spans="1:10" s="53" customFormat="1" ht="51" customHeight="1">
       <c r="A28" s="56">
         <v>1</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="C28" s="187" t="s">
-        <v>267</v>
-      </c>
-      <c r="D28" s="202"/>
-      <c r="E28" s="202"/>
-      <c r="F28" s="202"/>
-      <c r="G28" s="202"/>
-      <c r="H28" s="202"/>
-      <c r="I28" s="202"/>
-      <c r="J28" s="203"/>
+        <v>196</v>
+      </c>
+      <c r="C28" s="157" t="s">
+        <v>265</v>
+      </c>
+      <c r="D28" s="204"/>
+      <c r="E28" s="204"/>
+      <c r="F28" s="204"/>
+      <c r="G28" s="204"/>
+      <c r="H28" s="204"/>
+      <c r="I28" s="204"/>
+      <c r="J28" s="205"/>
     </row>
     <row r="29" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A29" s="56">
         <v>2</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="C29" s="187" t="s">
-        <v>203</v>
-      </c>
-      <c r="D29" s="202"/>
-      <c r="E29" s="202"/>
-      <c r="F29" s="202"/>
-      <c r="G29" s="202"/>
-      <c r="H29" s="202"/>
-      <c r="I29" s="202"/>
-      <c r="J29" s="203"/>
+        <v>198</v>
+      </c>
+      <c r="C29" s="157" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" s="204"/>
+      <c r="E29" s="204"/>
+      <c r="F29" s="204"/>
+      <c r="G29" s="204"/>
+      <c r="H29" s="204"/>
+      <c r="I29" s="204"/>
+      <c r="J29" s="205"/>
     </row>
     <row r="30" spans="1:10" s="53" customFormat="1">
       <c r="A30" s="56">
         <v>2</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C30" s="187" t="s">
-        <v>204</v>
-      </c>
-      <c r="D30" s="202"/>
-      <c r="E30" s="202"/>
-      <c r="F30" s="202"/>
-      <c r="G30" s="202"/>
-      <c r="H30" s="202"/>
-      <c r="I30" s="202"/>
-      <c r="J30" s="203"/>
+        <v>197</v>
+      </c>
+      <c r="C30" s="157" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" s="204"/>
+      <c r="E30" s="204"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="204"/>
+      <c r="H30" s="204"/>
+      <c r="I30" s="204"/>
+      <c r="J30" s="205"/>
     </row>
     <row r="31" spans="1:10" s="53" customFormat="1">
       <c r="A31" s="56">
         <v>3</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="C31" s="191" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="189"/>
+        <v>186</v>
+      </c>
+      <c r="C31" s="140" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="141"/>
+      <c r="J31" s="145"/>
     </row>
     <row r="32" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="56">
         <v>4</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="C32" s="191" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="188"/>
-      <c r="J32" s="189"/>
+        <v>188</v>
+      </c>
+      <c r="C32" s="140" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="145"/>
     </row>
     <row r="33" spans="1:12" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="56">
         <v>5</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="C33" s="191" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="188"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="189"/>
+        <v>190</v>
+      </c>
+      <c r="C33" s="140" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="141"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="145"/>
     </row>
     <row r="34" spans="1:12" s="53" customFormat="1" ht="39.75" customHeight="1">
       <c r="A34" s="63">
         <v>6</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" s="187" t="s">
-        <v>268</v>
-      </c>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="189"/>
+        <v>205</v>
+      </c>
+      <c r="C34" s="157" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="141"/>
+      <c r="I34" s="141"/>
+      <c r="J34" s="145"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1" ht="27" customHeight="1">
-      <c r="A35" s="163"/>
-      <c r="B35" s="208"/>
-      <c r="C35" s="208"/>
-      <c r="D35" s="208"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="208"/>
-      <c r="G35" s="208"/>
-      <c r="H35" s="208"/>
-      <c r="I35" s="208"/>
-      <c r="J35" s="209"/>
+      <c r="A35" s="168"/>
+      <c r="B35" s="212"/>
+      <c r="C35" s="212"/>
+      <c r="D35" s="212"/>
+      <c r="E35" s="212"/>
+      <c r="F35" s="212"/>
+      <c r="G35" s="212"/>
+      <c r="H35" s="212"/>
+      <c r="I35" s="212"/>
+      <c r="J35" s="213"/>
     </row>
     <row r="36" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="175" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="176"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="176"/>
-      <c r="F36" s="176"/>
-      <c r="G36" s="176"/>
-      <c r="H36" s="176"/>
-      <c r="I36" s="176"/>
-      <c r="J36" s="177"/>
+      <c r="A36" s="132" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="180"/>
+      <c r="C36" s="180"/>
+      <c r="D36" s="180"/>
+      <c r="E36" s="180"/>
+      <c r="F36" s="180"/>
+      <c r="G36" s="180"/>
+      <c r="H36" s="180"/>
+      <c r="I36" s="180"/>
+      <c r="J36" s="181"/>
     </row>
     <row r="37" spans="1:12" s="79" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="57" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="D37" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="E37" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="193" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="194"/>
-      <c r="G37" s="194"/>
-      <c r="H37" s="194"/>
-      <c r="I37" s="194"/>
-      <c r="J37" s="194"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="135"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="135"/>
+      <c r="J37" s="135"/>
       <c r="K37" s="53"/>
       <c r="L37" s="53"/>
     </row>
@@ -15463,30 +15402,30 @@
         <v>1</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="62"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
+      <c r="E38" s="193"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="124"/>
+      <c r="J38" s="124"/>
     </row>
     <row r="39" spans="1:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A39" s="160" t="s">
-        <v>215</v>
-      </c>
-      <c r="B39" s="161"/>
-      <c r="C39" s="161"/>
-      <c r="D39" s="161"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="161"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="161"/>
-      <c r="J39" s="162"/>
+      <c r="A39" s="165" t="s">
+        <v>213</v>
+      </c>
+      <c r="B39" s="166"/>
+      <c r="C39" s="166"/>
+      <c r="D39" s="166"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="166"/>
+      <c r="G39" s="166"/>
+      <c r="H39" s="166"/>
+      <c r="I39" s="166"/>
+      <c r="J39" s="167"/>
       <c r="K39" s="53"/>
       <c r="L39" s="53"/>
     </row>
@@ -15495,152 +15434,152 @@
         <v>1</v>
       </c>
       <c r="B40" s="68" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C40" s="88" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="87"/>
-      <c r="E40" s="153" t="s">
-        <v>253</v>
-      </c>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="154"/>
-      <c r="I40" s="154"/>
-      <c r="J40" s="155"/>
+      <c r="E40" s="162" t="s">
+        <v>251</v>
+      </c>
+      <c r="F40" s="163"/>
+      <c r="G40" s="163"/>
+      <c r="H40" s="163"/>
+      <c r="I40" s="163"/>
+      <c r="J40" s="164"/>
     </row>
     <row r="41" spans="1:12" s="53" customFormat="1" ht="32.25" customHeight="1">
       <c r="A41" s="70">
         <v>2</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C41" s="88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D41" s="86"/>
-      <c r="E41" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="115"/>
+      <c r="E41" s="182" t="s">
+        <v>257</v>
+      </c>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="110"/>
+      <c r="J41" s="111"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="100.5" customHeight="1">
       <c r="A42" s="70">
         <v>2</v>
       </c>
       <c r="B42" s="84" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C42" s="88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D42" s="86"/>
-      <c r="E42" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="F42" s="114"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="114"/>
-      <c r="J42" s="115"/>
+      <c r="E42" s="182" t="s">
+        <v>255</v>
+      </c>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="111"/>
     </row>
     <row r="43" spans="1:12" s="53" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A43" s="146" t="s">
+      <c r="A43" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="147"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="148"/>
+      <c r="B43" s="191"/>
+      <c r="C43" s="191"/>
+      <c r="D43" s="191"/>
+      <c r="E43" s="191"/>
+      <c r="F43" s="191"/>
+      <c r="G43" s="191"/>
+      <c r="H43" s="191"/>
+      <c r="I43" s="191"/>
+      <c r="J43" s="192"/>
     </row>
     <row r="44" spans="1:12" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A44" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="144" t="s">
+      <c r="B44" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="145"/>
-      <c r="D44" s="136" t="s">
+      <c r="C44" s="189"/>
+      <c r="D44" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="115"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="111"/>
     </row>
     <row r="45" spans="1:12" s="55" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A45" s="141"/>
-      <c r="B45" s="210"/>
-      <c r="C45" s="210"/>
-      <c r="D45" s="210"/>
-      <c r="E45" s="210"/>
-      <c r="F45" s="210"/>
-      <c r="G45" s="210"/>
-      <c r="H45" s="210"/>
-      <c r="I45" s="210"/>
-      <c r="J45" s="211"/>
+      <c r="A45" s="185"/>
+      <c r="B45" s="206"/>
+      <c r="C45" s="206"/>
+      <c r="D45" s="206"/>
+      <c r="E45" s="206"/>
+      <c r="F45" s="206"/>
+      <c r="G45" s="206"/>
+      <c r="H45" s="206"/>
+      <c r="I45" s="206"/>
+      <c r="J45" s="207"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1" ht="28.5" customHeight="1">
       <c r="A46" s="70"/>
-      <c r="B46" s="139"/>
-      <c r="C46" s="140"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="115"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="158"/>
+      <c r="D46" s="182"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="111"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A47" s="70"/>
-      <c r="B47" s="139"/>
-      <c r="C47" s="140"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="115"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="158"/>
+      <c r="D47" s="182"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="111"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A48" s="141"/>
-      <c r="B48" s="210"/>
-      <c r="C48" s="210"/>
-      <c r="D48" s="210"/>
-      <c r="E48" s="210"/>
-      <c r="F48" s="210"/>
-      <c r="G48" s="210"/>
-      <c r="H48" s="210"/>
-      <c r="I48" s="210"/>
-      <c r="J48" s="211"/>
+      <c r="A48" s="185"/>
+      <c r="B48" s="206"/>
+      <c r="C48" s="206"/>
+      <c r="D48" s="206"/>
+      <c r="E48" s="206"/>
+      <c r="F48" s="206"/>
+      <c r="G48" s="206"/>
+      <c r="H48" s="206"/>
+      <c r="I48" s="206"/>
+      <c r="J48" s="207"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="70"/>
-      <c r="B49" s="139"/>
-      <c r="C49" s="140"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="114"/>
-      <c r="I49" s="114"/>
-      <c r="J49" s="115"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="158"/>
+      <c r="D49" s="182"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="111"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="74" t="s">
@@ -15663,14 +15602,14 @@
       <c r="B51" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="139"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="114"/>
-      <c r="H51" s="114"/>
-      <c r="I51" s="114"/>
-      <c r="J51" s="115"/>
+      <c r="C51" s="136"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="110"/>
+      <c r="J51" s="111"/>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1">
       <c r="A52" s="70">
@@ -15679,14 +15618,14 @@
       <c r="B52" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="157"/>
-      <c r="D52" s="157"/>
-      <c r="E52" s="157"/>
-      <c r="F52" s="157"/>
-      <c r="G52" s="157"/>
-      <c r="H52" s="157"/>
-      <c r="I52" s="157"/>
-      <c r="J52" s="157"/>
+      <c r="C52" s="159"/>
+      <c r="D52" s="159"/>
+      <c r="E52" s="159"/>
+      <c r="F52" s="159"/>
+      <c r="G52" s="159"/>
+      <c r="H52" s="159"/>
+      <c r="I52" s="159"/>
+      <c r="J52" s="159"/>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1"/>
     <row r="54" spans="1:10" ht="15" customHeight="1"/>
@@ -15704,6 +15643,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="E38:J38"/>
     <mergeCell ref="A39:J39"/>
@@ -15720,39 +15692,6 @@
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:J49"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/APF/RA006/RA006_APF0201_功能清單設定作業.xlsx
+++ b/APF/RA006/RA006_APF0201_功能清單設定作業.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="266">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -985,11 +985,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>如是有URL的功能的新增，則是必填欄位，若空白時，出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 35，
-並將cursor停留於該欄位且顏色反橘。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>功能代號</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1029,10 +1024,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>輸入之功能代號不得存在於APF apf_menu_node 資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 11</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">RA006_APF0201_功能清單設定作業 </t>
     </r>
@@ -1111,14 +1102,6 @@
   <si>
     <t>View</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>點選清除重填按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 46。若選擇是，則清除所有欄位，若選擇否，則不做任何動作。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>開啟APF0201MA1於原畫面的右下角，已繫結URL的功能清單，新增按鈕無法點擊(僅允許無繫結URL的功能清單，新增子功能)，並顯示提示訊息，訊息內容請參考APF訊息表 APF_NO 45。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>下拉式選單，無</t>
@@ -1256,21 +1239,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>儲存成功:
-1.於本頁顯示儲存成功確認訊息，訊息內容請參考APF訊息表 APF_NO 10。
-2.左下方功能清單TreeView重新載入，並顯示新增的功能清單，右下方頁面則保持在原新增畫面
-儲存失敗:以MsgBox顯示錯誤訊息，訊息內容請參考APF訊息表 APF_NO 11。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>點選儲存按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 14，若選擇是，則進行儲存，若選擇否，則不做任何動作。
-儲存成功:
-1.在APF0201MU1右下角提示儲存成功訊息，訊息內容請參考APF訊息表 APF_NO 12。
-2.左下方功能清單TreeView重新載入，並顯示修改的功能清單，右下方頁面則保持在原編輯畫面
-儲存失敗:以MsgBox顯示錯誤訊息，訊息內容請參考APF訊息表 APF_NO 11或13。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>重新載入</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1283,8 +1251,88 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>其他</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>點選重新載入按鈕，欄位重新載入，回至最近一次編輯初始狀態。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+最大長度限制:中文200(控制項控制)
+必填欄位。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:date
+最大長度限制:英文8(控制項控制)
+如是有URL的功能的新增，則是必填欄位。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:date
+最大長度限制:英文8(控制項控制)
+如是有URL的功能的新增，則是必填欄位。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>如是有URL的功能的新增，則是必填欄位，</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+最大長度限制:中文200(控制項控制)
+必填欄位。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 02001。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開啟APF0201MA1於原畫面的右下角，已繫結URL的功能清單，新增按鈕無法點擊(僅允許無繫結URL的功能清單，新增子功能)，並顯示提示訊息，訊息內容請參考APF訊息表 APF_NO 03004。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入之功能名稱不得存在於APF apf_menu_root 或 apf_menu_node 資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 03003</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>如是有URL的功能的新增，則是必填欄位，若空白時，出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 06002，
+並將cursor停留於該欄位且顏色反橘。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入之功能代號不得存在於APF apf_menu_node 資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 03002</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>儲存成功:
+1.於本頁顯示儲存成功確認訊息，訊息內容請參考APF訊息表 APF_NO 03001。
+2.左下方功能清單TreeView重新載入，並顯示新增的功能清單，右下方頁面則保持在原新增畫面
+儲存失敗:以MsgBox顯示錯誤訊息，訊息內容請參考APF訊息表 APF_NO 03002。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>儲存輸入之功能名稱不得存在於APF apf_menu_root 或 apf_menu_node 資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 04003，或該筆記錄在儲存前，已被人刪除，則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 04002</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">輸入之功能代號不得存在於APF apf_menu_node 資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 04003，或該筆記錄在儲存前，已被人刪除，則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 04002 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>點選儲存按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 04004，若選擇是，則進行儲存，若選擇否，則不做任何動作。
+儲存成功:
+1.在APF0201MU1右下角提示儲存成功訊息，訊息內容請參考APF訊息表 APF_NO 04001。
+2.左下方功能清單TreeView重新載入，並顯示修改的功能清單，右下方頁面則保持在原編輯畫面
+儲存失敗:以MsgBox顯示錯誤訊息，訊息內容請參考APF訊息表 APF_NO 03002或13。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
-      <t>按下刪除按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 19，若對提示確認訊息選擇是，則進行刪除並回應刪除成功訊息，訊息內容請參考APF訊息表 APF_NO 16，左下方功能清單TreeView重新載入，右下角頁面則清除所有欄位，如刪除失敗，則回應顯示錯誤訊息，訊息內容請參考APF訊息表 APF_NO 17或18；若對提示確認訊息選擇否，則不做任何動作。</t>
+      <t>按下刪除按鈕，系統提示確認訊息，訊息內容請參考APF訊息表 APF_NO 05004，若對提示確認訊息選擇是，則進行刪除並回應刪除成功訊息，訊息內容請參考APF訊息表 APF_NO 05001，左下方功能清單TreeView重新載入，右下角頁面則清除所有欄位，如刪除失敗，則回應顯示錯誤訊息，訊息內容請參考APF訊息表 APF_NO 05002或05003；若對提示確認訊息選擇否，則不做任何動作。</t>
     </r>
     <r>
       <rPr>
@@ -1296,58 +1344,6 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>點選重新載入按鈕，欄位重新載入，回至最近一次編輯初始狀態。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入之功能名稱不得存在於APF apf_menu_root 或 apf_menu_node 資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 49</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-最大長度限制:中文200(控制項控制)
-必填欄位。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:date
-最大長度限制:英文8(控制項控制)
-如是有URL的功能的新增，則是必填欄位。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:date
-最大長度限制:英文8(控制項控制)
-如是有URL的功能的新增，則是必填欄位。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>如是有URL的功能的新增，則是必填欄位，</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-最大長度限制:中文200(控制項控制)
-必填欄位。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">儲存輸入之功能名稱不得存在於APF apf_menu_root 或 apf_menu_node 資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 50，或該筆記錄在儲存前，已被人刪除，則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 13 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">輸入之功能代號不得存在於APF apf_menu_node 資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 50，或該筆記錄在儲存前，已被人刪除，則出現錯誤訊息，訊息內容請參考APF訊息表 APF_NO 13 </t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2198,14 +2194,53 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2219,15 +2254,6 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2237,39 +2263,192 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2278,189 +2457,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2483,29 +2479,29 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -10257,7 +10253,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B1" s="107"/>
       <c r="C1" s="107"/>
@@ -10293,10 +10289,10 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="106" t="s">
@@ -10308,16 +10304,16 @@
         <v>103</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D5" s="106" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="108"/>
       <c r="B6" s="31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="106" t="s">
@@ -10329,7 +10325,7 @@
         <v>104</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D7" s="106" t="s">
         <v>100</v>
@@ -10338,7 +10334,7 @@
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="108"/>
       <c r="B8" s="31" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="106" t="s">
@@ -10347,10 +10343,10 @@
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
       <c r="A9" s="108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D9" s="106" t="s">
         <v>99</v>
@@ -10359,7 +10355,7 @@
     <row r="10" spans="1:4" ht="21" customHeight="1">
       <c r="A10" s="108"/>
       <c r="B10" s="31" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="106" t="s">
@@ -10458,7 +10454,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="160" t="s">
+      <c r="K1" s="154" t="s">
         <v>55</v>
       </c>
       <c r="L1" s="36"/>
@@ -10485,7 +10481,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="161"/>
+      <c r="K2" s="155"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -10503,7 +10499,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="161"/>
+      <c r="K3" s="155"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -10733,7 +10729,7 @@
         <v>156</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>163</v>
@@ -10763,7 +10759,7 @@
         <v>157</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>163</v>
@@ -11161,7 +11157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -11177,15 +11173,15 @@
       <c r="A1" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="112" t="s">
+      <c r="M1" s="125" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="113"/>
+      <c r="M2" s="126"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="113"/>
+      <c r="M3" s="126"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -11202,192 +11198,192 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="128"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="118"/>
     </row>
     <row r="6" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="122" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="131"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
     </row>
     <row r="7" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="116" t="s">
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="118"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="111"/>
     </row>
     <row r="8" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="110" t="s">
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="111"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="115"/>
     </row>
     <row r="9" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="116" t="s">
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="118"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="111"/>
     </row>
     <row r="10" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="110" t="s">
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="111"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="115"/>
     </row>
     <row r="11" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="125" t="s">
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="118"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="111"/>
     </row>
     <row r="12" spans="1:13" s="55" customFormat="1" ht="16.5">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="124"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="111"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="115"/>
     </row>
     <row r="13" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="125" t="s">
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="118"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="111"/>
     </row>
     <row r="14" spans="1:13" s="55" customFormat="1" ht="16.5">
-      <c r="A14" s="126" t="s">
+      <c r="A14" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="111"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="115"/>
     </row>
     <row r="15" spans="1:13" s="82" customFormat="1" ht="16.5">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="111"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="115"/>
     </row>
     <row r="16" spans="1:13" s="82" customFormat="1" ht="14.25"/>
     <row r="17" s="82" customFormat="1" ht="14.25"/>
@@ -11434,64 +11430,55 @@
     <row r="58" s="82" customFormat="1" ht="14.25"/>
     <row r="59" s="82" customFormat="1" ht="14.25"/>
     <row r="66" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A66" s="119" t="s">
+      <c r="A66" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="B66" s="120"/>
-      <c r="C66" s="120"/>
-      <c r="D66" s="120"/>
-      <c r="E66" s="120"/>
-      <c r="F66" s="120"/>
-      <c r="G66" s="120"/>
-      <c r="H66" s="120"/>
-      <c r="I66" s="120"/>
-      <c r="J66" s="120"/>
-      <c r="K66" s="120"/>
-      <c r="L66" s="121"/>
+      <c r="B66" s="130"/>
+      <c r="C66" s="130"/>
+      <c r="D66" s="130"/>
+      <c r="E66" s="130"/>
+      <c r="F66" s="130"/>
+      <c r="G66" s="130"/>
+      <c r="H66" s="130"/>
+      <c r="I66" s="130"/>
+      <c r="J66" s="130"/>
+      <c r="K66" s="130"/>
+      <c r="L66" s="131"/>
     </row>
     <row r="67" spans="1:12" s="82" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A67" s="109" t="s">
-        <v>245</v>
-      </c>
-      <c r="B67" s="110"/>
-      <c r="C67" s="110"/>
-      <c r="D67" s="110"/>
-      <c r="E67" s="110"/>
-      <c r="F67" s="110"/>
-      <c r="G67" s="110"/>
-      <c r="H67" s="110"/>
-      <c r="I67" s="110"/>
-      <c r="J67" s="110"/>
-      <c r="K67" s="110"/>
-      <c r="L67" s="111"/>
+      <c r="A67" s="116" t="s">
+        <v>241</v>
+      </c>
+      <c r="B67" s="114"/>
+      <c r="C67" s="114"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="114"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="114"/>
+      <c r="J67" s="114"/>
+      <c r="K67" s="114"/>
+      <c r="L67" s="115"/>
     </row>
     <row r="68" spans="1:12" s="82" customFormat="1" ht="21" customHeight="1">
-      <c r="A68" s="109" t="s">
-        <v>256</v>
-      </c>
-      <c r="B68" s="110"/>
-      <c r="C68" s="110"/>
-      <c r="D68" s="110"/>
-      <c r="E68" s="110"/>
-      <c r="F68" s="110"/>
-      <c r="G68" s="110"/>
-      <c r="H68" s="110"/>
-      <c r="I68" s="110"/>
-      <c r="J68" s="110"/>
-      <c r="K68" s="110"/>
-      <c r="L68" s="111"/>
+      <c r="A68" s="116" t="s">
+        <v>249</v>
+      </c>
+      <c r="B68" s="114"/>
+      <c r="C68" s="114"/>
+      <c r="D68" s="114"/>
+      <c r="E68" s="114"/>
+      <c r="F68" s="114"/>
+      <c r="G68" s="114"/>
+      <c r="H68" s="114"/>
+      <c r="I68" s="114"/>
+      <c r="J68" s="114"/>
+      <c r="K68" s="114"/>
+      <c r="L68" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="A68:L68"/>
     <mergeCell ref="A67:L67"/>
     <mergeCell ref="M1:M3"/>
@@ -11506,6 +11493,15 @@
     <mergeCell ref="F14:L14"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -11581,15 +11577,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="112" t="s">
-        <v>244</v>
+      <c r="P1" s="125" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="113"/>
+      <c r="P2" s="126"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="113"/>
+      <c r="P3" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11664,8 +11660,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+    <sheetView topLeftCell="A41" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53:J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11695,7 +11691,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="160" t="s">
+      <c r="K1" s="154" t="s">
         <v>55</v>
       </c>
       <c r="L1" s="51"/>
@@ -11716,7 +11712,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="161"/>
+      <c r="K2" s="155"/>
     </row>
     <row r="3" spans="1:17" s="52" customFormat="1">
       <c r="A3" s="44"/>
@@ -11729,7 +11725,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="161"/>
+      <c r="K3" s="155"/>
     </row>
     <row r="4" spans="1:17" s="52" customFormat="1">
       <c r="A4" s="44"/>
@@ -11744,152 +11740,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="52" customFormat="1">
-      <c r="A5" s="171" t="s">
+      <c r="A5" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="129"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="131"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="124"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="172"/>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="175"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="166"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="172"/>
-      <c r="B8" s="173"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="175"/>
+      <c r="A8" s="163"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="166"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="176"/>
-      <c r="B9" s="177"/>
-      <c r="C9" s="177"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="178"/>
+      <c r="A9" s="167"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="169"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="171" t="s">
+      <c r="A10" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="111"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="179" t="s">
+      <c r="A11" s="170" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="111"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="115"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="171" t="s">
+      <c r="A12" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="111"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="179" t="s">
+      <c r="A13" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="111"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="171" t="s">
+      <c r="A14" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="111"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="142" t="s">
+      <c r="A15" s="174" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="152"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="153"/>
+      <c r="B15" s="175"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="176"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
@@ -11898,16 +11894,16 @@
       <c r="B16" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="138" t="s">
+      <c r="C16" s="177" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="144"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="179"/>
     </row>
     <row r="17" spans="1:12" s="53" customFormat="1">
       <c r="A17" s="56">
@@ -11916,16 +11912,16 @@
       <c r="B17" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="154" t="s">
-        <v>223</v>
-      </c>
-      <c r="D17" s="155"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="155"/>
-      <c r="J17" s="156"/>
+      <c r="C17" s="180" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="181"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="181"/>
+      <c r="I17" s="181"/>
+      <c r="J17" s="182"/>
     </row>
     <row r="18" spans="1:12" s="53" customFormat="1" ht="30.75" customHeight="1">
       <c r="A18" s="56">
@@ -11934,16 +11930,16 @@
       <c r="B18" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="157" t="s">
-        <v>224</v>
-      </c>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="145"/>
+      <c r="C18" s="183" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="184"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="185"/>
     </row>
     <row r="19" spans="1:12" s="53" customFormat="1" ht="33.75" customHeight="1">
       <c r="A19" s="56">
@@ -11952,42 +11948,42 @@
       <c r="B19" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="157" t="s">
+      <c r="C19" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="145"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="185"/>
     </row>
     <row r="20" spans="1:12" s="53" customFormat="1">
-      <c r="A20" s="136"/>
-      <c r="B20" s="137"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="158"/>
+      <c r="A20" s="135"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="136"/>
     </row>
     <row r="21" spans="1:12" s="53" customFormat="1">
-      <c r="A21" s="142" t="s">
+      <c r="A21" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="152"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="152"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="153"/>
+      <c r="B21" s="175"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="175"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="176"/>
     </row>
     <row r="22" spans="1:12" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="56" t="s">
@@ -11996,16 +11992,16 @@
       <c r="B22" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="138" t="s">
+      <c r="C22" s="177" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="144"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="179"/>
     </row>
     <row r="23" spans="1:12" s="53" customFormat="1">
       <c r="A23" s="56">
@@ -12014,16 +12010,16 @@
       <c r="B23" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="140" t="s">
-        <v>225</v>
-      </c>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="145"/>
+      <c r="C23" s="187" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="185"/>
     </row>
     <row r="24" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A24" s="56">
@@ -12032,16 +12028,16 @@
       <c r="B24" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="140" t="s">
+      <c r="C24" s="187" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="145"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="184"/>
+      <c r="J24" s="185"/>
     </row>
     <row r="25" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A25" s="56">
@@ -12050,16 +12046,16 @@
       <c r="B25" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="140" t="s">
+      <c r="C25" s="187" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="145"/>
+      <c r="D25" s="184"/>
+      <c r="E25" s="184"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="184"/>
+      <c r="H25" s="184"/>
+      <c r="I25" s="184"/>
+      <c r="J25" s="185"/>
     </row>
     <row r="26" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A26" s="56">
@@ -12068,56 +12064,56 @@
       <c r="B26" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="140" t="s">
+      <c r="C26" s="187" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="145"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="184"/>
+      <c r="I26" s="184"/>
+      <c r="J26" s="185"/>
     </row>
     <row r="27" spans="1:12" s="53" customFormat="1">
-      <c r="A27" s="168"/>
-      <c r="B27" s="169"/>
-      <c r="C27" s="169"/>
-      <c r="D27" s="169"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="169"/>
-      <c r="G27" s="169"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="169"/>
-      <c r="J27" s="170"/>
+      <c r="A27" s="159"/>
+      <c r="B27" s="160"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="161"/>
     </row>
     <row r="28" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="132" t="s">
+      <c r="A28" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="180"/>
-      <c r="C28" s="180"/>
-      <c r="D28" s="180"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="180"/>
-      <c r="H28" s="180"/>
-      <c r="I28" s="180"/>
-      <c r="J28" s="181"/>
+      <c r="B28" s="172"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="173"/>
     </row>
     <row r="29" spans="1:12" s="53" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="142" t="s">
+      <c r="A29" s="174" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="152"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="152"/>
-      <c r="I29" s="152"/>
-      <c r="J29" s="153"/>
+      <c r="B29" s="175"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="176"/>
     </row>
     <row r="30" spans="1:12" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="56" t="s">
@@ -12126,16 +12122,16 @@
       <c r="B30" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="138" t="s">
+      <c r="C30" s="177" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="139"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="144"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="179"/>
     </row>
     <row r="31" spans="1:12" s="53" customFormat="1">
       <c r="A31" s="56">
@@ -12144,16 +12140,16 @@
       <c r="B31" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="140" t="s">
+      <c r="C31" s="187" t="s">
         <v>127</v>
       </c>
-      <c r="D31" s="141"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="141"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="184"/>
       <c r="K31" s="95"/>
       <c r="L31" s="93"/>
     </row>
@@ -12162,18 +12158,18 @@
         <v>2</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="C32" s="146" t="s">
-        <v>258</v>
-      </c>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="148"/>
+        <v>223</v>
+      </c>
+      <c r="C32" s="188" t="s">
+        <v>256</v>
+      </c>
+      <c r="D32" s="189"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="189"/>
+      <c r="G32" s="189"/>
+      <c r="H32" s="189"/>
+      <c r="I32" s="189"/>
+      <c r="J32" s="190"/>
       <c r="K32" s="95"/>
       <c r="L32" s="92"/>
     </row>
@@ -12182,46 +12178,46 @@
         <v>3</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="151"/>
+        <v>224</v>
+      </c>
+      <c r="C33" s="191"/>
+      <c r="D33" s="192"/>
+      <c r="E33" s="192"/>
+      <c r="F33" s="192"/>
+      <c r="G33" s="192"/>
+      <c r="H33" s="192"/>
+      <c r="I33" s="192"/>
+      <c r="J33" s="193"/>
       <c r="K33" s="95"/>
       <c r="L33" s="94"/>
     </row>
     <row r="34" spans="1:12" s="53" customFormat="1">
-      <c r="A34" s="136"/>
-      <c r="B34" s="137"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="137"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="137"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="137"/>
-      <c r="J34" s="137"/>
+      <c r="A34" s="135"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="152"/>
       <c r="K34" s="95"/>
       <c r="L34" s="94"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1">
-      <c r="A35" s="142" t="s">
+      <c r="A35" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="143"/>
-      <c r="C35" s="143"/>
-      <c r="D35" s="143"/>
-      <c r="E35" s="143"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="143"/>
-      <c r="H35" s="143"/>
-      <c r="I35" s="143"/>
-      <c r="J35" s="143"/>
+      <c r="B35" s="186"/>
+      <c r="C35" s="186"/>
+      <c r="D35" s="186"/>
+      <c r="E35" s="186"/>
+      <c r="F35" s="186"/>
+      <c r="G35" s="186"/>
+      <c r="H35" s="186"/>
+      <c r="I35" s="186"/>
+      <c r="J35" s="186"/>
       <c r="K35" s="95"/>
       <c r="L35" s="92"/>
     </row>
@@ -12232,16 +12228,16 @@
       <c r="B36" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="138" t="s">
+      <c r="C36" s="177" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="139"/>
-      <c r="E36" s="139"/>
-      <c r="F36" s="139"/>
-      <c r="G36" s="139"/>
-      <c r="H36" s="139"/>
-      <c r="I36" s="139"/>
-      <c r="J36" s="139"/>
+      <c r="D36" s="178"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="178"/>
+      <c r="G36" s="178"/>
+      <c r="H36" s="178"/>
+      <c r="I36" s="178"/>
+      <c r="J36" s="178"/>
       <c r="K36" s="95"/>
       <c r="L36" s="94"/>
     </row>
@@ -12252,16 +12248,16 @@
       <c r="B37" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="140" t="s">
+      <c r="C37" s="187" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="141"/>
+      <c r="D37" s="184"/>
+      <c r="E37" s="184"/>
+      <c r="F37" s="184"/>
+      <c r="G37" s="184"/>
+      <c r="H37" s="184"/>
+      <c r="I37" s="184"/>
+      <c r="J37" s="184"/>
       <c r="K37" s="95"/>
       <c r="L37" s="94"/>
     </row>
@@ -12272,16 +12268,16 @@
       <c r="B38" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="140" t="s">
+      <c r="C38" s="187" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="141"/>
-      <c r="E38" s="141"/>
-      <c r="F38" s="141"/>
-      <c r="G38" s="141"/>
-      <c r="H38" s="141"/>
-      <c r="I38" s="141"/>
-      <c r="J38" s="141"/>
+      <c r="D38" s="184"/>
+      <c r="E38" s="184"/>
+      <c r="F38" s="184"/>
+      <c r="G38" s="184"/>
+      <c r="H38" s="184"/>
+      <c r="I38" s="184"/>
+      <c r="J38" s="184"/>
       <c r="K38" s="95"/>
       <c r="L38" s="94"/>
     </row>
@@ -12292,16 +12288,16 @@
       <c r="B39" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="140" t="s">
+      <c r="C39" s="187" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="141"/>
-      <c r="E39" s="141"/>
-      <c r="F39" s="141"/>
-      <c r="G39" s="141"/>
-      <c r="H39" s="141"/>
-      <c r="I39" s="141"/>
-      <c r="J39" s="141"/>
+      <c r="D39" s="184"/>
+      <c r="E39" s="184"/>
+      <c r="F39" s="184"/>
+      <c r="G39" s="184"/>
+      <c r="H39" s="184"/>
+      <c r="I39" s="184"/>
+      <c r="J39" s="184"/>
       <c r="K39" s="95"/>
       <c r="L39" s="94"/>
     </row>
@@ -12312,46 +12308,46 @@
       <c r="B40" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="140" t="s">
+      <c r="C40" s="187" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="141"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="141"/>
-      <c r="G40" s="141"/>
-      <c r="H40" s="141"/>
-      <c r="I40" s="141"/>
-      <c r="J40" s="141"/>
+      <c r="D40" s="184"/>
+      <c r="E40" s="184"/>
+      <c r="F40" s="184"/>
+      <c r="G40" s="184"/>
+      <c r="H40" s="184"/>
+      <c r="I40" s="184"/>
+      <c r="J40" s="184"/>
       <c r="K40" s="95"/>
       <c r="L40" s="92"/>
     </row>
     <row r="41" spans="1:12" s="53" customFormat="1">
-      <c r="A41" s="136"/>
-      <c r="B41" s="137"/>
-      <c r="C41" s="137"/>
-      <c r="D41" s="137"/>
-      <c r="E41" s="137"/>
-      <c r="F41" s="137"/>
-      <c r="G41" s="137"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="137"/>
-      <c r="J41" s="137"/>
+      <c r="A41" s="135"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="152"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152"/>
+      <c r="I41" s="152"/>
+      <c r="J41" s="152"/>
       <c r="K41" s="95"/>
       <c r="L41" s="92"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="132" t="s">
+      <c r="A42" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="133"/>
-      <c r="C42" s="133"/>
-      <c r="D42" s="133"/>
-      <c r="E42" s="133"/>
-      <c r="F42" s="133"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="133"/>
-      <c r="J42" s="133"/>
+      <c r="B42" s="194"/>
+      <c r="C42" s="194"/>
+      <c r="D42" s="194"/>
+      <c r="E42" s="194"/>
+      <c r="F42" s="194"/>
+      <c r="G42" s="194"/>
+      <c r="H42" s="194"/>
+      <c r="I42" s="194"/>
+      <c r="J42" s="194"/>
       <c r="K42" s="95"/>
       <c r="L42" s="92"/>
     </row>
@@ -12368,14 +12364,14 @@
       <c r="D43" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="134" t="s">
+      <c r="E43" s="195" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="135"/>
-      <c r="G43" s="135"/>
-      <c r="H43" s="135"/>
-      <c r="I43" s="135"/>
-      <c r="J43" s="135"/>
+      <c r="F43" s="196"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="196"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="196"/>
       <c r="K43" s="53"/>
       <c r="L43" s="53"/>
     </row>
@@ -12388,40 +12384,40 @@
       </c>
       <c r="C44" s="61"/>
       <c r="D44" s="62"/>
-      <c r="E44" s="193" t="s">
-        <v>226</v>
-      </c>
-      <c r="F44" s="124"/>
-      <c r="G44" s="124"/>
-      <c r="H44" s="124"/>
-      <c r="I44" s="124"/>
-      <c r="J44" s="124"/>
+      <c r="E44" s="145" t="s">
+        <v>222</v>
+      </c>
+      <c r="F44" s="113"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="113"/>
     </row>
     <row r="45" spans="1:12" s="53" customFormat="1">
       <c r="A45" s="63"/>
-      <c r="B45" s="137"/>
-      <c r="C45" s="137"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="137"/>
-      <c r="I45" s="137"/>
-      <c r="J45" s="158"/>
+      <c r="B45" s="152"/>
+      <c r="C45" s="152"/>
+      <c r="D45" s="152"/>
+      <c r="E45" s="152"/>
+      <c r="F45" s="152"/>
+      <c r="G45" s="152"/>
+      <c r="H45" s="152"/>
+      <c r="I45" s="152"/>
+      <c r="J45" s="136"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1">
-      <c r="A46" s="165" t="s">
-        <v>253</v>
-      </c>
-      <c r="B46" s="166"/>
-      <c r="C46" s="166"/>
-      <c r="D46" s="166"/>
-      <c r="E46" s="166"/>
-      <c r="F46" s="166"/>
-      <c r="G46" s="166"/>
-      <c r="H46" s="166"/>
-      <c r="I46" s="166"/>
-      <c r="J46" s="167"/>
+      <c r="A46" s="156" t="s">
+        <v>247</v>
+      </c>
+      <c r="B46" s="157"/>
+      <c r="C46" s="157"/>
+      <c r="D46" s="157"/>
+      <c r="E46" s="157"/>
+      <c r="F46" s="157"/>
+      <c r="G46" s="157"/>
+      <c r="H46" s="157"/>
+      <c r="I46" s="157"/>
+      <c r="J46" s="158"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="56">
@@ -12434,14 +12430,14 @@
         <v>18</v>
       </c>
       <c r="D47" s="66"/>
-      <c r="E47" s="193" t="s">
+      <c r="E47" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="F47" s="124"/>
-      <c r="G47" s="124"/>
-      <c r="H47" s="124"/>
-      <c r="I47" s="124"/>
-      <c r="J47" s="124"/>
+      <c r="F47" s="113"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="113"/>
+      <c r="J47" s="113"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1">
       <c r="A48" s="67">
@@ -12454,14 +12450,14 @@
         <v>18</v>
       </c>
       <c r="D48" s="69"/>
-      <c r="E48" s="162" t="s">
+      <c r="E48" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="F48" s="163"/>
-      <c r="G48" s="163"/>
-      <c r="H48" s="163"/>
-      <c r="I48" s="163"/>
-      <c r="J48" s="164"/>
+      <c r="F48" s="150"/>
+      <c r="G48" s="150"/>
+      <c r="H48" s="150"/>
+      <c r="I48" s="150"/>
+      <c r="J48" s="151"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1">
       <c r="A49" s="70">
@@ -12474,40 +12470,40 @@
         <v>18</v>
       </c>
       <c r="D49" s="71"/>
-      <c r="E49" s="182" t="s">
+      <c r="E49" s="132" t="s">
         <v>130</v>
       </c>
-      <c r="F49" s="110"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="110"/>
-      <c r="I49" s="110"/>
-      <c r="J49" s="111"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="115"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1">
       <c r="A50" s="72"/>
-      <c r="B50" s="137"/>
-      <c r="C50" s="137"/>
-      <c r="D50" s="137"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="137"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="137"/>
-      <c r="J50" s="158"/>
+      <c r="B50" s="152"/>
+      <c r="C50" s="152"/>
+      <c r="D50" s="152"/>
+      <c r="E50" s="152"/>
+      <c r="F50" s="152"/>
+      <c r="G50" s="152"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="152"/>
+      <c r="J50" s="136"/>
     </row>
     <row r="51" spans="1:10" s="53" customFormat="1">
-      <c r="A51" s="194" t="s">
-        <v>254</v>
-      </c>
-      <c r="B51" s="195"/>
-      <c r="C51" s="195"/>
-      <c r="D51" s="195"/>
-      <c r="E51" s="195"/>
-      <c r="F51" s="195"/>
-      <c r="G51" s="195"/>
-      <c r="H51" s="195"/>
-      <c r="I51" s="195"/>
-      <c r="J51" s="196"/>
+      <c r="A51" s="146" t="s">
+        <v>248</v>
+      </c>
+      <c r="B51" s="147"/>
+      <c r="C51" s="147"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="147"/>
+      <c r="F51" s="147"/>
+      <c r="G51" s="147"/>
+      <c r="H51" s="147"/>
+      <c r="I51" s="147"/>
+      <c r="J51" s="148"/>
     </row>
     <row r="52" spans="1:10" s="53" customFormat="1">
       <c r="A52" s="56">
@@ -12520,14 +12516,14 @@
         <v>18</v>
       </c>
       <c r="D52" s="66"/>
-      <c r="E52" s="193" t="s">
+      <c r="E52" s="145" t="s">
         <v>154</v>
       </c>
-      <c r="F52" s="124"/>
-      <c r="G52" s="124"/>
-      <c r="H52" s="124"/>
-      <c r="I52" s="124"/>
-      <c r="J52" s="124"/>
+      <c r="F52" s="113"/>
+      <c r="G52" s="113"/>
+      <c r="H52" s="113"/>
+      <c r="I52" s="113"/>
+      <c r="J52" s="113"/>
     </row>
     <row r="53" spans="1:10" s="53" customFormat="1" ht="66" customHeight="1">
       <c r="A53" s="56">
@@ -12540,14 +12536,14 @@
         <v>18</v>
       </c>
       <c r="D53" s="69"/>
-      <c r="E53" s="193" t="s">
-        <v>222</v>
-      </c>
-      <c r="F53" s="124"/>
-      <c r="G53" s="124"/>
-      <c r="H53" s="124"/>
-      <c r="I53" s="124"/>
-      <c r="J53" s="124"/>
+      <c r="E53" s="145" t="s">
+        <v>257</v>
+      </c>
+      <c r="F53" s="113"/>
+      <c r="G53" s="113"/>
+      <c r="H53" s="113"/>
+      <c r="I53" s="113"/>
+      <c r="J53" s="113"/>
     </row>
     <row r="54" spans="1:10" s="53" customFormat="1">
       <c r="A54" s="56">
@@ -12560,14 +12556,14 @@
         <v>18</v>
       </c>
       <c r="D54" s="69"/>
-      <c r="E54" s="162" t="s">
+      <c r="E54" s="149" t="s">
         <v>152</v>
       </c>
-      <c r="F54" s="163"/>
-      <c r="G54" s="163"/>
-      <c r="H54" s="163"/>
-      <c r="I54" s="163"/>
-      <c r="J54" s="164"/>
+      <c r="F54" s="150"/>
+      <c r="G54" s="150"/>
+      <c r="H54" s="150"/>
+      <c r="I54" s="150"/>
+      <c r="J54" s="151"/>
     </row>
     <row r="55" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
       <c r="A55" s="56">
@@ -12580,14 +12576,14 @@
         <v>18</v>
       </c>
       <c r="D55" s="69"/>
-      <c r="E55" s="162" t="s">
+      <c r="E55" s="149" t="s">
         <v>153</v>
       </c>
-      <c r="F55" s="163"/>
-      <c r="G55" s="163"/>
-      <c r="H55" s="163"/>
-      <c r="I55" s="163"/>
-      <c r="J55" s="164"/>
+      <c r="F55" s="150"/>
+      <c r="G55" s="150"/>
+      <c r="H55" s="150"/>
+      <c r="I55" s="150"/>
+      <c r="J55" s="151"/>
     </row>
     <row r="56" spans="1:10" s="53" customFormat="1" hidden="1">
       <c r="A56" s="56">
@@ -12600,118 +12596,118 @@
         <v>18</v>
       </c>
       <c r="D56" s="69"/>
-      <c r="E56" s="162" t="s">
+      <c r="E56" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="F56" s="163"/>
-      <c r="G56" s="163"/>
-      <c r="H56" s="163"/>
-      <c r="I56" s="163"/>
-      <c r="J56" s="164"/>
+      <c r="F56" s="150"/>
+      <c r="G56" s="150"/>
+      <c r="H56" s="150"/>
+      <c r="I56" s="150"/>
+      <c r="J56" s="151"/>
     </row>
     <row r="57" spans="1:10" s="53" customFormat="1">
       <c r="A57" s="73"/>
-      <c r="B57" s="137"/>
-      <c r="C57" s="137"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="137"/>
-      <c r="F57" s="137"/>
-      <c r="G57" s="137"/>
-      <c r="H57" s="137"/>
-      <c r="I57" s="137"/>
-      <c r="J57" s="158"/>
+      <c r="B57" s="152"/>
+      <c r="C57" s="152"/>
+      <c r="D57" s="152"/>
+      <c r="E57" s="152"/>
+      <c r="F57" s="152"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="152"/>
+      <c r="I57" s="152"/>
+      <c r="J57" s="136"/>
     </row>
     <row r="58" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="190" t="s">
+      <c r="A58" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="191"/>
-      <c r="C58" s="191"/>
-      <c r="D58" s="191"/>
-      <c r="E58" s="191"/>
-      <c r="F58" s="191"/>
-      <c r="G58" s="191"/>
-      <c r="H58" s="191"/>
-      <c r="I58" s="191"/>
-      <c r="J58" s="192"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="143"/>
+      <c r="E58" s="143"/>
+      <c r="F58" s="143"/>
+      <c r="G58" s="143"/>
+      <c r="H58" s="143"/>
+      <c r="I58" s="143"/>
+      <c r="J58" s="144"/>
     </row>
     <row r="59" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="188" t="s">
+      <c r="B59" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="189"/>
-      <c r="D59" s="182" t="s">
+      <c r="C59" s="141"/>
+      <c r="D59" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="110"/>
-      <c r="F59" s="110"/>
-      <c r="G59" s="110"/>
-      <c r="H59" s="110"/>
-      <c r="I59" s="110"/>
-      <c r="J59" s="111"/>
+      <c r="E59" s="114"/>
+      <c r="F59" s="114"/>
+      <c r="G59" s="114"/>
+      <c r="H59" s="114"/>
+      <c r="I59" s="114"/>
+      <c r="J59" s="115"/>
     </row>
     <row r="60" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="185"/>
-      <c r="B60" s="186"/>
-      <c r="C60" s="186"/>
-      <c r="D60" s="186"/>
-      <c r="E60" s="186"/>
-      <c r="F60" s="186"/>
-      <c r="G60" s="186"/>
-      <c r="H60" s="186"/>
-      <c r="I60" s="186"/>
-      <c r="J60" s="187"/>
+      <c r="A60" s="137"/>
+      <c r="B60" s="138"/>
+      <c r="C60" s="138"/>
+      <c r="D60" s="138"/>
+      <c r="E60" s="138"/>
+      <c r="F60" s="138"/>
+      <c r="G60" s="138"/>
+      <c r="H60" s="138"/>
+      <c r="I60" s="138"/>
+      <c r="J60" s="139"/>
     </row>
     <row r="61" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="70"/>
-      <c r="B61" s="136"/>
-      <c r="C61" s="158"/>
-      <c r="D61" s="182"/>
-      <c r="E61" s="183"/>
-      <c r="F61" s="183"/>
-      <c r="G61" s="183"/>
-      <c r="H61" s="183"/>
-      <c r="I61" s="183"/>
-      <c r="J61" s="184"/>
+      <c r="B61" s="135"/>
+      <c r="C61" s="136"/>
+      <c r="D61" s="132"/>
+      <c r="E61" s="133"/>
+      <c r="F61" s="133"/>
+      <c r="G61" s="133"/>
+      <c r="H61" s="133"/>
+      <c r="I61" s="133"/>
+      <c r="J61" s="134"/>
     </row>
     <row r="62" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="70"/>
-      <c r="B62" s="136"/>
-      <c r="C62" s="158"/>
-      <c r="D62" s="182"/>
-      <c r="E62" s="183"/>
-      <c r="F62" s="183"/>
-      <c r="G62" s="183"/>
-      <c r="H62" s="183"/>
-      <c r="I62" s="183"/>
-      <c r="J62" s="184"/>
+      <c r="B62" s="135"/>
+      <c r="C62" s="136"/>
+      <c r="D62" s="132"/>
+      <c r="E62" s="133"/>
+      <c r="F62" s="133"/>
+      <c r="G62" s="133"/>
+      <c r="H62" s="133"/>
+      <c r="I62" s="133"/>
+      <c r="J62" s="134"/>
     </row>
     <row r="63" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="185"/>
-      <c r="B63" s="186"/>
-      <c r="C63" s="186"/>
-      <c r="D63" s="186"/>
-      <c r="E63" s="186"/>
-      <c r="F63" s="186"/>
-      <c r="G63" s="186"/>
-      <c r="H63" s="186"/>
-      <c r="I63" s="186"/>
-      <c r="J63" s="187"/>
+      <c r="A63" s="137"/>
+      <c r="B63" s="138"/>
+      <c r="C63" s="138"/>
+      <c r="D63" s="138"/>
+      <c r="E63" s="138"/>
+      <c r="F63" s="138"/>
+      <c r="G63" s="138"/>
+      <c r="H63" s="138"/>
+      <c r="I63" s="138"/>
+      <c r="J63" s="139"/>
     </row>
     <row r="64" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="70"/>
-      <c r="B64" s="136"/>
-      <c r="C64" s="158"/>
-      <c r="D64" s="182"/>
-      <c r="E64" s="183"/>
-      <c r="F64" s="183"/>
-      <c r="G64" s="183"/>
-      <c r="H64" s="183"/>
-      <c r="I64" s="183"/>
-      <c r="J64" s="184"/>
+      <c r="B64" s="135"/>
+      <c r="C64" s="136"/>
+      <c r="D64" s="132"/>
+      <c r="E64" s="133"/>
+      <c r="F64" s="133"/>
+      <c r="G64" s="133"/>
+      <c r="H64" s="133"/>
+      <c r="I64" s="133"/>
+      <c r="J64" s="134"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="74" t="s">
@@ -12734,14 +12730,14 @@
       <c r="B66" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="136"/>
-      <c r="D66" s="110"/>
-      <c r="E66" s="110"/>
-      <c r="F66" s="110"/>
-      <c r="G66" s="110"/>
-      <c r="H66" s="110"/>
-      <c r="I66" s="110"/>
-      <c r="J66" s="111"/>
+      <c r="C66" s="135"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="114"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="114"/>
+      <c r="H66" s="114"/>
+      <c r="I66" s="114"/>
+      <c r="J66" s="115"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="70">
@@ -12750,22 +12746,59 @@
       <c r="B67" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="159"/>
-      <c r="D67" s="159"/>
-      <c r="E67" s="159"/>
-      <c r="F67" s="159"/>
-      <c r="G67" s="159"/>
-      <c r="H67" s="159"/>
-      <c r="I67" s="159"/>
-      <c r="J67" s="159"/>
+      <c r="C67" s="153"/>
+      <c r="D67" s="153"/>
+      <c r="E67" s="153"/>
+      <c r="F67" s="153"/>
+      <c r="G67" s="153"/>
+      <c r="H67" s="153"/>
+      <c r="I67" s="153"/>
+      <c r="J67" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="D64:J64"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J33"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="D61:J61"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="A60:J60"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="A58:J58"/>
@@ -12782,48 +12815,11 @@
     <mergeCell ref="B45:J45"/>
     <mergeCell ref="B50:J50"/>
     <mergeCell ref="B57:J57"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="D61:J61"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J33"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="B62:C62"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -12876,7 +12872,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="160" t="s">
+      <c r="K1" s="154" t="s">
         <v>55</v>
       </c>
       <c r="L1" s="36"/>
@@ -12903,7 +12899,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="161"/>
+      <c r="K2" s="155"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -12921,7 +12917,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="161"/>
+      <c r="K3" s="155"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -12986,19 +12982,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>235</v>
-      </c>
       <c r="E7" s="39" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>22</v>
@@ -13007,10 +13003,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -13058,19 +13054,19 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>235</v>
-      </c>
       <c r="E11" s="39" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>22</v>
@@ -13079,10 +13075,10 @@
         <v>16</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -13143,7 +13139,7 @@
         <v>69</v>
       </c>
       <c r="J13" s="200" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="22.5" customHeight="1">
@@ -13210,19 +13206,19 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="39" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F18" s="39" t="s">
         <v>22</v>
@@ -13234,7 +13230,7 @@
         <v>89</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J18" s="39" t="s">
         <v>0</v>
@@ -13385,8 +13381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:J18"/>
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13414,7 +13410,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="160" t="s">
+      <c r="K1" s="154" t="s">
         <v>55</v>
       </c>
       <c r="L1" s="51"/>
@@ -13435,7 +13431,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="161"/>
+      <c r="K2" s="155"/>
     </row>
     <row r="3" spans="1:17" s="52" customFormat="1">
       <c r="A3" s="44"/>
@@ -13448,7 +13444,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="161"/>
+      <c r="K3" s="155"/>
     </row>
     <row r="4" spans="1:17" s="52" customFormat="1">
       <c r="A4" s="44"/>
@@ -13463,152 +13459,152 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="52" customFormat="1">
-      <c r="A5" s="171" t="s">
+      <c r="A5" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="129"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="131"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="124"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="172"/>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="175"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="166"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="172"/>
-      <c r="B8" s="173"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="175"/>
+      <c r="A8" s="163"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="166"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="176"/>
-      <c r="B9" s="177"/>
-      <c r="C9" s="177"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="178"/>
+      <c r="A9" s="167"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="169"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="171" t="s">
+      <c r="A10" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="111"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="179" t="s">
+      <c r="A11" s="170" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="111"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="115"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="171" t="s">
+      <c r="A12" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="111"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="179" t="s">
+      <c r="A13" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="111"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="171" t="s">
+      <c r="A14" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="111"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="142" t="s">
+      <c r="A15" s="174" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="152"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="153"/>
+      <c r="B15" s="175"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="176"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
@@ -13617,16 +13613,16 @@
       <c r="B16" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="138" t="s">
+      <c r="C16" s="177" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="144"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="179"/>
     </row>
     <row r="17" spans="1:10" s="53" customFormat="1" ht="64.5" customHeight="1">
       <c r="A17" s="56">
@@ -13635,8 +13631,8 @@
       <c r="B17" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="157" t="s">
-        <v>260</v>
+      <c r="C17" s="183" t="s">
+        <v>251</v>
       </c>
       <c r="D17" s="204"/>
       <c r="E17" s="204"/>
@@ -13653,8 +13649,8 @@
       <c r="B18" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="C18" s="157" t="s">
-        <v>261</v>
+      <c r="C18" s="183" t="s">
+        <v>252</v>
       </c>
       <c r="D18" s="204"/>
       <c r="E18" s="204"/>
@@ -13671,8 +13667,8 @@
       <c r="B19" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="157" t="s">
-        <v>261</v>
+      <c r="C19" s="183" t="s">
+        <v>252</v>
       </c>
       <c r="D19" s="204"/>
       <c r="E19" s="204"/>
@@ -13689,16 +13685,16 @@
       <c r="B20" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="140" t="s">
+      <c r="C20" s="187" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="145"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="184"/>
+      <c r="J20" s="185"/>
     </row>
     <row r="21" spans="1:10" s="53" customFormat="1">
       <c r="A21" s="56">
@@ -13707,16 +13703,16 @@
       <c r="B21" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="140" t="s">
+      <c r="C21" s="187" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="145"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="184"/>
+      <c r="I21" s="184"/>
+      <c r="J21" s="185"/>
     </row>
     <row r="22" spans="1:10" s="53" customFormat="1" ht="33.75" customHeight="1">
       <c r="A22" s="56">
@@ -13725,16 +13721,16 @@
       <c r="B22" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="C22" s="157" t="s">
+      <c r="C22" s="183" t="s">
         <v>203</v>
       </c>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="145"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="185"/>
     </row>
     <row r="23" spans="1:10" s="53" customFormat="1" ht="34.5" customHeight="1">
       <c r="A23" s="63">
@@ -13743,56 +13739,56 @@
       <c r="B23" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="157" t="s">
-        <v>204</v>
-      </c>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="145"/>
+      <c r="C23" s="183" t="s">
+        <v>259</v>
+      </c>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="185"/>
     </row>
     <row r="24" spans="1:10" s="53" customFormat="1">
-      <c r="A24" s="208"/>
-      <c r="B24" s="209"/>
-      <c r="C24" s="209"/>
-      <c r="D24" s="209"/>
-      <c r="E24" s="209"/>
-      <c r="F24" s="209"/>
-      <c r="G24" s="209"/>
-      <c r="H24" s="209"/>
-      <c r="I24" s="209"/>
-      <c r="J24" s="210"/>
+      <c r="A24" s="206"/>
+      <c r="B24" s="207"/>
+      <c r="C24" s="207"/>
+      <c r="D24" s="207"/>
+      <c r="E24" s="207"/>
+      <c r="F24" s="207"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="208"/>
     </row>
     <row r="25" spans="1:10" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="132" t="s">
+      <c r="A25" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="133"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="211"/>
+      <c r="B25" s="194"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="194"/>
+      <c r="J25" s="209"/>
     </row>
     <row r="26" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1">
-      <c r="A26" s="142" t="s">
-        <v>206</v>
-      </c>
-      <c r="B26" s="152"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="153"/>
+      <c r="A26" s="174" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="175"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="176"/>
     </row>
     <row r="27" spans="1:10" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="56" t="s">
@@ -13801,16 +13797,16 @@
       <c r="B27" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="138" t="s">
+      <c r="C27" s="177" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="139"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="144"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="179"/>
     </row>
     <row r="28" spans="1:10" s="53" customFormat="1" ht="40.5" customHeight="1">
       <c r="A28" s="56">
@@ -13819,8 +13815,8 @@
       <c r="B28" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="157" t="s">
-        <v>259</v>
+      <c r="C28" s="183" t="s">
+        <v>258</v>
       </c>
       <c r="D28" s="204"/>
       <c r="E28" s="204"/>
@@ -13837,8 +13833,8 @@
       <c r="B29" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="C29" s="157" t="s">
-        <v>201</v>
+      <c r="C29" s="183" t="s">
+        <v>80</v>
       </c>
       <c r="D29" s="204"/>
       <c r="E29" s="204"/>
@@ -13855,7 +13851,7 @@
       <c r="B30" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="C30" s="157" t="s">
+      <c r="C30" s="183" t="s">
         <v>202</v>
       </c>
       <c r="D30" s="204"/>
@@ -13873,16 +13869,16 @@
       <c r="B31" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="C31" s="140" t="s">
+      <c r="C31" s="187" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="141"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="145"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="185"/>
     </row>
     <row r="32" spans="1:10" s="53" customFormat="1">
       <c r="A32" s="56">
@@ -13891,16 +13887,16 @@
       <c r="B32" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="C32" s="140" t="s">
+      <c r="C32" s="187" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="141"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="145"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="184"/>
+      <c r="J32" s="185"/>
     </row>
     <row r="33" spans="1:12" s="53" customFormat="1">
       <c r="A33" s="56">
@@ -13909,60 +13905,60 @@
       <c r="B33" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="140" t="s">
+      <c r="C33" s="187" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="145"/>
+      <c r="D33" s="184"/>
+      <c r="E33" s="184"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="185"/>
     </row>
     <row r="34" spans="1:12" s="53" customFormat="1" ht="34.5" customHeight="1">
       <c r="A34" s="63">
         <v>6</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>205</v>
-      </c>
-      <c r="C34" s="157" t="s">
-        <v>209</v>
-      </c>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="145"/>
+        <v>204</v>
+      </c>
+      <c r="C34" s="183" t="s">
+        <v>260</v>
+      </c>
+      <c r="D34" s="184"/>
+      <c r="E34" s="184"/>
+      <c r="F34" s="184"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="184"/>
+      <c r="J34" s="185"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1">
-      <c r="A35" s="168"/>
-      <c r="B35" s="212"/>
-      <c r="C35" s="212"/>
-      <c r="D35" s="212"/>
-      <c r="E35" s="212"/>
-      <c r="F35" s="212"/>
-      <c r="G35" s="212"/>
-      <c r="H35" s="212"/>
-      <c r="I35" s="212"/>
-      <c r="J35" s="213"/>
+      <c r="A35" s="159"/>
+      <c r="B35" s="210"/>
+      <c r="C35" s="210"/>
+      <c r="D35" s="210"/>
+      <c r="E35" s="210"/>
+      <c r="F35" s="210"/>
+      <c r="G35" s="210"/>
+      <c r="H35" s="210"/>
+      <c r="I35" s="210"/>
+      <c r="J35" s="211"/>
     </row>
     <row r="36" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A36" s="132" t="s">
+      <c r="A36" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="180"/>
-      <c r="C36" s="180"/>
-      <c r="D36" s="180"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="180"/>
-      <c r="G36" s="180"/>
-      <c r="H36" s="180"/>
-      <c r="I36" s="180"/>
-      <c r="J36" s="181"/>
+      <c r="B36" s="172"/>
+      <c r="C36" s="172"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="172"/>
+      <c r="H36" s="172"/>
+      <c r="I36" s="172"/>
+      <c r="J36" s="173"/>
     </row>
     <row r="37" spans="1:12" s="79" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="57" t="s">
@@ -13977,14 +13973,14 @@
       <c r="D37" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="134" t="s">
+      <c r="E37" s="195" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="135"/>
-      <c r="G37" s="135"/>
-      <c r="H37" s="135"/>
-      <c r="I37" s="135"/>
-      <c r="J37" s="135"/>
+      <c r="F37" s="196"/>
+      <c r="G37" s="196"/>
+      <c r="H37" s="196"/>
+      <c r="I37" s="196"/>
+      <c r="J37" s="196"/>
       <c r="K37" s="53"/>
       <c r="L37" s="53"/>
     </row>
@@ -13997,26 +13993,26 @@
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="62"/>
-      <c r="E38" s="193"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="124"/>
-      <c r="J38" s="124"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
     </row>
     <row r="39" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="165" t="s">
-        <v>207</v>
-      </c>
-      <c r="B39" s="166"/>
-      <c r="C39" s="166"/>
-      <c r="D39" s="166"/>
-      <c r="E39" s="166"/>
-      <c r="F39" s="166"/>
-      <c r="G39" s="166"/>
-      <c r="H39" s="166"/>
-      <c r="I39" s="166"/>
-      <c r="J39" s="167"/>
+      <c r="A39" s="156" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" s="157"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="157"/>
+      <c r="H39" s="157"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="158"/>
       <c r="K39" s="53"/>
       <c r="L39" s="53"/>
     </row>
@@ -14031,14 +14027,14 @@
         <v>15</v>
       </c>
       <c r="D40" s="66"/>
-      <c r="E40" s="193" t="s">
+      <c r="E40" s="145" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="124"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
     </row>
     <row r="41" spans="1:12" s="53" customFormat="1" ht="116.25" customHeight="1">
       <c r="A41" s="67">
@@ -14051,14 +14047,14 @@
         <v>75</v>
       </c>
       <c r="D41" s="69"/>
-      <c r="E41" s="162" t="s">
-        <v>250</v>
-      </c>
-      <c r="F41" s="163"/>
-      <c r="G41" s="163"/>
-      <c r="H41" s="163"/>
-      <c r="I41" s="163"/>
-      <c r="J41" s="164"/>
+      <c r="E41" s="149" t="s">
+        <v>261</v>
+      </c>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="151"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="52.5" customHeight="1">
       <c r="A42" s="70">
@@ -14071,106 +14067,104 @@
         <v>76</v>
       </c>
       <c r="D42" s="71"/>
-      <c r="E42" s="182" t="s">
-        <v>221</v>
-      </c>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="111"/>
+      <c r="E42" s="132"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="115"/>
     </row>
     <row r="43" spans="1:12" s="53" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="190" t="s">
+      <c r="A43" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="191"/>
-      <c r="C43" s="191"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="191"/>
-      <c r="F43" s="191"/>
-      <c r="G43" s="191"/>
-      <c r="H43" s="191"/>
-      <c r="I43" s="191"/>
-      <c r="J43" s="192"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="143"/>
+      <c r="E43" s="143"/>
+      <c r="F43" s="143"/>
+      <c r="G43" s="143"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="143"/>
+      <c r="J43" s="144"/>
     </row>
     <row r="44" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="188" t="s">
+      <c r="B44" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="189"/>
-      <c r="D44" s="182" t="s">
+      <c r="C44" s="141"/>
+      <c r="D44" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="111"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="115"/>
     </row>
     <row r="45" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="185"/>
-      <c r="B45" s="206"/>
-      <c r="C45" s="206"/>
-      <c r="D45" s="206"/>
-      <c r="E45" s="206"/>
-      <c r="F45" s="206"/>
-      <c r="G45" s="206"/>
-      <c r="H45" s="206"/>
-      <c r="I45" s="206"/>
-      <c r="J45" s="207"/>
+      <c r="A45" s="137"/>
+      <c r="B45" s="212"/>
+      <c r="C45" s="212"/>
+      <c r="D45" s="212"/>
+      <c r="E45" s="212"/>
+      <c r="F45" s="212"/>
+      <c r="G45" s="212"/>
+      <c r="H45" s="212"/>
+      <c r="I45" s="212"/>
+      <c r="J45" s="213"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="70"/>
-      <c r="B46" s="136"/>
-      <c r="C46" s="158"/>
-      <c r="D46" s="182"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="111"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="115"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="70"/>
-      <c r="B47" s="136"/>
-      <c r="C47" s="158"/>
-      <c r="D47" s="182"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="110"/>
-      <c r="I47" s="110"/>
-      <c r="J47" s="111"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="136"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="115"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="185"/>
-      <c r="B48" s="206"/>
-      <c r="C48" s="206"/>
-      <c r="D48" s="206"/>
-      <c r="E48" s="206"/>
-      <c r="F48" s="206"/>
-      <c r="G48" s="206"/>
-      <c r="H48" s="206"/>
-      <c r="I48" s="206"/>
-      <c r="J48" s="207"/>
+      <c r="A48" s="137"/>
+      <c r="B48" s="212"/>
+      <c r="C48" s="212"/>
+      <c r="D48" s="212"/>
+      <c r="E48" s="212"/>
+      <c r="F48" s="212"/>
+      <c r="G48" s="212"/>
+      <c r="H48" s="212"/>
+      <c r="I48" s="212"/>
+      <c r="J48" s="213"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="70"/>
-      <c r="B49" s="136"/>
-      <c r="C49" s="158"/>
-      <c r="D49" s="182"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="110"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="110"/>
-      <c r="I49" s="110"/>
-      <c r="J49" s="111"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="115"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
       <c r="A50" s="74" t="s">
@@ -14193,14 +14187,14 @@
       <c r="B51" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="136"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="110"/>
-      <c r="I51" s="110"/>
-      <c r="J51" s="111"/>
+      <c r="C51" s="135"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
+      <c r="J51" s="115"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="70">
@@ -14209,32 +14203,41 @@
       <c r="B52" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="159"/>
-      <c r="D52" s="159"/>
-      <c r="E52" s="159"/>
-      <c r="F52" s="159"/>
-      <c r="G52" s="159"/>
-      <c r="H52" s="159"/>
-      <c r="I52" s="159"/>
-      <c r="J52" s="159"/>
+      <c r="C52" s="153"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="153"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="153"/>
+      <c r="H52" s="153"/>
+      <c r="I52" s="153"/>
+      <c r="J52" s="153"/>
     </row>
     <row r="65" s="51" customFormat="1"/>
     <row r="66" s="51" customFormat="1"/>
     <row r="67" s="51" customFormat="1"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="A39:J39"/>
     <mergeCell ref="E40:J40"/>
     <mergeCell ref="E41:J41"/>
     <mergeCell ref="E42:J42"/>
@@ -14251,27 +14254,18 @@
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A26:J26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -14324,7 +14318,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="160" t="s">
+      <c r="K1" s="154" t="s">
         <v>55</v>
       </c>
       <c r="L1" s="36"/>
@@ -14351,7 +14345,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="161"/>
+      <c r="K2" s="155"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -14369,7 +14363,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="161"/>
+      <c r="K3" s="155"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -14434,19 +14428,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>235</v>
-      </c>
       <c r="E7" s="39" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>22</v>
@@ -14455,10 +14449,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -14506,19 +14500,19 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>235</v>
-      </c>
       <c r="E11" s="39" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>22</v>
@@ -14527,10 +14521,10 @@
         <v>16</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
@@ -14599,7 +14593,7 @@
         <v>156</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>163</v>
@@ -14629,7 +14623,7 @@
         <v>157</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>163</v>
@@ -14794,8 +14788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="106" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:J33"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="106" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40:J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14823,7 +14817,7 @@
       <c r="H1" s="90"/>
       <c r="I1" s="90"/>
       <c r="J1" s="90"/>
-      <c r="K1" s="160" t="s">
+      <c r="K1" s="154" t="s">
         <v>55</v>
       </c>
       <c r="L1" s="51"/>
@@ -14844,7 +14838,7 @@
       <c r="H2" s="90"/>
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
-      <c r="K2" s="161"/>
+      <c r="K2" s="155"/>
     </row>
     <row r="3" spans="1:17" s="89" customFormat="1">
       <c r="A3" s="90"/>
@@ -14857,7 +14851,7 @@
       <c r="H3" s="90"/>
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
-      <c r="K3" s="161"/>
+      <c r="K3" s="155"/>
     </row>
     <row r="4" spans="1:17" s="89" customFormat="1">
       <c r="A4" s="90"/>
@@ -14872,152 +14866,152 @@
       <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:17" s="89" customFormat="1">
-      <c r="A5" s="171" t="s">
+      <c r="A5" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="129"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="131"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="124"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="172"/>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="175"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="166"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="172"/>
-      <c r="B8" s="173"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="175"/>
+      <c r="A8" s="163"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="166"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="176"/>
-      <c r="B9" s="177"/>
-      <c r="C9" s="177"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="178"/>
+      <c r="A9" s="167"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="169"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="171" t="s">
+      <c r="A10" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="111"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="179" t="s">
+      <c r="A11" s="170" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="111"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="115"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="171" t="s">
+      <c r="A12" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="111"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="179" t="s">
+      <c r="A13" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="111"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="171" t="s">
+      <c r="A14" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="111"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="142" t="s">
-        <v>212</v>
-      </c>
-      <c r="B15" s="152"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="153"/>
+      <c r="A15" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="175"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="176"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
@@ -15026,16 +15020,16 @@
       <c r="B16" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="138" t="s">
+      <c r="C16" s="177" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="144"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="179"/>
     </row>
     <row r="17" spans="1:10" s="53" customFormat="1" ht="48.75" customHeight="1">
       <c r="A17" s="56">
@@ -15044,8 +15038,8 @@
       <c r="B17" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="157" t="s">
-        <v>264</v>
+      <c r="C17" s="183" t="s">
+        <v>255</v>
       </c>
       <c r="D17" s="204"/>
       <c r="E17" s="204"/>
@@ -15062,8 +15056,8 @@
       <c r="B18" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="C18" s="157" t="s">
-        <v>262</v>
+      <c r="C18" s="183" t="s">
+        <v>253</v>
       </c>
       <c r="D18" s="204"/>
       <c r="E18" s="204"/>
@@ -15080,8 +15074,8 @@
       <c r="B19" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="157" t="s">
-        <v>262</v>
+      <c r="C19" s="183" t="s">
+        <v>253</v>
       </c>
       <c r="D19" s="204"/>
       <c r="E19" s="204"/>
@@ -15098,16 +15092,16 @@
       <c r="B20" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="140" t="s">
+      <c r="C20" s="187" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="145"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="184"/>
+      <c r="J20" s="185"/>
     </row>
     <row r="21" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="56">
@@ -15116,16 +15110,16 @@
       <c r="B21" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="140" t="s">
+      <c r="C21" s="187" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="145"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="184"/>
+      <c r="I21" s="184"/>
+      <c r="J21" s="185"/>
     </row>
     <row r="22" spans="1:10" s="53" customFormat="1" ht="32.25" customHeight="1">
       <c r="A22" s="56">
@@ -15134,16 +15128,16 @@
       <c r="B22" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="C22" s="157" t="s">
+      <c r="C22" s="183" t="s">
         <v>203</v>
       </c>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="145"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="185"/>
     </row>
     <row r="23" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="63">
@@ -15152,56 +15146,56 @@
       <c r="B23" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="157" t="s">
-        <v>263</v>
-      </c>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="145"/>
+      <c r="C23" s="183" t="s">
+        <v>254</v>
+      </c>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="185"/>
     </row>
     <row r="24" spans="1:10" s="53" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A24" s="208"/>
-      <c r="B24" s="209"/>
-      <c r="C24" s="209"/>
-      <c r="D24" s="209"/>
-      <c r="E24" s="209"/>
-      <c r="F24" s="209"/>
-      <c r="G24" s="209"/>
-      <c r="H24" s="209"/>
-      <c r="I24" s="209"/>
-      <c r="J24" s="210"/>
+      <c r="A24" s="206"/>
+      <c r="B24" s="207"/>
+      <c r="C24" s="207"/>
+      <c r="D24" s="207"/>
+      <c r="E24" s="207"/>
+      <c r="F24" s="207"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="208"/>
     </row>
     <row r="25" spans="1:10" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="132" t="s">
+      <c r="A25" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="133"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="211"/>
+      <c r="B25" s="194"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="194"/>
+      <c r="J25" s="209"/>
     </row>
     <row r="26" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1">
-      <c r="A26" s="142" t="s">
-        <v>215</v>
-      </c>
-      <c r="B26" s="152"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="153"/>
+      <c r="A26" s="174" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" s="175"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="176"/>
     </row>
     <row r="27" spans="1:10" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="56" t="s">
@@ -15210,16 +15204,16 @@
       <c r="B27" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="138" t="s">
+      <c r="C27" s="177" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="139"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="144"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="179"/>
     </row>
     <row r="28" spans="1:10" s="53" customFormat="1" ht="51" customHeight="1">
       <c r="A28" s="56">
@@ -15228,8 +15222,8 @@
       <c r="B28" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="157" t="s">
-        <v>265</v>
+      <c r="C28" s="183" t="s">
+        <v>262</v>
       </c>
       <c r="D28" s="204"/>
       <c r="E28" s="204"/>
@@ -15246,7 +15240,7 @@
       <c r="B29" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="C29" s="157" t="s">
+      <c r="C29" s="183" t="s">
         <v>201</v>
       </c>
       <c r="D29" s="204"/>
@@ -15264,7 +15258,7 @@
       <c r="B30" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="C30" s="157" t="s">
+      <c r="C30" s="183" t="s">
         <v>202</v>
       </c>
       <c r="D30" s="204"/>
@@ -15282,16 +15276,16 @@
       <c r="B31" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="C31" s="140" t="s">
+      <c r="C31" s="187" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="141"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="145"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="185"/>
     </row>
     <row r="32" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="56">
@@ -15300,16 +15294,16 @@
       <c r="B32" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="C32" s="140" t="s">
+      <c r="C32" s="187" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="141"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="145"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="184"/>
+      <c r="J32" s="185"/>
     </row>
     <row r="33" spans="1:12" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="56">
@@ -15318,60 +15312,60 @@
       <c r="B33" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="140" t="s">
+      <c r="C33" s="187" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="145"/>
-    </row>
-    <row r="34" spans="1:12" s="53" customFormat="1" ht="39.75" customHeight="1">
+      <c r="D33" s="184"/>
+      <c r="E33" s="184"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="185"/>
+    </row>
+    <row r="34" spans="1:12" s="53" customFormat="1" ht="50.25" customHeight="1">
       <c r="A34" s="63">
         <v>6</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>205</v>
-      </c>
-      <c r="C34" s="157" t="s">
-        <v>266</v>
-      </c>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="145"/>
+        <v>204</v>
+      </c>
+      <c r="C34" s="183" t="s">
+        <v>263</v>
+      </c>
+      <c r="D34" s="184"/>
+      <c r="E34" s="184"/>
+      <c r="F34" s="184"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="184"/>
+      <c r="J34" s="185"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1" ht="27" customHeight="1">
-      <c r="A35" s="168"/>
-      <c r="B35" s="212"/>
-      <c r="C35" s="212"/>
-      <c r="D35" s="212"/>
-      <c r="E35" s="212"/>
-      <c r="F35" s="212"/>
-      <c r="G35" s="212"/>
-      <c r="H35" s="212"/>
-      <c r="I35" s="212"/>
-      <c r="J35" s="213"/>
+      <c r="A35" s="159"/>
+      <c r="B35" s="210"/>
+      <c r="C35" s="210"/>
+      <c r="D35" s="210"/>
+      <c r="E35" s="210"/>
+      <c r="F35" s="210"/>
+      <c r="G35" s="210"/>
+      <c r="H35" s="210"/>
+      <c r="I35" s="210"/>
+      <c r="J35" s="211"/>
     </row>
     <row r="36" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="132" t="s">
+      <c r="A36" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="180"/>
-      <c r="C36" s="180"/>
-      <c r="D36" s="180"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="180"/>
-      <c r="G36" s="180"/>
-      <c r="H36" s="180"/>
-      <c r="I36" s="180"/>
-      <c r="J36" s="181"/>
+      <c r="B36" s="172"/>
+      <c r="C36" s="172"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="172"/>
+      <c r="H36" s="172"/>
+      <c r="I36" s="172"/>
+      <c r="J36" s="173"/>
     </row>
     <row r="37" spans="1:12" s="79" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="57" t="s">
@@ -15386,14 +15380,14 @@
       <c r="D37" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="134" t="s">
+      <c r="E37" s="195" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="135"/>
-      <c r="G37" s="135"/>
-      <c r="H37" s="135"/>
-      <c r="I37" s="135"/>
-      <c r="J37" s="135"/>
+      <c r="F37" s="196"/>
+      <c r="G37" s="196"/>
+      <c r="H37" s="196"/>
+      <c r="I37" s="196"/>
+      <c r="J37" s="196"/>
       <c r="K37" s="53"/>
       <c r="L37" s="53"/>
     </row>
@@ -15402,184 +15396,184 @@
         <v>1</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="62"/>
-      <c r="E38" s="193"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="124"/>
-      <c r="J38" s="124"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
     </row>
     <row r="39" spans="1:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A39" s="165" t="s">
-        <v>213</v>
-      </c>
-      <c r="B39" s="166"/>
-      <c r="C39" s="166"/>
-      <c r="D39" s="166"/>
-      <c r="E39" s="166"/>
-      <c r="F39" s="166"/>
-      <c r="G39" s="166"/>
-      <c r="H39" s="166"/>
-      <c r="I39" s="166"/>
-      <c r="J39" s="167"/>
+      <c r="A39" s="156" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" s="157"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="157"/>
+      <c r="H39" s="157"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="158"/>
       <c r="K39" s="53"/>
       <c r="L39" s="53"/>
     </row>
-    <row r="40" spans="1:12" s="53" customFormat="1" ht="148.5" customHeight="1">
+    <row r="40" spans="1:12" s="53" customFormat="1" ht="174.75" customHeight="1">
       <c r="A40" s="67">
         <v>1</v>
       </c>
       <c r="B40" s="68" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C40" s="88" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="87"/>
-      <c r="E40" s="162" t="s">
-        <v>251</v>
-      </c>
-      <c r="F40" s="163"/>
-      <c r="G40" s="163"/>
-      <c r="H40" s="163"/>
-      <c r="I40" s="163"/>
-      <c r="J40" s="164"/>
+      <c r="E40" s="149" t="s">
+        <v>264</v>
+      </c>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="151"/>
     </row>
     <row r="41" spans="1:12" s="53" customFormat="1" ht="32.25" customHeight="1">
       <c r="A41" s="70">
         <v>2</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C41" s="88" t="s">
         <v>76</v>
       </c>
       <c r="D41" s="86"/>
-      <c r="E41" s="182" t="s">
-        <v>257</v>
-      </c>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="110"/>
-      <c r="I41" s="110"/>
-      <c r="J41" s="111"/>
+      <c r="E41" s="132" t="s">
+        <v>250</v>
+      </c>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="115"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="100.5" customHeight="1">
       <c r="A42" s="70">
         <v>2</v>
       </c>
       <c r="B42" s="84" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C42" s="88" t="s">
         <v>76</v>
       </c>
       <c r="D42" s="86"/>
-      <c r="E42" s="182" t="s">
-        <v>255</v>
-      </c>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="111"/>
+      <c r="E42" s="132" t="s">
+        <v>265</v>
+      </c>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="115"/>
     </row>
     <row r="43" spans="1:12" s="53" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A43" s="190" t="s">
+      <c r="A43" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="191"/>
-      <c r="C43" s="191"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="191"/>
-      <c r="F43" s="191"/>
-      <c r="G43" s="191"/>
-      <c r="H43" s="191"/>
-      <c r="I43" s="191"/>
-      <c r="J43" s="192"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="143"/>
+      <c r="E43" s="143"/>
+      <c r="F43" s="143"/>
+      <c r="G43" s="143"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="143"/>
+      <c r="J43" s="144"/>
     </row>
     <row r="44" spans="1:12" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A44" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="188" t="s">
+      <c r="B44" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="189"/>
-      <c r="D44" s="182" t="s">
+      <c r="C44" s="141"/>
+      <c r="D44" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="111"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="115"/>
     </row>
     <row r="45" spans="1:12" s="55" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A45" s="185"/>
-      <c r="B45" s="206"/>
-      <c r="C45" s="206"/>
-      <c r="D45" s="206"/>
-      <c r="E45" s="206"/>
-      <c r="F45" s="206"/>
-      <c r="G45" s="206"/>
-      <c r="H45" s="206"/>
-      <c r="I45" s="206"/>
-      <c r="J45" s="207"/>
+      <c r="A45" s="137"/>
+      <c r="B45" s="212"/>
+      <c r="C45" s="212"/>
+      <c r="D45" s="212"/>
+      <c r="E45" s="212"/>
+      <c r="F45" s="212"/>
+      <c r="G45" s="212"/>
+      <c r="H45" s="212"/>
+      <c r="I45" s="212"/>
+      <c r="J45" s="213"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1" ht="28.5" customHeight="1">
       <c r="A46" s="70"/>
-      <c r="B46" s="136"/>
-      <c r="C46" s="158"/>
-      <c r="D46" s="182"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="111"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="115"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A47" s="70"/>
-      <c r="B47" s="136"/>
-      <c r="C47" s="158"/>
-      <c r="D47" s="182"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="110"/>
-      <c r="I47" s="110"/>
-      <c r="J47" s="111"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="136"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="115"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A48" s="185"/>
-      <c r="B48" s="206"/>
-      <c r="C48" s="206"/>
-      <c r="D48" s="206"/>
-      <c r="E48" s="206"/>
-      <c r="F48" s="206"/>
-      <c r="G48" s="206"/>
-      <c r="H48" s="206"/>
-      <c r="I48" s="206"/>
-      <c r="J48" s="207"/>
+      <c r="A48" s="137"/>
+      <c r="B48" s="212"/>
+      <c r="C48" s="212"/>
+      <c r="D48" s="212"/>
+      <c r="E48" s="212"/>
+      <c r="F48" s="212"/>
+      <c r="G48" s="212"/>
+      <c r="H48" s="212"/>
+      <c r="I48" s="212"/>
+      <c r="J48" s="213"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="70"/>
-      <c r="B49" s="136"/>
-      <c r="C49" s="158"/>
-      <c r="D49" s="182"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="110"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="110"/>
-      <c r="I49" s="110"/>
-      <c r="J49" s="111"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="115"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="74" t="s">
@@ -15602,14 +15596,14 @@
       <c r="B51" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="136"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="110"/>
-      <c r="I51" s="110"/>
-      <c r="J51" s="111"/>
+      <c r="C51" s="135"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
+      <c r="J51" s="115"/>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1">
       <c r="A52" s="70">
@@ -15618,14 +15612,14 @@
       <c r="B52" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="159"/>
-      <c r="D52" s="159"/>
-      <c r="E52" s="159"/>
-      <c r="F52" s="159"/>
-      <c r="G52" s="159"/>
-      <c r="H52" s="159"/>
-      <c r="I52" s="159"/>
-      <c r="J52" s="159"/>
+      <c r="C52" s="153"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="153"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="153"/>
+      <c r="H52" s="153"/>
+      <c r="I52" s="153"/>
+      <c r="J52" s="153"/>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1"/>
     <row r="54" spans="1:10" ht="15" customHeight="1"/>
@@ -15643,12 +15637,33 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="C28:J28"/>
     <mergeCell ref="C52:J52"/>
@@ -15665,33 +15680,12 @@
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="D46:J46"/>
     <mergeCell ref="E40:J40"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:J49"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/APF/RA006/RA006_APF0201_功能清單設定作業.xlsx
+++ b/APF/RA006/RA006_APF0201_功能清單設定作業.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="266">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -298,10 +298,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>其他</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>用途分類</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -682,10 +678,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>下拉式選單</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>ddlINPUT_MODULE_ID</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -852,19 +844,6 @@
   </si>
   <si>
     <t xml:space="preserve">string </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>待table layout確定，再補上</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>待table layout確定，再補上</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉式選單，來源為各系統模組自行設定於系統參數檔(common_parameter)
-如未設定則，下拉選單顯示為disable狀態</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1219,10 +1198,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>其他</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>畫面_APF0201MA1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1346,6 +1321,32 @@
     </r>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>下拉式選單，來源為各系統模組自行設定於系統參數檔(common_parameter)，如未設定則下拉選單顯示為
+disable狀態，無法輸入。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下拉式選單，parameter_class = ModuleName，parameter_name = 模組名稱，parameter_value = 模組代號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>common_parameter</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter_value</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉式選單，來源為各系統模組自行設定於系統參數檔(common_parameter)
+如未設定則，下拉選單顯示為disable狀態。parameter_class = DefaultQuery，parameter_name = 查詢欄位中文名稱，parameter_value = 查詢欄位id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1354,7 +1355,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1550,13 +1551,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="標楷體"/>
@@ -1583,7 +1577,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1623,12 +1617,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1908,7 +1896,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2161,12 +2149,11 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2176,92 +2163,86 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2467,12 +2448,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2503,11 +2478,23 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3537,13 +3524,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>9524</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>67</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>84</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3588,13 +3575,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>68</xdr:row>
+          <xdr:row>85</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>90</xdr:row>
+          <xdr:row>107</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10253,7 +10240,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="107" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B1" s="107"/>
       <c r="C1" s="107"/>
@@ -10261,105 +10248,105 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="29" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="106" t="s">
-        <v>51</v>
+      <c r="D3" s="105" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C4" s="31"/>
-      <c r="D4" s="106" t="s">
-        <v>51</v>
+      <c r="D4" s="105" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="108" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="D5" s="106" t="s">
-        <v>218</v>
+        <v>212</v>
+      </c>
+      <c r="D5" s="105" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="108"/>
       <c r="B6" s="31" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C6" s="31"/>
-      <c r="D6" s="106" t="s">
-        <v>99</v>
+      <c r="D6" s="105" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="108" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="D7" s="106" t="s">
-        <v>100</v>
+        <v>236</v>
+      </c>
+      <c r="D7" s="105" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="108"/>
       <c r="B8" s="31" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C8" s="31"/>
-      <c r="D8" s="106" t="s">
-        <v>51</v>
+      <c r="D8" s="105" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
       <c r="A9" s="108" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="D9" s="106" t="s">
-        <v>99</v>
+        <v>238</v>
+      </c>
+      <c r="D9" s="105" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
       <c r="A10" s="108"/>
       <c r="B10" s="31" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C10" s="31"/>
-      <c r="D10" s="106" t="s">
-        <v>51</v>
+      <c r="D10" s="105" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1" thickBot="1">
@@ -10423,8 +10410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10454,8 +10441,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="154" t="s">
-        <v>55</v>
+      <c r="K1" s="151" t="s">
+        <v>54</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -10481,7 +10468,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="155"/>
+      <c r="K2" s="152"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -10499,7 +10486,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="155"/>
+      <c r="K3" s="152"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -10543,18 +10530,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="197" t="s">
+      <c r="A6" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="198"/>
-      <c r="C6" s="198"/>
-      <c r="D6" s="198"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="198"/>
-      <c r="I6" s="198"/>
-      <c r="J6" s="199"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="196"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -10585,7 +10572,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I7" s="39" t="s">
         <v>43</v>
@@ -10621,18 +10608,18 @@
       <c r="J9" s="90"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="197" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="198"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="199"/>
+      <c r="A10" s="194" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="195"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="195"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="195"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="196"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
@@ -10657,7 +10644,7 @@
         <v>16</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I11" s="39" t="s">
         <v>43</v>
@@ -10671,29 +10658,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="F12" s="103" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="F12" s="102" t="s">
+        <v>159</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="J12" s="215" t="s">
-        <v>180</v>
+        <v>166</v>
+      </c>
+      <c r="J12" s="209" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -10701,83 +10688,83 @@
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
       <c r="D13" s="42" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" s="103" t="s">
         <v>161</v>
       </c>
+      <c r="F13" s="102" t="s">
+        <v>159</v>
+      </c>
       <c r="G13" s="42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="J13" s="201"/>
+        <v>166</v>
+      </c>
+      <c r="J13" s="198"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="40">
         <v>2</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E14" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="103" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="F14" s="104" t="s">
+      <c r="H14" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="I14" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="105" t="s">
-        <v>165</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>168</v>
-      </c>
       <c r="J14" s="38" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="40"/>
       <c r="B15" s="46" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E15" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="103" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="F15" s="104" t="s">
+      <c r="H15" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="I15" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="G15" s="105" t="s">
-        <v>165</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>169</v>
-      </c>
       <c r="J15" s="85" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -10785,31 +10772,31 @@
         <v>3</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10817,55 +10804,57 @@
         <v>4</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="J17" s="100"/>
-    </row>
-    <row r="18" spans="1:10" ht="71.25" customHeight="1">
+        <v>94</v>
+      </c>
+      <c r="J17" s="99"/>
+    </row>
+    <row r="18" spans="1:10" ht="120" customHeight="1">
       <c r="A18" s="40">
         <v>5</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>174</v>
-      </c>
-      <c r="E18" s="102" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" s="214" t="s">
-        <v>176</v>
-      </c>
-      <c r="G18" s="203"/>
+        <v>172</v>
+      </c>
+      <c r="E18" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="212" t="s">
+        <v>263</v>
+      </c>
+      <c r="G18" s="91" t="s">
+        <v>264</v>
+      </c>
       <c r="H18" s="83"/>
       <c r="I18" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="J18" s="101" t="s">
-        <v>177</v>
+        <v>94</v>
+      </c>
+      <c r="J18" s="100" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10873,36 +10862,35 @@
         <v>6</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H19" s="40"/>
       <c r="I19" s="40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J19" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="J12:J13"/>
-    <mergeCell ref="F18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -11155,10 +11143,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11171,17 +11159,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="125" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="M1" s="124" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="126"/>
+      <c r="M2" s="125"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="126"/>
+      <c r="M3" s="125"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -11198,192 +11186,192 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="118"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="113"/>
     </row>
     <row r="6" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="122" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="124"/>
+      <c r="A6" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="123"/>
     </row>
     <row r="7" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="121" t="s">
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="111"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="120"/>
     </row>
     <row r="8" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="116" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="114" t="s">
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="110"/>
+    </row>
+    <row r="9" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="126" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="120"/>
+    </row>
+    <row r="10" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A10" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="115"/>
-    </row>
-    <row r="9" spans="1:13" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="121" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="111"/>
-    </row>
-    <row r="10" spans="1:13" s="81" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="112" t="s">
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="114" t="s">
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="110"/>
+    </row>
+    <row r="11" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="114" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="128" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="120"/>
+    </row>
+    <row r="12" spans="1:13" s="55" customFormat="1" ht="16.5">
+      <c r="A12" s="116" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="115"/>
-    </row>
-    <row r="11" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="119" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="109" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="111"/>
-    </row>
-    <row r="12" spans="1:13" s="55" customFormat="1" ht="16.5">
-      <c r="A12" s="112" t="s">
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="110"/>
+    </row>
+    <row r="13" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="114" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="128" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="120"/>
+    </row>
+    <row r="14" spans="1:13" s="55" customFormat="1" ht="16.5">
+      <c r="A14" s="116" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="115"/>
-    </row>
-    <row r="13" spans="1:13" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="119" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="109" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="111"/>
-    </row>
-    <row r="14" spans="1:13" s="55" customFormat="1" ht="16.5">
-      <c r="A14" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="115"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="110"/>
     </row>
     <row r="15" spans="1:13" s="82" customFormat="1" ht="16.5">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="115"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="110"/>
     </row>
     <row r="16" spans="1:13" s="82" customFormat="1" ht="14.25"/>
     <row r="17" s="82" customFormat="1" ht="14.25"/>
@@ -11429,63 +11417,29 @@
     <row r="57" s="82" customFormat="1" ht="14.25"/>
     <row r="58" s="82" customFormat="1" ht="14.25"/>
     <row r="59" s="82" customFormat="1" ht="14.25"/>
-    <row r="66" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A66" s="129" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" s="130"/>
-      <c r="C66" s="130"/>
-      <c r="D66" s="130"/>
-      <c r="E66" s="130"/>
-      <c r="F66" s="130"/>
-      <c r="G66" s="130"/>
-      <c r="H66" s="130"/>
-      <c r="I66" s="130"/>
-      <c r="J66" s="130"/>
-      <c r="K66" s="130"/>
-      <c r="L66" s="131"/>
-    </row>
-    <row r="67" spans="1:12" s="82" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A67" s="116" t="s">
-        <v>241</v>
-      </c>
-      <c r="B67" s="114"/>
-      <c r="C67" s="114"/>
-      <c r="D67" s="114"/>
-      <c r="E67" s="114"/>
-      <c r="F67" s="114"/>
-      <c r="G67" s="114"/>
-      <c r="H67" s="114"/>
-      <c r="I67" s="114"/>
-      <c r="J67" s="114"/>
-      <c r="K67" s="114"/>
-      <c r="L67" s="115"/>
-    </row>
-    <row r="68" spans="1:12" s="82" customFormat="1" ht="21" customHeight="1">
-      <c r="A68" s="116" t="s">
-        <v>249</v>
-      </c>
-      <c r="B68" s="114"/>
-      <c r="C68" s="114"/>
-      <c r="D68" s="114"/>
-      <c r="E68" s="114"/>
-      <c r="F68" s="114"/>
-      <c r="G68" s="114"/>
-      <c r="H68" s="114"/>
-      <c r="I68" s="114"/>
-      <c r="J68" s="114"/>
-      <c r="K68" s="114"/>
-      <c r="L68" s="115"/>
+    <row r="85" spans="1:12" s="82" customFormat="1" ht="16.5">
+      <c r="A85" s="111" t="s">
+        <v>243</v>
+      </c>
+      <c r="B85" s="109"/>
+      <c r="C85" s="109"/>
+      <c r="D85" s="109"/>
+      <c r="E85" s="109"/>
+      <c r="F85" s="109"/>
+      <c r="G85" s="109"/>
+      <c r="H85" s="109"/>
+      <c r="I85" s="109"/>
+      <c r="J85" s="109"/>
+      <c r="K85" s="109"/>
+      <c r="L85" s="110"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A68:L68"/>
-    <mergeCell ref="A67:L67"/>
+  <mergeCells count="21">
+    <mergeCell ref="A85:L85"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A66:L66"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
@@ -11517,7 +11471,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="Word.Document.12" shapeId="29897" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -11528,8 +11482,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>67</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>84</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -11547,13 +11501,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>68</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -11577,15 +11531,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="125" t="s">
-        <v>240</v>
+      <c r="P1" s="124" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="126"/>
+      <c r="P2" s="125"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="126"/>
+      <c r="P3" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11660,8 +11614,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53:J53"/>
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11691,8 +11645,8 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="154" t="s">
-        <v>55</v>
+      <c r="K1" s="151" t="s">
+        <v>54</v>
       </c>
       <c r="L1" s="51"/>
       <c r="M1" s="51"/>
@@ -11712,7 +11666,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="155"/>
+      <c r="K2" s="152"/>
     </row>
     <row r="3" spans="1:17" s="52" customFormat="1">
       <c r="A3" s="44"/>
@@ -11725,7 +11679,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="155"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="1:17" s="52" customFormat="1">
       <c r="A4" s="44"/>
@@ -11740,416 +11694,416 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="52" customFormat="1">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="120"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="122"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="163"/>
-      <c r="B7" s="164"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="166"/>
+      <c r="A7" s="160"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="163"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="163"/>
-      <c r="B8" s="164"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="166"/>
+      <c r="A8" s="160"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="163"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="167"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="169"/>
+      <c r="A9" s="164"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="166"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="111"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="170" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="115"/>
+      <c r="A11" s="167" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="110"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="162" t="s">
+      <c r="A12" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="111"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="120"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="170" t="s">
+      <c r="A13" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="110"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="162" t="s">
+      <c r="A14" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="111"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="120"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="174" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="175"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="176"/>
+      <c r="A15" s="171" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="172"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="173"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="177" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="179"/>
+        <v>76</v>
+      </c>
+      <c r="C16" s="174" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="176"/>
     </row>
     <row r="17" spans="1:12" s="53" customFormat="1">
       <c r="A17" s="56">
         <v>1</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="180" t="s">
-        <v>219</v>
-      </c>
-      <c r="D17" s="181"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="181"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="181"/>
-      <c r="I17" s="181"/>
-      <c r="J17" s="182"/>
+        <v>111</v>
+      </c>
+      <c r="C17" s="177" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="179"/>
     </row>
     <row r="18" spans="1:12" s="53" customFormat="1" ht="30.75" customHeight="1">
       <c r="A18" s="56">
         <v>2</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="183" t="s">
-        <v>220</v>
-      </c>
-      <c r="D18" s="184"/>
-      <c r="E18" s="184"/>
-      <c r="F18" s="184"/>
-      <c r="G18" s="184"/>
-      <c r="H18" s="184"/>
-      <c r="I18" s="184"/>
-      <c r="J18" s="185"/>
+        <v>143</v>
+      </c>
+      <c r="C18" s="180" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" s="181"/>
+      <c r="E18" s="181"/>
+      <c r="F18" s="181"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="181"/>
+      <c r="J18" s="182"/>
     </row>
     <row r="19" spans="1:12" s="53" customFormat="1" ht="33.75" customHeight="1">
       <c r="A19" s="56">
         <v>3</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="183" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="184"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="184"/>
-      <c r="I19" s="184"/>
-      <c r="J19" s="185"/>
+        <v>113</v>
+      </c>
+      <c r="C19" s="180" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="181"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="181"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="181"/>
+      <c r="I19" s="181"/>
+      <c r="J19" s="182"/>
     </row>
     <row r="20" spans="1:12" s="53" customFormat="1">
-      <c r="A20" s="135"/>
-      <c r="B20" s="152"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="136"/>
+      <c r="A20" s="132"/>
+      <c r="B20" s="149"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="133"/>
     </row>
     <row r="21" spans="1:12" s="53" customFormat="1">
-      <c r="A21" s="174" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="175"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="175"/>
-      <c r="I21" s="175"/>
-      <c r="J21" s="176"/>
+      <c r="A21" s="171" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="172"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="173"/>
     </row>
     <row r="22" spans="1:12" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="177" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="178"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="179"/>
+        <v>76</v>
+      </c>
+      <c r="C22" s="174" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="176"/>
     </row>
     <row r="23" spans="1:12" s="53" customFormat="1">
       <c r="A23" s="56">
         <v>1</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" s="187" t="s">
-        <v>221</v>
-      </c>
-      <c r="D23" s="184"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="184"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="185"/>
+        <v>144</v>
+      </c>
+      <c r="C23" s="184" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" s="181"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="181"/>
+      <c r="J23" s="182"/>
     </row>
     <row r="24" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A24" s="56">
         <v>2</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="187" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="184"/>
-      <c r="E24" s="184"/>
-      <c r="F24" s="184"/>
-      <c r="G24" s="184"/>
-      <c r="H24" s="184"/>
-      <c r="I24" s="184"/>
-      <c r="J24" s="185"/>
+        <v>77</v>
+      </c>
+      <c r="C24" s="184" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="181"/>
+      <c r="J24" s="182"/>
     </row>
     <row r="25" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A25" s="56">
         <v>3</v>
       </c>
       <c r="B25" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="184" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="187" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="184"/>
-      <c r="E25" s="184"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="184"/>
-      <c r="H25" s="184"/>
-      <c r="I25" s="184"/>
-      <c r="J25" s="185"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="182"/>
     </row>
     <row r="26" spans="1:12" s="53" customFormat="1" hidden="1">
       <c r="A26" s="56">
         <v>4</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="187" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="184"/>
-      <c r="E26" s="184"/>
-      <c r="F26" s="184"/>
-      <c r="G26" s="184"/>
-      <c r="H26" s="184"/>
-      <c r="I26" s="184"/>
-      <c r="J26" s="185"/>
+        <v>78</v>
+      </c>
+      <c r="C26" s="184" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="181"/>
+      <c r="E26" s="181"/>
+      <c r="F26" s="181"/>
+      <c r="G26" s="181"/>
+      <c r="H26" s="181"/>
+      <c r="I26" s="181"/>
+      <c r="J26" s="182"/>
     </row>
     <row r="27" spans="1:12" s="53" customFormat="1">
-      <c r="A27" s="159"/>
-      <c r="B27" s="160"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="160"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="161"/>
+      <c r="A27" s="156"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="157"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="158"/>
     </row>
     <row r="28" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="171" t="s">
+      <c r="A28" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="172"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="173"/>
+      <c r="B28" s="169"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="169"/>
+      <c r="H28" s="169"/>
+      <c r="I28" s="169"/>
+      <c r="J28" s="170"/>
     </row>
     <row r="29" spans="1:12" s="53" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="174" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="175"/>
-      <c r="C29" s="175"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="176"/>
+      <c r="A29" s="171" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="172"/>
+      <c r="C29" s="172"/>
+      <c r="D29" s="172"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="173"/>
     </row>
     <row r="30" spans="1:12" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="177" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="179"/>
+        <v>76</v>
+      </c>
+      <c r="C30" s="174" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="176"/>
     </row>
     <row r="31" spans="1:12" s="53" customFormat="1">
       <c r="A31" s="56">
         <v>1</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="187" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="184"/>
+        <v>111</v>
+      </c>
+      <c r="C31" s="184" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="181"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="181"/>
       <c r="K31" s="95"/>
       <c r="L31" s="93"/>
     </row>
@@ -12158,18 +12112,18 @@
         <v>2</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="C32" s="188" t="s">
-        <v>256</v>
-      </c>
-      <c r="D32" s="189"/>
-      <c r="E32" s="189"/>
-      <c r="F32" s="189"/>
-      <c r="G32" s="189"/>
-      <c r="H32" s="189"/>
-      <c r="I32" s="189"/>
-      <c r="J32" s="190"/>
+        <v>218</v>
+      </c>
+      <c r="C32" s="185" t="s">
+        <v>250</v>
+      </c>
+      <c r="D32" s="186"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="186"/>
+      <c r="H32" s="186"/>
+      <c r="I32" s="186"/>
+      <c r="J32" s="187"/>
       <c r="K32" s="95"/>
       <c r="L32" s="92"/>
     </row>
@@ -12178,46 +12132,46 @@
         <v>3</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="C33" s="191"/>
-      <c r="D33" s="192"/>
-      <c r="E33" s="192"/>
-      <c r="F33" s="192"/>
-      <c r="G33" s="192"/>
-      <c r="H33" s="192"/>
-      <c r="I33" s="192"/>
-      <c r="J33" s="193"/>
+        <v>219</v>
+      </c>
+      <c r="C33" s="188"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="189"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="189"/>
+      <c r="J33" s="190"/>
       <c r="K33" s="95"/>
       <c r="L33" s="94"/>
     </row>
     <row r="34" spans="1:12" s="53" customFormat="1">
-      <c r="A34" s="135"/>
-      <c r="B34" s="152"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="152"/>
-      <c r="E34" s="152"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="152"/>
-      <c r="H34" s="152"/>
-      <c r="I34" s="152"/>
-      <c r="J34" s="152"/>
+      <c r="A34" s="132"/>
+      <c r="B34" s="149"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
       <c r="K34" s="95"/>
       <c r="L34" s="94"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1">
-      <c r="A35" s="174" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" s="186"/>
-      <c r="C35" s="186"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="186"/>
-      <c r="J35" s="186"/>
+      <c r="A35" s="171" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="183"/>
+      <c r="C35" s="183"/>
+      <c r="D35" s="183"/>
+      <c r="E35" s="183"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="183"/>
+      <c r="H35" s="183"/>
+      <c r="I35" s="183"/>
+      <c r="J35" s="183"/>
       <c r="K35" s="95"/>
       <c r="L35" s="92"/>
     </row>
@@ -12226,18 +12180,18 @@
         <v>6</v>
       </c>
       <c r="B36" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="177" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="178"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="178"/>
-      <c r="G36" s="178"/>
-      <c r="H36" s="178"/>
-      <c r="I36" s="178"/>
-      <c r="J36" s="178"/>
+        <v>76</v>
+      </c>
+      <c r="C36" s="174" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="175"/>
+      <c r="E36" s="175"/>
+      <c r="F36" s="175"/>
+      <c r="G36" s="175"/>
+      <c r="H36" s="175"/>
+      <c r="I36" s="175"/>
+      <c r="J36" s="175"/>
       <c r="K36" s="95"/>
       <c r="L36" s="94"/>
     </row>
@@ -12246,18 +12200,18 @@
         <v>1</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="187" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="184"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="184"/>
-      <c r="G37" s="184"/>
-      <c r="H37" s="184"/>
-      <c r="I37" s="184"/>
-      <c r="J37" s="184"/>
+        <v>112</v>
+      </c>
+      <c r="C37" s="184" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="181"/>
+      <c r="E37" s="181"/>
+      <c r="F37" s="181"/>
+      <c r="G37" s="181"/>
+      <c r="H37" s="181"/>
+      <c r="I37" s="181"/>
+      <c r="J37" s="181"/>
       <c r="K37" s="95"/>
       <c r="L37" s="94"/>
     </row>
@@ -12266,18 +12220,18 @@
         <v>2</v>
       </c>
       <c r="B38" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="187" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="184"/>
-      <c r="E38" s="184"/>
-      <c r="F38" s="184"/>
-      <c r="G38" s="184"/>
-      <c r="H38" s="184"/>
-      <c r="I38" s="184"/>
-      <c r="J38" s="184"/>
+        <v>77</v>
+      </c>
+      <c r="C38" s="184" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="181"/>
+      <c r="E38" s="181"/>
+      <c r="F38" s="181"/>
+      <c r="G38" s="181"/>
+      <c r="H38" s="181"/>
+      <c r="I38" s="181"/>
+      <c r="J38" s="181"/>
       <c r="K38" s="95"/>
       <c r="L38" s="94"/>
     </row>
@@ -12286,18 +12240,18 @@
         <v>3</v>
       </c>
       <c r="B39" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="184" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="187" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="184"/>
-      <c r="E39" s="184"/>
-      <c r="F39" s="184"/>
-      <c r="G39" s="184"/>
-      <c r="H39" s="184"/>
-      <c r="I39" s="184"/>
-      <c r="J39" s="184"/>
+      <c r="D39" s="181"/>
+      <c r="E39" s="181"/>
+      <c r="F39" s="181"/>
+      <c r="G39" s="181"/>
+      <c r="H39" s="181"/>
+      <c r="I39" s="181"/>
+      <c r="J39" s="181"/>
       <c r="K39" s="95"/>
       <c r="L39" s="94"/>
     </row>
@@ -12306,48 +12260,48 @@
         <v>4</v>
       </c>
       <c r="B40" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="187" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="184"/>
-      <c r="E40" s="184"/>
-      <c r="F40" s="184"/>
-      <c r="G40" s="184"/>
-      <c r="H40" s="184"/>
-      <c r="I40" s="184"/>
-      <c r="J40" s="184"/>
+        <v>78</v>
+      </c>
+      <c r="C40" s="184" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="181"/>
+      <c r="E40" s="181"/>
+      <c r="F40" s="181"/>
+      <c r="G40" s="181"/>
+      <c r="H40" s="181"/>
+      <c r="I40" s="181"/>
+      <c r="J40" s="181"/>
       <c r="K40" s="95"/>
       <c r="L40" s="92"/>
     </row>
     <row r="41" spans="1:12" s="53" customFormat="1">
-      <c r="A41" s="135"/>
-      <c r="B41" s="152"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="152"/>
-      <c r="E41" s="152"/>
-      <c r="F41" s="152"/>
-      <c r="G41" s="152"/>
-      <c r="H41" s="152"/>
-      <c r="I41" s="152"/>
-      <c r="J41" s="152"/>
+      <c r="A41" s="132"/>
+      <c r="B41" s="149"/>
+      <c r="C41" s="149"/>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
       <c r="K41" s="95"/>
       <c r="L41" s="92"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="171" t="s">
+      <c r="A42" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="194"/>
-      <c r="C42" s="194"/>
-      <c r="D42" s="194"/>
-      <c r="E42" s="194"/>
-      <c r="F42" s="194"/>
-      <c r="G42" s="194"/>
-      <c r="H42" s="194"/>
-      <c r="I42" s="194"/>
-      <c r="J42" s="194"/>
+      <c r="B42" s="191"/>
+      <c r="C42" s="191"/>
+      <c r="D42" s="191"/>
+      <c r="E42" s="191"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="191"/>
+      <c r="H42" s="191"/>
+      <c r="I42" s="191"/>
+      <c r="J42" s="191"/>
       <c r="K42" s="95"/>
       <c r="L42" s="92"/>
     </row>
@@ -12364,14 +12318,14 @@
       <c r="D43" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="195" t="s">
+      <c r="E43" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="196"/>
-      <c r="G43" s="196"/>
-      <c r="H43" s="196"/>
-      <c r="I43" s="196"/>
-      <c r="J43" s="196"/>
+      <c r="F43" s="193"/>
+      <c r="G43" s="193"/>
+      <c r="H43" s="193"/>
+      <c r="I43" s="193"/>
+      <c r="J43" s="193"/>
       <c r="K43" s="53"/>
       <c r="L43" s="53"/>
     </row>
@@ -12380,334 +12334,334 @@
         <v>1</v>
       </c>
       <c r="B44" s="60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" s="61"/>
       <c r="D44" s="62"/>
-      <c r="E44" s="145" t="s">
-        <v>222</v>
-      </c>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="113"/>
+      <c r="E44" s="142" t="s">
+        <v>217</v>
+      </c>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="117"/>
     </row>
     <row r="45" spans="1:12" s="53" customFormat="1">
       <c r="A45" s="63"/>
-      <c r="B45" s="152"/>
-      <c r="C45" s="152"/>
-      <c r="D45" s="152"/>
-      <c r="E45" s="152"/>
-      <c r="F45" s="152"/>
-      <c r="G45" s="152"/>
-      <c r="H45" s="152"/>
-      <c r="I45" s="152"/>
-      <c r="J45" s="136"/>
+      <c r="B45" s="149"/>
+      <c r="C45" s="149"/>
+      <c r="D45" s="149"/>
+      <c r="E45" s="149"/>
+      <c r="F45" s="149"/>
+      <c r="G45" s="149"/>
+      <c r="H45" s="149"/>
+      <c r="I45" s="149"/>
+      <c r="J45" s="133"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1">
-      <c r="A46" s="156" t="s">
-        <v>247</v>
-      </c>
-      <c r="B46" s="157"/>
-      <c r="C46" s="157"/>
-      <c r="D46" s="157"/>
-      <c r="E46" s="157"/>
-      <c r="F46" s="157"/>
-      <c r="G46" s="157"/>
-      <c r="H46" s="157"/>
-      <c r="I46" s="157"/>
-      <c r="J46" s="158"/>
+      <c r="A46" s="153" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46" s="154"/>
+      <c r="C46" s="154"/>
+      <c r="D46" s="154"/>
+      <c r="E46" s="154"/>
+      <c r="F46" s="154"/>
+      <c r="G46" s="154"/>
+      <c r="H46" s="154"/>
+      <c r="I46" s="154"/>
+      <c r="J46" s="155"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="56">
         <v>1</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="66"/>
-      <c r="E47" s="145" t="s">
-        <v>68</v>
-      </c>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="113"/>
-      <c r="J47" s="113"/>
+      <c r="E47" s="142" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="117"/>
+      <c r="J47" s="117"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1">
       <c r="A48" s="67">
         <v>2</v>
       </c>
       <c r="B48" s="68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="69"/>
-      <c r="E48" s="149" t="s">
-        <v>129</v>
-      </c>
-      <c r="F48" s="150"/>
-      <c r="G48" s="150"/>
-      <c r="H48" s="150"/>
-      <c r="I48" s="150"/>
-      <c r="J48" s="151"/>
+      <c r="E48" s="146" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" s="147"/>
+      <c r="G48" s="147"/>
+      <c r="H48" s="147"/>
+      <c r="I48" s="147"/>
+      <c r="J48" s="148"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1">
       <c r="A49" s="70">
         <v>3</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C49" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="71"/>
-      <c r="E49" s="132" t="s">
-        <v>130</v>
-      </c>
-      <c r="F49" s="114"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="114"/>
-      <c r="I49" s="114"/>
-      <c r="J49" s="115"/>
+      <c r="E49" s="129" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" s="109"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="110"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1">
       <c r="A50" s="72"/>
-      <c r="B50" s="152"/>
-      <c r="C50" s="152"/>
-      <c r="D50" s="152"/>
-      <c r="E50" s="152"/>
-      <c r="F50" s="152"/>
-      <c r="G50" s="152"/>
-      <c r="H50" s="152"/>
-      <c r="I50" s="152"/>
-      <c r="J50" s="136"/>
+      <c r="B50" s="149"/>
+      <c r="C50" s="149"/>
+      <c r="D50" s="149"/>
+      <c r="E50" s="149"/>
+      <c r="F50" s="149"/>
+      <c r="G50" s="149"/>
+      <c r="H50" s="149"/>
+      <c r="I50" s="149"/>
+      <c r="J50" s="133"/>
     </row>
     <row r="51" spans="1:10" s="53" customFormat="1">
-      <c r="A51" s="146" t="s">
-        <v>248</v>
-      </c>
-      <c r="B51" s="147"/>
-      <c r="C51" s="147"/>
-      <c r="D51" s="147"/>
-      <c r="E51" s="147"/>
-      <c r="F51" s="147"/>
-      <c r="G51" s="147"/>
-      <c r="H51" s="147"/>
-      <c r="I51" s="147"/>
-      <c r="J51" s="148"/>
+      <c r="A51" s="143" t="s">
+        <v>242</v>
+      </c>
+      <c r="B51" s="144"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="144"/>
+      <c r="G51" s="144"/>
+      <c r="H51" s="144"/>
+      <c r="I51" s="144"/>
+      <c r="J51" s="145"/>
     </row>
     <row r="52" spans="1:10" s="53" customFormat="1">
       <c r="A52" s="56">
         <v>1</v>
       </c>
       <c r="B52" s="83" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C52" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="66"/>
-      <c r="E52" s="145" t="s">
-        <v>154</v>
-      </c>
-      <c r="F52" s="113"/>
-      <c r="G52" s="113"/>
-      <c r="H52" s="113"/>
-      <c r="I52" s="113"/>
-      <c r="J52" s="113"/>
+      <c r="E52" s="142" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" s="117"/>
+      <c r="G52" s="117"/>
+      <c r="H52" s="117"/>
+      <c r="I52" s="117"/>
+      <c r="J52" s="117"/>
     </row>
     <row r="53" spans="1:10" s="53" customFormat="1" ht="66" customHeight="1">
       <c r="A53" s="56">
         <v>2</v>
       </c>
       <c r="B53" s="83" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C53" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="69"/>
-      <c r="E53" s="145" t="s">
-        <v>257</v>
-      </c>
-      <c r="F53" s="113"/>
-      <c r="G53" s="113"/>
-      <c r="H53" s="113"/>
-      <c r="I53" s="113"/>
-      <c r="J53" s="113"/>
+      <c r="E53" s="142" t="s">
+        <v>251</v>
+      </c>
+      <c r="F53" s="117"/>
+      <c r="G53" s="117"/>
+      <c r="H53" s="117"/>
+      <c r="I53" s="117"/>
+      <c r="J53" s="117"/>
     </row>
     <row r="54" spans="1:10" s="53" customFormat="1">
       <c r="A54" s="56">
         <v>3</v>
       </c>
       <c r="B54" s="83" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C54" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="69"/>
-      <c r="E54" s="149" t="s">
-        <v>152</v>
-      </c>
-      <c r="F54" s="150"/>
-      <c r="G54" s="150"/>
-      <c r="H54" s="150"/>
-      <c r="I54" s="150"/>
-      <c r="J54" s="151"/>
+      <c r="E54" s="146" t="s">
+        <v>150</v>
+      </c>
+      <c r="F54" s="147"/>
+      <c r="G54" s="147"/>
+      <c r="H54" s="147"/>
+      <c r="I54" s="147"/>
+      <c r="J54" s="148"/>
     </row>
     <row r="55" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
       <c r="A55" s="56">
         <v>4</v>
       </c>
       <c r="B55" s="83" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C55" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="69"/>
-      <c r="E55" s="149" t="s">
-        <v>153</v>
-      </c>
-      <c r="F55" s="150"/>
-      <c r="G55" s="150"/>
-      <c r="H55" s="150"/>
-      <c r="I55" s="150"/>
-      <c r="J55" s="151"/>
+      <c r="E55" s="146" t="s">
+        <v>151</v>
+      </c>
+      <c r="F55" s="147"/>
+      <c r="G55" s="147"/>
+      <c r="H55" s="147"/>
+      <c r="I55" s="147"/>
+      <c r="J55" s="148"/>
     </row>
     <row r="56" spans="1:10" s="53" customFormat="1" hidden="1">
       <c r="A56" s="56">
         <v>5</v>
       </c>
       <c r="B56" s="97" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C56" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="69"/>
-      <c r="E56" s="149" t="s">
-        <v>98</v>
-      </c>
-      <c r="F56" s="150"/>
-      <c r="G56" s="150"/>
-      <c r="H56" s="150"/>
-      <c r="I56" s="150"/>
-      <c r="J56" s="151"/>
+      <c r="E56" s="146" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" s="147"/>
+      <c r="G56" s="147"/>
+      <c r="H56" s="147"/>
+      <c r="I56" s="147"/>
+      <c r="J56" s="148"/>
     </row>
     <row r="57" spans="1:10" s="53" customFormat="1">
       <c r="A57" s="73"/>
-      <c r="B57" s="152"/>
-      <c r="C57" s="152"/>
-      <c r="D57" s="152"/>
-      <c r="E57" s="152"/>
-      <c r="F57" s="152"/>
-      <c r="G57" s="152"/>
-      <c r="H57" s="152"/>
-      <c r="I57" s="152"/>
-      <c r="J57" s="136"/>
+      <c r="B57" s="149"/>
+      <c r="C57" s="149"/>
+      <c r="D57" s="149"/>
+      <c r="E57" s="149"/>
+      <c r="F57" s="149"/>
+      <c r="G57" s="149"/>
+      <c r="H57" s="149"/>
+      <c r="I57" s="149"/>
+      <c r="J57" s="133"/>
     </row>
     <row r="58" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="142" t="s">
+      <c r="A58" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="143"/>
-      <c r="C58" s="143"/>
-      <c r="D58" s="143"/>
-      <c r="E58" s="143"/>
-      <c r="F58" s="143"/>
-      <c r="G58" s="143"/>
-      <c r="H58" s="143"/>
-      <c r="I58" s="143"/>
-      <c r="J58" s="144"/>
+      <c r="B58" s="140"/>
+      <c r="C58" s="140"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="140"/>
+      <c r="F58" s="140"/>
+      <c r="G58" s="140"/>
+      <c r="H58" s="140"/>
+      <c r="I58" s="140"/>
+      <c r="J58" s="141"/>
     </row>
     <row r="59" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="140" t="s">
+      <c r="B59" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="141"/>
-      <c r="D59" s="132" t="s">
+      <c r="C59" s="138"/>
+      <c r="D59" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="114"/>
-      <c r="F59" s="114"/>
-      <c r="G59" s="114"/>
-      <c r="H59" s="114"/>
-      <c r="I59" s="114"/>
-      <c r="J59" s="115"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="109"/>
+      <c r="H59" s="109"/>
+      <c r="I59" s="109"/>
+      <c r="J59" s="110"/>
     </row>
     <row r="60" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="137"/>
-      <c r="B60" s="138"/>
-      <c r="C60" s="138"/>
-      <c r="D60" s="138"/>
-      <c r="E60" s="138"/>
-      <c r="F60" s="138"/>
-      <c r="G60" s="138"/>
-      <c r="H60" s="138"/>
-      <c r="I60" s="138"/>
-      <c r="J60" s="139"/>
+      <c r="A60" s="134"/>
+      <c r="B60" s="135"/>
+      <c r="C60" s="135"/>
+      <c r="D60" s="135"/>
+      <c r="E60" s="135"/>
+      <c r="F60" s="135"/>
+      <c r="G60" s="135"/>
+      <c r="H60" s="135"/>
+      <c r="I60" s="135"/>
+      <c r="J60" s="136"/>
     </row>
     <row r="61" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="70"/>
-      <c r="B61" s="135"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="132"/>
-      <c r="E61" s="133"/>
-      <c r="F61" s="133"/>
-      <c r="G61" s="133"/>
-      <c r="H61" s="133"/>
-      <c r="I61" s="133"/>
-      <c r="J61" s="134"/>
+      <c r="B61" s="132"/>
+      <c r="C61" s="133"/>
+      <c r="D61" s="129"/>
+      <c r="E61" s="130"/>
+      <c r="F61" s="130"/>
+      <c r="G61" s="130"/>
+      <c r="H61" s="130"/>
+      <c r="I61" s="130"/>
+      <c r="J61" s="131"/>
     </row>
     <row r="62" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="70"/>
-      <c r="B62" s="135"/>
-      <c r="C62" s="136"/>
-      <c r="D62" s="132"/>
-      <c r="E62" s="133"/>
-      <c r="F62" s="133"/>
-      <c r="G62" s="133"/>
-      <c r="H62" s="133"/>
-      <c r="I62" s="133"/>
-      <c r="J62" s="134"/>
+      <c r="B62" s="132"/>
+      <c r="C62" s="133"/>
+      <c r="D62" s="129"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="130"/>
+      <c r="G62" s="130"/>
+      <c r="H62" s="130"/>
+      <c r="I62" s="130"/>
+      <c r="J62" s="131"/>
     </row>
     <row r="63" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="137"/>
-      <c r="B63" s="138"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="138"/>
-      <c r="E63" s="138"/>
-      <c r="F63" s="138"/>
-      <c r="G63" s="138"/>
-      <c r="H63" s="138"/>
-      <c r="I63" s="138"/>
-      <c r="J63" s="139"/>
+      <c r="A63" s="134"/>
+      <c r="B63" s="135"/>
+      <c r="C63" s="135"/>
+      <c r="D63" s="135"/>
+      <c r="E63" s="135"/>
+      <c r="F63" s="135"/>
+      <c r="G63" s="135"/>
+      <c r="H63" s="135"/>
+      <c r="I63" s="135"/>
+      <c r="J63" s="136"/>
     </row>
     <row r="64" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="70"/>
-      <c r="B64" s="135"/>
-      <c r="C64" s="136"/>
-      <c r="D64" s="132"/>
-      <c r="E64" s="133"/>
-      <c r="F64" s="133"/>
-      <c r="G64" s="133"/>
-      <c r="H64" s="133"/>
-      <c r="I64" s="133"/>
-      <c r="J64" s="134"/>
+      <c r="B64" s="132"/>
+      <c r="C64" s="133"/>
+      <c r="D64" s="129"/>
+      <c r="E64" s="130"/>
+      <c r="F64" s="130"/>
+      <c r="G64" s="130"/>
+      <c r="H64" s="130"/>
+      <c r="I64" s="130"/>
+      <c r="J64" s="131"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="74" t="s">
@@ -12730,14 +12684,14 @@
       <c r="B66" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="135"/>
-      <c r="D66" s="114"/>
-      <c r="E66" s="114"/>
-      <c r="F66" s="114"/>
-      <c r="G66" s="114"/>
-      <c r="H66" s="114"/>
-      <c r="I66" s="114"/>
-      <c r="J66" s="115"/>
+      <c r="C66" s="132"/>
+      <c r="D66" s="109"/>
+      <c r="E66" s="109"/>
+      <c r="F66" s="109"/>
+      <c r="G66" s="109"/>
+      <c r="H66" s="109"/>
+      <c r="I66" s="109"/>
+      <c r="J66" s="110"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="70">
@@ -12746,14 +12700,14 @@
       <c r="B67" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="153"/>
-      <c r="D67" s="153"/>
-      <c r="E67" s="153"/>
-      <c r="F67" s="153"/>
-      <c r="G67" s="153"/>
-      <c r="H67" s="153"/>
-      <c r="I67" s="153"/>
-      <c r="J67" s="153"/>
+      <c r="C67" s="150"/>
+      <c r="D67" s="150"/>
+      <c r="E67" s="150"/>
+      <c r="F67" s="150"/>
+      <c r="G67" s="150"/>
+      <c r="H67" s="150"/>
+      <c r="I67" s="150"/>
+      <c r="J67" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="63">
@@ -12841,8 +12795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:J18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12872,8 +12826,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="154" t="s">
-        <v>55</v>
+      <c r="K1" s="151" t="s">
+        <v>54</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -12899,7 +12853,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="155"/>
+      <c r="K2" s="152"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -12917,7 +12871,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="155"/>
+      <c r="K3" s="152"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -12961,18 +12915,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="197" t="s">
+      <c r="A6" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="198"/>
-      <c r="C6" s="198"/>
-      <c r="D6" s="198"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="198"/>
-      <c r="I6" s="198"/>
-      <c r="J6" s="199"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="196"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -12982,19 +12936,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B7" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>228</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>233</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>22</v>
@@ -13003,10 +12957,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -13039,34 +12993,34 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="197" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="198"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="199"/>
+      <c r="A10" s="194" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="195"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="195"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="195"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="196"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B11" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>228</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>233</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>22</v>
@@ -13075,41 +13029,43 @@
         <v>16</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" ht="49.5">
       <c r="A12" s="45">
         <v>1</v>
       </c>
-      <c r="B12" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>134</v>
+      <c r="B12" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="106" t="s">
+        <v>132</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="98" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12" s="202" t="s">
-        <v>175</v>
-      </c>
-      <c r="G12" s="203"/>
+        <v>123</v>
+      </c>
+      <c r="E12" s="211" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" s="212" t="s">
+        <v>263</v>
+      </c>
+      <c r="G12" s="91" t="s">
+        <v>264</v>
+      </c>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" s="45" t="s">
-        <v>133</v>
+        <v>68</v>
+      </c>
+      <c r="J12" s="210" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="25.5" customHeight="1">
@@ -13117,29 +13073,29 @@
         <v>2</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="E13" s="99" t="s">
-        <v>140</v>
+        <v>162</v>
+      </c>
+      <c r="E13" s="98" t="s">
+        <v>138</v>
       </c>
       <c r="F13" s="91" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G13" s="91" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="200" t="s">
-        <v>225</v>
+        <v>68</v>
+      </c>
+      <c r="J13" s="197" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="22.5" customHeight="1">
@@ -13148,77 +13104,77 @@
       <c r="C14" s="46"/>
       <c r="D14" s="42"/>
       <c r="E14" s="42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F14" s="91" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G14" s="91" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="201"/>
+        <v>68</v>
+      </c>
+      <c r="J14" s="198"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="40">
         <v>3</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F15" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="91" t="s">
         <v>118</v>
-      </c>
-      <c r="G15" s="91" t="s">
-        <v>119</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J15" s="48"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="197" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="198"/>
-      <c r="C17" s="198"/>
-      <c r="D17" s="198"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="198"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="199"/>
+      <c r="A17" s="194" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="195"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="195"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="196"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="B18" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>231</v>
-      </c>
       <c r="E18" s="39" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F18" s="39" t="s">
         <v>22</v>
@@ -13227,10 +13183,10 @@
         <v>16</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J18" s="39" t="s">
         <v>0</v>
@@ -13241,26 +13197,26 @@
         <v>1</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E19" s="96" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F19" s="91" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G19" s="91" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J19" s="45"/>
     </row>
@@ -13270,17 +13226,17 @@
       <c r="C20" s="41"/>
       <c r="D20" s="42"/>
       <c r="E20" s="42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F20" s="91" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G20" s="91" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J20" s="45"/>
     </row>
@@ -13289,27 +13245,27 @@
         <v>3</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="43" t="s">
-        <v>60</v>
-      </c>
       <c r="G21" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J21" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:11" hidden="1">
@@ -13317,27 +13273,27 @@
         <v>4</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="G22" s="46" t="s">
         <v>62</v>
-      </c>
-      <c r="G22" s="46" t="s">
-        <v>63</v>
       </c>
       <c r="H22" s="46"/>
       <c r="I22" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J22" s="48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -13353,13 +13309,12 @@
       <c r="K23" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A17:J17"/>
     <mergeCell ref="J13:J14"/>
-    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -13381,8 +13336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41:J41"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13410,8 +13365,8 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
-      <c r="K1" s="154" t="s">
-        <v>55</v>
+      <c r="K1" s="151" t="s">
+        <v>54</v>
       </c>
       <c r="L1" s="51"/>
       <c r="M1" s="51"/>
@@ -13431,7 +13386,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="155"/>
+      <c r="K2" s="152"/>
     </row>
     <row r="3" spans="1:17" s="52" customFormat="1">
       <c r="A3" s="44"/>
@@ -13444,7 +13399,7 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
-      <c r="K3" s="155"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="1:17" s="52" customFormat="1">
       <c r="A4" s="44"/>
@@ -13459,506 +13414,506 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:17" s="52" customFormat="1">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="120"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="122"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="163"/>
-      <c r="B7" s="164"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="166"/>
+      <c r="A7" s="160"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="163"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="163"/>
-      <c r="B8" s="164"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="166"/>
+      <c r="A8" s="160"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="163"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="167"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="169"/>
+      <c r="A9" s="164"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="166"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="111"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="170" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="115"/>
+      <c r="A11" s="167" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="110"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="162" t="s">
+      <c r="A12" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="111"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="120"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="170" t="s">
+      <c r="A13" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="110"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="162" t="s">
+      <c r="A14" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="111"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="120"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="174" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="175"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="176"/>
+      <c r="A15" s="171" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="172"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="173"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="177" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="179"/>
+        <v>76</v>
+      </c>
+      <c r="C16" s="174" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="176"/>
     </row>
     <row r="17" spans="1:10" s="53" customFormat="1" ht="64.5" customHeight="1">
       <c r="A17" s="56">
         <v>1</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="183" t="s">
-        <v>251</v>
-      </c>
-      <c r="D17" s="204"/>
-      <c r="E17" s="204"/>
-      <c r="F17" s="204"/>
-      <c r="G17" s="204"/>
-      <c r="H17" s="204"/>
-      <c r="I17" s="204"/>
-      <c r="J17" s="205"/>
+        <v>144</v>
+      </c>
+      <c r="C17" s="180" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" s="199"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="200"/>
     </row>
     <row r="18" spans="1:10" s="53" customFormat="1" ht="88.5" customHeight="1">
       <c r="A18" s="56">
         <v>2</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" s="183" t="s">
-        <v>252</v>
-      </c>
-      <c r="D18" s="204"/>
-      <c r="E18" s="204"/>
-      <c r="F18" s="204"/>
-      <c r="G18" s="204"/>
-      <c r="H18" s="204"/>
-      <c r="I18" s="204"/>
-      <c r="J18" s="205"/>
+        <v>193</v>
+      </c>
+      <c r="C18" s="180" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="200"/>
     </row>
     <row r="19" spans="1:10" s="53" customFormat="1" ht="84.75" customHeight="1">
       <c r="A19" s="56">
         <v>2</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" s="183" t="s">
-        <v>252</v>
-      </c>
-      <c r="D19" s="204"/>
-      <c r="E19" s="204"/>
-      <c r="F19" s="204"/>
-      <c r="G19" s="204"/>
-      <c r="H19" s="204"/>
-      <c r="I19" s="204"/>
-      <c r="J19" s="205"/>
+        <v>192</v>
+      </c>
+      <c r="C19" s="180" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="199"/>
+      <c r="E19" s="199"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="200"/>
     </row>
     <row r="20" spans="1:10" s="53" customFormat="1">
       <c r="A20" s="56">
         <v>3</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="187" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="184"/>
-      <c r="E20" s="184"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="184"/>
-      <c r="H20" s="184"/>
-      <c r="I20" s="184"/>
-      <c r="J20" s="185"/>
+        <v>181</v>
+      </c>
+      <c r="C20" s="184" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="181"/>
+      <c r="E20" s="181"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="181"/>
+      <c r="I20" s="181"/>
+      <c r="J20" s="182"/>
     </row>
     <row r="21" spans="1:10" s="53" customFormat="1">
       <c r="A21" s="56">
         <v>4</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="187" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="184"/>
-      <c r="E21" s="184"/>
-      <c r="F21" s="184"/>
-      <c r="G21" s="184"/>
-      <c r="H21" s="184"/>
-      <c r="I21" s="184"/>
-      <c r="J21" s="185"/>
+        <v>183</v>
+      </c>
+      <c r="C21" s="184" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="181"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="181"/>
+      <c r="J21" s="182"/>
     </row>
     <row r="22" spans="1:10" s="53" customFormat="1" ht="33.75" customHeight="1">
       <c r="A22" s="56">
         <v>5</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="C22" s="183" t="s">
-        <v>203</v>
-      </c>
-      <c r="D22" s="184"/>
-      <c r="E22" s="184"/>
-      <c r="F22" s="184"/>
-      <c r="G22" s="184"/>
-      <c r="H22" s="184"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="185"/>
+        <v>185</v>
+      </c>
+      <c r="C22" s="180" t="s">
+        <v>260</v>
+      </c>
+      <c r="D22" s="181"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="182"/>
     </row>
     <row r="23" spans="1:10" s="53" customFormat="1" ht="34.5" customHeight="1">
       <c r="A23" s="63">
         <v>6</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" s="183" t="s">
-        <v>259</v>
-      </c>
-      <c r="D23" s="184"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="184"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="185"/>
+        <v>187</v>
+      </c>
+      <c r="C23" s="180" t="s">
+        <v>253</v>
+      </c>
+      <c r="D23" s="181"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="181"/>
+      <c r="J23" s="182"/>
     </row>
     <row r="24" spans="1:10" s="53" customFormat="1">
-      <c r="A24" s="206"/>
-      <c r="B24" s="207"/>
-      <c r="C24" s="207"/>
-      <c r="D24" s="207"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="207"/>
-      <c r="H24" s="207"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="208"/>
+      <c r="A24" s="201"/>
+      <c r="B24" s="202"/>
+      <c r="C24" s="202"/>
+      <c r="D24" s="202"/>
+      <c r="E24" s="202"/>
+      <c r="F24" s="202"/>
+      <c r="G24" s="202"/>
+      <c r="H24" s="202"/>
+      <c r="I24" s="202"/>
+      <c r="J24" s="203"/>
     </row>
     <row r="25" spans="1:10" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="171" t="s">
+      <c r="A25" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="194"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="194"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="194"/>
-      <c r="G25" s="194"/>
-      <c r="H25" s="194"/>
-      <c r="I25" s="194"/>
-      <c r="J25" s="209"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="191"/>
+      <c r="E25" s="191"/>
+      <c r="F25" s="191"/>
+      <c r="G25" s="191"/>
+      <c r="H25" s="191"/>
+      <c r="I25" s="191"/>
+      <c r="J25" s="204"/>
     </row>
     <row r="26" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1">
-      <c r="A26" s="174" t="s">
-        <v>205</v>
-      </c>
-      <c r="B26" s="175"/>
-      <c r="C26" s="175"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="176"/>
+      <c r="A26" s="171" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" s="172"/>
+      <c r="C26" s="172"/>
+      <c r="D26" s="172"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="173"/>
     </row>
     <row r="27" spans="1:10" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="177" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="179"/>
+        <v>76</v>
+      </c>
+      <c r="C27" s="174" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="175"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="175"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="176"/>
     </row>
     <row r="28" spans="1:10" s="53" customFormat="1" ht="40.5" customHeight="1">
       <c r="A28" s="56">
         <v>1</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="C28" s="183" t="s">
-        <v>258</v>
-      </c>
-      <c r="D28" s="204"/>
-      <c r="E28" s="204"/>
-      <c r="F28" s="204"/>
-      <c r="G28" s="204"/>
-      <c r="H28" s="204"/>
-      <c r="I28" s="204"/>
-      <c r="J28" s="205"/>
+        <v>191</v>
+      </c>
+      <c r="C28" s="180" t="s">
+        <v>252</v>
+      </c>
+      <c r="D28" s="199"/>
+      <c r="E28" s="199"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="199"/>
+      <c r="H28" s="199"/>
+      <c r="I28" s="199"/>
+      <c r="J28" s="200"/>
     </row>
     <row r="29" spans="1:10" s="53" customFormat="1">
       <c r="A29" s="56">
         <v>2</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="C29" s="183" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="204"/>
-      <c r="E29" s="204"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="204"/>
-      <c r="H29" s="204"/>
-      <c r="I29" s="204"/>
-      <c r="J29" s="205"/>
+        <v>193</v>
+      </c>
+      <c r="C29" s="180" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="199"/>
+      <c r="E29" s="199"/>
+      <c r="F29" s="199"/>
+      <c r="G29" s="199"/>
+      <c r="H29" s="199"/>
+      <c r="I29" s="199"/>
+      <c r="J29" s="200"/>
     </row>
     <row r="30" spans="1:10" s="53" customFormat="1">
       <c r="A30" s="56">
         <v>2</v>
       </c>
       <c r="B30" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="180" t="s">
         <v>197</v>
       </c>
-      <c r="C30" s="183" t="s">
-        <v>202</v>
-      </c>
-      <c r="D30" s="204"/>
-      <c r="E30" s="204"/>
-      <c r="F30" s="204"/>
-      <c r="G30" s="204"/>
-      <c r="H30" s="204"/>
-      <c r="I30" s="204"/>
-      <c r="J30" s="205"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="199"/>
+      <c r="I30" s="199"/>
+      <c r="J30" s="200"/>
     </row>
     <row r="31" spans="1:10" s="53" customFormat="1">
       <c r="A31" s="56">
         <v>3</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="C31" s="187" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="185"/>
+        <v>181</v>
+      </c>
+      <c r="C31" s="184" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="181"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="182"/>
     </row>
     <row r="32" spans="1:10" s="53" customFormat="1">
       <c r="A32" s="56">
         <v>4</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="C32" s="187" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="184"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="184"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="184"/>
-      <c r="I32" s="184"/>
-      <c r="J32" s="185"/>
+        <v>183</v>
+      </c>
+      <c r="C32" s="184" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="181"/>
+      <c r="E32" s="181"/>
+      <c r="F32" s="181"/>
+      <c r="G32" s="181"/>
+      <c r="H32" s="181"/>
+      <c r="I32" s="181"/>
+      <c r="J32" s="182"/>
     </row>
     <row r="33" spans="1:12" s="53" customFormat="1">
       <c r="A33" s="56">
         <v>5</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="C33" s="187" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="184"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="184"/>
-      <c r="J33" s="185"/>
+        <v>185</v>
+      </c>
+      <c r="C33" s="184" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="181"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="182"/>
     </row>
     <row r="34" spans="1:12" s="53" customFormat="1" ht="34.5" customHeight="1">
       <c r="A34" s="63">
         <v>6</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="C34" s="183" t="s">
-        <v>260</v>
-      </c>
-      <c r="D34" s="184"/>
-      <c r="E34" s="184"/>
-      <c r="F34" s="184"/>
-      <c r="G34" s="184"/>
-      <c r="H34" s="184"/>
-      <c r="I34" s="184"/>
-      <c r="J34" s="185"/>
+        <v>199</v>
+      </c>
+      <c r="C34" s="180" t="s">
+        <v>254</v>
+      </c>
+      <c r="D34" s="181"/>
+      <c r="E34" s="181"/>
+      <c r="F34" s="181"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="181"/>
+      <c r="I34" s="181"/>
+      <c r="J34" s="182"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1">
-      <c r="A35" s="159"/>
-      <c r="B35" s="210"/>
-      <c r="C35" s="210"/>
-      <c r="D35" s="210"/>
-      <c r="E35" s="210"/>
-      <c r="F35" s="210"/>
-      <c r="G35" s="210"/>
-      <c r="H35" s="210"/>
-      <c r="I35" s="210"/>
-      <c r="J35" s="211"/>
+      <c r="A35" s="156"/>
+      <c r="B35" s="205"/>
+      <c r="C35" s="205"/>
+      <c r="D35" s="205"/>
+      <c r="E35" s="205"/>
+      <c r="F35" s="205"/>
+      <c r="G35" s="205"/>
+      <c r="H35" s="205"/>
+      <c r="I35" s="205"/>
+      <c r="J35" s="206"/>
     </row>
     <row r="36" spans="1:12" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A36" s="171" t="s">
+      <c r="A36" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="172"/>
-      <c r="C36" s="172"/>
-      <c r="D36" s="172"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="173"/>
+      <c r="B36" s="169"/>
+      <c r="C36" s="169"/>
+      <c r="D36" s="169"/>
+      <c r="E36" s="169"/>
+      <c r="F36" s="169"/>
+      <c r="G36" s="169"/>
+      <c r="H36" s="169"/>
+      <c r="I36" s="169"/>
+      <c r="J36" s="170"/>
     </row>
     <row r="37" spans="1:12" s="79" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="57" t="s">
@@ -13973,14 +13928,14 @@
       <c r="D37" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="195" t="s">
+      <c r="E37" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="196"/>
-      <c r="G37" s="196"/>
-      <c r="H37" s="196"/>
-      <c r="I37" s="196"/>
-      <c r="J37" s="196"/>
+      <c r="F37" s="193"/>
+      <c r="G37" s="193"/>
+      <c r="H37" s="193"/>
+      <c r="I37" s="193"/>
+      <c r="J37" s="193"/>
       <c r="K37" s="53"/>
       <c r="L37" s="53"/>
     </row>
@@ -13989,30 +13944,30 @@
         <v>1</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="62"/>
-      <c r="E38" s="145"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
+      <c r="E38" s="142"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
     </row>
     <row r="39" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="156" t="s">
-        <v>206</v>
-      </c>
-      <c r="B39" s="157"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="157"/>
-      <c r="H39" s="157"/>
-      <c r="I39" s="157"/>
-      <c r="J39" s="158"/>
+      <c r="A39" s="153" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39" s="154"/>
+      <c r="C39" s="154"/>
+      <c r="D39" s="154"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="154"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="154"/>
+      <c r="J39" s="155"/>
       <c r="K39" s="53"/>
       <c r="L39" s="53"/>
     </row>
@@ -14021,150 +13976,150 @@
         <v>1</v>
       </c>
       <c r="B40" s="64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="65" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="66"/>
-      <c r="E40" s="145" t="s">
-        <v>97</v>
-      </c>
-      <c r="F40" s="113"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="113"/>
+      <c r="E40" s="142" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="117"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="117"/>
+      <c r="I40" s="117"/>
+      <c r="J40" s="117"/>
     </row>
     <row r="41" spans="1:12" s="53" customFormat="1" ht="116.25" customHeight="1">
       <c r="A41" s="67">
         <v>1</v>
       </c>
       <c r="B41" s="68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" s="65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D41" s="69"/>
-      <c r="E41" s="149" t="s">
-        <v>261</v>
-      </c>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="151"/>
+      <c r="E41" s="146" t="s">
+        <v>255</v>
+      </c>
+      <c r="F41" s="147"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="147"/>
+      <c r="J41" s="148"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="52.5" customHeight="1">
       <c r="A42" s="70">
         <v>2</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D42" s="71"/>
-      <c r="E42" s="132"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="114"/>
-      <c r="J42" s="115"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="110"/>
     </row>
     <row r="43" spans="1:12" s="53" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="142" t="s">
+      <c r="A43" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="143"/>
-      <c r="C43" s="143"/>
-      <c r="D43" s="143"/>
-      <c r="E43" s="143"/>
-      <c r="F43" s="143"/>
-      <c r="G43" s="143"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="143"/>
-      <c r="J43" s="144"/>
+      <c r="B43" s="140"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="140"/>
+      <c r="F43" s="140"/>
+      <c r="G43" s="140"/>
+      <c r="H43" s="140"/>
+      <c r="I43" s="140"/>
+      <c r="J43" s="141"/>
     </row>
     <row r="44" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="140" t="s">
+      <c r="B44" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="141"/>
-      <c r="D44" s="132" t="s">
+      <c r="C44" s="138"/>
+      <c r="D44" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="115"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="109"/>
+      <c r="J44" s="110"/>
     </row>
     <row r="45" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="137"/>
-      <c r="B45" s="212"/>
-      <c r="C45" s="212"/>
-      <c r="D45" s="212"/>
-      <c r="E45" s="212"/>
-      <c r="F45" s="212"/>
-      <c r="G45" s="212"/>
-      <c r="H45" s="212"/>
-      <c r="I45" s="212"/>
-      <c r="J45" s="213"/>
+      <c r="A45" s="134"/>
+      <c r="B45" s="207"/>
+      <c r="C45" s="207"/>
+      <c r="D45" s="207"/>
+      <c r="E45" s="207"/>
+      <c r="F45" s="207"/>
+      <c r="G45" s="207"/>
+      <c r="H45" s="207"/>
+      <c r="I45" s="207"/>
+      <c r="J45" s="208"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="70"/>
-      <c r="B46" s="135"/>
-      <c r="C46" s="136"/>
-      <c r="D46" s="132"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="115"/>
+      <c r="B46" s="132"/>
+      <c r="C46" s="133"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="109"/>
+      <c r="G46" s="109"/>
+      <c r="H46" s="109"/>
+      <c r="I46" s="109"/>
+      <c r="J46" s="110"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="70"/>
-      <c r="B47" s="135"/>
-      <c r="C47" s="136"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="115"/>
+      <c r="B47" s="132"/>
+      <c r="C47" s="133"/>
+      <c r="D47" s="129"/>
+      <c r="E47" s="109"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="109"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="109"/>
+      <c r="J47" s="110"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="137"/>
-      <c r="B48" s="212"/>
-      <c r="C48" s="212"/>
-      <c r="D48" s="212"/>
-      <c r="E48" s="212"/>
-      <c r="F48" s="212"/>
-      <c r="G48" s="212"/>
-      <c r="H48" s="212"/>
-      <c r="I48" s="212"/>
-      <c r="J48" s="213"/>
+      <c r="A48" s="134"/>
+      <c r="B48" s="207"/>
+      <c r="C48" s="207"/>
+      <c r="D48" s="207"/>
+      <c r="E48" s="207"/>
+      <c r="F48" s="207"/>
+      <c r="G48" s="207"/>
+      <c r="H48" s="207"/>
+      <c r="I48" s="207"/>
+      <c r="J48" s="208"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="70"/>
-      <c r="B49" s="135"/>
-      <c r="C49" s="136"/>
-      <c r="D49" s="132"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="114"/>
-      <c r="I49" s="114"/>
-      <c r="J49" s="115"/>
+      <c r="B49" s="132"/>
+      <c r="C49" s="133"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="110"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1" ht="17.25" customHeight="1">
       <c r="A50" s="74" t="s">
@@ -14187,14 +14142,14 @@
       <c r="B51" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="135"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="114"/>
-      <c r="H51" s="114"/>
-      <c r="I51" s="114"/>
-      <c r="J51" s="115"/>
+      <c r="C51" s="132"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="109"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="109"/>
+      <c r="I51" s="109"/>
+      <c r="J51" s="110"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="70">
@@ -14203,14 +14158,14 @@
       <c r="B52" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="153"/>
-      <c r="D52" s="153"/>
-      <c r="E52" s="153"/>
-      <c r="F52" s="153"/>
-      <c r="G52" s="153"/>
-      <c r="H52" s="153"/>
-      <c r="I52" s="153"/>
-      <c r="J52" s="153"/>
+      <c r="C52" s="150"/>
+      <c r="D52" s="150"/>
+      <c r="E52" s="150"/>
+      <c r="F52" s="150"/>
+      <c r="G52" s="150"/>
+      <c r="H52" s="150"/>
+      <c r="I52" s="150"/>
+      <c r="J52" s="150"/>
     </row>
     <row r="65" s="51" customFormat="1"/>
     <row r="66" s="51" customFormat="1"/>
@@ -14287,8 +14242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:J11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14318,8 +14273,8 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
-      <c r="K1" s="154" t="s">
-        <v>55</v>
+      <c r="K1" s="151" t="s">
+        <v>54</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -14345,7 +14300,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="155"/>
+      <c r="K2" s="152"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
@@ -14363,7 +14318,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="155"/>
+      <c r="K3" s="152"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -14407,18 +14362,18 @@
       <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="197" t="s">
+      <c r="A6" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="198"/>
-      <c r="C6" s="198"/>
-      <c r="D6" s="198"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="198"/>
-      <c r="I6" s="198"/>
-      <c r="J6" s="199"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="196"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
@@ -14428,19 +14383,19 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="39" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B7" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>228</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>233</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>22</v>
@@ -14449,10 +14404,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>0</v>
@@ -14485,34 +14440,34 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="197" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="198"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="199"/>
+      <c r="A10" s="194" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="195"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="195"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="195"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="196"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="39" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B11" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>228</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>233</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>22</v>
@@ -14521,43 +14476,43 @@
         <v>16</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" ht="16.5" customHeight="1">
       <c r="A12" s="45">
         <v>1</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="F12" s="103" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="F12" s="102" t="s">
+        <v>159</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="J12" s="215" t="s">
-        <v>180</v>
+        <v>166</v>
+      </c>
+      <c r="J12" s="213" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -14565,83 +14520,83 @@
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
       <c r="D13" s="42" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" s="103" t="s">
         <v>161</v>
       </c>
+      <c r="F13" s="102" t="s">
+        <v>159</v>
+      </c>
       <c r="G13" s="42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="J13" s="201"/>
+        <v>166</v>
+      </c>
+      <c r="J13" s="214"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="40">
         <v>2</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E14" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="103" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="F14" s="104" t="s">
+      <c r="H14" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="I14" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="105" t="s">
-        <v>165</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>168</v>
-      </c>
       <c r="J14" s="38" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="40"/>
       <c r="B15" s="46" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E15" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="103" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="F15" s="104" t="s">
+      <c r="H15" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="I15" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="G15" s="105" t="s">
-        <v>165</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>169</v>
-      </c>
       <c r="J15" s="85" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -14649,31 +14604,31 @@
         <v>3</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14681,55 +14636,57 @@
         <v>4</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="J17" s="100"/>
-    </row>
-    <row r="18" spans="1:10" ht="71.25" customHeight="1">
+        <v>94</v>
+      </c>
+      <c r="J17" s="99"/>
+    </row>
+    <row r="18" spans="1:10" ht="134.25" customHeight="1">
       <c r="A18" s="40">
         <v>5</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>174</v>
-      </c>
-      <c r="E18" s="102" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" s="214" t="s">
-        <v>176</v>
-      </c>
-      <c r="G18" s="203"/>
+        <v>172</v>
+      </c>
+      <c r="E18" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="212" t="s">
+        <v>263</v>
+      </c>
+      <c r="G18" s="91" t="s">
+        <v>264</v>
+      </c>
       <c r="H18" s="83"/>
       <c r="I18" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="J18" s="101" t="s">
-        <v>177</v>
+        <v>94</v>
+      </c>
+      <c r="J18" s="100" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14737,35 +14694,34 @@
         <v>6</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H19" s="40"/>
       <c r="I19" s="40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J19" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A10:J10"/>
-    <mergeCell ref="F18:G18"/>
     <mergeCell ref="J12:J13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -14788,7 +14744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="106" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="106" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E40" sqref="E40:J40"/>
     </sheetView>
   </sheetViews>
@@ -14817,8 +14773,8 @@
       <c r="H1" s="90"/>
       <c r="I1" s="90"/>
       <c r="J1" s="90"/>
-      <c r="K1" s="154" t="s">
-        <v>55</v>
+      <c r="K1" s="151" t="s">
+        <v>54</v>
       </c>
       <c r="L1" s="51"/>
       <c r="M1" s="51"/>
@@ -14838,7 +14794,7 @@
       <c r="H2" s="90"/>
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
-      <c r="K2" s="155"/>
+      <c r="K2" s="152"/>
     </row>
     <row r="3" spans="1:17" s="89" customFormat="1">
       <c r="A3" s="90"/>
@@ -14851,7 +14807,7 @@
       <c r="H3" s="90"/>
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
-      <c r="K3" s="155"/>
+      <c r="K3" s="152"/>
     </row>
     <row r="4" spans="1:17" s="89" customFormat="1">
       <c r="A4" s="90"/>
@@ -14866,506 +14822,506 @@
       <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:17" s="89" customFormat="1">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="120"/>
     </row>
     <row r="6" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="122"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
     </row>
     <row r="7" spans="1:17" s="53" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="163"/>
-      <c r="B7" s="164"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="166"/>
+      <c r="A7" s="160"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="163"/>
       <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="53" customFormat="1">
-      <c r="A8" s="163"/>
-      <c r="B8" s="164"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="166"/>
+      <c r="A8" s="160"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="163"/>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:17" s="53" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="167"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="169"/>
+      <c r="A9" s="164"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="166"/>
     </row>
     <row r="10" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="111"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
     </row>
     <row r="11" spans="1:17" s="55" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="170" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="115"/>
+      <c r="A11" s="167" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="110"/>
     </row>
     <row r="12" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="162" t="s">
+      <c r="A12" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="111"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="120"/>
     </row>
     <row r="13" spans="1:17" s="55" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="170" t="s">
+      <c r="A13" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="110"/>
     </row>
     <row r="14" spans="1:17" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="162" t="s">
+      <c r="A14" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="111"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="120"/>
     </row>
     <row r="15" spans="1:17" s="53" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="174" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" s="175"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="176"/>
+      <c r="A15" s="171" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="172"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="173"/>
     </row>
     <row r="16" spans="1:17" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="177" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="179"/>
+        <v>76</v>
+      </c>
+      <c r="C16" s="174" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="176"/>
     </row>
     <row r="17" spans="1:10" s="53" customFormat="1" ht="48.75" customHeight="1">
       <c r="A17" s="56">
         <v>1</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="183" t="s">
-        <v>255</v>
-      </c>
-      <c r="D17" s="204"/>
-      <c r="E17" s="204"/>
-      <c r="F17" s="204"/>
-      <c r="G17" s="204"/>
-      <c r="H17" s="204"/>
-      <c r="I17" s="204"/>
-      <c r="J17" s="205"/>
+        <v>144</v>
+      </c>
+      <c r="C17" s="180" t="s">
+        <v>249</v>
+      </c>
+      <c r="D17" s="199"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="200"/>
     </row>
     <row r="18" spans="1:10" s="53" customFormat="1" ht="85.5" customHeight="1">
       <c r="A18" s="56">
         <v>2</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" s="183" t="s">
-        <v>253</v>
-      </c>
-      <c r="D18" s="204"/>
-      <c r="E18" s="204"/>
-      <c r="F18" s="204"/>
-      <c r="G18" s="204"/>
-      <c r="H18" s="204"/>
-      <c r="I18" s="204"/>
-      <c r="J18" s="205"/>
+        <v>193</v>
+      </c>
+      <c r="C18" s="180" t="s">
+        <v>247</v>
+      </c>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="200"/>
     </row>
     <row r="19" spans="1:10" s="53" customFormat="1" ht="85.5" customHeight="1">
       <c r="A19" s="56">
         <v>2</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" s="183" t="s">
-        <v>253</v>
-      </c>
-      <c r="D19" s="204"/>
-      <c r="E19" s="204"/>
-      <c r="F19" s="204"/>
-      <c r="G19" s="204"/>
-      <c r="H19" s="204"/>
-      <c r="I19" s="204"/>
-      <c r="J19" s="205"/>
+        <v>192</v>
+      </c>
+      <c r="C19" s="180" t="s">
+        <v>247</v>
+      </c>
+      <c r="D19" s="199"/>
+      <c r="E19" s="199"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="200"/>
     </row>
     <row r="20" spans="1:10" s="53" customFormat="1">
       <c r="A20" s="56">
         <v>3</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="187" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="184"/>
-      <c r="E20" s="184"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="184"/>
-      <c r="H20" s="184"/>
-      <c r="I20" s="184"/>
-      <c r="J20" s="185"/>
+        <v>181</v>
+      </c>
+      <c r="C20" s="184" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="181"/>
+      <c r="E20" s="181"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="181"/>
+      <c r="I20" s="181"/>
+      <c r="J20" s="182"/>
     </row>
     <row r="21" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="56">
         <v>4</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="187" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="184"/>
-      <c r="E21" s="184"/>
-      <c r="F21" s="184"/>
-      <c r="G21" s="184"/>
-      <c r="H21" s="184"/>
-      <c r="I21" s="184"/>
-      <c r="J21" s="185"/>
+        <v>183</v>
+      </c>
+      <c r="C21" s="184" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="181"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="181"/>
+      <c r="J21" s="182"/>
     </row>
     <row r="22" spans="1:10" s="53" customFormat="1" ht="32.25" customHeight="1">
       <c r="A22" s="56">
         <v>5</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="C22" s="183" t="s">
-        <v>203</v>
-      </c>
-      <c r="D22" s="184"/>
-      <c r="E22" s="184"/>
-      <c r="F22" s="184"/>
-      <c r="G22" s="184"/>
-      <c r="H22" s="184"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="185"/>
+        <v>185</v>
+      </c>
+      <c r="C22" s="180" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22" s="181"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="182"/>
     </row>
     <row r="23" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="63">
         <v>6</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" s="183" t="s">
-        <v>254</v>
-      </c>
-      <c r="D23" s="184"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="184"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="185"/>
+        <v>187</v>
+      </c>
+      <c r="C23" s="180" t="s">
+        <v>248</v>
+      </c>
+      <c r="D23" s="181"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="181"/>
+      <c r="J23" s="182"/>
     </row>
     <row r="24" spans="1:10" s="53" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A24" s="206"/>
-      <c r="B24" s="207"/>
-      <c r="C24" s="207"/>
-      <c r="D24" s="207"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="207"/>
-      <c r="H24" s="207"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="208"/>
+      <c r="A24" s="201"/>
+      <c r="B24" s="202"/>
+      <c r="C24" s="202"/>
+      <c r="D24" s="202"/>
+      <c r="E24" s="202"/>
+      <c r="F24" s="202"/>
+      <c r="G24" s="202"/>
+      <c r="H24" s="202"/>
+      <c r="I24" s="202"/>
+      <c r="J24" s="203"/>
     </row>
     <row r="25" spans="1:10" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="171" t="s">
+      <c r="A25" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="194"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="194"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="194"/>
-      <c r="G25" s="194"/>
-      <c r="H25" s="194"/>
-      <c r="I25" s="194"/>
-      <c r="J25" s="209"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="191"/>
+      <c r="E25" s="191"/>
+      <c r="F25" s="191"/>
+      <c r="G25" s="191"/>
+      <c r="H25" s="191"/>
+      <c r="I25" s="191"/>
+      <c r="J25" s="204"/>
     </row>
     <row r="26" spans="1:10" s="53" customFormat="1" ht="36" customHeight="1">
-      <c r="A26" s="174" t="s">
-        <v>213</v>
-      </c>
-      <c r="B26" s="175"/>
-      <c r="C26" s="175"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="176"/>
+      <c r="A26" s="171" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="172"/>
+      <c r="C26" s="172"/>
+      <c r="D26" s="172"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="173"/>
     </row>
     <row r="27" spans="1:10" s="53" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="177" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="179"/>
+        <v>76</v>
+      </c>
+      <c r="C27" s="174" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="175"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="175"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="176"/>
     </row>
     <row r="28" spans="1:10" s="53" customFormat="1" ht="51" customHeight="1">
       <c r="A28" s="56">
         <v>1</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="C28" s="183" t="s">
-        <v>262</v>
-      </c>
-      <c r="D28" s="204"/>
-      <c r="E28" s="204"/>
-      <c r="F28" s="204"/>
-      <c r="G28" s="204"/>
-      <c r="H28" s="204"/>
-      <c r="I28" s="204"/>
-      <c r="J28" s="205"/>
+        <v>191</v>
+      </c>
+      <c r="C28" s="180" t="s">
+        <v>256</v>
+      </c>
+      <c r="D28" s="199"/>
+      <c r="E28" s="199"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="199"/>
+      <c r="H28" s="199"/>
+      <c r="I28" s="199"/>
+      <c r="J28" s="200"/>
     </row>
     <row r="29" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A29" s="56">
         <v>2</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="C29" s="183" t="s">
-        <v>201</v>
-      </c>
-      <c r="D29" s="204"/>
-      <c r="E29" s="204"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="204"/>
-      <c r="H29" s="204"/>
-      <c r="I29" s="204"/>
-      <c r="J29" s="205"/>
+        <v>193</v>
+      </c>
+      <c r="C29" s="180" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" s="199"/>
+      <c r="E29" s="199"/>
+      <c r="F29" s="199"/>
+      <c r="G29" s="199"/>
+      <c r="H29" s="199"/>
+      <c r="I29" s="199"/>
+      <c r="J29" s="200"/>
     </row>
     <row r="30" spans="1:10" s="53" customFormat="1">
       <c r="A30" s="56">
         <v>2</v>
       </c>
       <c r="B30" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="180" t="s">
         <v>197</v>
       </c>
-      <c r="C30" s="183" t="s">
-        <v>202</v>
-      </c>
-      <c r="D30" s="204"/>
-      <c r="E30" s="204"/>
-      <c r="F30" s="204"/>
-      <c r="G30" s="204"/>
-      <c r="H30" s="204"/>
-      <c r="I30" s="204"/>
-      <c r="J30" s="205"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="199"/>
+      <c r="I30" s="199"/>
+      <c r="J30" s="200"/>
     </row>
     <row r="31" spans="1:10" s="53" customFormat="1">
       <c r="A31" s="56">
         <v>3</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="C31" s="187" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="185"/>
+        <v>181</v>
+      </c>
+      <c r="C31" s="184" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="181"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="182"/>
     </row>
     <row r="32" spans="1:10" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="56">
         <v>4</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="C32" s="187" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="184"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="184"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="184"/>
-      <c r="I32" s="184"/>
-      <c r="J32" s="185"/>
+        <v>183</v>
+      </c>
+      <c r="C32" s="184" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="181"/>
+      <c r="E32" s="181"/>
+      <c r="F32" s="181"/>
+      <c r="G32" s="181"/>
+      <c r="H32" s="181"/>
+      <c r="I32" s="181"/>
+      <c r="J32" s="182"/>
     </row>
     <row r="33" spans="1:12" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="56">
         <v>5</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="C33" s="187" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="184"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="184"/>
-      <c r="J33" s="185"/>
+        <v>185</v>
+      </c>
+      <c r="C33" s="184" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="181"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="182"/>
     </row>
     <row r="34" spans="1:12" s="53" customFormat="1" ht="50.25" customHeight="1">
       <c r="A34" s="63">
         <v>6</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="C34" s="183" t="s">
-        <v>263</v>
-      </c>
-      <c r="D34" s="184"/>
-      <c r="E34" s="184"/>
-      <c r="F34" s="184"/>
-      <c r="G34" s="184"/>
-      <c r="H34" s="184"/>
-      <c r="I34" s="184"/>
-      <c r="J34" s="185"/>
+        <v>199</v>
+      </c>
+      <c r="C34" s="180" t="s">
+        <v>257</v>
+      </c>
+      <c r="D34" s="181"/>
+      <c r="E34" s="181"/>
+      <c r="F34" s="181"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="181"/>
+      <c r="I34" s="181"/>
+      <c r="J34" s="182"/>
     </row>
     <row r="35" spans="1:12" s="53" customFormat="1" ht="27" customHeight="1">
-      <c r="A35" s="159"/>
-      <c r="B35" s="210"/>
-      <c r="C35" s="210"/>
-      <c r="D35" s="210"/>
-      <c r="E35" s="210"/>
-      <c r="F35" s="210"/>
-      <c r="G35" s="210"/>
-      <c r="H35" s="210"/>
-      <c r="I35" s="210"/>
-      <c r="J35" s="211"/>
+      <c r="A35" s="156"/>
+      <c r="B35" s="205"/>
+      <c r="C35" s="205"/>
+      <c r="D35" s="205"/>
+      <c r="E35" s="205"/>
+      <c r="F35" s="205"/>
+      <c r="G35" s="205"/>
+      <c r="H35" s="205"/>
+      <c r="I35" s="205"/>
+      <c r="J35" s="206"/>
     </row>
     <row r="36" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="171" t="s">
+      <c r="A36" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="172"/>
-      <c r="C36" s="172"/>
-      <c r="D36" s="172"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="173"/>
+      <c r="B36" s="169"/>
+      <c r="C36" s="169"/>
+      <c r="D36" s="169"/>
+      <c r="E36" s="169"/>
+      <c r="F36" s="169"/>
+      <c r="G36" s="169"/>
+      <c r="H36" s="169"/>
+      <c r="I36" s="169"/>
+      <c r="J36" s="170"/>
     </row>
     <row r="37" spans="1:12" s="79" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="57" t="s">
@@ -15380,14 +15336,14 @@
       <c r="D37" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="195" t="s">
+      <c r="E37" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="196"/>
-      <c r="G37" s="196"/>
-      <c r="H37" s="196"/>
-      <c r="I37" s="196"/>
-      <c r="J37" s="196"/>
+      <c r="F37" s="193"/>
+      <c r="G37" s="193"/>
+      <c r="H37" s="193"/>
+      <c r="I37" s="193"/>
+      <c r="J37" s="193"/>
       <c r="K37" s="53"/>
       <c r="L37" s="53"/>
     </row>
@@ -15396,30 +15352,30 @@
         <v>1</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="62"/>
-      <c r="E38" s="145"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
+      <c r="E38" s="142"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
     </row>
     <row r="39" spans="1:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A39" s="156" t="s">
-        <v>211</v>
-      </c>
-      <c r="B39" s="157"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="157"/>
-      <c r="H39" s="157"/>
-      <c r="I39" s="157"/>
-      <c r="J39" s="158"/>
+      <c r="A39" s="153" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" s="154"/>
+      <c r="C39" s="154"/>
+      <c r="D39" s="154"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="154"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="154"/>
+      <c r="J39" s="155"/>
       <c r="K39" s="53"/>
       <c r="L39" s="53"/>
     </row>
@@ -15428,152 +15384,152 @@
         <v>1</v>
       </c>
       <c r="B40" s="68" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C40" s="88" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="87"/>
-      <c r="E40" s="149" t="s">
-        <v>264</v>
-      </c>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="151"/>
+      <c r="E40" s="146" t="s">
+        <v>258</v>
+      </c>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="148"/>
     </row>
     <row r="41" spans="1:12" s="53" customFormat="1" ht="32.25" customHeight="1">
       <c r="A41" s="70">
         <v>2</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C41" s="88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" s="86"/>
-      <c r="E41" s="132" t="s">
-        <v>250</v>
-      </c>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="115"/>
+      <c r="E41" s="129" t="s">
+        <v>244</v>
+      </c>
+      <c r="F41" s="109"/>
+      <c r="G41" s="109"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="110"/>
     </row>
     <row r="42" spans="1:12" s="53" customFormat="1" ht="100.5" customHeight="1">
       <c r="A42" s="70">
         <v>2</v>
       </c>
       <c r="B42" s="84" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C42" s="88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D42" s="86"/>
-      <c r="E42" s="132" t="s">
-        <v>265</v>
-      </c>
-      <c r="F42" s="114"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="114"/>
-      <c r="J42" s="115"/>
+      <c r="E42" s="129" t="s">
+        <v>259</v>
+      </c>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="110"/>
     </row>
     <row r="43" spans="1:12" s="53" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A43" s="142" t="s">
+      <c r="A43" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="143"/>
-      <c r="C43" s="143"/>
-      <c r="D43" s="143"/>
-      <c r="E43" s="143"/>
-      <c r="F43" s="143"/>
-      <c r="G43" s="143"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="143"/>
-      <c r="J43" s="144"/>
+      <c r="B43" s="140"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="140"/>
+      <c r="F43" s="140"/>
+      <c r="G43" s="140"/>
+      <c r="H43" s="140"/>
+      <c r="I43" s="140"/>
+      <c r="J43" s="141"/>
     </row>
     <row r="44" spans="1:12" s="53" customFormat="1" ht="16.5" customHeight="1">
       <c r="A44" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="140" t="s">
+      <c r="B44" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="141"/>
-      <c r="D44" s="132" t="s">
+      <c r="C44" s="138"/>
+      <c r="D44" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="115"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="109"/>
+      <c r="J44" s="110"/>
     </row>
     <row r="45" spans="1:12" s="55" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A45" s="137"/>
-      <c r="B45" s="212"/>
-      <c r="C45" s="212"/>
-      <c r="D45" s="212"/>
-      <c r="E45" s="212"/>
-      <c r="F45" s="212"/>
-      <c r="G45" s="212"/>
-      <c r="H45" s="212"/>
-      <c r="I45" s="212"/>
-      <c r="J45" s="213"/>
+      <c r="A45" s="134"/>
+      <c r="B45" s="207"/>
+      <c r="C45" s="207"/>
+      <c r="D45" s="207"/>
+      <c r="E45" s="207"/>
+      <c r="F45" s="207"/>
+      <c r="G45" s="207"/>
+      <c r="H45" s="207"/>
+      <c r="I45" s="207"/>
+      <c r="J45" s="208"/>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1" ht="28.5" customHeight="1">
       <c r="A46" s="70"/>
-      <c r="B46" s="135"/>
-      <c r="C46" s="136"/>
-      <c r="D46" s="132"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="115"/>
+      <c r="B46" s="132"/>
+      <c r="C46" s="133"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="109"/>
+      <c r="G46" s="109"/>
+      <c r="H46" s="109"/>
+      <c r="I46" s="109"/>
+      <c r="J46" s="110"/>
     </row>
     <row r="47" spans="1:12" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A47" s="70"/>
-      <c r="B47" s="135"/>
-      <c r="C47" s="136"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="115"/>
+      <c r="B47" s="132"/>
+      <c r="C47" s="133"/>
+      <c r="D47" s="129"/>
+      <c r="E47" s="109"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="109"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="109"/>
+      <c r="J47" s="110"/>
     </row>
     <row r="48" spans="1:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A48" s="137"/>
-      <c r="B48" s="212"/>
-      <c r="C48" s="212"/>
-      <c r="D48" s="212"/>
-      <c r="E48" s="212"/>
-      <c r="F48" s="212"/>
-      <c r="G48" s="212"/>
-      <c r="H48" s="212"/>
-      <c r="I48" s="212"/>
-      <c r="J48" s="213"/>
+      <c r="A48" s="134"/>
+      <c r="B48" s="207"/>
+      <c r="C48" s="207"/>
+      <c r="D48" s="207"/>
+      <c r="E48" s="207"/>
+      <c r="F48" s="207"/>
+      <c r="G48" s="207"/>
+      <c r="H48" s="207"/>
+      <c r="I48" s="207"/>
+      <c r="J48" s="208"/>
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="70"/>
-      <c r="B49" s="135"/>
-      <c r="C49" s="136"/>
-      <c r="D49" s="132"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="114"/>
-      <c r="I49" s="114"/>
-      <c r="J49" s="115"/>
+      <c r="B49" s="132"/>
+      <c r="C49" s="133"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="110"/>
     </row>
     <row r="50" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="74" t="s">
@@ -15596,14 +15552,14 @@
       <c r="B51" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="135"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="114"/>
-      <c r="H51" s="114"/>
-      <c r="I51" s="114"/>
-      <c r="J51" s="115"/>
+      <c r="C51" s="132"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="109"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="109"/>
+      <c r="I51" s="109"/>
+      <c r="J51" s="110"/>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1">
       <c r="A52" s="70">
@@ -15612,14 +15568,14 @@
       <c r="B52" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="153"/>
-      <c r="D52" s="153"/>
-      <c r="E52" s="153"/>
-      <c r="F52" s="153"/>
-      <c r="G52" s="153"/>
-      <c r="H52" s="153"/>
-      <c r="I52" s="153"/>
-      <c r="J52" s="153"/>
+      <c r="C52" s="150"/>
+      <c r="D52" s="150"/>
+      <c r="E52" s="150"/>
+      <c r="F52" s="150"/>
+      <c r="G52" s="150"/>
+      <c r="H52" s="150"/>
+      <c r="I52" s="150"/>
+      <c r="J52" s="150"/>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1"/>
     <row r="54" spans="1:10" ht="15" customHeight="1"/>
